--- a/KineticModel/test.xlsx
+++ b/KineticModel/test.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="4545" windowWidth="16275" windowHeight="3300" firstSheet="4" activeTab="15"/>
+    <workbookView xWindow="240" yWindow="4545" windowWidth="16275" windowHeight="3300" firstSheet="5" activeTab="16"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -23,13 +23,14 @@
     <sheet name="Sheet3" sheetId="9" r:id="rId14"/>
     <sheet name="Sheet7" sheetId="11" r:id="rId15"/>
     <sheet name="N2m" sheetId="17" r:id="rId16"/>
+    <sheet name="EcoliCCM" sheetId="18" r:id="rId17"/>
   </sheets>
   <calcPr calcId="145621"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2102" uniqueCount="1199">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2188" uniqueCount="1206">
   <si>
     <t>Name</t>
   </si>
@@ -3647,6 +3648,27 @@
   </si>
   <si>
     <t>q8h2[c]</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[c] : 13pdg + adp &lt;==&gt; 3pg + atp </t>
+  </si>
+  <si>
+    <t>[c] : 3pg &lt;==&gt; 2pg</t>
+  </si>
+  <si>
+    <t>[c] : 1.496 3pg + 3.7478 accoa + 59.8100 atp + 0.0709 f6p + 0.1290 g3p + 0.2050 g6p + 59.8100 h2o + 3.5470 nad + 13.0279 nadph + 1.7867 oa + 0.5191 pep + 2.8328 pyr ---&gt; Biomass + 59.8100 adp + 4.1182 akg + 3.7478 coa + 59.8100 h + 3.5470 nadh + 13.0279 nadp + 59.8100 pi</t>
+  </si>
+  <si>
+    <t>h2o[c]</t>
+  </si>
+  <si>
+    <t>h2o[e]</t>
+  </si>
+  <si>
+    <t>oa[e]</t>
+  </si>
+  <si>
+    <t>accoa[e]</t>
   </si>
 </sst>
 </file>
@@ -8828,8 +8850,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:P12"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H6" sqref="H6"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="H7" sqref="H7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -9247,6 +9269,729 @@
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet17.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:P33"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="H16" sqref="H16"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="5" max="5" width="11.42578125" customWidth="1"/>
+    <col min="7" max="7" width="11.42578125" customWidth="1"/>
+    <col min="8" max="8" width="14.7109375" customWidth="1"/>
+    <col min="15" max="15" width="13.85546875" customWidth="1"/>
+    <col min="16" max="16" width="12.85546875" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:16" s="28" customFormat="1" ht="18" x14ac:dyDescent="0.35">
+      <c r="A1" s="28" t="s">
+        <v>565</v>
+      </c>
+      <c r="B1" s="28" t="s">
+        <v>728</v>
+      </c>
+      <c r="C1" s="28" t="s">
+        <v>731</v>
+      </c>
+      <c r="D1" s="28" t="s">
+        <v>729</v>
+      </c>
+      <c r="E1" s="24" t="s">
+        <v>730</v>
+      </c>
+      <c r="F1" s="18" t="s">
+        <v>985</v>
+      </c>
+      <c r="G1" s="30" t="s">
+        <v>986</v>
+      </c>
+      <c r="H1" s="30" t="s">
+        <v>861</v>
+      </c>
+      <c r="I1" s="28" t="s">
+        <v>608</v>
+      </c>
+      <c r="J1" s="28" t="s">
+        <v>609</v>
+      </c>
+      <c r="K1" s="28" t="s">
+        <v>654</v>
+      </c>
+      <c r="L1" s="28" t="s">
+        <v>656</v>
+      </c>
+      <c r="M1" s="28" t="s">
+        <v>657</v>
+      </c>
+      <c r="N1" s="28" t="s">
+        <v>726</v>
+      </c>
+      <c r="O1" s="28" t="s">
+        <v>838</v>
+      </c>
+      <c r="P1" s="28" t="s">
+        <v>839</v>
+      </c>
+    </row>
+    <row r="2" spans="1:16" s="28" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A2" s="14" t="s">
+        <v>926</v>
+      </c>
+      <c r="B2" s="14"/>
+      <c r="E2" s="31"/>
+      <c r="F2" s="23"/>
+      <c r="G2" s="29">
+        <v>-10</v>
+      </c>
+      <c r="H2" s="14" t="s">
+        <v>1156</v>
+      </c>
+      <c r="N2" s="28" t="s">
+        <v>1157</v>
+      </c>
+      <c r="O2" s="28">
+        <v>0</v>
+      </c>
+      <c r="P2" s="28">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="3" spans="1:16" s="28" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A3" s="14" t="s">
+        <v>944</v>
+      </c>
+      <c r="B3" s="14"/>
+      <c r="E3" s="31">
+        <v>4581156.7432856048</v>
+      </c>
+      <c r="F3" s="23">
+        <v>-9.1</v>
+      </c>
+      <c r="G3" s="29">
+        <v>10</v>
+      </c>
+      <c r="H3" s="14" t="s">
+        <v>1155</v>
+      </c>
+      <c r="N3" s="28" t="s">
+        <v>1023</v>
+      </c>
+      <c r="O3" s="28">
+        <v>0.128</v>
+      </c>
+      <c r="P3" s="28">
+        <v>0.128</v>
+      </c>
+    </row>
+    <row r="4" spans="1:16" s="28" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A4" s="14" t="s">
+        <v>587</v>
+      </c>
+      <c r="B4" s="14"/>
+      <c r="E4" s="31">
+        <v>3.8510595392951203</v>
+      </c>
+      <c r="F4" s="23">
+        <v>-0.8</v>
+      </c>
+      <c r="G4" s="29">
+        <v>4.8609</v>
+      </c>
+      <c r="H4" s="14" t="s">
+        <v>891</v>
+      </c>
+      <c r="N4" s="28" t="s">
+        <v>1096</v>
+      </c>
+      <c r="O4" s="28">
+        <v>0</v>
+      </c>
+      <c r="P4" s="28">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="5" spans="1:16" s="28" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A5" s="14" t="s">
+        <v>590</v>
+      </c>
+      <c r="B5" s="14"/>
+      <c r="E5" s="31">
+        <v>604.65285404763836</v>
+      </c>
+      <c r="F5" s="23">
+        <v>-3.8</v>
+      </c>
+      <c r="G5" s="29">
+        <v>7.4774000000000003</v>
+      </c>
+      <c r="H5" s="14" t="s">
+        <v>889</v>
+      </c>
+      <c r="N5" s="28" t="s">
+        <v>1024</v>
+      </c>
+      <c r="O5" s="28">
+        <v>0.5</v>
+      </c>
+      <c r="P5" s="28">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="6" spans="1:16" s="28" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A6" s="14" t="s">
+        <v>588</v>
+      </c>
+      <c r="B6" s="14"/>
+      <c r="E6" s="31">
+        <v>112.08069512728699</v>
+      </c>
+      <c r="F6" s="23">
+        <v>-7</v>
+      </c>
+      <c r="G6" s="29">
+        <v>0</v>
+      </c>
+      <c r="H6" s="14" t="s">
+        <v>872</v>
+      </c>
+      <c r="N6" s="28" t="s">
+        <v>1027</v>
+      </c>
+      <c r="O6" s="28">
+        <v>2.0799999999999998E-3</v>
+      </c>
+      <c r="P6" s="28">
+        <v>2.0799999999999998E-3</v>
+      </c>
+    </row>
+    <row r="7" spans="1:16" s="28" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A7" s="14" t="s">
+        <v>589</v>
+      </c>
+      <c r="B7" s="14"/>
+      <c r="E7" s="31">
+        <v>8.4275973191444799E-4</v>
+      </c>
+      <c r="F7" s="23">
+        <v>4.2</v>
+      </c>
+      <c r="G7" s="29">
+        <v>7.4774000000000003</v>
+      </c>
+      <c r="H7" s="14" t="s">
+        <v>871</v>
+      </c>
+      <c r="N7" s="28" t="s">
+        <v>1028</v>
+      </c>
+      <c r="O7" s="28">
+        <v>0.47299999999999998</v>
+      </c>
+      <c r="P7" s="28">
+        <v>0.47299999999999998</v>
+      </c>
+    </row>
+    <row r="8" spans="1:16" s="28" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A8" s="14" t="s">
+        <v>943</v>
+      </c>
+      <c r="B8" s="14"/>
+      <c r="E8" s="31">
+        <v>1.1835797581124567</v>
+      </c>
+      <c r="F8" s="23">
+        <v>-0.1</v>
+      </c>
+      <c r="G8" s="29">
+        <v>16.023499999999999</v>
+      </c>
+      <c r="H8" s="14" t="s">
+        <v>1154</v>
+      </c>
+      <c r="N8" s="28" t="s">
+        <v>1138</v>
+      </c>
+      <c r="O8" s="28">
+        <v>1E-4</v>
+      </c>
+      <c r="P8" s="28">
+        <v>0.01</v>
+      </c>
+    </row>
+    <row r="9" spans="1:16" s="28" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A9" s="14" t="s">
+        <v>593</v>
+      </c>
+      <c r="B9" s="14"/>
+      <c r="E9" s="31">
+        <v>8.9221430939942625E-3</v>
+      </c>
+      <c r="F9" s="23">
+        <v>-2.8</v>
+      </c>
+      <c r="G9" s="29">
+        <v>16.023499999999999</v>
+      </c>
+      <c r="H9" s="14" t="s">
+        <v>1199</v>
+      </c>
+      <c r="N9" s="28" t="s">
+        <v>1029</v>
+      </c>
+      <c r="O9" s="28">
+        <v>0</v>
+      </c>
+      <c r="P9" s="28">
+        <v>0.05</v>
+      </c>
+    </row>
+    <row r="10" spans="1:16" s="28" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A10" s="14" t="s">
+        <v>615</v>
+      </c>
+      <c r="B10" s="14"/>
+      <c r="E10" s="31">
+        <v>1</v>
+      </c>
+      <c r="F10" s="23">
+        <v>0</v>
+      </c>
+      <c r="G10" s="29">
+        <v>14.716100000000001</v>
+      </c>
+      <c r="H10" s="14" t="s">
+        <v>1200</v>
+      </c>
+      <c r="N10" s="28" t="s">
+        <v>1026</v>
+      </c>
+      <c r="O10" s="28">
+        <v>0</v>
+      </c>
+      <c r="P10" s="28">
+        <v>0.05</v>
+      </c>
+    </row>
+    <row r="11" spans="1:16" s="28" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A11" s="14" t="s">
+        <v>594</v>
+      </c>
+      <c r="B11" s="14"/>
+      <c r="E11" s="31">
+        <v>4.5580361179955871</v>
+      </c>
+      <c r="F11" s="23">
+        <v>-0.9</v>
+      </c>
+      <c r="G11" s="29">
+        <v>14.716100000000001</v>
+      </c>
+      <c r="H11" s="14" t="s">
+        <v>870</v>
+      </c>
+      <c r="N11" s="28" t="s">
+        <v>1039</v>
+      </c>
+      <c r="O11" s="28">
+        <v>1.37</v>
+      </c>
+      <c r="P11" s="28">
+        <v>1.37</v>
+      </c>
+    </row>
+    <row r="12" spans="1:16" s="28" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A12" s="14" t="s">
+        <v>607</v>
+      </c>
+      <c r="B12" s="14"/>
+      <c r="E12" s="31">
+        <v>94936.229932937829</v>
+      </c>
+      <c r="F12" s="23">
+        <v>-6.8</v>
+      </c>
+      <c r="G12" s="29">
+        <v>2.5043000000000002</v>
+      </c>
+      <c r="H12" s="14" t="s">
+        <v>1169</v>
+      </c>
+      <c r="N12" s="28" t="s">
+        <v>1046</v>
+      </c>
+      <c r="O12" s="28">
+        <v>0</v>
+      </c>
+      <c r="P12" s="28">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="13" spans="1:16" s="28" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A13" s="14" t="s">
+        <v>965</v>
+      </c>
+      <c r="B13" s="14"/>
+      <c r="E13" s="31">
+        <v>0.71384667623971898</v>
+      </c>
+      <c r="F13" s="23">
+        <v>0.2</v>
+      </c>
+      <c r="G13" s="29">
+        <v>0</v>
+      </c>
+      <c r="H13" s="14" t="s">
+        <v>1170</v>
+      </c>
+      <c r="N13" s="28" t="s">
+        <v>1042</v>
+      </c>
+      <c r="O13" s="28">
+        <v>0</v>
+      </c>
+      <c r="P13" s="28">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="14" spans="1:16" s="28" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A14" s="14" t="s">
+        <v>595</v>
+      </c>
+      <c r="B14" s="14"/>
+      <c r="E14" s="31">
+        <v>7576.5072679615205</v>
+      </c>
+      <c r="F14" s="23">
+        <v>-5.3</v>
+      </c>
+      <c r="G14" s="29">
+        <v>1.7582</v>
+      </c>
+      <c r="H14" s="14" t="s">
+        <v>895</v>
+      </c>
+      <c r="N14" s="28" t="s">
+        <v>1040</v>
+      </c>
+      <c r="O14" s="28">
+        <v>0</v>
+      </c>
+      <c r="P14" s="28">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="15" spans="1:16" s="28" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A15" s="14" t="s">
+        <v>597</v>
+      </c>
+      <c r="B15" s="14"/>
+      <c r="E15" s="31">
+        <v>7.5573641589575944</v>
+      </c>
+      <c r="F15" s="23">
+        <v>-1.2</v>
+      </c>
+      <c r="G15" s="29">
+        <v>0</v>
+      </c>
+      <c r="H15" s="14" t="s">
+        <v>978</v>
+      </c>
+      <c r="N15" s="28" t="s">
+        <v>1036</v>
+      </c>
+      <c r="O15" s="28">
+        <v>0</v>
+      </c>
+      <c r="P15" s="28">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="16" spans="1:16" s="28" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A16" s="14" t="s">
+        <v>528</v>
+      </c>
+      <c r="B16" s="14"/>
+      <c r="E16" s="31">
+        <v>1189583.4630809485</v>
+      </c>
+      <c r="F16" s="23">
+        <v>-8.3000000000000007</v>
+      </c>
+      <c r="G16" s="29">
+        <v>9.2825000000000006</v>
+      </c>
+      <c r="H16" s="14" t="s">
+        <v>888</v>
+      </c>
+      <c r="N16" s="28" t="s">
+        <v>1034</v>
+      </c>
+      <c r="O16" s="28">
+        <v>0</v>
+      </c>
+      <c r="P16" s="28">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="17" spans="1:16" s="28" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A17" s="29" t="s">
+        <v>959</v>
+      </c>
+      <c r="B17" s="14"/>
+      <c r="E17" s="26">
+        <v>5449668303594.3379</v>
+      </c>
+      <c r="F17" s="21">
+        <v>-17.399999999999999</v>
+      </c>
+      <c r="G17" s="29">
+        <v>38.534599999999998</v>
+      </c>
+      <c r="H17" s="29" t="s">
+        <v>984</v>
+      </c>
+      <c r="N17" s="28" t="s">
+        <v>1136</v>
+      </c>
+      <c r="O17" s="28">
+        <v>0</v>
+      </c>
+      <c r="P17" s="28">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="18" spans="1:16" s="28" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A18" s="14" t="s">
+        <v>974</v>
+      </c>
+      <c r="B18" s="14"/>
+      <c r="E18" s="31">
+        <v>0.60312511374657485</v>
+      </c>
+      <c r="F18" s="23">
+        <v>0.3</v>
+      </c>
+      <c r="G18" s="29">
+        <v>0</v>
+      </c>
+      <c r="H18" s="14" t="s">
+        <v>980</v>
+      </c>
+      <c r="N18" s="28" t="s">
+        <v>1047</v>
+      </c>
+      <c r="O18" s="28">
+        <v>0</v>
+      </c>
+      <c r="P18" s="28">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="19" spans="1:16" s="28" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A19" s="14" t="s">
+        <v>960</v>
+      </c>
+      <c r="B19" s="29"/>
+      <c r="E19" s="31">
+        <v>1.6580307753859953</v>
+      </c>
+      <c r="F19" s="23">
+        <v>-0.3</v>
+      </c>
+      <c r="G19" s="29">
+        <v>0</v>
+      </c>
+      <c r="H19" s="14" t="s">
+        <v>885</v>
+      </c>
+      <c r="N19" s="28" t="s">
+        <v>1135</v>
+      </c>
+      <c r="O19" s="28">
+        <v>0</v>
+      </c>
+      <c r="P19" s="28">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="20" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A20" s="29" t="s">
+        <v>849</v>
+      </c>
+      <c r="B20" s="14"/>
+      <c r="C20" s="28"/>
+      <c r="D20" s="28"/>
+      <c r="E20" s="31"/>
+      <c r="F20" s="28"/>
+      <c r="G20" s="29">
+        <v>0.87390000000000001</v>
+      </c>
+      <c r="H20" s="29" t="s">
+        <v>1201</v>
+      </c>
+      <c r="N20" t="s">
+        <v>1133</v>
+      </c>
+      <c r="O20" s="28">
+        <v>0</v>
+      </c>
+      <c r="P20">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="21" spans="1:16" s="28" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="N21" s="28" t="s">
+        <v>1033</v>
+      </c>
+      <c r="O21" s="28">
+        <v>9.6300000000000008</v>
+      </c>
+      <c r="P21" s="28">
+        <v>9.6300000000000008</v>
+      </c>
+    </row>
+    <row r="22" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="N22" t="s">
+        <v>1132</v>
+      </c>
+      <c r="O22">
+        <v>0</v>
+      </c>
+      <c r="P22">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="23" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="N23" t="s">
+        <v>1153</v>
+      </c>
+      <c r="O23" s="28">
+        <v>0</v>
+      </c>
+      <c r="P23">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="24" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="N24" t="s">
+        <v>1173</v>
+      </c>
+      <c r="O24" s="28">
+        <v>0</v>
+      </c>
+      <c r="P24">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="25" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="N25" t="s">
+        <v>1037</v>
+      </c>
+      <c r="O25" s="28">
+        <v>0</v>
+      </c>
+      <c r="P25">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="26" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="N26" t="s">
+        <v>1038</v>
+      </c>
+      <c r="O26" s="28">
+        <v>0</v>
+      </c>
+      <c r="P26">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="27" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="N27" t="s">
+        <v>1202</v>
+      </c>
+      <c r="O27" s="28">
+        <v>0</v>
+      </c>
+      <c r="P27">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="28" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="N28" t="s">
+        <v>1203</v>
+      </c>
+      <c r="O28" s="28">
+        <v>0</v>
+      </c>
+      <c r="P28">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="29" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="N29" t="s">
+        <v>1015</v>
+      </c>
+      <c r="O29" s="28">
+        <v>0</v>
+      </c>
+      <c r="P29">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="30" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="N30" t="s">
+        <v>1204</v>
+      </c>
+      <c r="O30" s="28">
+        <v>0</v>
+      </c>
+      <c r="P30">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="31" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="N31" t="s">
+        <v>1205</v>
+      </c>
+      <c r="O31" s="28">
+        <v>0</v>
+      </c>
+      <c r="P31">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="32" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="N32" t="s">
+        <v>1197</v>
+      </c>
+      <c r="O32" s="28">
+        <v>0</v>
+      </c>
+      <c r="P32">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="33" spans="14:16" x14ac:dyDescent="0.25">
+      <c r="N33" t="s">
+        <v>1198</v>
+      </c>
+      <c r="O33" s="28">
+        <v>0</v>
+      </c>
+      <c r="P33">
+        <v>0.5</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 
@@ -53758,8 +54503,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:P128"/>
   <sheetViews>
-    <sheetView topLeftCell="G1" workbookViewId="0">
-      <selection activeCell="N40" sqref="N40"/>
+    <sheetView topLeftCell="A52" workbookViewId="0">
+      <selection activeCell="H58" sqref="H58"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -56162,6 +56907,7 @@
     <sortCondition ref="N2:N57"/>
   </sortState>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 

--- a/KineticModel/test.xlsx
+++ b/KineticModel/test.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="4545" windowWidth="16275" windowHeight="3300" firstSheet="5" activeTab="16"/>
+    <workbookView xWindow="240" yWindow="4545" windowWidth="16275" windowHeight="3300" firstSheet="6" activeTab="18"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -23,14 +23,17 @@
     <sheet name="Sheet3" sheetId="9" r:id="rId14"/>
     <sheet name="Sheet7" sheetId="11" r:id="rId15"/>
     <sheet name="N2m" sheetId="17" r:id="rId16"/>
-    <sheet name="EcoliCCM" sheetId="18" r:id="rId17"/>
+    <sheet name="ecoliccm" sheetId="18" r:id="rId17"/>
+    <sheet name="Sheet9" sheetId="19" r:id="rId18"/>
+    <sheet name="ecoliT1" sheetId="20" r:id="rId19"/>
+    <sheet name="Sheet11" sheetId="21" r:id="rId20"/>
   </sheets>
   <calcPr calcId="145621"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2188" uniqueCount="1206">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2336" uniqueCount="1236">
   <si>
     <t>Name</t>
   </si>
@@ -3669,6 +3672,96 @@
   </si>
   <si>
     <t>accoa[e]</t>
+  </si>
+  <si>
+    <t>akg[c] &lt;==&gt; akg[e]</t>
+  </si>
+  <si>
+    <t>EX_akg</t>
+  </si>
+  <si>
+    <t xml:space="preserve">h2o[c] &lt;==&gt; h2o[e] </t>
+  </si>
+  <si>
+    <t>EX_accoa</t>
+  </si>
+  <si>
+    <t>accoa[c] &lt;==&gt; accoa[e]</t>
+  </si>
+  <si>
+    <t>EX_h</t>
+  </si>
+  <si>
+    <t>h[c] &lt;==&gt; h[e]</t>
+  </si>
+  <si>
+    <t>h[e]</t>
+  </si>
+  <si>
+    <t>dhap[c] &lt;==&gt; dhap[e]</t>
+  </si>
+  <si>
+    <t>EX_dhap</t>
+  </si>
+  <si>
+    <t>G3P_ex</t>
+  </si>
+  <si>
+    <t>[c] : g3p + nad + pi + adp &lt;==&gt; pep + h + nadh + atp + h2o</t>
+  </si>
+  <si>
+    <t>[c] : 59.8100 atp + 0.0709 f6p + 0.1290 g3p + 0.2050 g6p + 59.8100 h2o + 3.5470 nad + 13.0279 nadph + 7.5496 pep + 2.8328 pyr ---&gt; Biomass + 59.8100 adp + 7.8660 akg + 59.8100 h + 3.5470 nadh + 13.0279 nadp + 59.8100 pi</t>
+  </si>
+  <si>
+    <t>4 h[c] + nadh[c] --&gt; 3 h[e] + nad[c]</t>
+  </si>
+  <si>
+    <t>pi[c] &lt;==&gt; pi[e]</t>
+  </si>
+  <si>
+    <t>pyr[c] &lt;==&gt; pyr[e]</t>
+  </si>
+  <si>
+    <t>EX_pep</t>
+  </si>
+  <si>
+    <t>pep[c] &lt;==&gt; pep[e]</t>
+  </si>
+  <si>
+    <t>dhap[e]</t>
+  </si>
+  <si>
+    <t>pi[e]</t>
+  </si>
+  <si>
+    <t>pep[e]</t>
+  </si>
+  <si>
+    <t>pyr[e]</t>
+  </si>
+  <si>
+    <t>h2o[c] &lt;==&gt; h2o[e]</t>
+  </si>
+  <si>
+    <t>akg[e]</t>
+  </si>
+  <si>
+    <t>0.432,6000</t>
+  </si>
+  <si>
+    <t>[c] : fdp &lt;==&gt; g3p</t>
+  </si>
+  <si>
+    <t>[c] : g3p + pi + adp &lt;==&gt; pep + atp</t>
+  </si>
+  <si>
+    <t>EX_pi</t>
+  </si>
+  <si>
+    <t>EX_pyr</t>
+  </si>
+  <si>
+    <t>[c] : 59.8001 atp + 0.0709 f6p + 0.1290 g3p + 0.2050 g6p + 7.5496 pep + 2.8328 pyr ---&gt; Biomass + 59.8001 adp + 59.8001 pi + 59.8001 h</t>
   </si>
 </sst>
 </file>
@@ -3771,7 +3864,7 @@
     <xf numFmtId="0" fontId="2" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="3" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="32">
+  <cellXfs count="33">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1"/>
     <xf numFmtId="164" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
@@ -3804,6 +3897,7 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="164" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1" applyFont="1" applyFill="1" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="3">
     <cellStyle name="Bad" xfId="2" builtinId="27"/>
@@ -6196,7 +6290,7 @@
   <dimension ref="A1:P60"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="H2" sqref="H2"/>
+      <selection activeCell="H38" sqref="H38"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -9274,17 +9368,17 @@
 
 <file path=xl/worksheets/sheet17.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:P33"/>
+  <dimension ref="A1:P34"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H16" sqref="H16"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="O17" sqref="O17:P17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="5" max="5" width="11.42578125" customWidth="1"/>
     <col min="7" max="7" width="11.42578125" customWidth="1"/>
-    <col min="8" max="8" width="14.7109375" customWidth="1"/>
+    <col min="8" max="8" width="31.5703125" customWidth="1"/>
     <col min="15" max="15" width="13.85546875" customWidth="1"/>
     <col min="16" max="16" width="12.85546875" customWidth="1"/>
   </cols>
@@ -9341,25 +9435,29 @@
     </row>
     <row r="2" spans="1:16" s="28" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A2" s="14" t="s">
-        <v>926</v>
+        <v>930</v>
       </c>
       <c r="B2" s="14"/>
-      <c r="E2" s="31"/>
-      <c r="F2" s="23"/>
+      <c r="E2" s="31">
+        <v>0</v>
+      </c>
+      <c r="F2" s="23">
+        <v>0</v>
+      </c>
       <c r="G2" s="29">
-        <v>-10</v>
+        <v>29.175799999999999</v>
       </c>
       <c r="H2" s="14" t="s">
-        <v>1156</v>
+        <v>1208</v>
       </c>
       <c r="N2" s="28" t="s">
-        <v>1157</v>
+        <v>1153</v>
       </c>
       <c r="O2" s="28">
         <v>0</v>
       </c>
       <c r="P2" s="28">
-        <v>20</v>
+        <v>0.5</v>
       </c>
     </row>
     <row r="3" spans="1:16" s="28" customFormat="1" x14ac:dyDescent="0.25">
@@ -9380,13 +9478,13 @@
         <v>1155</v>
       </c>
       <c r="N3" s="28" t="s">
-        <v>1023</v>
+        <v>1132</v>
       </c>
       <c r="O3" s="28">
-        <v>0.128</v>
+        <v>0</v>
       </c>
       <c r="P3" s="28">
-        <v>0.128</v>
+        <v>0.5</v>
       </c>
     </row>
     <row r="4" spans="1:16" s="28" customFormat="1" x14ac:dyDescent="0.25">
@@ -9407,7 +9505,7 @@
         <v>891</v>
       </c>
       <c r="N4" s="28" t="s">
-        <v>1096</v>
+        <v>1133</v>
       </c>
       <c r="O4" s="28">
         <v>0</v>
@@ -9434,10 +9532,10 @@
         <v>889</v>
       </c>
       <c r="N5" s="28" t="s">
-        <v>1024</v>
+        <v>1015</v>
       </c>
       <c r="O5" s="28">
-        <v>0.5</v>
+        <v>0</v>
       </c>
       <c r="P5" s="28">
         <v>0.5</v>
@@ -9461,13 +9559,13 @@
         <v>872</v>
       </c>
       <c r="N6" s="28" t="s">
-        <v>1027</v>
+        <v>1205</v>
       </c>
       <c r="O6" s="28">
-        <v>2.0799999999999998E-3</v>
+        <v>0</v>
       </c>
       <c r="P6" s="28">
-        <v>2.0799999999999998E-3</v>
+        <v>0.5</v>
       </c>
     </row>
     <row r="7" spans="1:16" s="28" customFormat="1" x14ac:dyDescent="0.25">
@@ -9488,13 +9586,13 @@
         <v>871</v>
       </c>
       <c r="N7" s="28" t="s">
-        <v>1028</v>
+        <v>1036</v>
       </c>
       <c r="O7" s="28">
-        <v>0.47299999999999998</v>
+        <v>0</v>
       </c>
       <c r="P7" s="28">
-        <v>0.47299999999999998</v>
+        <v>0.5</v>
       </c>
     </row>
     <row r="8" spans="1:16" s="28" customFormat="1" x14ac:dyDescent="0.25">
@@ -9515,13 +9613,13 @@
         <v>1154</v>
       </c>
       <c r="N8" s="28" t="s">
-        <v>1138</v>
+        <v>1034</v>
       </c>
       <c r="O8" s="28">
-        <v>1E-4</v>
+        <v>0</v>
       </c>
       <c r="P8" s="28">
-        <v>0.01</v>
+        <v>0.5</v>
       </c>
     </row>
     <row r="9" spans="1:16" s="28" customFormat="1" x14ac:dyDescent="0.25">
@@ -9542,13 +9640,13 @@
         <v>1199</v>
       </c>
       <c r="N9" s="28" t="s">
-        <v>1029</v>
+        <v>1033</v>
       </c>
       <c r="O9" s="28">
-        <v>0</v>
+        <v>9.6300000000000008</v>
       </c>
       <c r="P9" s="28">
-        <v>0.05</v>
+        <v>9.6300000000000008</v>
       </c>
     </row>
     <row r="10" spans="1:16" s="28" customFormat="1" x14ac:dyDescent="0.25">
@@ -9569,13 +9667,13 @@
         <v>1200</v>
       </c>
       <c r="N10" s="28" t="s">
-        <v>1026</v>
+        <v>1037</v>
       </c>
       <c r="O10" s="28">
         <v>0</v>
       </c>
       <c r="P10" s="28">
-        <v>0.05</v>
+        <v>0.5</v>
       </c>
     </row>
     <row r="11" spans="1:16" s="28" customFormat="1" x14ac:dyDescent="0.25">
@@ -9596,13 +9694,13 @@
         <v>870</v>
       </c>
       <c r="N11" s="28" t="s">
-        <v>1039</v>
+        <v>1038</v>
       </c>
       <c r="O11" s="28">
-        <v>1.37</v>
+        <v>0</v>
       </c>
       <c r="P11" s="28">
-        <v>1.37</v>
+        <v>0.5</v>
       </c>
     </row>
     <row r="12" spans="1:16" s="28" customFormat="1" x14ac:dyDescent="0.25">
@@ -9623,13 +9721,13 @@
         <v>1169</v>
       </c>
       <c r="N12" s="28" t="s">
-        <v>1046</v>
+        <v>1039</v>
       </c>
       <c r="O12" s="28">
-        <v>0</v>
+        <v>1.37</v>
       </c>
       <c r="P12" s="28">
-        <v>0.5</v>
+        <v>1.37</v>
       </c>
     </row>
     <row r="13" spans="1:16" s="28" customFormat="1" x14ac:dyDescent="0.25">
@@ -9650,7 +9748,7 @@
         <v>1170</v>
       </c>
       <c r="N13" s="28" t="s">
-        <v>1042</v>
+        <v>1040</v>
       </c>
       <c r="O13" s="28">
         <v>0</v>
@@ -9677,7 +9775,7 @@
         <v>895</v>
       </c>
       <c r="N14" s="28" t="s">
-        <v>1040</v>
+        <v>1042</v>
       </c>
       <c r="O14" s="28">
         <v>0</v>
@@ -9704,7 +9802,7 @@
         <v>978</v>
       </c>
       <c r="N15" s="28" t="s">
-        <v>1036</v>
+        <v>1136</v>
       </c>
       <c r="O15" s="28">
         <v>0</v>
@@ -9731,7 +9829,7 @@
         <v>888</v>
       </c>
       <c r="N16" s="28" t="s">
-        <v>1034</v>
+        <v>1135</v>
       </c>
       <c r="O16" s="28">
         <v>0</v>
@@ -9758,7 +9856,7 @@
         <v>984</v>
       </c>
       <c r="N17" s="28" t="s">
-        <v>1136</v>
+        <v>1046</v>
       </c>
       <c r="O17" s="28">
         <v>0</v>
@@ -9785,7 +9883,7 @@
         <v>980</v>
       </c>
       <c r="N18" s="28" t="s">
-        <v>1047</v>
+        <v>1096</v>
       </c>
       <c r="O18" s="28">
         <v>0</v>
@@ -9812,13 +9910,13 @@
         <v>885</v>
       </c>
       <c r="N19" s="28" t="s">
-        <v>1135</v>
+        <v>1157</v>
       </c>
       <c r="O19" s="28">
         <v>0</v>
       </c>
       <c r="P19" s="28">
-        <v>0.5</v>
+        <v>20</v>
       </c>
     </row>
     <row r="20" spans="1:16" x14ac:dyDescent="0.25">
@@ -9828,8 +9926,12 @@
       <c r="B20" s="14"/>
       <c r="C20" s="28"/>
       <c r="D20" s="28"/>
-      <c r="E20" s="31"/>
-      <c r="F20" s="28"/>
+      <c r="E20" s="31">
+        <v>0</v>
+      </c>
+      <c r="F20" s="23">
+        <v>0</v>
+      </c>
       <c r="G20" s="29">
         <v>0.87390000000000001</v>
       </c>
@@ -9837,7 +9939,7 @@
         <v>1201</v>
       </c>
       <c r="N20" t="s">
-        <v>1133</v>
+        <v>1047</v>
       </c>
       <c r="O20" s="28">
         <v>0</v>
@@ -9847,55 +9949,837 @@
       </c>
     </row>
     <row r="21" spans="1:16" s="28" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A21" s="29" t="s">
+        <v>1207</v>
+      </c>
+      <c r="E21" s="31">
+        <v>0</v>
+      </c>
+      <c r="F21" s="23">
+        <v>0</v>
+      </c>
+      <c r="G21" s="29">
+        <v>0</v>
+      </c>
+      <c r="H21" s="29" t="s">
+        <v>1206</v>
+      </c>
       <c r="N21" s="28" t="s">
+        <v>1213</v>
+      </c>
+      <c r="O21" s="28">
+        <v>0</v>
+      </c>
+      <c r="P21" s="28">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="22" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A22" s="29" t="s">
+        <v>1209</v>
+      </c>
+      <c r="E22" s="31">
+        <v>0</v>
+      </c>
+      <c r="F22" s="23">
+        <v>0</v>
+      </c>
+      <c r="G22" s="29">
+        <v>0</v>
+      </c>
+      <c r="H22" s="29" t="s">
+        <v>1210</v>
+      </c>
+      <c r="N22" t="s">
+        <v>1202</v>
+      </c>
+      <c r="O22">
+        <v>0</v>
+      </c>
+      <c r="P22">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="23" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A23" s="29" t="s">
+        <v>1211</v>
+      </c>
+      <c r="E23" s="31">
+        <v>0</v>
+      </c>
+      <c r="F23" s="23">
+        <v>0</v>
+      </c>
+      <c r="G23" s="29">
+        <v>0</v>
+      </c>
+      <c r="H23" s="29" t="s">
+        <v>1212</v>
+      </c>
+      <c r="N23" t="s">
+        <v>1203</v>
+      </c>
+      <c r="O23" s="28">
+        <v>0</v>
+      </c>
+      <c r="P23">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="24" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A24" s="29" t="s">
+        <v>1215</v>
+      </c>
+      <c r="E24" s="31">
+        <v>0</v>
+      </c>
+      <c r="F24" s="23">
+        <v>0</v>
+      </c>
+      <c r="G24" s="29">
+        <v>0</v>
+      </c>
+      <c r="H24" s="29" t="s">
+        <v>1214</v>
+      </c>
+      <c r="N24" t="s">
+        <v>1029</v>
+      </c>
+      <c r="O24" s="28">
+        <v>0</v>
+      </c>
+      <c r="P24">
+        <v>0.05</v>
+      </c>
+    </row>
+    <row r="25" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="N25" t="s">
+        <v>1028</v>
+      </c>
+      <c r="O25" s="28">
+        <v>0.47299999999999998</v>
+      </c>
+      <c r="P25">
+        <v>0.47299999999999998</v>
+      </c>
+    </row>
+    <row r="26" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="N26" t="s">
+        <v>1027</v>
+      </c>
+      <c r="O26" s="28">
+        <v>2.0799999999999998E-3</v>
+      </c>
+      <c r="P26">
+        <v>2.0799999999999998E-3</v>
+      </c>
+    </row>
+    <row r="27" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="N27" t="s">
+        <v>1026</v>
+      </c>
+      <c r="O27" s="28">
+        <v>0</v>
+      </c>
+      <c r="P27">
+        <v>0.05</v>
+      </c>
+    </row>
+    <row r="28" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="N28" t="s">
+        <v>1173</v>
+      </c>
+      <c r="O28" s="28">
+        <v>0</v>
+      </c>
+      <c r="P28">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="29" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="N29" t="s">
+        <v>1204</v>
+      </c>
+      <c r="O29" s="28">
+        <v>0</v>
+      </c>
+      <c r="P29">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="30" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="N30" t="s">
+        <v>1024</v>
+      </c>
+      <c r="O30" s="28">
+        <v>0.5</v>
+      </c>
+      <c r="P30">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="31" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="N31" t="s">
+        <v>1138</v>
+      </c>
+      <c r="O31" s="28">
+        <v>1E-4</v>
+      </c>
+      <c r="P31">
+        <v>0.01</v>
+      </c>
+    </row>
+    <row r="32" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="N32" t="s">
+        <v>1023</v>
+      </c>
+      <c r="O32" s="28">
+        <v>0.128</v>
+      </c>
+      <c r="P32">
+        <v>0.128</v>
+      </c>
+    </row>
+    <row r="33" spans="14:16" x14ac:dyDescent="0.25">
+      <c r="N33" t="s">
+        <v>1197</v>
+      </c>
+      <c r="O33" s="28">
+        <v>0</v>
+      </c>
+      <c r="P33">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="34" spans="14:16" x14ac:dyDescent="0.25">
+      <c r="N34" t="s">
+        <v>1198</v>
+      </c>
+      <c r="O34">
+        <v>0</v>
+      </c>
+      <c r="P34">
+        <v>0.5</v>
+      </c>
+    </row>
+  </sheetData>
+  <sortState ref="N2:P34">
+    <sortCondition ref="N2:N34"/>
+  </sortState>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet18.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:P26"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="H10" sqref="H10"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="5" max="5" width="11.85546875" customWidth="1"/>
+    <col min="8" max="8" width="30.140625" customWidth="1"/>
+    <col min="9" max="9" width="11.28515625" customWidth="1"/>
+    <col min="10" max="10" width="10.42578125" customWidth="1"/>
+    <col min="11" max="11" width="9.140625" hidden="1" customWidth="1"/>
+    <col min="12" max="12" width="18.85546875" customWidth="1"/>
+    <col min="13" max="13" width="20.28515625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:16" s="28" customFormat="1" ht="18" x14ac:dyDescent="0.35">
+      <c r="A1" s="28" t="s">
+        <v>565</v>
+      </c>
+      <c r="B1" s="28" t="s">
+        <v>728</v>
+      </c>
+      <c r="C1" s="28" t="s">
+        <v>731</v>
+      </c>
+      <c r="D1" s="28" t="s">
+        <v>729</v>
+      </c>
+      <c r="E1" s="24" t="s">
+        <v>730</v>
+      </c>
+      <c r="F1" s="18" t="s">
+        <v>985</v>
+      </c>
+      <c r="G1" s="30" t="s">
+        <v>986</v>
+      </c>
+      <c r="H1" s="30" t="s">
+        <v>861</v>
+      </c>
+      <c r="I1" s="28" t="s">
+        <v>608</v>
+      </c>
+      <c r="J1" s="28" t="s">
+        <v>609</v>
+      </c>
+      <c r="K1" s="28" t="s">
+        <v>654</v>
+      </c>
+      <c r="L1" s="28" t="s">
+        <v>656</v>
+      </c>
+      <c r="M1" s="28" t="s">
+        <v>657</v>
+      </c>
+      <c r="N1" s="28" t="s">
+        <v>726</v>
+      </c>
+      <c r="O1" s="28" t="s">
+        <v>838</v>
+      </c>
+      <c r="P1" s="28" t="s">
+        <v>839</v>
+      </c>
+    </row>
+    <row r="2" spans="1:16" s="28" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A2" s="14" t="s">
+        <v>944</v>
+      </c>
+      <c r="B2" s="14"/>
+      <c r="E2" s="31">
+        <v>4581156.7432856048</v>
+      </c>
+      <c r="F2" s="23">
+        <v>-9.1</v>
+      </c>
+      <c r="G2" s="29">
+        <v>10</v>
+      </c>
+      <c r="H2" s="14" t="s">
+        <v>1155</v>
+      </c>
+      <c r="N2" s="28" t="s">
+        <v>1157</v>
+      </c>
+      <c r="O2" s="28">
+        <v>1</v>
+      </c>
+      <c r="P2" s="28">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="3" spans="1:16" s="28" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A3" s="14" t="s">
+        <v>587</v>
+      </c>
+      <c r="B3" s="14"/>
+      <c r="E3" s="31">
+        <v>3.8510595392951203</v>
+      </c>
+      <c r="F3" s="23">
+        <v>-0.8</v>
+      </c>
+      <c r="G3" s="29">
+        <v>4.8609</v>
+      </c>
+      <c r="H3" s="14" t="s">
+        <v>891</v>
+      </c>
+      <c r="L3" s="28" t="s">
+        <v>1230</v>
+      </c>
+      <c r="N3" s="28" t="s">
+        <v>1046</v>
+      </c>
+      <c r="O3" s="28">
+        <v>0.1</v>
+      </c>
+      <c r="P3" s="28">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="4" spans="1:16" s="28" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A4" s="14" t="s">
+        <v>590</v>
+      </c>
+      <c r="B4" s="14"/>
+      <c r="E4" s="31">
+        <v>604.65285404763836</v>
+      </c>
+      <c r="F4" s="23">
+        <v>-3.8</v>
+      </c>
+      <c r="G4" s="29">
+        <v>7.4774000000000003</v>
+      </c>
+      <c r="H4" s="14" t="s">
+        <v>889</v>
+      </c>
+      <c r="N4" s="28" t="s">
+        <v>1024</v>
+      </c>
+      <c r="O4" s="28">
+        <v>0.184</v>
+      </c>
+      <c r="P4" s="28">
+        <v>0.184</v>
+      </c>
+    </row>
+    <row r="5" spans="1:16" s="28" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A5" s="14" t="s">
+        <v>589</v>
+      </c>
+      <c r="B5" s="14"/>
+      <c r="E5" s="31">
+        <v>8.4275973191444799E-4</v>
+      </c>
+      <c r="F5" s="23">
+        <v>4.2</v>
+      </c>
+      <c r="G5" s="29">
+        <v>7.4774000000000003</v>
+      </c>
+      <c r="H5" s="14" t="s">
+        <v>871</v>
+      </c>
+      <c r="N5" s="28" t="s">
+        <v>1023</v>
+      </c>
+      <c r="O5" s="28">
+        <v>0.128</v>
+      </c>
+      <c r="P5" s="28">
+        <v>0.128</v>
+      </c>
+    </row>
+    <row r="6" spans="1:16" s="28" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A6" s="29" t="s">
+        <v>1215</v>
+      </c>
+      <c r="E6" s="31">
+        <v>0</v>
+      </c>
+      <c r="F6" s="23">
+        <v>0</v>
+      </c>
+      <c r="G6" s="29">
+        <v>0</v>
+      </c>
+      <c r="H6" s="29" t="s">
+        <v>1214</v>
+      </c>
+      <c r="N6" s="28" t="s">
+        <v>1042</v>
+      </c>
+      <c r="O6" s="28">
+        <v>4.3900000000000002E-2</v>
+      </c>
+      <c r="P6" s="28">
+        <v>4.3900000000000002E-2</v>
+      </c>
+    </row>
+    <row r="7" spans="1:16" s="28" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A7" s="14" t="s">
+        <v>1216</v>
+      </c>
+      <c r="B7" s="14"/>
+      <c r="E7" s="31">
+        <v>1.1835797581124567</v>
+      </c>
+      <c r="F7" s="23">
+        <v>-0.1</v>
+      </c>
+      <c r="G7" s="29">
+        <v>16.023499999999999</v>
+      </c>
+      <c r="H7" s="14" t="s">
+        <v>1217</v>
+      </c>
+      <c r="N7" s="28" t="s">
+        <v>1136</v>
+      </c>
+      <c r="O7" s="28">
+        <v>2.5899999999999999E-2</v>
+      </c>
+      <c r="P7" s="28">
+        <v>2.5899999999999999E-2</v>
+      </c>
+    </row>
+    <row r="8" spans="1:16" s="28" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A8" s="14" t="s">
+        <v>595</v>
+      </c>
+      <c r="B8" s="14"/>
+      <c r="E8" s="31">
+        <v>7576.5072679615205</v>
+      </c>
+      <c r="F8" s="23">
+        <v>-5.3</v>
+      </c>
+      <c r="G8" s="29">
+        <v>1.7582</v>
+      </c>
+      <c r="H8" s="14" t="s">
+        <v>895</v>
+      </c>
+      <c r="N8" s="28" t="s">
+        <v>1040</v>
+      </c>
+      <c r="O8" s="28">
+        <v>0.126</v>
+      </c>
+      <c r="P8" s="28">
+        <v>0.126</v>
+      </c>
+    </row>
+    <row r="9" spans="1:16" s="28" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A9" s="14" t="s">
+        <v>597</v>
+      </c>
+      <c r="B9" s="14"/>
+      <c r="E9" s="31">
+        <v>7.5573641589575944</v>
+      </c>
+      <c r="F9" s="23">
+        <v>-1.2</v>
+      </c>
+      <c r="G9" s="29">
+        <v>0</v>
+      </c>
+      <c r="H9" s="14" t="s">
+        <v>978</v>
+      </c>
+      <c r="N9" s="28" t="s">
+        <v>1224</v>
+      </c>
+      <c r="O9" s="28">
+        <v>0</v>
+      </c>
+      <c r="P9" s="28">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A10" s="14" t="s">
+        <v>849</v>
+      </c>
+      <c r="E10" s="31">
+        <v>0</v>
+      </c>
+      <c r="F10" s="23">
+        <v>0</v>
+      </c>
+      <c r="H10" s="32" t="s">
+        <v>1218</v>
+      </c>
+      <c r="N10" t="s">
+        <v>1135</v>
+      </c>
+      <c r="O10">
+        <v>0.02</v>
+      </c>
+      <c r="P10">
+        <v>0.05</v>
+      </c>
+    </row>
+    <row r="11" spans="1:16" s="28" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A11" s="14" t="s">
+        <v>974</v>
+      </c>
+      <c r="B11" s="14"/>
+      <c r="E11" s="31">
+        <v>0.60312511374657485</v>
+      </c>
+      <c r="F11" s="23">
+        <v>0.3</v>
+      </c>
+      <c r="G11" s="29">
+        <v>0</v>
+      </c>
+      <c r="H11" s="14" t="s">
+        <v>980</v>
+      </c>
+      <c r="N11" s="28" t="s">
+        <v>1029</v>
+      </c>
+      <c r="O11" s="28">
+        <v>5.3499999999999997E-3</v>
+      </c>
+      <c r="P11" s="28">
+        <v>5.3499999999999997E-3</v>
+      </c>
+    </row>
+    <row r="12" spans="1:16" s="28" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A12" s="29" t="s">
+        <v>959</v>
+      </c>
+      <c r="B12" s="14"/>
+      <c r="E12" s="26">
+        <v>5449668303594.3379</v>
+      </c>
+      <c r="F12" s="21">
+        <v>-17.399999999999999</v>
+      </c>
+      <c r="G12" s="29">
+        <v>38.534599999999998</v>
+      </c>
+      <c r="H12" s="29" t="s">
+        <v>1219</v>
+      </c>
+      <c r="N12" s="28" t="s">
+        <v>1028</v>
+      </c>
+      <c r="O12" s="28">
+        <v>0.47299999999999998</v>
+      </c>
+      <c r="P12" s="28">
+        <v>0.47299999999999998</v>
+      </c>
+    </row>
+    <row r="13" spans="1:16" s="28" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A13" s="14" t="s">
+        <v>960</v>
+      </c>
+      <c r="B13" s="29"/>
+      <c r="E13" s="31">
+        <v>1.6580307753859953</v>
+      </c>
+      <c r="F13" s="23">
+        <v>-0.3</v>
+      </c>
+      <c r="G13" s="29">
+        <v>0</v>
+      </c>
+      <c r="H13" s="14" t="s">
+        <v>885</v>
+      </c>
+      <c r="N13" s="28" t="s">
+        <v>1036</v>
+      </c>
+      <c r="O13" s="28">
+        <v>0.56200000000000006</v>
+      </c>
+      <c r="P13" s="28">
+        <v>0.56200000000000006</v>
+      </c>
+    </row>
+    <row r="14" spans="1:16" s="28" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A14" s="29" t="s">
+        <v>1207</v>
+      </c>
+      <c r="E14" s="31">
+        <v>0</v>
+      </c>
+      <c r="F14" s="23">
+        <v>0</v>
+      </c>
+      <c r="G14" s="29">
+        <v>0</v>
+      </c>
+      <c r="H14" s="29" t="s">
+        <v>1206</v>
+      </c>
+      <c r="N14" s="28" t="s">
         <v>1033</v>
       </c>
-      <c r="O21" s="28">
+      <c r="O14" s="28">
         <v>9.6300000000000008</v>
       </c>
-      <c r="P21" s="28">
+      <c r="P14" s="28">
         <v>9.6300000000000008</v>
+      </c>
+    </row>
+    <row r="15" spans="1:16" s="28" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A15" s="14" t="s">
+        <v>935</v>
+      </c>
+      <c r="B15" s="14"/>
+      <c r="E15" s="31">
+        <v>0</v>
+      </c>
+      <c r="F15" s="23">
+        <v>0</v>
+      </c>
+      <c r="G15" s="29">
+        <v>-3.2149000000000001</v>
+      </c>
+      <c r="H15" s="14" t="s">
+        <v>1220</v>
+      </c>
+      <c r="N15" s="28" t="s">
+        <v>1138</v>
+      </c>
+      <c r="O15" s="28">
+        <v>0.1</v>
+      </c>
+      <c r="P15" s="28">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="16" spans="1:16" s="28" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A16" s="14" t="s">
+        <v>936</v>
+      </c>
+      <c r="B16" s="14"/>
+      <c r="E16" s="31">
+        <v>0</v>
+      </c>
+      <c r="F16" s="23">
+        <v>0</v>
+      </c>
+      <c r="G16" s="29">
+        <v>0</v>
+      </c>
+      <c r="H16" s="14" t="s">
+        <v>1221</v>
+      </c>
+      <c r="N16" s="28" t="s">
+        <v>1225</v>
+      </c>
+      <c r="O16" s="28">
+        <v>0</v>
+      </c>
+      <c r="P16" s="28">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17" spans="1:16" s="28" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A17" s="14" t="s">
+        <v>929</v>
+      </c>
+      <c r="B17" s="14"/>
+      <c r="E17" s="31">
+        <v>0</v>
+      </c>
+      <c r="F17" s="23">
+        <v>0</v>
+      </c>
+      <c r="G17" s="29">
+        <v>17.530899999999999</v>
+      </c>
+      <c r="H17" s="14" t="s">
+        <v>1212</v>
+      </c>
+      <c r="N17" s="28" t="s">
+        <v>1027</v>
+      </c>
+      <c r="O17" s="28">
+        <v>2.0799999999999998E-3</v>
+      </c>
+      <c r="P17" s="28">
+        <v>2.0799999999999998E-3</v>
+      </c>
+    </row>
+    <row r="18" spans="1:16" s="28" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A18" s="14" t="s">
+        <v>930</v>
+      </c>
+      <c r="B18" s="14"/>
+      <c r="E18" s="31">
+        <v>0</v>
+      </c>
+      <c r="F18" s="23">
+        <v>0</v>
+      </c>
+      <c r="G18" s="29">
+        <v>29.175799999999999</v>
+      </c>
+      <c r="H18" s="14" t="s">
+        <v>1228</v>
+      </c>
+      <c r="N18" s="28" t="s">
+        <v>1026</v>
+      </c>
+      <c r="O18" s="28">
+        <v>0.121</v>
+      </c>
+      <c r="P18" s="28">
+        <v>0.121</v>
+      </c>
+    </row>
+    <row r="19" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A19" s="14" t="s">
+        <v>1222</v>
+      </c>
+      <c r="E19" s="31">
+        <v>0</v>
+      </c>
+      <c r="F19" s="23">
+        <v>0</v>
+      </c>
+      <c r="H19" s="14" t="s">
+        <v>1223</v>
+      </c>
+      <c r="N19" t="s">
+        <v>1202</v>
+      </c>
+      <c r="O19">
+        <v>50</v>
+      </c>
+      <c r="P19">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="20" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="N20" t="s">
+        <v>1203</v>
+      </c>
+      <c r="O20">
+        <v>50</v>
+      </c>
+      <c r="P20">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="21" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="N21" t="s">
+        <v>1047</v>
+      </c>
+      <c r="O21">
+        <v>1E-4</v>
+      </c>
+      <c r="P21">
+        <v>1E-4</v>
       </c>
     </row>
     <row r="22" spans="1:16" x14ac:dyDescent="0.25">
       <c r="N22" t="s">
-        <v>1132</v>
+        <v>1213</v>
       </c>
       <c r="O22">
-        <v>0</v>
+        <v>1E-4</v>
       </c>
       <c r="P22">
-        <v>0.5</v>
+        <v>1E-4</v>
       </c>
     </row>
     <row r="23" spans="1:16" x14ac:dyDescent="0.25">
       <c r="N23" t="s">
-        <v>1153</v>
-      </c>
-      <c r="O23" s="28">
+        <v>1226</v>
+      </c>
+      <c r="O23">
         <v>0</v>
       </c>
       <c r="P23">
-        <v>0.5</v>
+        <v>0</v>
       </c>
     </row>
     <row r="24" spans="1:16" x14ac:dyDescent="0.25">
       <c r="N24" t="s">
-        <v>1173</v>
-      </c>
-      <c r="O24" s="28">
+        <v>1227</v>
+      </c>
+      <c r="O24">
         <v>0</v>
       </c>
       <c r="P24">
-        <v>0.5</v>
+        <v>0</v>
       </c>
     </row>
     <row r="25" spans="1:16" x14ac:dyDescent="0.25">
       <c r="N25" t="s">
-        <v>1037</v>
-      </c>
-      <c r="O25" s="28">
-        <v>0</v>
+        <v>1035</v>
+      </c>
+      <c r="O25">
+        <v>0.1</v>
       </c>
       <c r="P25">
         <v>0.5</v>
@@ -9903,95 +10787,367 @@
     </row>
     <row r="26" spans="1:16" x14ac:dyDescent="0.25">
       <c r="N26" t="s">
-        <v>1038</v>
-      </c>
-      <c r="O26" s="28">
+        <v>1229</v>
+      </c>
+      <c r="O26">
         <v>0</v>
       </c>
       <c r="P26">
-        <v>0.5</v>
-      </c>
-    </row>
-    <row r="27" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="N27" t="s">
-        <v>1202</v>
-      </c>
-      <c r="O27" s="28">
-        <v>0</v>
-      </c>
-      <c r="P27">
-        <v>0.5</v>
-      </c>
-    </row>
-    <row r="28" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="N28" t="s">
-        <v>1203</v>
-      </c>
-      <c r="O28" s="28">
-        <v>0</v>
-      </c>
-      <c r="P28">
-        <v>0.5</v>
-      </c>
-    </row>
-    <row r="29" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="N29" t="s">
-        <v>1015</v>
-      </c>
-      <c r="O29" s="28">
-        <v>0</v>
-      </c>
-      <c r="P29">
-        <v>0.5</v>
-      </c>
-    </row>
-    <row r="30" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="N30" t="s">
-        <v>1204</v>
-      </c>
-      <c r="O30" s="28">
-        <v>0</v>
-      </c>
-      <c r="P30">
-        <v>0.5</v>
-      </c>
-    </row>
-    <row r="31" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="N31" t="s">
-        <v>1205</v>
-      </c>
-      <c r="O31" s="28">
-        <v>0</v>
-      </c>
-      <c r="P31">
-        <v>0.5</v>
-      </c>
-    </row>
-    <row r="32" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="N32" t="s">
-        <v>1197</v>
-      </c>
-      <c r="O32" s="28">
-        <v>0</v>
-      </c>
-      <c r="P32">
-        <v>0.5</v>
-      </c>
-    </row>
-    <row r="33" spans="14:16" x14ac:dyDescent="0.25">
-      <c r="N33" t="s">
-        <v>1198</v>
-      </c>
-      <c r="O33" s="28">
-        <v>0</v>
-      </c>
-      <c r="P33">
-        <v>0.5</v>
+        <v>0</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet19.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:P15"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F5" sqref="F5"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="5" max="5" width="11.7109375" customWidth="1"/>
+    <col min="8" max="8" width="29.7109375" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:16" s="28" customFormat="1" ht="18" x14ac:dyDescent="0.35">
+      <c r="A1" s="28" t="s">
+        <v>565</v>
+      </c>
+      <c r="B1" s="28" t="s">
+        <v>728</v>
+      </c>
+      <c r="C1" s="28" t="s">
+        <v>731</v>
+      </c>
+      <c r="D1" s="28" t="s">
+        <v>729</v>
+      </c>
+      <c r="E1" s="24" t="s">
+        <v>730</v>
+      </c>
+      <c r="F1" s="18" t="s">
+        <v>985</v>
+      </c>
+      <c r="G1" s="30" t="s">
+        <v>986</v>
+      </c>
+      <c r="H1" s="30" t="s">
+        <v>861</v>
+      </c>
+      <c r="I1" s="28" t="s">
+        <v>608</v>
+      </c>
+      <c r="J1" s="28" t="s">
+        <v>609</v>
+      </c>
+      <c r="K1" s="28" t="s">
+        <v>654</v>
+      </c>
+      <c r="L1" s="28" t="s">
+        <v>656</v>
+      </c>
+      <c r="M1" s="28" t="s">
+        <v>657</v>
+      </c>
+      <c r="N1" s="28" t="s">
+        <v>726</v>
+      </c>
+      <c r="O1" s="28" t="s">
+        <v>838</v>
+      </c>
+      <c r="P1" s="28" t="s">
+        <v>839</v>
+      </c>
+    </row>
+    <row r="2" spans="1:16" s="28" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A2" s="14" t="s">
+        <v>944</v>
+      </c>
+      <c r="B2" s="14"/>
+      <c r="E2" s="31">
+        <v>4581156.7432856048</v>
+      </c>
+      <c r="F2" s="23">
+        <v>-9.1</v>
+      </c>
+      <c r="G2" s="29">
+        <v>10</v>
+      </c>
+      <c r="H2" s="14" t="s">
+        <v>1155</v>
+      </c>
+      <c r="N2" s="28" t="s">
+        <v>1157</v>
+      </c>
+      <c r="O2" s="28">
+        <v>1</v>
+      </c>
+      <c r="P2" s="28">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="3" spans="1:16" s="28" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A3" s="14" t="s">
+        <v>587</v>
+      </c>
+      <c r="B3" s="14"/>
+      <c r="E3" s="31">
+        <v>3.8510595392951203</v>
+      </c>
+      <c r="F3" s="23">
+        <v>-0.8</v>
+      </c>
+      <c r="G3" s="29">
+        <v>4.8609</v>
+      </c>
+      <c r="H3" s="14" t="s">
+        <v>891</v>
+      </c>
+      <c r="N3" s="28" t="s">
+        <v>1046</v>
+      </c>
+      <c r="O3" s="28">
+        <v>1</v>
+      </c>
+      <c r="P3" s="28">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="4" spans="1:16" s="28" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A4" s="14" t="s">
+        <v>590</v>
+      </c>
+      <c r="B4" s="14"/>
+      <c r="E4" s="31">
+        <v>604.65285404763836</v>
+      </c>
+      <c r="F4" s="23">
+        <v>-3.8</v>
+      </c>
+      <c r="G4" s="29">
+        <v>7.4774000000000003</v>
+      </c>
+      <c r="H4" s="14" t="s">
+        <v>889</v>
+      </c>
+      <c r="N4" s="28" t="s">
+        <v>1024</v>
+      </c>
+      <c r="O4" s="28">
+        <v>1</v>
+      </c>
+      <c r="P4" s="28">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="5" spans="1:16" s="28" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A5" s="14" t="s">
+        <v>589</v>
+      </c>
+      <c r="B5" s="14"/>
+      <c r="E5" s="31">
+        <v>8.4275973191444799E-4</v>
+      </c>
+      <c r="F5" s="23">
+        <v>4.2</v>
+      </c>
+      <c r="G5" s="29">
+        <v>7.4774000000000003</v>
+      </c>
+      <c r="H5" s="14" t="s">
+        <v>1231</v>
+      </c>
+      <c r="N5" s="28" t="s">
+        <v>1023</v>
+      </c>
+      <c r="O5" s="28">
+        <v>1</v>
+      </c>
+      <c r="P5" s="28">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="6" spans="1:16" s="28" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A6" s="14" t="s">
+        <v>1216</v>
+      </c>
+      <c r="B6" s="14"/>
+      <c r="E6" s="31">
+        <v>1.1835797581124567</v>
+      </c>
+      <c r="F6" s="23">
+        <v>-0.1</v>
+      </c>
+      <c r="G6" s="29">
+        <v>16.023499999999999</v>
+      </c>
+      <c r="H6" s="14" t="s">
+        <v>1232</v>
+      </c>
+      <c r="N6" s="28" t="s">
+        <v>1042</v>
+      </c>
+      <c r="O6" s="28">
+        <v>1</v>
+      </c>
+      <c r="P6" s="28">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="7" spans="1:16" s="28" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A7" s="14" t="s">
+        <v>595</v>
+      </c>
+      <c r="B7" s="14"/>
+      <c r="E7" s="31">
+        <v>7576.5072679615205</v>
+      </c>
+      <c r="F7" s="23">
+        <v>-5.3</v>
+      </c>
+      <c r="G7" s="29">
+        <v>1.7582</v>
+      </c>
+      <c r="H7" s="14" t="s">
+        <v>895</v>
+      </c>
+      <c r="N7" s="28" t="s">
+        <v>1136</v>
+      </c>
+      <c r="O7" s="28">
+        <v>1</v>
+      </c>
+      <c r="P7" s="28">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="8" spans="1:16" s="28" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A8" s="14" t="s">
+        <v>849</v>
+      </c>
+      <c r="E8" s="31">
+        <v>0</v>
+      </c>
+      <c r="F8" s="23">
+        <v>0</v>
+      </c>
+      <c r="H8" s="32" t="s">
+        <v>1235</v>
+      </c>
+      <c r="N8" s="28" t="s">
+        <v>1135</v>
+      </c>
+      <c r="O8" s="28">
+        <v>1</v>
+      </c>
+      <c r="P8" s="28">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="9" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A9" s="14" t="s">
+        <v>1211</v>
+      </c>
+      <c r="H9" s="32" t="s">
+        <v>1212</v>
+      </c>
+      <c r="N9" s="28" t="s">
+        <v>1036</v>
+      </c>
+      <c r="O9" s="28">
+        <v>1</v>
+      </c>
+      <c r="P9" s="28">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="10" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A10" s="14" t="s">
+        <v>1233</v>
+      </c>
+      <c r="H10" s="32" t="s">
+        <v>1220</v>
+      </c>
+      <c r="N10" s="28" t="s">
+        <v>1033</v>
+      </c>
+      <c r="O10" s="28">
+        <v>1</v>
+      </c>
+      <c r="P10" s="28">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="11" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A11" s="14" t="s">
+        <v>1234</v>
+      </c>
+      <c r="H11" s="32" t="s">
+        <v>1221</v>
+      </c>
+      <c r="N11" s="28" t="s">
+        <v>1138</v>
+      </c>
+      <c r="O11" s="28">
+        <v>1</v>
+      </c>
+      <c r="P11" s="28">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="12" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="N12" t="s">
+        <v>1047</v>
+      </c>
+      <c r="O12">
+        <v>1E-4</v>
+      </c>
+      <c r="P12">
+        <v>1E-4</v>
+      </c>
+    </row>
+    <row r="13" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="N13" t="s">
+        <v>1225</v>
+      </c>
+      <c r="O13">
+        <v>1</v>
+      </c>
+      <c r="P13">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="14" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="N14" t="s">
+        <v>1213</v>
+      </c>
+      <c r="O14">
+        <v>1</v>
+      </c>
+      <c r="P14">
+        <v>2E-3</v>
+      </c>
+    </row>
+    <row r="15" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="N15" t="s">
+        <v>1227</v>
+      </c>
+      <c r="O15">
+        <v>0</v>
+      </c>
+      <c r="P15">
+        <v>0</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
@@ -10206,6 +11362,142 @@
     <row r="40" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A40" t="s">
         <v>150</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet20.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:C11"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:C11"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData>
+    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A1" s="28" t="s">
+        <v>1157</v>
+      </c>
+      <c r="B1" s="28">
+        <v>1</v>
+      </c>
+      <c r="C1" s="28">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A2" s="28" t="s">
+        <v>1046</v>
+      </c>
+      <c r="B2" s="28">
+        <v>0.1</v>
+      </c>
+      <c r="C2" s="28">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A3" s="28" t="s">
+        <v>1024</v>
+      </c>
+      <c r="B3" s="28">
+        <v>0.184</v>
+      </c>
+      <c r="C3" s="28">
+        <v>0.184</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A4" s="28" t="s">
+        <v>1023</v>
+      </c>
+      <c r="B4" s="28">
+        <v>0.128</v>
+      </c>
+      <c r="C4" s="28">
+        <v>0.128</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A5" s="28" t="s">
+        <v>1042</v>
+      </c>
+      <c r="B5" s="28">
+        <v>4.3900000000000002E-2</v>
+      </c>
+      <c r="C5" s="28">
+        <v>4.3900000000000002E-2</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A6" s="28" t="s">
+        <v>1136</v>
+      </c>
+      <c r="B6" s="28">
+        <v>2.5899999999999999E-2</v>
+      </c>
+      <c r="C6" s="28">
+        <v>2.5899999999999999E-2</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A7" s="28" t="s">
+        <v>1135</v>
+      </c>
+      <c r="B7" s="28">
+        <v>0.02</v>
+      </c>
+      <c r="C7" s="28">
+        <v>0.05</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A8" s="28" t="s">
+        <v>1036</v>
+      </c>
+      <c r="B8" s="28">
+        <v>0.56200000000000006</v>
+      </c>
+      <c r="C8" s="28">
+        <v>0.56200000000000006</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A9" s="28" t="s">
+        <v>1033</v>
+      </c>
+      <c r="B9" s="28">
+        <v>9.6300000000000008</v>
+      </c>
+      <c r="C9" s="28">
+        <v>9.6300000000000008</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A10" s="28" t="s">
+        <v>1138</v>
+      </c>
+      <c r="B10" s="28">
+        <v>0.1</v>
+      </c>
+      <c r="C10" s="28">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A11" s="28" t="s">
+        <v>1047</v>
+      </c>
+      <c r="B11" s="28">
+        <v>1E-4</v>
+      </c>
+      <c r="C11" s="28">
+        <v>1E-4</v>
       </c>
     </row>
   </sheetData>
@@ -54503,8 +55795,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:P128"/>
   <sheetViews>
-    <sheetView topLeftCell="A52" workbookViewId="0">
-      <selection activeCell="H58" sqref="H58"/>
+    <sheetView topLeftCell="B1" workbookViewId="0">
+      <selection activeCell="O15" sqref="O15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>

--- a/KineticModel/test.xlsx
+++ b/KineticModel/test.xlsx
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2336" uniqueCount="1236">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2339" uniqueCount="1238">
   <si>
     <t>Name</t>
   </si>
@@ -3762,6 +3762,12 @@
   </si>
   <si>
     <t>[c] : 59.8001 atp + 0.0709 f6p + 0.1290 g3p + 0.2050 g6p + 7.5496 pep + 2.8328 pyr ---&gt; Biomass + 59.8001 adp + 59.8001 pi + 59.8001 h</t>
+  </si>
+  <si>
+    <t>glc[c] ---&gt; g6p[c]</t>
+  </si>
+  <si>
+    <t>glc[e] ---&gt; glc[c]</t>
   </si>
 </sst>
 </file>
@@ -10804,10 +10810,10 @@
 
 <file path=xl/worksheets/sheet19.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:P15"/>
+  <dimension ref="A1:P16"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F5" sqref="F5"/>
+      <selection activeCell="H3" sqref="H3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -10881,7 +10887,7 @@
         <v>10</v>
       </c>
       <c r="H2" s="14" t="s">
-        <v>1155</v>
+        <v>1237</v>
       </c>
       <c r="N2" s="28" t="s">
         <v>1157</v>
@@ -10895,20 +10901,16 @@
     </row>
     <row r="3" spans="1:16" s="28" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A3" s="14" t="s">
-        <v>587</v>
-      </c>
-      <c r="B3" s="14"/>
-      <c r="E3" s="31">
-        <v>3.8510595392951203</v>
-      </c>
-      <c r="F3" s="23">
-        <v>-0.8</v>
-      </c>
-      <c r="G3" s="29">
-        <v>4.8609</v>
-      </c>
-      <c r="H3" s="14" t="s">
-        <v>891</v>
+        <v>944</v>
+      </c>
+      <c r="F3" s="28">
+        <v>-9.1</v>
+      </c>
+      <c r="G3" s="28">
+        <v>10</v>
+      </c>
+      <c r="H3" s="28" t="s">
+        <v>1236</v>
       </c>
       <c r="N3" s="28" t="s">
         <v>1046</v>
@@ -10922,20 +10924,20 @@
     </row>
     <row r="4" spans="1:16" s="28" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A4" s="14" t="s">
-        <v>590</v>
+        <v>587</v>
       </c>
       <c r="B4" s="14"/>
       <c r="E4" s="31">
-        <v>604.65285404763836</v>
+        <v>3.8510595392951203</v>
       </c>
       <c r="F4" s="23">
-        <v>-3.8</v>
+        <v>-0.8</v>
       </c>
       <c r="G4" s="29">
-        <v>7.4774000000000003</v>
+        <v>4.8609</v>
       </c>
       <c r="H4" s="14" t="s">
-        <v>889</v>
+        <v>891</v>
       </c>
       <c r="N4" s="28" t="s">
         <v>1024</v>
@@ -10949,20 +10951,20 @@
     </row>
     <row r="5" spans="1:16" s="28" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A5" s="14" t="s">
-        <v>589</v>
+        <v>590</v>
       </c>
       <c r="B5" s="14"/>
       <c r="E5" s="31">
-        <v>8.4275973191444799E-4</v>
+        <v>604.65285404763836</v>
       </c>
       <c r="F5" s="23">
-        <v>4.2</v>
+        <v>-3.8</v>
       </c>
       <c r="G5" s="29">
         <v>7.4774000000000003</v>
       </c>
       <c r="H5" s="14" t="s">
-        <v>1231</v>
+        <v>889</v>
       </c>
       <c r="N5" s="28" t="s">
         <v>1023</v>
@@ -10976,20 +10978,20 @@
     </row>
     <row r="6" spans="1:16" s="28" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A6" s="14" t="s">
-        <v>1216</v>
+        <v>589</v>
       </c>
       <c r="B6" s="14"/>
       <c r="E6" s="31">
-        <v>1.1835797581124567</v>
+        <v>8.4275973191444799E-4</v>
       </c>
       <c r="F6" s="23">
-        <v>-0.1</v>
+        <v>4.2</v>
       </c>
       <c r="G6" s="29">
-        <v>16.023499999999999</v>
+        <v>7.4774000000000003</v>
       </c>
       <c r="H6" s="14" t="s">
-        <v>1232</v>
+        <v>1231</v>
       </c>
       <c r="N6" s="28" t="s">
         <v>1042</v>
@@ -11003,20 +11005,20 @@
     </row>
     <row r="7" spans="1:16" s="28" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A7" s="14" t="s">
-        <v>595</v>
+        <v>1216</v>
       </c>
       <c r="B7" s="14"/>
       <c r="E7" s="31">
-        <v>7576.5072679615205</v>
+        <v>1.1835797581124567</v>
       </c>
       <c r="F7" s="23">
-        <v>-5.3</v>
+        <v>-0.1</v>
       </c>
       <c r="G7" s="29">
-        <v>1.7582</v>
+        <v>16.023499999999999</v>
       </c>
       <c r="H7" s="14" t="s">
-        <v>895</v>
+        <v>1232</v>
       </c>
       <c r="N7" s="28" t="s">
         <v>1136</v>
@@ -11030,16 +11032,20 @@
     </row>
     <row r="8" spans="1:16" s="28" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A8" s="14" t="s">
-        <v>849</v>
-      </c>
+        <v>595</v>
+      </c>
+      <c r="B8" s="14"/>
       <c r="E8" s="31">
-        <v>0</v>
+        <v>7576.5072679615205</v>
       </c>
       <c r="F8" s="23">
-        <v>0</v>
-      </c>
-      <c r="H8" s="32" t="s">
-        <v>1235</v>
+        <v>-5.3</v>
+      </c>
+      <c r="G8" s="29">
+        <v>1.7582</v>
+      </c>
+      <c r="H8" s="14" t="s">
+        <v>895</v>
       </c>
       <c r="N8" s="28" t="s">
         <v>1135</v>
@@ -11053,10 +11059,20 @@
     </row>
     <row r="9" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A9" s="14" t="s">
-        <v>1211</v>
-      </c>
+        <v>849</v>
+      </c>
+      <c r="B9" s="28"/>
+      <c r="C9" s="28"/>
+      <c r="D9" s="28"/>
+      <c r="E9" s="31">
+        <v>0</v>
+      </c>
+      <c r="F9" s="23">
+        <v>0</v>
+      </c>
+      <c r="G9" s="28"/>
       <c r="H9" s="32" t="s">
-        <v>1212</v>
+        <v>1235</v>
       </c>
       <c r="N9" s="28" t="s">
         <v>1036</v>
@@ -11070,10 +11086,10 @@
     </row>
     <row r="10" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A10" s="14" t="s">
-        <v>1233</v>
+        <v>1211</v>
       </c>
       <c r="H10" s="32" t="s">
-        <v>1220</v>
+        <v>1212</v>
       </c>
       <c r="N10" s="28" t="s">
         <v>1033</v>
@@ -11087,10 +11103,10 @@
     </row>
     <row r="11" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A11" s="14" t="s">
-        <v>1234</v>
+        <v>1233</v>
       </c>
       <c r="H11" s="32" t="s">
-        <v>1221</v>
+        <v>1220</v>
       </c>
       <c r="N11" s="28" t="s">
         <v>1138</v>
@@ -11103,14 +11119,20 @@
       </c>
     </row>
     <row r="12" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A12" s="14" t="s">
+        <v>1234</v>
+      </c>
+      <c r="H12" s="32" t="s">
+        <v>1221</v>
+      </c>
       <c r="N12" t="s">
         <v>1047</v>
       </c>
       <c r="O12">
-        <v>1E-4</v>
+        <v>1</v>
       </c>
       <c r="P12">
-        <v>1E-4</v>
+        <v>10</v>
       </c>
     </row>
     <row r="13" spans="1:16" x14ac:dyDescent="0.25">
@@ -11132,7 +11154,7 @@
         <v>1</v>
       </c>
       <c r="P14">
-        <v>2E-3</v>
+        <v>10</v>
       </c>
     </row>
     <row r="15" spans="1:16" x14ac:dyDescent="0.25">
@@ -11144,6 +11166,17 @@
       </c>
       <c r="P15">
         <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="N16" t="s">
+        <v>1096</v>
+      </c>
+      <c r="O16">
+        <v>1</v>
+      </c>
+      <c r="P16">
+        <v>20</v>
       </c>
     </row>
   </sheetData>

--- a/KineticModel/test.xlsx
+++ b/KineticModel/test.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="4545" windowWidth="16275" windowHeight="3300" firstSheet="5" activeTab="16"/>
+    <workbookView xWindow="240" yWindow="4605" windowWidth="16275" windowHeight="3240" firstSheet="5" activeTab="15"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -30,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2188" uniqueCount="1206">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2198" uniqueCount="1216">
   <si>
     <t>Name</t>
   </si>
@@ -3635,12 +3635,6 @@
     <t>A[c]</t>
   </si>
   <si>
-    <t>---&gt; A[c]</t>
-  </si>
-  <si>
-    <t>0.5 B[c] ---&gt; Biomass</t>
-  </si>
-  <si>
     <t>[c] : C &lt;==&gt; B</t>
   </si>
   <si>
@@ -3669,6 +3663,42 @@
   </si>
   <si>
     <t>accoa[e]</t>
+  </si>
+  <si>
+    <t>Pex</t>
+  </si>
+  <si>
+    <t>Eex</t>
+  </si>
+  <si>
+    <t>Dex</t>
+  </si>
+  <si>
+    <t>P[e] ---&gt;</t>
+  </si>
+  <si>
+    <t>E[e] ---&gt;</t>
+  </si>
+  <si>
+    <t>D[e] ---&gt;</t>
+  </si>
+  <si>
+    <t>BiomassEX</t>
+  </si>
+  <si>
+    <t>A[e] ---&gt; A[c]</t>
+  </si>
+  <si>
+    <t>Aex</t>
+  </si>
+  <si>
+    <t>&lt;==&gt; A[e]</t>
+  </si>
+  <si>
+    <t>Biomass ---&gt;</t>
+  </si>
+  <si>
+    <t>20 B[c] ---&gt; Biomass</t>
   </si>
 </sst>
 </file>
@@ -8848,14 +8878,15 @@
 
 <file path=xl/worksheets/sheet16.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:P12"/>
+  <dimension ref="A1:P17"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="H7" sqref="H7"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="H13" sqref="H13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
+    <col min="1" max="1" width="11" customWidth="1"/>
     <col min="8" max="8" width="19" customWidth="1"/>
   </cols>
   <sheetData>
@@ -8910,25 +8941,11 @@
       </c>
     </row>
     <row r="2" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A2" s="28" t="s">
-        <v>1057</v>
-      </c>
-      <c r="B2" s="28">
-        <v>0</v>
-      </c>
-      <c r="C2" s="28">
-        <v>0</v>
-      </c>
-      <c r="D2" s="28"/>
-      <c r="E2" s="28"/>
-      <c r="F2" s="28">
-        <v>-0.5</v>
-      </c>
-      <c r="G2" s="28">
-        <v>1</v>
-      </c>
-      <c r="H2" s="1" t="s">
-        <v>1194</v>
+      <c r="A2" t="s">
+        <v>1212</v>
+      </c>
+      <c r="H2" t="s">
+        <v>1213</v>
       </c>
       <c r="I2" s="28"/>
       <c r="J2" s="28"/>
@@ -8942,12 +8959,12 @@
         <v>0.1</v>
       </c>
       <c r="P2" s="28">
-        <v>1</v>
+        <v>20</v>
       </c>
     </row>
     <row r="3" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A3" s="28" t="s">
-        <v>1054</v>
+        <v>1057</v>
       </c>
       <c r="B3" s="28">
         <v>0</v>
@@ -8961,10 +8978,10 @@
         <v>-0.5</v>
       </c>
       <c r="G3" s="28">
-        <v>0.33</v>
-      </c>
-      <c r="H3" s="28" t="s">
-        <v>1187</v>
+        <v>20</v>
+      </c>
+      <c r="H3" s="1" t="s">
+        <v>1211</v>
       </c>
       <c r="I3" s="28"/>
       <c r="J3" s="28"/>
@@ -8977,15 +8994,15 @@
         <v>1122</v>
       </c>
       <c r="O3" s="28">
-        <v>0.01</v>
+        <v>0.1</v>
       </c>
       <c r="P3" s="28">
-        <v>0.5</v>
+        <v>20</v>
       </c>
     </row>
     <row r="4" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A4" s="28" t="s">
-        <v>764</v>
+        <v>1054</v>
       </c>
       <c r="B4" s="28">
         <v>0</v>
@@ -8999,10 +9016,10 @@
         <v>-0.5</v>
       </c>
       <c r="G4" s="28">
-        <v>0.33</v>
+        <v>5</v>
       </c>
       <c r="H4" s="28" t="s">
-        <v>1188</v>
+        <v>1187</v>
       </c>
       <c r="I4" s="28"/>
       <c r="J4" s="28"/>
@@ -9015,15 +9032,15 @@
         <v>1121</v>
       </c>
       <c r="O4" s="28">
-        <v>0.01</v>
+        <v>0.1</v>
       </c>
       <c r="P4" s="28">
-        <v>0.5</v>
+        <v>20</v>
       </c>
     </row>
     <row r="5" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A5" s="28" t="s">
-        <v>1055</v>
+        <v>764</v>
       </c>
       <c r="B5" s="28">
         <v>0</v>
@@ -9037,10 +9054,10 @@
         <v>-0.5</v>
       </c>
       <c r="G5" s="28">
-        <v>0.34</v>
+        <v>10</v>
       </c>
       <c r="H5" s="28" t="s">
-        <v>1189</v>
+        <v>1188</v>
       </c>
       <c r="I5" s="28"/>
       <c r="J5" s="28"/>
@@ -9053,15 +9070,15 @@
         <v>1123</v>
       </c>
       <c r="O5" s="28">
-        <v>0.01</v>
+        <v>0.1</v>
       </c>
       <c r="P5" s="28">
-        <v>0.5</v>
+        <v>20</v>
       </c>
     </row>
     <row r="6" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A6" s="28" t="s">
-        <v>1056</v>
+        <v>1055</v>
       </c>
       <c r="B6" s="28">
         <v>0</v>
@@ -9075,10 +9092,10 @@
         <v>-0.5</v>
       </c>
       <c r="G6" s="28">
-        <v>0.16500000000000001</v>
+        <v>5</v>
       </c>
       <c r="H6" s="28" t="s">
-        <v>1196</v>
+        <v>1189</v>
       </c>
       <c r="I6" s="28"/>
       <c r="J6" s="28"/>
@@ -9091,15 +9108,15 @@
         <v>1125</v>
       </c>
       <c r="O6" s="28">
-        <v>0.01</v>
+        <v>0.1</v>
       </c>
       <c r="P6" s="28">
-        <v>0.5</v>
+        <v>20</v>
       </c>
     </row>
     <row r="7" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A7" s="28" t="s">
-        <v>1059</v>
+        <v>1056</v>
       </c>
       <c r="B7" s="28">
         <v>0</v>
@@ -9113,10 +9130,10 @@
         <v>-0.5</v>
       </c>
       <c r="G7" s="28">
-        <v>0.16500000000000001</v>
+        <v>2.5</v>
       </c>
       <c r="H7" s="28" t="s">
-        <v>1117</v>
+        <v>1194</v>
       </c>
       <c r="I7" s="28"/>
       <c r="J7" s="28"/>
@@ -9129,15 +9146,15 @@
         <v>1124</v>
       </c>
       <c r="O7" s="28">
-        <v>0.01</v>
+        <v>0.1</v>
       </c>
       <c r="P7" s="28">
-        <v>0.5</v>
+        <v>20</v>
       </c>
     </row>
     <row r="8" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A8" s="28" t="s">
-        <v>1058</v>
+        <v>1059</v>
       </c>
       <c r="B8" s="28">
         <v>0</v>
@@ -9151,10 +9168,10 @@
         <v>-0.5</v>
       </c>
       <c r="G8" s="28">
-        <v>0.33</v>
+        <v>5</v>
       </c>
       <c r="H8" s="28" t="s">
-        <v>1118</v>
+        <v>1117</v>
       </c>
       <c r="I8" s="28"/>
       <c r="J8" s="28"/>
@@ -9169,7 +9186,7 @@
     </row>
     <row r="9" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A9" s="28" t="s">
-        <v>1060</v>
+        <v>1058</v>
       </c>
       <c r="B9" s="28">
         <v>0</v>
@@ -9183,10 +9200,10 @@
         <v>-0.5</v>
       </c>
       <c r="G9" s="28">
-        <v>0.495</v>
+        <v>2.5</v>
       </c>
       <c r="H9" s="28" t="s">
-        <v>1190</v>
+        <v>1118</v>
       </c>
       <c r="I9" s="28"/>
       <c r="J9" s="28"/>
@@ -9199,7 +9216,7 @@
     </row>
     <row r="10" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A10" s="28" t="s">
-        <v>1061</v>
+        <v>1060</v>
       </c>
       <c r="B10" s="28">
         <v>0</v>
@@ -9213,10 +9230,10 @@
         <v>-0.5</v>
       </c>
       <c r="G10" s="28">
-        <v>0.33</v>
+        <v>5</v>
       </c>
       <c r="H10" s="28" t="s">
-        <v>1191</v>
+        <v>1190</v>
       </c>
       <c r="I10" s="28"/>
       <c r="J10" s="28"/>
@@ -9228,28 +9245,30 @@
       <c r="P10" s="28"/>
     </row>
     <row r="11" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A11" t="s">
-        <v>1062</v>
-      </c>
-      <c r="B11">
-        <v>0</v>
-      </c>
-      <c r="C11">
-        <v>0</v>
-      </c>
-      <c r="F11">
+      <c r="A11" s="28" t="s">
+        <v>1061</v>
+      </c>
+      <c r="B11" s="28">
+        <v>0</v>
+      </c>
+      <c r="C11" s="28">
+        <v>0</v>
+      </c>
+      <c r="D11" s="28"/>
+      <c r="E11" s="28"/>
+      <c r="F11" s="28">
         <v>-0.5</v>
       </c>
-      <c r="G11">
-        <v>0.33</v>
-      </c>
-      <c r="H11" t="s">
-        <v>1192</v>
+      <c r="G11" s="28">
+        <v>2.5</v>
+      </c>
+      <c r="H11" s="28" t="s">
+        <v>1191</v>
       </c>
     </row>
     <row r="12" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
-        <v>849</v>
+        <v>1062</v>
       </c>
       <c r="B12">
         <v>0</v>
@@ -9261,14 +9280,109 @@
         <v>-0.5</v>
       </c>
       <c r="G12">
+        <v>5</v>
+      </c>
+      <c r="H12" t="s">
+        <v>1192</v>
+      </c>
+    </row>
+    <row r="13" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A13" t="s">
+        <v>849</v>
+      </c>
+      <c r="B13">
+        <v>0</v>
+      </c>
+      <c r="C13">
+        <v>0</v>
+      </c>
+      <c r="F13">
+        <v>-0.5</v>
+      </c>
+      <c r="G13">
         <v>0.33</v>
       </c>
-      <c r="H12" t="s">
-        <v>1195</v>
+      <c r="H13" t="s">
+        <v>1215</v>
+      </c>
+    </row>
+    <row r="14" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A14" t="s">
+        <v>1204</v>
+      </c>
+      <c r="B14" s="28">
+        <v>0</v>
+      </c>
+      <c r="C14" s="28">
+        <v>0</v>
+      </c>
+      <c r="D14" s="28"/>
+      <c r="E14" s="28"/>
+      <c r="F14" s="28">
+        <v>-0.5</v>
+      </c>
+      <c r="G14">
+        <v>0</v>
+      </c>
+      <c r="H14" t="s">
+        <v>1207</v>
+      </c>
+    </row>
+    <row r="15" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A15" t="s">
+        <v>1205</v>
+      </c>
+      <c r="B15" s="28">
+        <v>0</v>
+      </c>
+      <c r="C15" s="28">
+        <v>0</v>
+      </c>
+      <c r="D15" s="28"/>
+      <c r="E15" s="28"/>
+      <c r="F15" s="28">
+        <v>-0.5</v>
+      </c>
+      <c r="G15">
+        <v>0</v>
+      </c>
+      <c r="H15" t="s">
+        <v>1208</v>
+      </c>
+    </row>
+    <row r="16" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A16" t="s">
+        <v>1206</v>
+      </c>
+      <c r="B16" s="28">
+        <v>0</v>
+      </c>
+      <c r="C16" s="28">
+        <v>0</v>
+      </c>
+      <c r="D16" s="28"/>
+      <c r="E16" s="28"/>
+      <c r="F16" s="28">
+        <v>-0.5</v>
+      </c>
+      <c r="G16">
+        <v>0</v>
+      </c>
+      <c r="H16" t="s">
+        <v>1209</v>
+      </c>
+    </row>
+    <row r="17" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A17" t="s">
+        <v>1210</v>
+      </c>
+      <c r="H17" t="s">
+        <v>1214</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 
@@ -9276,7 +9390,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:P33"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="H16" sqref="H16"/>
     </sheetView>
   </sheetViews>
@@ -9539,7 +9653,7 @@
         <v>16.023499999999999</v>
       </c>
       <c r="H9" s="14" t="s">
-        <v>1199</v>
+        <v>1197</v>
       </c>
       <c r="N9" s="28" t="s">
         <v>1029</v>
@@ -9566,7 +9680,7 @@
         <v>14.716100000000001</v>
       </c>
       <c r="H10" s="14" t="s">
-        <v>1200</v>
+        <v>1198</v>
       </c>
       <c r="N10" s="28" t="s">
         <v>1026</v>
@@ -9834,7 +9948,7 @@
         <v>0.87390000000000001</v>
       </c>
       <c r="H20" s="29" t="s">
-        <v>1201</v>
+        <v>1199</v>
       </c>
       <c r="N20" t="s">
         <v>1133</v>
@@ -9914,7 +10028,7 @@
     </row>
     <row r="27" spans="1:16" x14ac:dyDescent="0.25">
       <c r="N27" t="s">
-        <v>1202</v>
+        <v>1200</v>
       </c>
       <c r="O27" s="28">
         <v>0</v>
@@ -9925,7 +10039,7 @@
     </row>
     <row r="28" spans="1:16" x14ac:dyDescent="0.25">
       <c r="N28" t="s">
-        <v>1203</v>
+        <v>1201</v>
       </c>
       <c r="O28" s="28">
         <v>0</v>
@@ -9947,7 +10061,7 @@
     </row>
     <row r="30" spans="1:16" x14ac:dyDescent="0.25">
       <c r="N30" t="s">
-        <v>1204</v>
+        <v>1202</v>
       </c>
       <c r="O30" s="28">
         <v>0</v>
@@ -9958,7 +10072,7 @@
     </row>
     <row r="31" spans="1:16" x14ac:dyDescent="0.25">
       <c r="N31" t="s">
-        <v>1205</v>
+        <v>1203</v>
       </c>
       <c r="O31" s="28">
         <v>0</v>
@@ -9969,7 +10083,7 @@
     </row>
     <row r="32" spans="1:16" x14ac:dyDescent="0.25">
       <c r="N32" t="s">
-        <v>1197</v>
+        <v>1195</v>
       </c>
       <c r="O32" s="28">
         <v>0</v>
@@ -9980,7 +10094,7 @@
     </row>
     <row r="33" spans="14:16" x14ac:dyDescent="0.25">
       <c r="N33" t="s">
-        <v>1198</v>
+        <v>1196</v>
       </c>
       <c r="O33" s="28">
         <v>0</v>
@@ -56077,7 +56191,7 @@
         <v>884</v>
       </c>
       <c r="N60" s="28" t="s">
-        <v>1197</v>
+        <v>1195</v>
       </c>
       <c r="O60" s="28">
         <v>0</v>
@@ -56104,7 +56218,7 @@
         <v>1149</v>
       </c>
       <c r="N61" s="28" t="s">
-        <v>1198</v>
+        <v>1196</v>
       </c>
       <c r="O61" s="28">
         <v>0</v>

--- a/KineticModel/test.xlsx
+++ b/KineticModel/test.xlsx
@@ -23,14 +23,15 @@
     <sheet name="Sheet3" sheetId="9" r:id="rId14"/>
     <sheet name="Sheet7" sheetId="11" r:id="rId15"/>
     <sheet name="N2m" sheetId="17" r:id="rId16"/>
-    <sheet name="EcoliCCM" sheetId="18" r:id="rId17"/>
+    <sheet name="N3m" sheetId="19" r:id="rId17"/>
+    <sheet name="EcoliCCM" sheetId="18" r:id="rId18"/>
   </sheets>
   <calcPr calcId="145621"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2198" uniqueCount="1216">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2260" uniqueCount="1241">
   <si>
     <t>Name</t>
   </si>
@@ -3699,6 +3700,81 @@
   </si>
   <si>
     <t>20 B[c] ---&gt; Biomass</t>
+  </si>
+  <si>
+    <t>&lt;==&gt; S[e]</t>
+  </si>
+  <si>
+    <t>S[e] ---&gt; S[c]</t>
+  </si>
+  <si>
+    <t>[c] : S ---&gt; B</t>
+  </si>
+  <si>
+    <t>[c] : S ---&gt; A</t>
+  </si>
+  <si>
+    <t>[c] : S ---&gt; M</t>
+  </si>
+  <si>
+    <t>[c] : S ---&gt; P</t>
+  </si>
+  <si>
+    <t>[c] : M ---&gt; N</t>
+  </si>
+  <si>
+    <t>[c] : M + N ---&gt; A + K</t>
+  </si>
+  <si>
+    <t>[c] : N ---&gt; K</t>
+  </si>
+  <si>
+    <t>[c] : K ---&gt; B + P</t>
+  </si>
+  <si>
+    <t>B[c] ---&gt; B[e]</t>
+  </si>
+  <si>
+    <t>A[c] ---&gt; A[e]</t>
+  </si>
+  <si>
+    <t>B[e] ---&gt;</t>
+  </si>
+  <si>
+    <t>A[e] ---&gt;</t>
+  </si>
+  <si>
+    <t>biomass[c] ---&gt;</t>
+  </si>
+  <si>
+    <t>S[c]</t>
+  </si>
+  <si>
+    <t>M[c]</t>
+  </si>
+  <si>
+    <t>N[c]</t>
+  </si>
+  <si>
+    <t>K[c]</t>
+  </si>
+  <si>
+    <t>S[e]</t>
+  </si>
+  <si>
+    <t>B[e]</t>
+  </si>
+  <si>
+    <t>P[e]</t>
+  </si>
+  <si>
+    <t>Bex</t>
+  </si>
+  <si>
+    <t>exS</t>
+  </si>
+  <si>
+    <t>[c] : 10 M  + 5 N ---&gt; biomass</t>
   </si>
 </sst>
 </file>
@@ -8881,7 +8957,7 @@
   <dimension ref="A1:P17"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H13" sqref="H13"/>
+      <selection activeCell="F10" sqref="F10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -8975,7 +9051,7 @@
       <c r="D3" s="28"/>
       <c r="E3" s="28"/>
       <c r="F3" s="28">
-        <v>-0.5</v>
+        <v>-8</v>
       </c>
       <c r="G3" s="28">
         <v>20</v>
@@ -9013,7 +9089,7 @@
       <c r="D4" s="28"/>
       <c r="E4" s="28"/>
       <c r="F4" s="28">
-        <v>-0.5</v>
+        <v>-8</v>
       </c>
       <c r="G4" s="28">
         <v>5</v>
@@ -9051,7 +9127,7 @@
       <c r="D5" s="28"/>
       <c r="E5" s="28"/>
       <c r="F5" s="28">
-        <v>-0.5</v>
+        <v>-8</v>
       </c>
       <c r="G5" s="28">
         <v>10</v>
@@ -9089,7 +9165,7 @@
       <c r="D6" s="28"/>
       <c r="E6" s="28"/>
       <c r="F6" s="28">
-        <v>-0.5</v>
+        <v>0</v>
       </c>
       <c r="G6" s="28">
         <v>5</v>
@@ -9127,7 +9203,7 @@
       <c r="D7" s="28"/>
       <c r="E7" s="28"/>
       <c r="F7" s="28">
-        <v>-0.5</v>
+        <v>-8</v>
       </c>
       <c r="G7" s="28">
         <v>2.5</v>
@@ -9165,7 +9241,7 @@
       <c r="D8" s="28"/>
       <c r="E8" s="28"/>
       <c r="F8" s="28">
-        <v>-0.5</v>
+        <v>-8</v>
       </c>
       <c r="G8" s="28">
         <v>5</v>
@@ -9197,7 +9273,7 @@
       <c r="D9" s="28"/>
       <c r="E9" s="28"/>
       <c r="F9" s="28">
-        <v>-0.5</v>
+        <v>0</v>
       </c>
       <c r="G9" s="28">
         <v>2.5</v>
@@ -9387,6 +9463,591 @@
 </file>
 
 <file path=xl/worksheets/sheet17.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:P19"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="H15" sqref="H15"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData>
+    <row r="1" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A1" s="28" t="s">
+        <v>565</v>
+      </c>
+      <c r="B1" s="28" t="s">
+        <v>728</v>
+      </c>
+      <c r="C1" s="28" t="s">
+        <v>731</v>
+      </c>
+      <c r="D1" s="28" t="s">
+        <v>729</v>
+      </c>
+      <c r="E1" s="28" t="s">
+        <v>730</v>
+      </c>
+      <c r="F1" s="28" t="s">
+        <v>830</v>
+      </c>
+      <c r="G1" s="28" t="s">
+        <v>818</v>
+      </c>
+      <c r="H1" s="28" t="s">
+        <v>1</v>
+      </c>
+      <c r="I1" s="28" t="s">
+        <v>608</v>
+      </c>
+      <c r="J1" s="28" t="s">
+        <v>609</v>
+      </c>
+      <c r="K1" s="28" t="s">
+        <v>654</v>
+      </c>
+      <c r="L1" s="28" t="s">
+        <v>656</v>
+      </c>
+      <c r="M1" s="28" t="s">
+        <v>657</v>
+      </c>
+      <c r="N1" s="28" t="s">
+        <v>726</v>
+      </c>
+      <c r="O1" s="28" t="s">
+        <v>828</v>
+      </c>
+      <c r="P1" s="28" t="s">
+        <v>829</v>
+      </c>
+    </row>
+    <row r="2" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A2" s="28" t="s">
+        <v>1239</v>
+      </c>
+      <c r="B2" s="28"/>
+      <c r="C2" s="28"/>
+      <c r="D2" s="28"/>
+      <c r="E2" s="28"/>
+      <c r="F2" s="28"/>
+      <c r="G2" s="28"/>
+      <c r="H2" s="28" t="s">
+        <v>1216</v>
+      </c>
+      <c r="I2" s="28"/>
+      <c r="J2" s="28"/>
+      <c r="K2" s="28"/>
+      <c r="L2" s="28"/>
+      <c r="M2" s="28"/>
+      <c r="N2" s="28" t="s">
+        <v>1193</v>
+      </c>
+      <c r="O2" s="28">
+        <v>0.1</v>
+      </c>
+      <c r="P2" s="28">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="3" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A3" s="28" t="s">
+        <v>1057</v>
+      </c>
+      <c r="B3" s="28">
+        <v>0</v>
+      </c>
+      <c r="C3" s="28">
+        <v>0</v>
+      </c>
+      <c r="D3" s="28"/>
+      <c r="E3" s="28"/>
+      <c r="F3" s="28">
+        <v>-0.5</v>
+      </c>
+      <c r="G3" s="28">
+        <v>20</v>
+      </c>
+      <c r="H3" s="1" t="s">
+        <v>1217</v>
+      </c>
+      <c r="I3" s="28"/>
+      <c r="J3" s="28"/>
+      <c r="K3" s="28"/>
+      <c r="L3" s="28"/>
+      <c r="M3" s="28"/>
+      <c r="N3" s="28" t="s">
+        <v>1231</v>
+      </c>
+      <c r="O3" s="28">
+        <v>0.1</v>
+      </c>
+      <c r="P3" s="28">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="4" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A4" s="28" t="s">
+        <v>1054</v>
+      </c>
+      <c r="B4" s="28">
+        <v>0</v>
+      </c>
+      <c r="C4" s="28">
+        <v>0</v>
+      </c>
+      <c r="D4" s="28"/>
+      <c r="E4" s="28"/>
+      <c r="F4" s="28">
+        <v>-0.5</v>
+      </c>
+      <c r="G4" s="28">
+        <v>5</v>
+      </c>
+      <c r="H4" s="28" t="s">
+        <v>1218</v>
+      </c>
+      <c r="I4" s="28"/>
+      <c r="J4" s="28"/>
+      <c r="K4" s="28"/>
+      <c r="L4" s="28"/>
+      <c r="M4" s="28"/>
+      <c r="N4" s="28" t="s">
+        <v>1121</v>
+      </c>
+      <c r="O4" s="28">
+        <v>0.1</v>
+      </c>
+      <c r="P4" s="28">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="5" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A5" s="28" t="s">
+        <v>764</v>
+      </c>
+      <c r="B5" s="28">
+        <v>0</v>
+      </c>
+      <c r="C5" s="28">
+        <v>0</v>
+      </c>
+      <c r="D5" s="28"/>
+      <c r="E5" s="28"/>
+      <c r="F5" s="28">
+        <v>-0.5</v>
+      </c>
+      <c r="G5" s="28">
+        <v>10</v>
+      </c>
+      <c r="H5" s="28" t="s">
+        <v>1219</v>
+      </c>
+      <c r="I5" s="28"/>
+      <c r="J5" s="28"/>
+      <c r="K5" s="28"/>
+      <c r="L5" s="28"/>
+      <c r="M5" s="28"/>
+      <c r="N5" s="28" t="s">
+        <v>1232</v>
+      </c>
+      <c r="O5" s="28">
+        <v>0.1</v>
+      </c>
+      <c r="P5" s="28">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="6" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A6" s="28" t="s">
+        <v>1055</v>
+      </c>
+      <c r="B6" s="28">
+        <v>0</v>
+      </c>
+      <c r="C6" s="28">
+        <v>0</v>
+      </c>
+      <c r="D6" s="28"/>
+      <c r="E6" s="28"/>
+      <c r="F6" s="28">
+        <v>-0.5</v>
+      </c>
+      <c r="G6" s="28">
+        <v>5</v>
+      </c>
+      <c r="H6" s="28" t="s">
+        <v>1220</v>
+      </c>
+      <c r="I6" s="28"/>
+      <c r="J6" s="28"/>
+      <c r="K6" s="28"/>
+      <c r="L6" s="28"/>
+      <c r="M6" s="28"/>
+      <c r="N6" s="28" t="s">
+        <v>1125</v>
+      </c>
+      <c r="O6" s="28">
+        <v>0.1</v>
+      </c>
+      <c r="P6" s="28">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="7" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A7" s="28" t="s">
+        <v>1059</v>
+      </c>
+      <c r="B7" s="28">
+        <v>0</v>
+      </c>
+      <c r="C7" s="28">
+        <v>0</v>
+      </c>
+      <c r="D7" s="28"/>
+      <c r="E7" s="28"/>
+      <c r="F7" s="28">
+        <v>-0.5</v>
+      </c>
+      <c r="G7" s="28">
+        <v>5</v>
+      </c>
+      <c r="H7" s="28" t="s">
+        <v>1221</v>
+      </c>
+      <c r="I7" s="28"/>
+      <c r="J7" s="28"/>
+      <c r="K7" s="28"/>
+      <c r="L7" s="28"/>
+      <c r="M7" s="28"/>
+      <c r="N7" s="28" t="s">
+        <v>1233</v>
+      </c>
+      <c r="O7" s="28">
+        <v>0.1</v>
+      </c>
+      <c r="P7" s="28">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="8" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A8" s="28" t="s">
+        <v>1056</v>
+      </c>
+      <c r="B8" s="28">
+        <v>0</v>
+      </c>
+      <c r="C8" s="28">
+        <v>0</v>
+      </c>
+      <c r="D8" s="28"/>
+      <c r="E8" s="28"/>
+      <c r="F8" s="28">
+        <v>-0.5</v>
+      </c>
+      <c r="G8" s="28">
+        <v>2.5</v>
+      </c>
+      <c r="H8" s="28" t="s">
+        <v>1222</v>
+      </c>
+      <c r="I8" s="28"/>
+      <c r="J8" s="28"/>
+      <c r="K8" s="28"/>
+      <c r="L8" s="28"/>
+      <c r="M8" s="28"/>
+      <c r="N8" s="28" t="s">
+        <v>1234</v>
+      </c>
+      <c r="O8" s="28">
+        <v>0.1</v>
+      </c>
+      <c r="P8" s="28">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="9" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A9" s="28" t="s">
+        <v>1058</v>
+      </c>
+      <c r="B9" s="28">
+        <v>0</v>
+      </c>
+      <c r="C9" s="28">
+        <v>0</v>
+      </c>
+      <c r="D9" s="28"/>
+      <c r="E9" s="28"/>
+      <c r="F9" s="28">
+        <v>-0.5</v>
+      </c>
+      <c r="G9" s="28">
+        <v>2.5</v>
+      </c>
+      <c r="H9" s="28" t="s">
+        <v>1223</v>
+      </c>
+      <c r="I9" s="28"/>
+      <c r="J9" s="28"/>
+      <c r="K9" s="28"/>
+      <c r="L9" s="28"/>
+      <c r="M9" s="28"/>
+      <c r="N9" s="28" t="s">
+        <v>1235</v>
+      </c>
+      <c r="O9" s="28">
+        <v>0.1</v>
+      </c>
+      <c r="P9" s="28">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="10" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A10" t="s">
+        <v>1063</v>
+      </c>
+      <c r="B10" s="28">
+        <v>0</v>
+      </c>
+      <c r="C10" s="28">
+        <v>0</v>
+      </c>
+      <c r="D10" s="28"/>
+      <c r="E10" s="28"/>
+      <c r="F10" s="28">
+        <v>-0.5</v>
+      </c>
+      <c r="G10" s="28">
+        <v>2.5</v>
+      </c>
+      <c r="H10" t="s">
+        <v>1224</v>
+      </c>
+      <c r="I10" s="28"/>
+      <c r="J10" s="28"/>
+      <c r="K10" s="28"/>
+      <c r="L10" s="28"/>
+      <c r="M10" s="28"/>
+      <c r="N10" s="28" t="s">
+        <v>1236</v>
+      </c>
+      <c r="O10" s="28">
+        <v>0.1</v>
+      </c>
+      <c r="P10" s="28">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="11" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A11" t="s">
+        <v>1064</v>
+      </c>
+      <c r="B11" s="28">
+        <v>0</v>
+      </c>
+      <c r="C11" s="28">
+        <v>0</v>
+      </c>
+      <c r="D11" s="28"/>
+      <c r="E11" s="28"/>
+      <c r="F11" s="28">
+        <v>-0.5</v>
+      </c>
+      <c r="G11" s="28">
+        <v>2.5</v>
+      </c>
+      <c r="H11" t="s">
+        <v>1225</v>
+      </c>
+      <c r="I11" s="28"/>
+      <c r="J11" s="28"/>
+      <c r="K11" s="28"/>
+      <c r="L11" s="28"/>
+      <c r="M11" s="28"/>
+      <c r="N11" s="28" t="s">
+        <v>1237</v>
+      </c>
+      <c r="O11" s="28">
+        <v>0.1</v>
+      </c>
+      <c r="P11" s="28">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="12" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A12" s="28" t="s">
+        <v>1060</v>
+      </c>
+      <c r="B12" s="28"/>
+      <c r="C12" s="28"/>
+      <c r="D12" s="28"/>
+      <c r="E12" s="28"/>
+      <c r="F12" s="28"/>
+      <c r="G12" s="28"/>
+      <c r="H12" s="28" t="s">
+        <v>1190</v>
+      </c>
+      <c r="I12" s="28"/>
+      <c r="J12" s="28"/>
+      <c r="K12" s="28"/>
+      <c r="L12" s="28"/>
+      <c r="M12" s="28"/>
+      <c r="N12" s="28"/>
+      <c r="O12" s="28"/>
+      <c r="P12" s="28"/>
+    </row>
+    <row r="13" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A13" s="28" t="s">
+        <v>1061</v>
+      </c>
+      <c r="B13" s="28"/>
+      <c r="C13" s="28"/>
+      <c r="D13" s="28"/>
+      <c r="E13" s="28"/>
+      <c r="F13" s="28"/>
+      <c r="G13" s="28"/>
+      <c r="H13" s="28" t="s">
+        <v>1226</v>
+      </c>
+      <c r="I13" s="28"/>
+      <c r="J13" s="28"/>
+      <c r="K13" s="28"/>
+      <c r="L13" s="28"/>
+      <c r="M13" s="28"/>
+      <c r="N13" s="28"/>
+      <c r="O13" s="28"/>
+      <c r="P13" s="28"/>
+    </row>
+    <row r="14" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A14" s="28" t="s">
+        <v>1062</v>
+      </c>
+      <c r="B14" s="28"/>
+      <c r="C14" s="28"/>
+      <c r="D14" s="28"/>
+      <c r="E14" s="28"/>
+      <c r="F14" s="28"/>
+      <c r="G14" s="28"/>
+      <c r="H14" s="28" t="s">
+        <v>1227</v>
+      </c>
+      <c r="I14" s="28"/>
+      <c r="J14" s="28"/>
+      <c r="K14" s="28"/>
+      <c r="L14" s="28"/>
+      <c r="M14" s="28"/>
+      <c r="N14" s="28"/>
+      <c r="O14" s="28"/>
+      <c r="P14" s="28"/>
+    </row>
+    <row r="15" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A15" s="28" t="s">
+        <v>849</v>
+      </c>
+      <c r="B15" s="28">
+        <v>0</v>
+      </c>
+      <c r="C15" s="28">
+        <v>0</v>
+      </c>
+      <c r="D15" s="28"/>
+      <c r="E15" s="28"/>
+      <c r="F15" s="28">
+        <v>-0.5</v>
+      </c>
+      <c r="G15" s="28">
+        <v>0.33</v>
+      </c>
+      <c r="H15" s="28" t="s">
+        <v>1240</v>
+      </c>
+      <c r="I15" s="28"/>
+      <c r="J15" s="28"/>
+      <c r="K15" s="28"/>
+      <c r="L15" s="28"/>
+      <c r="M15" s="28"/>
+      <c r="N15" s="28"/>
+      <c r="O15" s="28"/>
+      <c r="P15" s="28"/>
+    </row>
+    <row r="16" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A16" s="28" t="s">
+        <v>1204</v>
+      </c>
+      <c r="B16" s="28"/>
+      <c r="C16" s="28"/>
+      <c r="D16" s="28"/>
+      <c r="E16" s="28"/>
+      <c r="F16" s="28"/>
+      <c r="G16" s="28"/>
+      <c r="H16" s="28" t="s">
+        <v>1207</v>
+      </c>
+      <c r="I16" s="28"/>
+      <c r="J16" s="28"/>
+      <c r="K16" s="28"/>
+      <c r="L16" s="28"/>
+      <c r="M16" s="28"/>
+      <c r="N16" s="28"/>
+      <c r="O16" s="28"/>
+      <c r="P16" s="28"/>
+    </row>
+    <row r="17" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A17" s="28" t="s">
+        <v>1238</v>
+      </c>
+      <c r="B17" s="28"/>
+      <c r="C17" s="28"/>
+      <c r="D17" s="28"/>
+      <c r="E17" s="28"/>
+      <c r="F17" s="28"/>
+      <c r="G17" s="28"/>
+      <c r="H17" s="28" t="s">
+        <v>1228</v>
+      </c>
+      <c r="I17" s="28"/>
+      <c r="J17" s="28"/>
+      <c r="K17" s="28"/>
+      <c r="L17" s="28"/>
+      <c r="M17" s="28"/>
+      <c r="N17" s="28"/>
+      <c r="O17" s="28"/>
+      <c r="P17" s="28"/>
+    </row>
+    <row r="18" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A18" s="28" t="s">
+        <v>1212</v>
+      </c>
+      <c r="B18" s="28"/>
+      <c r="C18" s="28"/>
+      <c r="D18" s="28"/>
+      <c r="E18" s="28"/>
+      <c r="F18" s="28"/>
+      <c r="G18" s="28"/>
+      <c r="H18" s="28" t="s">
+        <v>1229</v>
+      </c>
+    </row>
+    <row r="19" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A19" s="28" t="s">
+        <v>1210</v>
+      </c>
+      <c r="B19" s="28"/>
+      <c r="C19" s="28"/>
+      <c r="D19" s="28"/>
+      <c r="E19" s="28"/>
+      <c r="F19" s="28"/>
+      <c r="G19" s="28"/>
+      <c r="H19" s="28" t="s">
+        <v>1230</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet18.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:P33"/>
   <sheetViews>

--- a/KineticModel/test.xlsx
+++ b/KineticModel/test.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="4605" windowWidth="16275" windowHeight="3240" firstSheet="5" activeTab="15"/>
+    <workbookView xWindow="240" yWindow="4605" windowWidth="16275" windowHeight="3240" firstSheet="5" activeTab="16"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2260" uniqueCount="1241">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2257" uniqueCount="1238">
   <si>
     <t>Name</t>
   </si>
@@ -3630,9 +3630,6 @@
     <t>E[c] ---&gt; E[e]</t>
   </si>
   <si>
-    <t>D[c] ---&gt; D[e]</t>
-  </si>
-  <si>
     <t>A[c]</t>
   </si>
   <si>
@@ -3672,16 +3669,10 @@
     <t>Eex</t>
   </si>
   <si>
-    <t>Dex</t>
-  </si>
-  <si>
     <t>P[e] ---&gt;</t>
   </si>
   <si>
     <t>E[e] ---&gt;</t>
-  </si>
-  <si>
-    <t>D[e] ---&gt;</t>
   </si>
   <si>
     <t>BiomassEX</t>
@@ -8954,10 +8945,10 @@
 
 <file path=xl/worksheets/sheet16.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:P17"/>
+  <dimension ref="A1:P16"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F10" sqref="F10"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="N2" sqref="N2:N8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -9018,10 +9009,10 @@
     </row>
     <row r="2" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>1212</v>
+        <v>1209</v>
       </c>
       <c r="H2" t="s">
-        <v>1213</v>
+        <v>1210</v>
       </c>
       <c r="I2" s="28"/>
       <c r="J2" s="28"/>
@@ -9029,7 +9020,7 @@
       <c r="L2" s="28"/>
       <c r="M2" s="28"/>
       <c r="N2" s="28" t="s">
-        <v>1193</v>
+        <v>1192</v>
       </c>
       <c r="O2" s="28">
         <v>0.1</v>
@@ -9057,7 +9048,7 @@
         <v>20</v>
       </c>
       <c r="H3" s="1" t="s">
-        <v>1211</v>
+        <v>1208</v>
       </c>
       <c r="I3" s="28"/>
       <c r="J3" s="28"/>
@@ -9165,10 +9156,10 @@
       <c r="D6" s="28"/>
       <c r="E6" s="28"/>
       <c r="F6" s="28">
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="G6" s="28">
-        <v>5</v>
+        <v>2.5</v>
       </c>
       <c r="H6" s="28" t="s">
         <v>1189</v>
@@ -9209,7 +9200,7 @@
         <v>2.5</v>
       </c>
       <c r="H7" s="28" t="s">
-        <v>1194</v>
+        <v>1193</v>
       </c>
       <c r="I7" s="28"/>
       <c r="J7" s="28"/>
@@ -9273,7 +9264,7 @@
       <c r="D9" s="28"/>
       <c r="E9" s="28"/>
       <c r="F9" s="28">
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="G9" s="28">
         <v>2.5</v>
@@ -9344,7 +9335,7 @@
     </row>
     <row r="12" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
-        <v>1062</v>
+        <v>849</v>
       </c>
       <c r="B12">
         <v>0</v>
@@ -9356,30 +9347,32 @@
         <v>-0.5</v>
       </c>
       <c r="G12">
-        <v>5</v>
+        <v>0.33</v>
       </c>
       <c r="H12" t="s">
-        <v>1192</v>
+        <v>1212</v>
       </c>
     </row>
     <row r="13" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
-        <v>849</v>
-      </c>
-      <c r="B13">
-        <v>0</v>
-      </c>
-      <c r="C13">
-        <v>0</v>
-      </c>
-      <c r="F13">
+        <v>1203</v>
+      </c>
+      <c r="B13" s="28">
+        <v>0</v>
+      </c>
+      <c r="C13" s="28">
+        <v>0</v>
+      </c>
+      <c r="D13" s="28"/>
+      <c r="E13" s="28"/>
+      <c r="F13" s="28">
         <v>-0.5</v>
       </c>
       <c r="G13">
-        <v>0.33</v>
+        <v>0</v>
       </c>
       <c r="H13" t="s">
-        <v>1215</v>
+        <v>1205</v>
       </c>
     </row>
     <row r="14" spans="1:16" x14ac:dyDescent="0.25">
@@ -9401,60 +9394,23 @@
         <v>0</v>
       </c>
       <c r="H14" t="s">
-        <v>1207</v>
+        <v>1206</v>
       </c>
     </row>
     <row r="15" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
-        <v>1205</v>
-      </c>
-      <c r="B15" s="28">
-        <v>0</v>
-      </c>
-      <c r="C15" s="28">
-        <v>0</v>
-      </c>
-      <c r="D15" s="28"/>
-      <c r="E15" s="28"/>
-      <c r="F15" s="28">
-        <v>-0.5</v>
-      </c>
-      <c r="G15">
-        <v>0</v>
+        <v>1207</v>
       </c>
       <c r="H15" t="s">
-        <v>1208</v>
+        <v>1211</v>
       </c>
     </row>
     <row r="16" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A16" t="s">
-        <v>1206</v>
-      </c>
-      <c r="B16" s="28">
-        <v>0</v>
-      </c>
-      <c r="C16" s="28">
-        <v>0</v>
-      </c>
+      <c r="B16" s="28"/>
+      <c r="C16" s="28"/>
       <c r="D16" s="28"/>
       <c r="E16" s="28"/>
-      <c r="F16" s="28">
-        <v>-0.5</v>
-      </c>
-      <c r="G16">
-        <v>0</v>
-      </c>
-      <c r="H16" t="s">
-        <v>1209</v>
-      </c>
-    </row>
-    <row r="17" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A17" t="s">
-        <v>1210</v>
-      </c>
-      <c r="H17" t="s">
-        <v>1214</v>
-      </c>
+      <c r="F16" s="28"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -9466,8 +9422,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:P19"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="H15" sqref="H15"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="I4" sqref="I4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -9524,7 +9480,7 @@
     </row>
     <row r="2" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A2" s="28" t="s">
-        <v>1239</v>
+        <v>1236</v>
       </c>
       <c r="B2" s="28"/>
       <c r="C2" s="28"/>
@@ -9533,7 +9489,7 @@
       <c r="F2" s="28"/>
       <c r="G2" s="28"/>
       <c r="H2" s="28" t="s">
-        <v>1216</v>
+        <v>1213</v>
       </c>
       <c r="I2" s="28"/>
       <c r="J2" s="28"/>
@@ -9541,7 +9497,7 @@
       <c r="L2" s="28"/>
       <c r="M2" s="28"/>
       <c r="N2" s="28" t="s">
-        <v>1193</v>
+        <v>1192</v>
       </c>
       <c r="O2" s="28">
         <v>0.1</v>
@@ -9569,7 +9525,7 @@
         <v>20</v>
       </c>
       <c r="H3" s="1" t="s">
-        <v>1217</v>
+        <v>1214</v>
       </c>
       <c r="I3" s="28"/>
       <c r="J3" s="28"/>
@@ -9577,7 +9533,7 @@
       <c r="L3" s="28"/>
       <c r="M3" s="28"/>
       <c r="N3" s="28" t="s">
-        <v>1231</v>
+        <v>1228</v>
       </c>
       <c r="O3" s="28">
         <v>0.1</v>
@@ -9605,7 +9561,7 @@
         <v>5</v>
       </c>
       <c r="H4" s="28" t="s">
-        <v>1218</v>
+        <v>1215</v>
       </c>
       <c r="I4" s="28"/>
       <c r="J4" s="28"/>
@@ -9641,15 +9597,17 @@
         <v>10</v>
       </c>
       <c r="H5" s="28" t="s">
-        <v>1219</v>
+        <v>1216</v>
       </c>
       <c r="I5" s="28"/>
-      <c r="J5" s="28"/>
+      <c r="J5" s="28" t="s">
+        <v>1125</v>
+      </c>
       <c r="K5" s="28"/>
       <c r="L5" s="28"/>
       <c r="M5" s="28"/>
       <c r="N5" s="28" t="s">
-        <v>1232</v>
+        <v>1229</v>
       </c>
       <c r="O5" s="28">
         <v>0.1</v>
@@ -9677,7 +9635,7 @@
         <v>5</v>
       </c>
       <c r="H6" s="28" t="s">
-        <v>1220</v>
+        <v>1217</v>
       </c>
       <c r="I6" s="28"/>
       <c r="J6" s="28"/>
@@ -9713,7 +9671,7 @@
         <v>5</v>
       </c>
       <c r="H7" s="28" t="s">
-        <v>1221</v>
+        <v>1218</v>
       </c>
       <c r="I7" s="28"/>
       <c r="J7" s="28"/>
@@ -9721,7 +9679,7 @@
       <c r="L7" s="28"/>
       <c r="M7" s="28"/>
       <c r="N7" s="28" t="s">
-        <v>1233</v>
+        <v>1230</v>
       </c>
       <c r="O7" s="28">
         <v>0.1</v>
@@ -9743,13 +9701,13 @@
       <c r="D8" s="28"/>
       <c r="E8" s="28"/>
       <c r="F8" s="28">
-        <v>-0.5</v>
+        <v>0</v>
       </c>
       <c r="G8" s="28">
         <v>2.5</v>
       </c>
       <c r="H8" s="28" t="s">
-        <v>1222</v>
+        <v>1219</v>
       </c>
       <c r="I8" s="28"/>
       <c r="J8" s="28"/>
@@ -9757,7 +9715,7 @@
       <c r="L8" s="28"/>
       <c r="M8" s="28"/>
       <c r="N8" s="28" t="s">
-        <v>1234</v>
+        <v>1231</v>
       </c>
       <c r="O8" s="28">
         <v>0.1</v>
@@ -9779,13 +9737,13 @@
       <c r="D9" s="28"/>
       <c r="E9" s="28"/>
       <c r="F9" s="28">
-        <v>-0.5</v>
+        <v>0</v>
       </c>
       <c r="G9" s="28">
         <v>2.5</v>
       </c>
       <c r="H9" s="28" t="s">
-        <v>1223</v>
+        <v>1220</v>
       </c>
       <c r="I9" s="28"/>
       <c r="J9" s="28"/>
@@ -9793,7 +9751,7 @@
       <c r="L9" s="28"/>
       <c r="M9" s="28"/>
       <c r="N9" s="28" t="s">
-        <v>1235</v>
+        <v>1232</v>
       </c>
       <c r="O9" s="28">
         <v>0.1</v>
@@ -9821,7 +9779,7 @@
         <v>2.5</v>
       </c>
       <c r="H10" t="s">
-        <v>1224</v>
+        <v>1221</v>
       </c>
       <c r="I10" s="28"/>
       <c r="J10" s="28"/>
@@ -9829,7 +9787,7 @@
       <c r="L10" s="28"/>
       <c r="M10" s="28"/>
       <c r="N10" s="28" t="s">
-        <v>1236</v>
+        <v>1233</v>
       </c>
       <c r="O10" s="28">
         <v>0.1</v>
@@ -9857,7 +9815,7 @@
         <v>2.5</v>
       </c>
       <c r="H11" t="s">
-        <v>1225</v>
+        <v>1222</v>
       </c>
       <c r="I11" s="28"/>
       <c r="J11" s="28"/>
@@ -9865,7 +9823,7 @@
       <c r="L11" s="28"/>
       <c r="M11" s="28"/>
       <c r="N11" s="28" t="s">
-        <v>1237</v>
+        <v>1234</v>
       </c>
       <c r="O11" s="28">
         <v>0.1</v>
@@ -9907,7 +9865,7 @@
       <c r="F13" s="28"/>
       <c r="G13" s="28"/>
       <c r="H13" s="28" t="s">
-        <v>1226</v>
+        <v>1223</v>
       </c>
       <c r="I13" s="28"/>
       <c r="J13" s="28"/>
@@ -9929,7 +9887,7 @@
       <c r="F14" s="28"/>
       <c r="G14" s="28"/>
       <c r="H14" s="28" t="s">
-        <v>1227</v>
+        <v>1224</v>
       </c>
       <c r="I14" s="28"/>
       <c r="J14" s="28"/>
@@ -9959,7 +9917,7 @@
         <v>0.33</v>
       </c>
       <c r="H15" s="28" t="s">
-        <v>1240</v>
+        <v>1237</v>
       </c>
       <c r="I15" s="28"/>
       <c r="J15" s="28"/>
@@ -9972,7 +9930,7 @@
     </row>
     <row r="16" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A16" s="28" t="s">
-        <v>1204</v>
+        <v>1203</v>
       </c>
       <c r="B16" s="28"/>
       <c r="C16" s="28"/>
@@ -9981,7 +9939,7 @@
       <c r="F16" s="28"/>
       <c r="G16" s="28"/>
       <c r="H16" s="28" t="s">
-        <v>1207</v>
+        <v>1205</v>
       </c>
       <c r="I16" s="28"/>
       <c r="J16" s="28"/>
@@ -9994,7 +9952,7 @@
     </row>
     <row r="17" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A17" s="28" t="s">
-        <v>1238</v>
+        <v>1235</v>
       </c>
       <c r="B17" s="28"/>
       <c r="C17" s="28"/>
@@ -10003,7 +9961,7 @@
       <c r="F17" s="28"/>
       <c r="G17" s="28"/>
       <c r="H17" s="28" t="s">
-        <v>1228</v>
+        <v>1225</v>
       </c>
       <c r="I17" s="28"/>
       <c r="J17" s="28"/>
@@ -10016,7 +9974,7 @@
     </row>
     <row r="18" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A18" s="28" t="s">
-        <v>1212</v>
+        <v>1209</v>
       </c>
       <c r="B18" s="28"/>
       <c r="C18" s="28"/>
@@ -10025,12 +9983,12 @@
       <c r="F18" s="28"/>
       <c r="G18" s="28"/>
       <c r="H18" s="28" t="s">
-        <v>1229</v>
+        <v>1226</v>
       </c>
     </row>
     <row r="19" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A19" s="28" t="s">
-        <v>1210</v>
+        <v>1207</v>
       </c>
       <c r="B19" s="28"/>
       <c r="C19" s="28"/>
@@ -10039,7 +9997,7 @@
       <c r="F19" s="28"/>
       <c r="G19" s="28"/>
       <c r="H19" s="28" t="s">
-        <v>1230</v>
+        <v>1227</v>
       </c>
     </row>
   </sheetData>
@@ -10314,7 +10272,7 @@
         <v>16.023499999999999</v>
       </c>
       <c r="H9" s="14" t="s">
-        <v>1197</v>
+        <v>1196</v>
       </c>
       <c r="N9" s="28" t="s">
         <v>1029</v>
@@ -10341,7 +10299,7 @@
         <v>14.716100000000001</v>
       </c>
       <c r="H10" s="14" t="s">
-        <v>1198</v>
+        <v>1197</v>
       </c>
       <c r="N10" s="28" t="s">
         <v>1026</v>
@@ -10609,7 +10567,7 @@
         <v>0.87390000000000001</v>
       </c>
       <c r="H20" s="29" t="s">
-        <v>1199</v>
+        <v>1198</v>
       </c>
       <c r="N20" t="s">
         <v>1133</v>
@@ -10689,7 +10647,7 @@
     </row>
     <row r="27" spans="1:16" x14ac:dyDescent="0.25">
       <c r="N27" t="s">
-        <v>1200</v>
+        <v>1199</v>
       </c>
       <c r="O27" s="28">
         <v>0</v>
@@ -10700,7 +10658,7 @@
     </row>
     <row r="28" spans="1:16" x14ac:dyDescent="0.25">
       <c r="N28" t="s">
-        <v>1201</v>
+        <v>1200</v>
       </c>
       <c r="O28" s="28">
         <v>0</v>
@@ -10722,7 +10680,7 @@
     </row>
     <row r="30" spans="1:16" x14ac:dyDescent="0.25">
       <c r="N30" t="s">
-        <v>1202</v>
+        <v>1201</v>
       </c>
       <c r="O30" s="28">
         <v>0</v>
@@ -10733,7 +10691,7 @@
     </row>
     <row r="31" spans="1:16" x14ac:dyDescent="0.25">
       <c r="N31" t="s">
-        <v>1203</v>
+        <v>1202</v>
       </c>
       <c r="O31" s="28">
         <v>0</v>
@@ -10744,7 +10702,7 @@
     </row>
     <row r="32" spans="1:16" x14ac:dyDescent="0.25">
       <c r="N32" t="s">
-        <v>1195</v>
+        <v>1194</v>
       </c>
       <c r="O32" s="28">
         <v>0</v>
@@ -10755,7 +10713,7 @@
     </row>
     <row r="33" spans="14:16" x14ac:dyDescent="0.25">
       <c r="N33" t="s">
-        <v>1196</v>
+        <v>1195</v>
       </c>
       <c r="O33" s="28">
         <v>0</v>
@@ -56852,7 +56810,7 @@
         <v>884</v>
       </c>
       <c r="N60" s="28" t="s">
-        <v>1195</v>
+        <v>1194</v>
       </c>
       <c r="O60" s="28">
         <v>0</v>
@@ -56879,7 +56837,7 @@
         <v>1149</v>
       </c>
       <c r="N61" s="28" t="s">
-        <v>1196</v>
+        <v>1195</v>
       </c>
       <c r="O61" s="28">
         <v>0</v>

--- a/KineticModel/test.xlsx
+++ b/KineticModel/test.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="4605" windowWidth="16275" windowHeight="3240" firstSheet="5" activeTab="16"/>
+    <workbookView xWindow="240" yWindow="4605" windowWidth="16275" windowHeight="3240" firstSheet="5" activeTab="15"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -8947,13 +8947,14 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:P16"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="N2" sqref="N2:N8"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D6" sqref="D6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="11" customWidth="1"/>
+    <col min="6" max="6" width="16.5703125" customWidth="1"/>
     <col min="8" max="8" width="19" customWidth="1"/>
   </cols>
   <sheetData>
@@ -9153,7 +9154,9 @@
       <c r="C6" s="28">
         <v>0</v>
       </c>
-      <c r="D6" s="28"/>
+      <c r="D6" s="28">
+        <v>100</v>
+      </c>
       <c r="E6" s="28"/>
       <c r="F6" s="28">
         <v>7</v>
@@ -9422,7 +9425,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:P19"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="I4" sqref="I4"/>
     </sheetView>
   </sheetViews>

--- a/KineticModel/test.xlsx
+++ b/KineticModel/test.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="4605" windowWidth="16275" windowHeight="3240" firstSheet="5" activeTab="15"/>
+    <workbookView xWindow="240" yWindow="4665" windowWidth="16275" windowHeight="3180" firstSheet="5" activeTab="15"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -22,7 +22,7 @@
     <sheet name="Sheet6" sheetId="10" r:id="rId13"/>
     <sheet name="Sheet3" sheetId="9" r:id="rId14"/>
     <sheet name="Sheet7" sheetId="11" r:id="rId15"/>
-    <sheet name="N2m" sheetId="17" r:id="rId16"/>
+    <sheet name="N2am" sheetId="17" r:id="rId16"/>
     <sheet name="N3m" sheetId="19" r:id="rId17"/>
     <sheet name="EcoliCCM" sheetId="18" r:id="rId18"/>
   </sheets>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2257" uniqueCount="1238">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2257" uniqueCount="1240">
   <si>
     <t>Name</t>
   </si>
@@ -3621,9 +3621,6 @@
     <t>[c] : A ---&gt; B</t>
   </si>
   <si>
-    <t>[c] : A ---&gt; D</t>
-  </si>
-  <si>
     <t>P[c] ---&gt; P[e]</t>
   </si>
   <si>
@@ -3687,12 +3684,6 @@
     <t>&lt;==&gt; A[e]</t>
   </si>
   <si>
-    <t>Biomass ---&gt;</t>
-  </si>
-  <si>
-    <t>20 B[c] ---&gt; Biomass</t>
-  </si>
-  <si>
     <t>&lt;==&gt; S[e]</t>
   </si>
   <si>
@@ -3766,6 +3757,21 @@
   </si>
   <si>
     <t>[c] : 10 M  + 5 N ---&gt; biomass</t>
+  </si>
+  <si>
+    <t>[c] : D ---&gt; A</t>
+  </si>
+  <si>
+    <t>[c] : P + E ---&gt; C + D</t>
+  </si>
+  <si>
+    <t>20 B[c] ---&gt; Biomass[c]</t>
+  </si>
+  <si>
+    <t>Biomass[c] ---&gt;</t>
+  </si>
+  <si>
+    <t>EC_biomass</t>
   </si>
 </sst>
 </file>
@@ -8948,12 +8954,12 @@
   <dimension ref="A1:P16"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D6" sqref="D6"/>
+      <selection activeCell="F5" sqref="F5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="11" customWidth="1"/>
+    <col min="1" max="1" width="14.42578125" customWidth="1"/>
     <col min="6" max="6" width="16.5703125" customWidth="1"/>
     <col min="8" max="8" width="19" customWidth="1"/>
   </cols>
@@ -9010,10 +9016,10 @@
     </row>
     <row r="2" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
+        <v>1208</v>
+      </c>
+      <c r="H2" t="s">
         <v>1209</v>
-      </c>
-      <c r="H2" t="s">
-        <v>1210</v>
       </c>
       <c r="I2" s="28"/>
       <c r="J2" s="28"/>
@@ -9021,7 +9027,7 @@
       <c r="L2" s="28"/>
       <c r="M2" s="28"/>
       <c r="N2" s="28" t="s">
-        <v>1192</v>
+        <v>1191</v>
       </c>
       <c r="O2" s="28">
         <v>0.1</v>
@@ -9049,7 +9055,7 @@
         <v>20</v>
       </c>
       <c r="H3" s="1" t="s">
-        <v>1208</v>
+        <v>1207</v>
       </c>
       <c r="I3" s="28"/>
       <c r="J3" s="28"/>
@@ -9084,7 +9090,7 @@
         <v>-8</v>
       </c>
       <c r="G4" s="28">
-        <v>5</v>
+        <v>20</v>
       </c>
       <c r="H4" s="28" t="s">
         <v>1187</v>
@@ -9122,7 +9128,7 @@
         <v>-8</v>
       </c>
       <c r="G5" s="28">
-        <v>10</v>
+        <v>20</v>
       </c>
       <c r="H5" s="28" t="s">
         <v>1188</v>
@@ -9154,18 +9160,16 @@
       <c r="C6" s="28">
         <v>0</v>
       </c>
-      <c r="D6" s="28">
-        <v>100</v>
-      </c>
+      <c r="D6" s="28"/>
       <c r="E6" s="28"/>
       <c r="F6" s="28">
-        <v>7</v>
+        <v>-8</v>
       </c>
       <c r="G6" s="28">
-        <v>2.5</v>
+        <v>40</v>
       </c>
       <c r="H6" s="28" t="s">
-        <v>1189</v>
+        <v>1235</v>
       </c>
       <c r="I6" s="28"/>
       <c r="J6" s="28"/>
@@ -9200,10 +9204,10 @@
         <v>-8</v>
       </c>
       <c r="G7" s="28">
-        <v>2.5</v>
+        <v>20</v>
       </c>
       <c r="H7" s="28" t="s">
-        <v>1193</v>
+        <v>1192</v>
       </c>
       <c r="I7" s="28"/>
       <c r="J7" s="28"/>
@@ -9238,7 +9242,7 @@
         <v>-8</v>
       </c>
       <c r="G8" s="28">
-        <v>5</v>
+        <v>20</v>
       </c>
       <c r="H8" s="28" t="s">
         <v>1117</v>
@@ -9267,13 +9271,13 @@
       <c r="D9" s="28"/>
       <c r="E9" s="28"/>
       <c r="F9" s="28">
-        <v>7</v>
+        <v>-8</v>
       </c>
       <c r="G9" s="28">
-        <v>2.5</v>
+        <v>20</v>
       </c>
       <c r="H9" s="28" t="s">
-        <v>1118</v>
+        <v>1236</v>
       </c>
       <c r="I9" s="28"/>
       <c r="J9" s="28"/>
@@ -9303,7 +9307,7 @@
         <v>5</v>
       </c>
       <c r="H10" s="28" t="s">
-        <v>1190</v>
+        <v>1189</v>
       </c>
       <c r="I10" s="28"/>
       <c r="J10" s="28"/>
@@ -9333,12 +9337,12 @@
         <v>2.5</v>
       </c>
       <c r="H11" s="28" t="s">
-        <v>1191</v>
+        <v>1190</v>
       </c>
     </row>
     <row r="12" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
-        <v>849</v>
+        <v>1239</v>
       </c>
       <c r="B12">
         <v>0</v>
@@ -9353,12 +9357,12 @@
         <v>0.33</v>
       </c>
       <c r="H12" t="s">
-        <v>1212</v>
+        <v>1237</v>
       </c>
     </row>
     <row r="13" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
-        <v>1203</v>
+        <v>1202</v>
       </c>
       <c r="B13" s="28">
         <v>0</v>
@@ -9375,12 +9379,12 @@
         <v>0</v>
       </c>
       <c r="H13" t="s">
-        <v>1205</v>
+        <v>1204</v>
       </c>
     </row>
     <row r="14" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
-        <v>1204</v>
+        <v>1203</v>
       </c>
       <c r="B14" s="28">
         <v>0</v>
@@ -9397,15 +9401,15 @@
         <v>0</v>
       </c>
       <c r="H14" t="s">
-        <v>1206</v>
+        <v>1205</v>
       </c>
     </row>
     <row r="15" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
-        <v>1207</v>
+        <v>1206</v>
       </c>
       <c r="H15" t="s">
-        <v>1211</v>
+        <v>1238</v>
       </c>
     </row>
     <row r="16" spans="1:16" x14ac:dyDescent="0.25">
@@ -9426,7 +9430,7 @@
   <dimension ref="A1:P19"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="I4" sqref="I4"/>
+      <selection activeCell="G4" sqref="G4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -9483,7 +9487,7 @@
     </row>
     <row r="2" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A2" s="28" t="s">
-        <v>1236</v>
+        <v>1233</v>
       </c>
       <c r="B2" s="28"/>
       <c r="C2" s="28"/>
@@ -9492,7 +9496,7 @@
       <c r="F2" s="28"/>
       <c r="G2" s="28"/>
       <c r="H2" s="28" t="s">
-        <v>1213</v>
+        <v>1210</v>
       </c>
       <c r="I2" s="28"/>
       <c r="J2" s="28"/>
@@ -9500,7 +9504,7 @@
       <c r="L2" s="28"/>
       <c r="M2" s="28"/>
       <c r="N2" s="28" t="s">
-        <v>1192</v>
+        <v>1191</v>
       </c>
       <c r="O2" s="28">
         <v>0.1</v>
@@ -9528,7 +9532,7 @@
         <v>20</v>
       </c>
       <c r="H3" s="1" t="s">
-        <v>1214</v>
+        <v>1211</v>
       </c>
       <c r="I3" s="28"/>
       <c r="J3" s="28"/>
@@ -9536,7 +9540,7 @@
       <c r="L3" s="28"/>
       <c r="M3" s="28"/>
       <c r="N3" s="28" t="s">
-        <v>1228</v>
+        <v>1225</v>
       </c>
       <c r="O3" s="28">
         <v>0.1</v>
@@ -9561,10 +9565,10 @@
         <v>-0.5</v>
       </c>
       <c r="G4" s="28">
-        <v>5</v>
+        <v>2.5</v>
       </c>
       <c r="H4" s="28" t="s">
-        <v>1215</v>
+        <v>1212</v>
       </c>
       <c r="I4" s="28"/>
       <c r="J4" s="28"/>
@@ -9597,10 +9601,10 @@
         <v>-0.5</v>
       </c>
       <c r="G5" s="28">
-        <v>10</v>
+        <v>2.5</v>
       </c>
       <c r="H5" s="28" t="s">
-        <v>1216</v>
+        <v>1213</v>
       </c>
       <c r="I5" s="28"/>
       <c r="J5" s="28" t="s">
@@ -9610,7 +9614,7 @@
       <c r="L5" s="28"/>
       <c r="M5" s="28"/>
       <c r="N5" s="28" t="s">
-        <v>1229</v>
+        <v>1226</v>
       </c>
       <c r="O5" s="28">
         <v>0.1</v>
@@ -9635,10 +9639,10 @@
         <v>-0.5</v>
       </c>
       <c r="G6" s="28">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="H6" s="28" t="s">
-        <v>1217</v>
+        <v>1214</v>
       </c>
       <c r="I6" s="28"/>
       <c r="J6" s="28"/>
@@ -9674,7 +9678,7 @@
         <v>5</v>
       </c>
       <c r="H7" s="28" t="s">
-        <v>1218</v>
+        <v>1215</v>
       </c>
       <c r="I7" s="28"/>
       <c r="J7" s="28"/>
@@ -9682,7 +9686,7 @@
       <c r="L7" s="28"/>
       <c r="M7" s="28"/>
       <c r="N7" s="28" t="s">
-        <v>1230</v>
+        <v>1227</v>
       </c>
       <c r="O7" s="28">
         <v>0.1</v>
@@ -9704,13 +9708,13 @@
       <c r="D8" s="28"/>
       <c r="E8" s="28"/>
       <c r="F8" s="28">
-        <v>0</v>
+        <v>-0.5</v>
       </c>
       <c r="G8" s="28">
-        <v>2.5</v>
+        <v>10</v>
       </c>
       <c r="H8" s="28" t="s">
-        <v>1219</v>
+        <v>1216</v>
       </c>
       <c r="I8" s="28"/>
       <c r="J8" s="28"/>
@@ -9718,7 +9722,7 @@
       <c r="L8" s="28"/>
       <c r="M8" s="28"/>
       <c r="N8" s="28" t="s">
-        <v>1231</v>
+        <v>1228</v>
       </c>
       <c r="O8" s="28">
         <v>0.1</v>
@@ -9743,10 +9747,10 @@
         <v>0</v>
       </c>
       <c r="G9" s="28">
-        <v>2.5</v>
+        <v>9.5</v>
       </c>
       <c r="H9" s="28" t="s">
-        <v>1220</v>
+        <v>1217</v>
       </c>
       <c r="I9" s="28"/>
       <c r="J9" s="28"/>
@@ -9754,7 +9758,7 @@
       <c r="L9" s="28"/>
       <c r="M9" s="28"/>
       <c r="N9" s="28" t="s">
-        <v>1232</v>
+        <v>1229</v>
       </c>
       <c r="O9" s="28">
         <v>0.1</v>
@@ -9779,10 +9783,10 @@
         <v>-0.5</v>
       </c>
       <c r="G10" s="28">
-        <v>2.5</v>
+        <v>0.25</v>
       </c>
       <c r="H10" t="s">
-        <v>1221</v>
+        <v>1218</v>
       </c>
       <c r="I10" s="28"/>
       <c r="J10" s="28"/>
@@ -9790,7 +9794,7 @@
       <c r="L10" s="28"/>
       <c r="M10" s="28"/>
       <c r="N10" s="28" t="s">
-        <v>1233</v>
+        <v>1230</v>
       </c>
       <c r="O10" s="28">
         <v>0.1</v>
@@ -9815,10 +9819,10 @@
         <v>-0.5</v>
       </c>
       <c r="G11" s="28">
-        <v>2.5</v>
+        <v>0.25</v>
       </c>
       <c r="H11" t="s">
-        <v>1222</v>
+        <v>1219</v>
       </c>
       <c r="I11" s="28"/>
       <c r="J11" s="28"/>
@@ -9826,7 +9830,7 @@
       <c r="L11" s="28"/>
       <c r="M11" s="28"/>
       <c r="N11" s="28" t="s">
-        <v>1234</v>
+        <v>1231</v>
       </c>
       <c r="O11" s="28">
         <v>0.1</v>
@@ -9846,7 +9850,7 @@
       <c r="F12" s="28"/>
       <c r="G12" s="28"/>
       <c r="H12" s="28" t="s">
-        <v>1190</v>
+        <v>1189</v>
       </c>
       <c r="I12" s="28"/>
       <c r="J12" s="28"/>
@@ -9868,7 +9872,7 @@
       <c r="F13" s="28"/>
       <c r="G13" s="28"/>
       <c r="H13" s="28" t="s">
-        <v>1223</v>
+        <v>1220</v>
       </c>
       <c r="I13" s="28"/>
       <c r="J13" s="28"/>
@@ -9890,7 +9894,7 @@
       <c r="F14" s="28"/>
       <c r="G14" s="28"/>
       <c r="H14" s="28" t="s">
-        <v>1224</v>
+        <v>1221</v>
       </c>
       <c r="I14" s="28"/>
       <c r="J14" s="28"/>
@@ -9920,7 +9924,7 @@
         <v>0.33</v>
       </c>
       <c r="H15" s="28" t="s">
-        <v>1237</v>
+        <v>1234</v>
       </c>
       <c r="I15" s="28"/>
       <c r="J15" s="28"/>
@@ -9933,7 +9937,7 @@
     </row>
     <row r="16" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A16" s="28" t="s">
-        <v>1203</v>
+        <v>1202</v>
       </c>
       <c r="B16" s="28"/>
       <c r="C16" s="28"/>
@@ -9942,7 +9946,7 @@
       <c r="F16" s="28"/>
       <c r="G16" s="28"/>
       <c r="H16" s="28" t="s">
-        <v>1205</v>
+        <v>1204</v>
       </c>
       <c r="I16" s="28"/>
       <c r="J16" s="28"/>
@@ -9955,7 +9959,7 @@
     </row>
     <row r="17" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A17" s="28" t="s">
-        <v>1235</v>
+        <v>1232</v>
       </c>
       <c r="B17" s="28"/>
       <c r="C17" s="28"/>
@@ -9964,7 +9968,7 @@
       <c r="F17" s="28"/>
       <c r="G17" s="28"/>
       <c r="H17" s="28" t="s">
-        <v>1225</v>
+        <v>1222</v>
       </c>
       <c r="I17" s="28"/>
       <c r="J17" s="28"/>
@@ -9977,7 +9981,7 @@
     </row>
     <row r="18" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A18" s="28" t="s">
-        <v>1209</v>
+        <v>1208</v>
       </c>
       <c r="B18" s="28"/>
       <c r="C18" s="28"/>
@@ -9986,12 +9990,12 @@
       <c r="F18" s="28"/>
       <c r="G18" s="28"/>
       <c r="H18" s="28" t="s">
-        <v>1226</v>
+        <v>1223</v>
       </c>
     </row>
     <row r="19" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A19" s="28" t="s">
-        <v>1207</v>
+        <v>1206</v>
       </c>
       <c r="B19" s="28"/>
       <c r="C19" s="28"/>
@@ -10000,7 +10004,7 @@
       <c r="F19" s="28"/>
       <c r="G19" s="28"/>
       <c r="H19" s="28" t="s">
-        <v>1227</v>
+        <v>1224</v>
       </c>
     </row>
   </sheetData>
@@ -10275,7 +10279,7 @@
         <v>16.023499999999999</v>
       </c>
       <c r="H9" s="14" t="s">
-        <v>1196</v>
+        <v>1195</v>
       </c>
       <c r="N9" s="28" t="s">
         <v>1029</v>
@@ -10302,7 +10306,7 @@
         <v>14.716100000000001</v>
       </c>
       <c r="H10" s="14" t="s">
-        <v>1197</v>
+        <v>1196</v>
       </c>
       <c r="N10" s="28" t="s">
         <v>1026</v>
@@ -10570,7 +10574,7 @@
         <v>0.87390000000000001</v>
       </c>
       <c r="H20" s="29" t="s">
-        <v>1198</v>
+        <v>1197</v>
       </c>
       <c r="N20" t="s">
         <v>1133</v>
@@ -10650,7 +10654,7 @@
     </row>
     <row r="27" spans="1:16" x14ac:dyDescent="0.25">
       <c r="N27" t="s">
-        <v>1199</v>
+        <v>1198</v>
       </c>
       <c r="O27" s="28">
         <v>0</v>
@@ -10661,7 +10665,7 @@
     </row>
     <row r="28" spans="1:16" x14ac:dyDescent="0.25">
       <c r="N28" t="s">
-        <v>1200</v>
+        <v>1199</v>
       </c>
       <c r="O28" s="28">
         <v>0</v>
@@ -10683,7 +10687,7 @@
     </row>
     <row r="30" spans="1:16" x14ac:dyDescent="0.25">
       <c r="N30" t="s">
-        <v>1201</v>
+        <v>1200</v>
       </c>
       <c r="O30" s="28">
         <v>0</v>
@@ -10694,7 +10698,7 @@
     </row>
     <row r="31" spans="1:16" x14ac:dyDescent="0.25">
       <c r="N31" t="s">
-        <v>1202</v>
+        <v>1201</v>
       </c>
       <c r="O31" s="28">
         <v>0</v>
@@ -10705,7 +10709,7 @@
     </row>
     <row r="32" spans="1:16" x14ac:dyDescent="0.25">
       <c r="N32" t="s">
-        <v>1194</v>
+        <v>1193</v>
       </c>
       <c r="O32" s="28">
         <v>0</v>
@@ -10716,7 +10720,7 @@
     </row>
     <row r="33" spans="14:16" x14ac:dyDescent="0.25">
       <c r="N33" t="s">
-        <v>1195</v>
+        <v>1194</v>
       </c>
       <c r="O33" s="28">
         <v>0</v>
@@ -56813,7 +56817,7 @@
         <v>884</v>
       </c>
       <c r="N60" s="28" t="s">
-        <v>1194</v>
+        <v>1193</v>
       </c>
       <c r="O60" s="28">
         <v>0</v>
@@ -56840,7 +56844,7 @@
         <v>1149</v>
       </c>
       <c r="N61" s="28" t="s">
-        <v>1195</v>
+        <v>1194</v>
       </c>
       <c r="O61" s="28">
         <v>0</v>

--- a/KineticModel/test.xlsx
+++ b/KineticModel/test.xlsx
@@ -1,10 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="5" rupBuild="14420"/>
   <workbookPr defaultThemeVersion="124226"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\shyam\Documents\Courses\CHE1125Project\IntegratedModels\KineticModel\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="240" yWindow="4665" windowWidth="16275" windowHeight="3180" firstSheet="5" activeTab="15"/>
+    <workbookView xWindow="240" yWindow="4665" windowWidth="16275" windowHeight="3180" firstSheet="16" activeTab="16"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -22,16 +27,17 @@
     <sheet name="Sheet6" sheetId="10" r:id="rId13"/>
     <sheet name="Sheet3" sheetId="9" r:id="rId14"/>
     <sheet name="Sheet7" sheetId="11" r:id="rId15"/>
-    <sheet name="N2am" sheetId="17" r:id="rId16"/>
-    <sheet name="N3m" sheetId="19" r:id="rId17"/>
-    <sheet name="EcoliCCM" sheetId="18" r:id="rId18"/>
+    <sheet name="N2mD" sheetId="17" r:id="rId16"/>
+    <sheet name="N2mR" sheetId="20" r:id="rId17"/>
+    <sheet name="N3m" sheetId="19" r:id="rId18"/>
+    <sheet name="EcoliCCM" sheetId="18" r:id="rId19"/>
   </sheets>
-  <calcPr calcId="145621"/>
+  <calcPr calcId="152511"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2257" uniqueCount="1240">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2323" uniqueCount="1247">
   <si>
     <t>Name</t>
   </si>
@@ -3624,9 +3630,6 @@
     <t>P[c] ---&gt; P[e]</t>
   </si>
   <si>
-    <t>E[c] ---&gt; E[e]</t>
-  </si>
-  <si>
     <t>A[c]</t>
   </si>
   <si>
@@ -3669,9 +3672,6 @@
     <t>P[e] ---&gt;</t>
   </si>
   <si>
-    <t>E[e] ---&gt;</t>
-  </si>
-  <si>
     <t>BiomassEX</t>
   </si>
   <si>
@@ -3772,6 +3772,33 @@
   </si>
   <si>
     <t>EC_biomass</t>
+  </si>
+  <si>
+    <t>Dex</t>
+  </si>
+  <si>
+    <t>D[e] &lt;==&gt;</t>
+  </si>
+  <si>
+    <t>D[c] &lt;==&gt; D[e]</t>
+  </si>
+  <si>
+    <t>E[e] &lt;==&gt;</t>
+  </si>
+  <si>
+    <t>E[c] &lt;==&gt; E[e]</t>
+  </si>
+  <si>
+    <t>[c] : A ---&gt; D</t>
+  </si>
+  <si>
+    <t>B[c] ---&gt; Biomass[c]</t>
+  </si>
+  <si>
+    <t>C[c],D[c],P[c],E[c]</t>
+  </si>
+  <si>
+    <t>2,2,2,0.05</t>
   </si>
 </sst>
 </file>
@@ -3969,7 +3996,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria"/>
+        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -4004,7 +4031,7 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -8951,10 +8978,10 @@
 
 <file path=xl/worksheets/sheet16.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:P16"/>
+  <dimension ref="A1:P17"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F5" sqref="F5"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="H9" sqref="H9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -9016,10 +9043,10 @@
     </row>
     <row r="2" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>1208</v>
+        <v>1206</v>
       </c>
       <c r="H2" t="s">
-        <v>1209</v>
+        <v>1207</v>
       </c>
       <c r="I2" s="28"/>
       <c r="J2" s="28"/>
@@ -9027,7 +9054,7 @@
       <c r="L2" s="28"/>
       <c r="M2" s="28"/>
       <c r="N2" s="28" t="s">
-        <v>1191</v>
+        <v>1190</v>
       </c>
       <c r="O2" s="28">
         <v>0.1</v>
@@ -9055,7 +9082,7 @@
         <v>20</v>
       </c>
       <c r="H3" s="1" t="s">
-        <v>1207</v>
+        <v>1205</v>
       </c>
       <c r="I3" s="28"/>
       <c r="J3" s="28"/>
@@ -9163,13 +9190,13 @@
       <c r="D6" s="28"/>
       <c r="E6" s="28"/>
       <c r="F6" s="28">
-        <v>-8</v>
+        <v>0</v>
       </c>
       <c r="G6" s="28">
         <v>40</v>
       </c>
       <c r="H6" s="28" t="s">
-        <v>1235</v>
+        <v>1233</v>
       </c>
       <c r="I6" s="28"/>
       <c r="J6" s="28"/>
@@ -9207,7 +9234,7 @@
         <v>20</v>
       </c>
       <c r="H7" s="28" t="s">
-        <v>1192</v>
+        <v>1191</v>
       </c>
       <c r="I7" s="28"/>
       <c r="J7" s="28"/>
@@ -9271,13 +9298,13 @@
       <c r="D9" s="28"/>
       <c r="E9" s="28"/>
       <c r="F9" s="28">
-        <v>-8</v>
+        <v>0</v>
       </c>
       <c r="G9" s="28">
         <v>20</v>
       </c>
       <c r="H9" s="28" t="s">
-        <v>1236</v>
+        <v>1234</v>
       </c>
       <c r="I9" s="28"/>
       <c r="J9" s="28"/>
@@ -9337,12 +9364,12 @@
         <v>2.5</v>
       </c>
       <c r="H11" s="28" t="s">
-        <v>1190</v>
+        <v>1242</v>
       </c>
     </row>
     <row r="12" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
-        <v>1239</v>
+        <v>1062</v>
       </c>
       <c r="B12">
         <v>0</v>
@@ -9354,37 +9381,35 @@
         <v>-0.5</v>
       </c>
       <c r="G12">
-        <v>0.33</v>
+        <v>0</v>
       </c>
       <c r="H12" t="s">
-        <v>1237</v>
+        <v>1240</v>
       </c>
     </row>
     <row r="13" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
-        <v>1202</v>
-      </c>
-      <c r="B13" s="28">
-        <v>0</v>
-      </c>
-      <c r="C13" s="28">
-        <v>0</v>
-      </c>
-      <c r="D13" s="28"/>
-      <c r="E13" s="28"/>
-      <c r="F13" s="28">
+        <v>1237</v>
+      </c>
+      <c r="B13">
+        <v>0</v>
+      </c>
+      <c r="C13">
+        <v>0</v>
+      </c>
+      <c r="F13">
         <v>-0.5</v>
       </c>
       <c r="G13">
-        <v>0</v>
+        <v>0.33</v>
       </c>
       <c r="H13" t="s">
-        <v>1204</v>
+        <v>1235</v>
       </c>
     </row>
     <row r="14" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
-        <v>1203</v>
+        <v>1201</v>
       </c>
       <c r="B14" s="28">
         <v>0</v>
@@ -9401,23 +9426,46 @@
         <v>0</v>
       </c>
       <c r="H14" t="s">
-        <v>1205</v>
+        <v>1203</v>
       </c>
     </row>
     <row r="15" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
-        <v>1206</v>
+        <v>1202</v>
+      </c>
+      <c r="B15" s="28">
+        <v>0</v>
+      </c>
+      <c r="C15" s="28">
+        <v>0</v>
+      </c>
+      <c r="D15" s="28"/>
+      <c r="E15" s="28"/>
+      <c r="F15" s="28">
+        <v>-0.5</v>
+      </c>
+      <c r="G15">
+        <v>0</v>
       </c>
       <c r="H15" t="s">
+        <v>1241</v>
+      </c>
+    </row>
+    <row r="16" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A16" t="s">
         <v>1238</v>
       </c>
-    </row>
-    <row r="16" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="B16" s="28"/>
-      <c r="C16" s="28"/>
-      <c r="D16" s="28"/>
-      <c r="E16" s="28"/>
-      <c r="F16" s="28"/>
+      <c r="H16" t="s">
+        <v>1239</v>
+      </c>
+    </row>
+    <row r="17" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A17" t="s">
+        <v>1204</v>
+      </c>
+      <c r="H17" t="s">
+        <v>1236</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -9426,6 +9474,607 @@
 </file>
 
 <file path=xl/worksheets/sheet17.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:P17"/>
+  <sheetViews>
+    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
+      <selection activeCell="F7" sqref="F7"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="8" max="8" width="23.140625" customWidth="1"/>
+    <col min="9" max="9" width="16.42578125" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A1" s="28" t="s">
+        <v>565</v>
+      </c>
+      <c r="B1" s="28" t="s">
+        <v>728</v>
+      </c>
+      <c r="C1" s="28" t="s">
+        <v>731</v>
+      </c>
+      <c r="D1" s="28" t="s">
+        <v>729</v>
+      </c>
+      <c r="E1" s="28" t="s">
+        <v>730</v>
+      </c>
+      <c r="F1" s="28" t="s">
+        <v>830</v>
+      </c>
+      <c r="G1" s="28" t="s">
+        <v>818</v>
+      </c>
+      <c r="H1" s="28" t="s">
+        <v>1</v>
+      </c>
+      <c r="I1" s="28" t="s">
+        <v>608</v>
+      </c>
+      <c r="J1" s="28" t="s">
+        <v>609</v>
+      </c>
+      <c r="K1" s="28" t="s">
+        <v>654</v>
+      </c>
+      <c r="L1" s="28" t="s">
+        <v>656</v>
+      </c>
+      <c r="M1" s="28" t="s">
+        <v>657</v>
+      </c>
+      <c r="N1" s="28" t="s">
+        <v>726</v>
+      </c>
+      <c r="O1" s="28" t="s">
+        <v>828</v>
+      </c>
+      <c r="P1" s="28" t="s">
+        <v>829</v>
+      </c>
+    </row>
+    <row r="2" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A2" s="28" t="s">
+        <v>1206</v>
+      </c>
+      <c r="B2" s="28">
+        <v>0</v>
+      </c>
+      <c r="C2" s="28">
+        <v>0</v>
+      </c>
+      <c r="D2" s="28"/>
+      <c r="E2" s="28"/>
+      <c r="F2" s="28">
+        <v>0</v>
+      </c>
+      <c r="G2" s="28">
+        <v>5</v>
+      </c>
+      <c r="H2" s="28" t="s">
+        <v>1207</v>
+      </c>
+      <c r="I2" s="28"/>
+      <c r="J2" s="28"/>
+      <c r="K2" s="28"/>
+      <c r="L2" s="28"/>
+      <c r="M2" s="28"/>
+      <c r="N2" s="28" t="s">
+        <v>1190</v>
+      </c>
+      <c r="O2" s="28">
+        <v>0.1</v>
+      </c>
+      <c r="P2" s="28">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="3" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A3" s="28" t="s">
+        <v>1057</v>
+      </c>
+      <c r="B3" s="28">
+        <v>0</v>
+      </c>
+      <c r="C3" s="28">
+        <v>0</v>
+      </c>
+      <c r="D3" s="28"/>
+      <c r="E3" s="28"/>
+      <c r="F3" s="28">
+        <v>-8</v>
+      </c>
+      <c r="G3" s="28">
+        <v>20</v>
+      </c>
+      <c r="H3" s="1" t="s">
+        <v>1205</v>
+      </c>
+      <c r="I3" s="28"/>
+      <c r="J3" s="28"/>
+      <c r="K3" s="28"/>
+      <c r="L3" s="28" t="s">
+        <v>667</v>
+      </c>
+      <c r="M3" s="28"/>
+      <c r="N3" s="28" t="s">
+        <v>1122</v>
+      </c>
+      <c r="O3" s="28">
+        <v>0.1</v>
+      </c>
+      <c r="P3" s="28">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="4" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A4" s="28" t="s">
+        <v>1054</v>
+      </c>
+      <c r="B4" s="28">
+        <v>0</v>
+      </c>
+      <c r="C4" s="28">
+        <v>3000</v>
+      </c>
+      <c r="D4" s="28"/>
+      <c r="E4" s="28"/>
+      <c r="F4" s="28">
+        <v>-8</v>
+      </c>
+      <c r="G4" s="28">
+        <v>20</v>
+      </c>
+      <c r="H4" s="28" t="s">
+        <v>1187</v>
+      </c>
+      <c r="I4" s="28"/>
+      <c r="J4" s="28"/>
+      <c r="K4" s="28"/>
+      <c r="L4" s="28" t="s">
+        <v>667</v>
+      </c>
+      <c r="M4" s="28"/>
+      <c r="N4" s="28" t="s">
+        <v>1121</v>
+      </c>
+      <c r="O4" s="28">
+        <v>0.1</v>
+      </c>
+      <c r="P4" s="28">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="5" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A5" s="28" t="s">
+        <v>764</v>
+      </c>
+      <c r="B5" s="28">
+        <v>0</v>
+      </c>
+      <c r="C5" s="28">
+        <v>3000</v>
+      </c>
+      <c r="D5" s="28"/>
+      <c r="E5" s="28"/>
+      <c r="F5" s="28">
+        <v>-8</v>
+      </c>
+      <c r="G5" s="28">
+        <v>20</v>
+      </c>
+      <c r="H5" s="28" t="s">
+        <v>1188</v>
+      </c>
+      <c r="I5" s="28"/>
+      <c r="J5" s="28"/>
+      <c r="K5" s="28"/>
+      <c r="L5" s="28" t="s">
+        <v>667</v>
+      </c>
+      <c r="M5" s="28"/>
+      <c r="N5" s="28" t="s">
+        <v>1123</v>
+      </c>
+      <c r="O5" s="28">
+        <v>0.1</v>
+      </c>
+      <c r="P5" s="28">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="6" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A6" s="28" t="s">
+        <v>1055</v>
+      </c>
+      <c r="B6" s="28">
+        <v>0</v>
+      </c>
+      <c r="C6" s="28">
+        <v>3000</v>
+      </c>
+      <c r="D6" s="28"/>
+      <c r="E6" s="28"/>
+      <c r="F6" s="28">
+        <v>0</v>
+      </c>
+      <c r="G6" s="28">
+        <v>40</v>
+      </c>
+      <c r="H6" s="28" t="s">
+        <v>1243</v>
+      </c>
+      <c r="I6" s="28"/>
+      <c r="J6" s="28"/>
+      <c r="K6" s="28"/>
+      <c r="L6" s="28" t="s">
+        <v>667</v>
+      </c>
+      <c r="M6" s="28"/>
+      <c r="N6" s="28" t="s">
+        <v>1125</v>
+      </c>
+      <c r="O6" s="28">
+        <v>0.1</v>
+      </c>
+      <c r="P6" s="28">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="7" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A7" s="28" t="s">
+        <v>1056</v>
+      </c>
+      <c r="B7" s="28">
+        <v>0</v>
+      </c>
+      <c r="C7" s="28">
+        <v>3000</v>
+      </c>
+      <c r="D7" s="28"/>
+      <c r="E7" s="28"/>
+      <c r="F7" s="28">
+        <v>-8</v>
+      </c>
+      <c r="G7" s="28">
+        <v>20</v>
+      </c>
+      <c r="H7" s="28" t="s">
+        <v>1191</v>
+      </c>
+      <c r="I7" s="28"/>
+      <c r="J7" s="28"/>
+      <c r="K7" s="28"/>
+      <c r="L7" s="28" t="s">
+        <v>667</v>
+      </c>
+      <c r="M7" s="28"/>
+      <c r="N7" s="28" t="s">
+        <v>1124</v>
+      </c>
+      <c r="O7" s="28">
+        <v>0.1</v>
+      </c>
+      <c r="P7" s="28">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="8" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A8" s="28" t="s">
+        <v>1059</v>
+      </c>
+      <c r="B8" s="28">
+        <v>0</v>
+      </c>
+      <c r="C8" s="28">
+        <v>3000</v>
+      </c>
+      <c r="D8" s="28"/>
+      <c r="E8" s="28"/>
+      <c r="F8" s="28">
+        <v>-8</v>
+      </c>
+      <c r="G8" s="28">
+        <v>20</v>
+      </c>
+      <c r="H8" s="28" t="s">
+        <v>1117</v>
+      </c>
+      <c r="I8" s="28"/>
+      <c r="J8" s="28"/>
+      <c r="K8" s="28"/>
+      <c r="L8" s="28" t="s">
+        <v>1077</v>
+      </c>
+      <c r="M8" s="28"/>
+      <c r="N8" s="28"/>
+      <c r="O8" s="28"/>
+      <c r="P8" s="28"/>
+    </row>
+    <row r="9" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A9" s="28" t="s">
+        <v>1058</v>
+      </c>
+      <c r="B9" s="28">
+        <v>0</v>
+      </c>
+      <c r="C9" s="28">
+        <v>3000</v>
+      </c>
+      <c r="D9" s="28"/>
+      <c r="E9" s="28"/>
+      <c r="F9" s="28">
+        <v>-0.05</v>
+      </c>
+      <c r="G9" s="28">
+        <v>20</v>
+      </c>
+      <c r="H9" s="28" t="s">
+        <v>1118</v>
+      </c>
+      <c r="I9" s="28" t="s">
+        <v>1245</v>
+      </c>
+      <c r="J9" s="28"/>
+      <c r="K9" s="28"/>
+      <c r="L9" s="28"/>
+      <c r="M9" s="28" t="s">
+        <v>1246</v>
+      </c>
+      <c r="N9" s="28"/>
+      <c r="O9" s="28"/>
+      <c r="P9" s="28"/>
+    </row>
+    <row r="10" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A10" s="28" t="s">
+        <v>1060</v>
+      </c>
+      <c r="B10" s="28">
+        <v>0</v>
+      </c>
+      <c r="C10" s="28">
+        <v>0</v>
+      </c>
+      <c r="D10" s="28"/>
+      <c r="E10" s="28"/>
+      <c r="F10" s="28">
+        <v>-0.5</v>
+      </c>
+      <c r="G10" s="28">
+        <v>5</v>
+      </c>
+      <c r="H10" s="28" t="s">
+        <v>1189</v>
+      </c>
+      <c r="I10" s="28"/>
+      <c r="J10" s="28"/>
+      <c r="K10" s="28"/>
+      <c r="L10" s="28"/>
+      <c r="M10" s="28"/>
+      <c r="N10" s="28"/>
+      <c r="O10" s="28"/>
+      <c r="P10" s="28"/>
+    </row>
+    <row r="11" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A11" s="28" t="s">
+        <v>1061</v>
+      </c>
+      <c r="B11" s="28">
+        <v>0</v>
+      </c>
+      <c r="C11" s="28">
+        <v>0</v>
+      </c>
+      <c r="D11" s="28"/>
+      <c r="E11" s="28"/>
+      <c r="F11" s="28">
+        <v>-0.5</v>
+      </c>
+      <c r="G11" s="28">
+        <v>2.5</v>
+      </c>
+      <c r="H11" s="28" t="s">
+        <v>1242</v>
+      </c>
+      <c r="I11" s="28"/>
+      <c r="J11" s="28"/>
+      <c r="K11" s="28"/>
+      <c r="L11" s="28"/>
+      <c r="M11" s="28"/>
+      <c r="N11" s="28"/>
+      <c r="O11" s="28"/>
+      <c r="P11" s="28"/>
+    </row>
+    <row r="12" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A12" s="28" t="s">
+        <v>1062</v>
+      </c>
+      <c r="B12" s="28">
+        <v>0</v>
+      </c>
+      <c r="C12" s="28">
+        <v>0</v>
+      </c>
+      <c r="D12" s="28"/>
+      <c r="E12" s="28"/>
+      <c r="F12" s="28">
+        <v>-0.5</v>
+      </c>
+      <c r="G12" s="28">
+        <v>0</v>
+      </c>
+      <c r="H12" s="28" t="s">
+        <v>1240</v>
+      </c>
+      <c r="I12" s="28"/>
+      <c r="J12" s="28"/>
+      <c r="K12" s="28"/>
+      <c r="L12" s="28"/>
+      <c r="M12" s="28"/>
+      <c r="N12" s="28"/>
+      <c r="O12" s="28"/>
+      <c r="P12" s="28"/>
+    </row>
+    <row r="13" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A13" s="28" t="s">
+        <v>1237</v>
+      </c>
+      <c r="B13" s="28">
+        <v>0</v>
+      </c>
+      <c r="C13" s="28">
+        <v>0</v>
+      </c>
+      <c r="D13" s="28"/>
+      <c r="E13" s="28"/>
+      <c r="F13" s="28">
+        <v>-0.5</v>
+      </c>
+      <c r="G13" s="28">
+        <v>0.33</v>
+      </c>
+      <c r="H13" s="28" t="s">
+        <v>1244</v>
+      </c>
+      <c r="I13" s="28"/>
+      <c r="J13" s="28"/>
+      <c r="K13" s="28"/>
+      <c r="L13" s="28"/>
+      <c r="M13" s="28"/>
+      <c r="N13" s="28"/>
+      <c r="O13" s="28"/>
+      <c r="P13" s="28"/>
+    </row>
+    <row r="14" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A14" s="28" t="s">
+        <v>1201</v>
+      </c>
+      <c r="B14" s="28">
+        <v>0</v>
+      </c>
+      <c r="C14" s="28">
+        <v>0</v>
+      </c>
+      <c r="D14" s="28"/>
+      <c r="E14" s="28"/>
+      <c r="F14" s="28">
+        <v>-0.5</v>
+      </c>
+      <c r="G14" s="28">
+        <v>0</v>
+      </c>
+      <c r="H14" s="28" t="s">
+        <v>1203</v>
+      </c>
+      <c r="I14" s="28"/>
+      <c r="J14" s="28"/>
+      <c r="K14" s="28"/>
+      <c r="L14" s="28"/>
+      <c r="M14" s="28"/>
+      <c r="N14" s="28"/>
+      <c r="O14" s="28"/>
+      <c r="P14" s="28"/>
+    </row>
+    <row r="15" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A15" s="28" t="s">
+        <v>1202</v>
+      </c>
+      <c r="B15" s="28">
+        <v>0</v>
+      </c>
+      <c r="C15" s="28">
+        <v>0</v>
+      </c>
+      <c r="D15" s="28"/>
+      <c r="E15" s="28"/>
+      <c r="F15" s="28">
+        <v>-0.5</v>
+      </c>
+      <c r="G15" s="28">
+        <v>0</v>
+      </c>
+      <c r="H15" s="28" t="s">
+        <v>1241</v>
+      </c>
+      <c r="I15" s="28"/>
+      <c r="J15" s="28"/>
+      <c r="K15" s="28"/>
+      <c r="L15" s="28"/>
+      <c r="M15" s="28"/>
+      <c r="N15" s="28"/>
+      <c r="O15" s="28"/>
+      <c r="P15" s="28"/>
+    </row>
+    <row r="16" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A16" s="28" t="s">
+        <v>1238</v>
+      </c>
+      <c r="B16" s="28">
+        <v>0</v>
+      </c>
+      <c r="C16" s="28">
+        <v>0</v>
+      </c>
+      <c r="D16" s="28"/>
+      <c r="E16" s="28"/>
+      <c r="F16" s="28">
+        <v>-0.5</v>
+      </c>
+      <c r="G16" s="28">
+        <v>0</v>
+      </c>
+      <c r="H16" s="28" t="s">
+        <v>1239</v>
+      </c>
+      <c r="I16" s="28"/>
+      <c r="J16" s="28"/>
+      <c r="K16" s="28"/>
+      <c r="L16" s="28"/>
+      <c r="M16" s="28"/>
+      <c r="N16" s="28"/>
+      <c r="O16" s="28"/>
+      <c r="P16" s="28"/>
+    </row>
+    <row r="17" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A17" s="28" t="s">
+        <v>1204</v>
+      </c>
+      <c r="B17" s="28">
+        <v>0</v>
+      </c>
+      <c r="C17" s="28">
+        <v>0</v>
+      </c>
+      <c r="D17" s="28"/>
+      <c r="E17" s="28"/>
+      <c r="F17" s="28">
+        <v>0</v>
+      </c>
+      <c r="G17" s="28">
+        <v>0</v>
+      </c>
+      <c r="H17" s="28" t="s">
+        <v>1236</v>
+      </c>
+      <c r="I17" s="28"/>
+      <c r="J17" s="28"/>
+      <c r="K17" s="28"/>
+      <c r="L17" s="28"/>
+      <c r="M17" s="28"/>
+      <c r="N17" s="28"/>
+      <c r="O17" s="28"/>
+      <c r="P17" s="28"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet18.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:P19"/>
   <sheetViews>
@@ -9487,7 +10136,7 @@
     </row>
     <row r="2" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A2" s="28" t="s">
-        <v>1233</v>
+        <v>1231</v>
       </c>
       <c r="B2" s="28"/>
       <c r="C2" s="28"/>
@@ -9496,7 +10145,7 @@
       <c r="F2" s="28"/>
       <c r="G2" s="28"/>
       <c r="H2" s="28" t="s">
-        <v>1210</v>
+        <v>1208</v>
       </c>
       <c r="I2" s="28"/>
       <c r="J2" s="28"/>
@@ -9504,7 +10153,7 @@
       <c r="L2" s="28"/>
       <c r="M2" s="28"/>
       <c r="N2" s="28" t="s">
-        <v>1191</v>
+        <v>1190</v>
       </c>
       <c r="O2" s="28">
         <v>0.1</v>
@@ -9532,7 +10181,7 @@
         <v>20</v>
       </c>
       <c r="H3" s="1" t="s">
-        <v>1211</v>
+        <v>1209</v>
       </c>
       <c r="I3" s="28"/>
       <c r="J3" s="28"/>
@@ -9540,7 +10189,7 @@
       <c r="L3" s="28"/>
       <c r="M3" s="28"/>
       <c r="N3" s="28" t="s">
-        <v>1225</v>
+        <v>1223</v>
       </c>
       <c r="O3" s="28">
         <v>0.1</v>
@@ -9568,7 +10217,7 @@
         <v>2.5</v>
       </c>
       <c r="H4" s="28" t="s">
-        <v>1212</v>
+        <v>1210</v>
       </c>
       <c r="I4" s="28"/>
       <c r="J4" s="28"/>
@@ -9604,7 +10253,7 @@
         <v>2.5</v>
       </c>
       <c r="H5" s="28" t="s">
-        <v>1213</v>
+        <v>1211</v>
       </c>
       <c r="I5" s="28"/>
       <c r="J5" s="28" t="s">
@@ -9614,7 +10263,7 @@
       <c r="L5" s="28"/>
       <c r="M5" s="28"/>
       <c r="N5" s="28" t="s">
-        <v>1226</v>
+        <v>1224</v>
       </c>
       <c r="O5" s="28">
         <v>0.1</v>
@@ -9642,7 +10291,7 @@
         <v>10</v>
       </c>
       <c r="H6" s="28" t="s">
-        <v>1214</v>
+        <v>1212</v>
       </c>
       <c r="I6" s="28"/>
       <c r="J6" s="28"/>
@@ -9678,7 +10327,7 @@
         <v>5</v>
       </c>
       <c r="H7" s="28" t="s">
-        <v>1215</v>
+        <v>1213</v>
       </c>
       <c r="I7" s="28"/>
       <c r="J7" s="28"/>
@@ -9686,7 +10335,7 @@
       <c r="L7" s="28"/>
       <c r="M7" s="28"/>
       <c r="N7" s="28" t="s">
-        <v>1227</v>
+        <v>1225</v>
       </c>
       <c r="O7" s="28">
         <v>0.1</v>
@@ -9714,7 +10363,7 @@
         <v>10</v>
       </c>
       <c r="H8" s="28" t="s">
-        <v>1216</v>
+        <v>1214</v>
       </c>
       <c r="I8" s="28"/>
       <c r="J8" s="28"/>
@@ -9722,7 +10371,7 @@
       <c r="L8" s="28"/>
       <c r="M8" s="28"/>
       <c r="N8" s="28" t="s">
-        <v>1228</v>
+        <v>1226</v>
       </c>
       <c r="O8" s="28">
         <v>0.1</v>
@@ -9750,7 +10399,7 @@
         <v>9.5</v>
       </c>
       <c r="H9" s="28" t="s">
-        <v>1217</v>
+        <v>1215</v>
       </c>
       <c r="I9" s="28"/>
       <c r="J9" s="28"/>
@@ -9758,7 +10407,7 @@
       <c r="L9" s="28"/>
       <c r="M9" s="28"/>
       <c r="N9" s="28" t="s">
-        <v>1229</v>
+        <v>1227</v>
       </c>
       <c r="O9" s="28">
         <v>0.1</v>
@@ -9786,7 +10435,7 @@
         <v>0.25</v>
       </c>
       <c r="H10" t="s">
-        <v>1218</v>
+        <v>1216</v>
       </c>
       <c r="I10" s="28"/>
       <c r="J10" s="28"/>
@@ -9794,7 +10443,7 @@
       <c r="L10" s="28"/>
       <c r="M10" s="28"/>
       <c r="N10" s="28" t="s">
-        <v>1230</v>
+        <v>1228</v>
       </c>
       <c r="O10" s="28">
         <v>0.1</v>
@@ -9822,7 +10471,7 @@
         <v>0.25</v>
       </c>
       <c r="H11" t="s">
-        <v>1219</v>
+        <v>1217</v>
       </c>
       <c r="I11" s="28"/>
       <c r="J11" s="28"/>
@@ -9830,7 +10479,7 @@
       <c r="L11" s="28"/>
       <c r="M11" s="28"/>
       <c r="N11" s="28" t="s">
-        <v>1231</v>
+        <v>1229</v>
       </c>
       <c r="O11" s="28">
         <v>0.1</v>
@@ -9872,7 +10521,7 @@
       <c r="F13" s="28"/>
       <c r="G13" s="28"/>
       <c r="H13" s="28" t="s">
-        <v>1220</v>
+        <v>1218</v>
       </c>
       <c r="I13" s="28"/>
       <c r="J13" s="28"/>
@@ -9894,7 +10543,7 @@
       <c r="F14" s="28"/>
       <c r="G14" s="28"/>
       <c r="H14" s="28" t="s">
-        <v>1221</v>
+        <v>1219</v>
       </c>
       <c r="I14" s="28"/>
       <c r="J14" s="28"/>
@@ -9924,7 +10573,7 @@
         <v>0.33</v>
       </c>
       <c r="H15" s="28" t="s">
-        <v>1234</v>
+        <v>1232</v>
       </c>
       <c r="I15" s="28"/>
       <c r="J15" s="28"/>
@@ -9937,7 +10586,7 @@
     </row>
     <row r="16" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A16" s="28" t="s">
-        <v>1202</v>
+        <v>1201</v>
       </c>
       <c r="B16" s="28"/>
       <c r="C16" s="28"/>
@@ -9946,7 +10595,7 @@
       <c r="F16" s="28"/>
       <c r="G16" s="28"/>
       <c r="H16" s="28" t="s">
-        <v>1204</v>
+        <v>1203</v>
       </c>
       <c r="I16" s="28"/>
       <c r="J16" s="28"/>
@@ -9959,7 +10608,7 @@
     </row>
     <row r="17" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A17" s="28" t="s">
-        <v>1232</v>
+        <v>1230</v>
       </c>
       <c r="B17" s="28"/>
       <c r="C17" s="28"/>
@@ -9968,7 +10617,7 @@
       <c r="F17" s="28"/>
       <c r="G17" s="28"/>
       <c r="H17" s="28" t="s">
-        <v>1222</v>
+        <v>1220</v>
       </c>
       <c r="I17" s="28"/>
       <c r="J17" s="28"/>
@@ -9981,7 +10630,7 @@
     </row>
     <row r="18" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A18" s="28" t="s">
-        <v>1208</v>
+        <v>1206</v>
       </c>
       <c r="B18" s="28"/>
       <c r="C18" s="28"/>
@@ -9990,12 +10639,12 @@
       <c r="F18" s="28"/>
       <c r="G18" s="28"/>
       <c r="H18" s="28" t="s">
-        <v>1223</v>
+        <v>1221</v>
       </c>
     </row>
     <row r="19" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A19" s="28" t="s">
-        <v>1206</v>
+        <v>1204</v>
       </c>
       <c r="B19" s="28"/>
       <c r="C19" s="28"/>
@@ -10004,7 +10653,7 @@
       <c r="F19" s="28"/>
       <c r="G19" s="28"/>
       <c r="H19" s="28" t="s">
-        <v>1224</v>
+        <v>1222</v>
       </c>
     </row>
   </sheetData>
@@ -10012,7 +10661,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet18.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet19.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:P33"/>
   <sheetViews>
@@ -10279,7 +10928,7 @@
         <v>16.023499999999999</v>
       </c>
       <c r="H9" s="14" t="s">
-        <v>1195</v>
+        <v>1194</v>
       </c>
       <c r="N9" s="28" t="s">
         <v>1029</v>
@@ -10306,7 +10955,7 @@
         <v>14.716100000000001</v>
       </c>
       <c r="H10" s="14" t="s">
-        <v>1196</v>
+        <v>1195</v>
       </c>
       <c r="N10" s="28" t="s">
         <v>1026</v>
@@ -10574,7 +11223,7 @@
         <v>0.87390000000000001</v>
       </c>
       <c r="H20" s="29" t="s">
-        <v>1197</v>
+        <v>1196</v>
       </c>
       <c r="N20" t="s">
         <v>1133</v>
@@ -10654,7 +11303,7 @@
     </row>
     <row r="27" spans="1:16" x14ac:dyDescent="0.25">
       <c r="N27" t="s">
-        <v>1198</v>
+        <v>1197</v>
       </c>
       <c r="O27" s="28">
         <v>0</v>
@@ -10665,7 +11314,7 @@
     </row>
     <row r="28" spans="1:16" x14ac:dyDescent="0.25">
       <c r="N28" t="s">
-        <v>1199</v>
+        <v>1198</v>
       </c>
       <c r="O28" s="28">
         <v>0</v>
@@ -10687,7 +11336,7 @@
     </row>
     <row r="30" spans="1:16" x14ac:dyDescent="0.25">
       <c r="N30" t="s">
-        <v>1200</v>
+        <v>1199</v>
       </c>
       <c r="O30" s="28">
         <v>0</v>
@@ -10698,7 +11347,7 @@
     </row>
     <row r="31" spans="1:16" x14ac:dyDescent="0.25">
       <c r="N31" t="s">
-        <v>1201</v>
+        <v>1200</v>
       </c>
       <c r="O31" s="28">
         <v>0</v>
@@ -10709,7 +11358,7 @@
     </row>
     <row r="32" spans="1:16" x14ac:dyDescent="0.25">
       <c r="N32" t="s">
-        <v>1193</v>
+        <v>1192</v>
       </c>
       <c r="O32" s="28">
         <v>0</v>
@@ -10720,7 +11369,7 @@
     </row>
     <row r="33" spans="14:16" x14ac:dyDescent="0.25">
       <c r="N33" t="s">
-        <v>1194</v>
+        <v>1193</v>
       </c>
       <c r="O33" s="28">
         <v>0</v>
@@ -56817,7 +57466,7 @@
         <v>884</v>
       </c>
       <c r="N60" s="28" t="s">
-        <v>1193</v>
+        <v>1192</v>
       </c>
       <c r="O60" s="28">
         <v>0</v>
@@ -56844,7 +57493,7 @@
         <v>1149</v>
       </c>
       <c r="N61" s="28" t="s">
-        <v>1194</v>
+        <v>1193</v>
       </c>
       <c r="O61" s="28">
         <v>0</v>

--- a/KineticModel/test.xlsx
+++ b/KineticModel/test.xlsx
@@ -1,15 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="5" rupBuild="14420"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
   <workbookPr defaultThemeVersion="124226"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\shyam\Documents\Courses\CHE1125Project\IntegratedModels\KineticModel\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="240" yWindow="4665" windowWidth="16275" windowHeight="3180" firstSheet="16" activeTab="16"/>
+    <workbookView xWindow="240" yWindow="4665" windowWidth="16275" windowHeight="3180" firstSheet="5" activeTab="7"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -19,25 +14,26 @@
     <sheet name="MN 1" sheetId="6" r:id="rId5"/>
     <sheet name="SN 1" sheetId="7" r:id="rId6"/>
     <sheet name="N2" sheetId="13" r:id="rId7"/>
-    <sheet name="testN2m" sheetId="12" r:id="rId8"/>
-    <sheet name="lacOP" sheetId="16" r:id="rId9"/>
-    <sheet name="N2lacZ" sheetId="15" r:id="rId10"/>
-    <sheet name="N3" sheetId="14" r:id="rId11"/>
-    <sheet name="PTS" sheetId="8" r:id="rId12"/>
-    <sheet name="Sheet6" sheetId="10" r:id="rId13"/>
-    <sheet name="Sheet3" sheetId="9" r:id="rId14"/>
-    <sheet name="Sheet7" sheetId="11" r:id="rId15"/>
-    <sheet name="N2mD" sheetId="17" r:id="rId16"/>
-    <sheet name="N2mR" sheetId="20" r:id="rId17"/>
-    <sheet name="N3m" sheetId="19" r:id="rId18"/>
-    <sheet name="EcoliCCM" sheetId="18" r:id="rId19"/>
+    <sheet name="N2mR" sheetId="20" r:id="rId8"/>
+    <sheet name="N2mD" sheetId="17" r:id="rId9"/>
+    <sheet name="lacOP" sheetId="16" r:id="rId10"/>
+    <sheet name="N2lacZ" sheetId="15" r:id="rId11"/>
+    <sheet name="N3" sheetId="14" r:id="rId12"/>
+    <sheet name="N3mR" sheetId="19" r:id="rId13"/>
+    <sheet name="PTS" sheetId="8" r:id="rId14"/>
+    <sheet name="Sheet6" sheetId="10" r:id="rId15"/>
+    <sheet name="Sheet3" sheetId="9" r:id="rId16"/>
+    <sheet name="Sheet7" sheetId="11" r:id="rId17"/>
+    <sheet name="EcoliCCM" sheetId="18" r:id="rId18"/>
+    <sheet name="testN2m" sheetId="12" r:id="rId19"/>
   </sheets>
-  <calcPr calcId="152511"/>
+  <calcPr calcId="145621"/>
+  <fileRecoveryPr repairLoad="1"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2323" uniqueCount="1247">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2324" uniqueCount="1267">
   <si>
     <t>Name</t>
   </si>
@@ -3753,12 +3749,6 @@
     <t>Bex</t>
   </si>
   <si>
-    <t>exS</t>
-  </si>
-  <si>
-    <t>[c] : 10 M  + 5 N ---&gt; biomass</t>
-  </si>
-  <si>
     <t>[c] : D ---&gt; A</t>
   </si>
   <si>
@@ -3795,10 +3785,250 @@
     <t>B[c] ---&gt; Biomass[c]</t>
   </si>
   <si>
-    <t>C[c],D[c],P[c],E[c]</t>
-  </si>
-  <si>
-    <t>2,2,2,0.05</t>
+    <t>Pout</t>
+  </si>
+  <si>
+    <t>Dout</t>
+  </si>
+  <si>
+    <t>Eout</t>
+  </si>
+  <si>
+    <t>Bout</t>
+  </si>
+  <si>
+    <t>Aout</t>
+  </si>
+  <si>
+    <t>Sex</t>
+  </si>
+  <si>
+    <t>[c] : M  + N ---&gt; biomass</t>
+  </si>
+  <si>
+    <t>A[c],K[c]</t>
+  </si>
+  <si>
+    <t>.1,.1</t>
+  </si>
+  <si>
+    <r>
+      <t>v</t>
+    </r>
+    <r>
+      <rPr>
+        <vertAlign val="subscript"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>1</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>v</t>
+    </r>
+    <r>
+      <rPr>
+        <vertAlign val="subscript"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>2</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t/>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>v</t>
+    </r>
+    <r>
+      <rPr>
+        <vertAlign val="subscript"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>3</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t/>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>v</t>
+    </r>
+    <r>
+      <rPr>
+        <vertAlign val="subscript"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>4</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t/>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>v</t>
+    </r>
+    <r>
+      <rPr>
+        <vertAlign val="subscript"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>5</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t/>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>v</t>
+    </r>
+    <r>
+      <rPr>
+        <vertAlign val="subscript"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>6</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t/>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>v</t>
+    </r>
+    <r>
+      <rPr>
+        <vertAlign val="subscript"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>7</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t/>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>v</t>
+    </r>
+    <r>
+      <rPr>
+        <vertAlign val="subscript"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>8</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t/>
+    </r>
+  </si>
+  <si>
+    <t>v2</t>
+  </si>
+  <si>
+    <t>v1</t>
+  </si>
+  <si>
+    <t>v3</t>
+  </si>
+  <si>
+    <t>v4</t>
+  </si>
+  <si>
+    <t>v5</t>
+  </si>
+  <si>
+    <t>v6</t>
+  </si>
+  <si>
+    <t>50</t>
   </si>
 </sst>
 </file>
@@ -3809,7 +4039,14 @@
     <numFmt numFmtId="164" formatCode="0.0000E+00"/>
     <numFmt numFmtId="165" formatCode="0.0"/>
   </numFmts>
-  <fonts count="9" x14ac:knownFonts="1">
+  <fonts count="11" x14ac:knownFonts="1">
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -3868,6 +4105,14 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <vertAlign val="subscript"/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="4">
     <fill>
@@ -3898,42 +4143,42 @@
   </borders>
   <cellStyleXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
   <cellXfs count="32">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1"/>
-    <xf numFmtId="164" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="164" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1" applyFont="1" applyFill="1"/>
     <xf numFmtId="11" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="3" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="2" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="165" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
-    <xf numFmtId="165" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1" applyFont="1" applyFill="1"/>
-    <xf numFmtId="165" fontId="1" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="2" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="165" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1" applyFont="1" applyFill="1"/>
-    <xf numFmtId="11" fontId="1" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1"/>
-    <xf numFmtId="164" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="165" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="165" fontId="2" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="164" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="165" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="11" fontId="2" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="164" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="164" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="3">
     <cellStyle name="Bad" xfId="2" builtinId="27"/>
@@ -3945,9 +4190,6 @@
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
-    </ext>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
-      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
     </ext>
   </extLst>
 </styleSheet>
@@ -3996,7 +4238,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
+        <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -4031,7 +4273,7 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -5401,6 +5643,422 @@
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:P12"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="J10" sqref="J10"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="8" max="8" width="19.42578125" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:16" s="28" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="28" t="s">
+        <v>565</v>
+      </c>
+      <c r="B1" s="28" t="s">
+        <v>728</v>
+      </c>
+      <c r="C1" s="28" t="s">
+        <v>731</v>
+      </c>
+      <c r="D1" s="28" t="s">
+        <v>729</v>
+      </c>
+      <c r="E1" s="28" t="s">
+        <v>730</v>
+      </c>
+      <c r="F1" s="28" t="s">
+        <v>830</v>
+      </c>
+      <c r="G1" s="28" t="s">
+        <v>818</v>
+      </c>
+      <c r="H1" s="28" t="s">
+        <v>1</v>
+      </c>
+      <c r="I1" s="28" t="s">
+        <v>608</v>
+      </c>
+      <c r="J1" s="28" t="s">
+        <v>609</v>
+      </c>
+      <c r="K1" s="28" t="s">
+        <v>654</v>
+      </c>
+      <c r="L1" s="28" t="s">
+        <v>656</v>
+      </c>
+      <c r="M1" s="28" t="s">
+        <v>657</v>
+      </c>
+      <c r="N1" s="28" t="s">
+        <v>726</v>
+      </c>
+      <c r="O1" s="28" t="s">
+        <v>828</v>
+      </c>
+      <c r="P1" s="28" t="s">
+        <v>829</v>
+      </c>
+    </row>
+    <row r="2" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>1114</v>
+      </c>
+      <c r="B2" s="28">
+        <v>0</v>
+      </c>
+      <c r="C2" s="28">
+        <v>0</v>
+      </c>
+      <c r="D2" s="28"/>
+      <c r="E2" s="28"/>
+      <c r="F2" s="28">
+        <v>-0.5</v>
+      </c>
+      <c r="G2" s="28">
+        <v>1</v>
+      </c>
+      <c r="H2" s="1" t="s">
+        <v>1097</v>
+      </c>
+      <c r="I2" s="28"/>
+      <c r="J2" s="28"/>
+      <c r="K2" s="28"/>
+      <c r="L2" s="28" t="s">
+        <v>667</v>
+      </c>
+      <c r="M2" s="28"/>
+      <c r="N2" t="s">
+        <v>1030</v>
+      </c>
+      <c r="O2">
+        <v>0.1</v>
+      </c>
+      <c r="P2">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="3" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>1115</v>
+      </c>
+      <c r="B3" s="28">
+        <v>0</v>
+      </c>
+      <c r="C3" s="28">
+        <v>0</v>
+      </c>
+      <c r="D3" s="28"/>
+      <c r="E3" s="28"/>
+      <c r="F3" s="28">
+        <v>-0.5</v>
+      </c>
+      <c r="G3" s="28">
+        <v>0.33</v>
+      </c>
+      <c r="H3" s="28" t="s">
+        <v>1126</v>
+      </c>
+      <c r="I3" s="28"/>
+      <c r="J3" s="28"/>
+      <c r="K3" s="28"/>
+      <c r="L3" s="28" t="s">
+        <v>667</v>
+      </c>
+      <c r="M3" s="28"/>
+      <c r="N3" t="s">
+        <v>1121</v>
+      </c>
+      <c r="O3" s="28">
+        <v>0.1</v>
+      </c>
+      <c r="P3" s="28">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="4" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>1054</v>
+      </c>
+      <c r="B4" s="28">
+        <v>0</v>
+      </c>
+      <c r="C4" s="28">
+        <v>0</v>
+      </c>
+      <c r="D4" s="28"/>
+      <c r="E4" s="28"/>
+      <c r="F4" s="28">
+        <v>-0.5</v>
+      </c>
+      <c r="G4" s="28">
+        <v>0.33</v>
+      </c>
+      <c r="H4" s="28" t="s">
+        <v>1127</v>
+      </c>
+      <c r="I4" s="28"/>
+      <c r="J4" s="28"/>
+      <c r="K4" s="28"/>
+      <c r="L4" s="28" t="s">
+        <v>667</v>
+      </c>
+      <c r="N4" t="s">
+        <v>1122</v>
+      </c>
+      <c r="O4" s="28">
+        <v>0.1</v>
+      </c>
+      <c r="P4" s="28">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="5" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>1055</v>
+      </c>
+      <c r="B5" s="28">
+        <v>0</v>
+      </c>
+      <c r="C5" s="28">
+        <v>0</v>
+      </c>
+      <c r="D5" s="28"/>
+      <c r="E5" s="28"/>
+      <c r="F5" s="28">
+        <v>-0.5</v>
+      </c>
+      <c r="G5" s="28">
+        <v>0.34</v>
+      </c>
+      <c r="H5" s="28" t="s">
+        <v>1128</v>
+      </c>
+      <c r="I5" s="28"/>
+      <c r="J5" s="28"/>
+      <c r="K5" s="28"/>
+      <c r="L5" s="28" t="s">
+        <v>667</v>
+      </c>
+      <c r="N5" t="s">
+        <v>1123</v>
+      </c>
+      <c r="O5" s="28">
+        <v>0.1</v>
+      </c>
+      <c r="P5" s="28">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="6" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>1056</v>
+      </c>
+      <c r="B6" s="28">
+        <v>0</v>
+      </c>
+      <c r="C6" s="28">
+        <v>0</v>
+      </c>
+      <c r="D6" s="28"/>
+      <c r="E6" s="28"/>
+      <c r="F6" s="28">
+        <v>-0.5</v>
+      </c>
+      <c r="G6" s="28">
+        <v>0.16500000000000001</v>
+      </c>
+      <c r="H6" s="28" t="s">
+        <v>1116</v>
+      </c>
+      <c r="I6" s="28"/>
+      <c r="J6" s="28"/>
+      <c r="K6" s="28"/>
+      <c r="L6" s="28" t="s">
+        <v>667</v>
+      </c>
+      <c r="N6" t="s">
+        <v>1124</v>
+      </c>
+      <c r="O6" s="28">
+        <v>0.1</v>
+      </c>
+      <c r="P6" s="28">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="7" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
+        <v>1059</v>
+      </c>
+      <c r="B7" s="28">
+        <v>0</v>
+      </c>
+      <c r="C7" s="28">
+        <v>0</v>
+      </c>
+      <c r="D7" s="28"/>
+      <c r="E7" s="28"/>
+      <c r="F7" s="28">
+        <v>-0.5</v>
+      </c>
+      <c r="G7" s="28">
+        <v>0.16500000000000001</v>
+      </c>
+      <c r="H7" s="28" t="s">
+        <v>1117</v>
+      </c>
+      <c r="I7" s="28"/>
+      <c r="J7" s="28"/>
+      <c r="K7" s="28"/>
+      <c r="L7" s="28" t="s">
+        <v>667</v>
+      </c>
+      <c r="N7" t="s">
+        <v>1125</v>
+      </c>
+      <c r="O7" s="28">
+        <v>0.1</v>
+      </c>
+      <c r="P7" s="28">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="8" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
+        <v>1058</v>
+      </c>
+      <c r="B8" s="28">
+        <v>0</v>
+      </c>
+      <c r="C8" s="28">
+        <v>0</v>
+      </c>
+      <c r="D8" s="28"/>
+      <c r="E8" s="28"/>
+      <c r="F8" s="28">
+        <v>-0.5</v>
+      </c>
+      <c r="G8" s="28">
+        <v>0.33</v>
+      </c>
+      <c r="H8" s="28" t="s">
+        <v>1118</v>
+      </c>
+      <c r="I8" s="28"/>
+      <c r="J8" s="28"/>
+      <c r="K8" s="28"/>
+      <c r="L8" s="28" t="s">
+        <v>1077</v>
+      </c>
+      <c r="N8" t="s">
+        <v>1091</v>
+      </c>
+      <c r="O8" s="4">
+        <v>9.9999999999999995E-7</v>
+      </c>
+      <c r="P8">
+        <v>0.01</v>
+      </c>
+    </row>
+    <row r="9" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A9" t="s">
+        <v>1060</v>
+      </c>
+      <c r="B9" s="28">
+        <v>0</v>
+      </c>
+      <c r="C9" s="28">
+        <v>0</v>
+      </c>
+      <c r="D9" s="28"/>
+      <c r="E9" s="28"/>
+      <c r="F9" s="28">
+        <v>-0.5</v>
+      </c>
+      <c r="G9" s="28">
+        <v>0.495</v>
+      </c>
+      <c r="H9" s="28" t="s">
+        <v>1120</v>
+      </c>
+      <c r="I9" s="28"/>
+      <c r="J9" s="28"/>
+      <c r="K9" s="28"/>
+      <c r="L9" s="28"/>
+      <c r="N9" t="s">
+        <v>1130</v>
+      </c>
+      <c r="O9" s="4">
+        <v>9.9999999999999995E-7</v>
+      </c>
+      <c r="P9" s="4">
+        <v>1E-4</v>
+      </c>
+    </row>
+    <row r="10" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A10" t="s">
+        <v>1061</v>
+      </c>
+      <c r="B10" s="28">
+        <v>0</v>
+      </c>
+      <c r="C10" s="28">
+        <v>0</v>
+      </c>
+      <c r="D10" s="28"/>
+      <c r="E10" s="28"/>
+      <c r="F10" s="28">
+        <v>-0.5</v>
+      </c>
+      <c r="G10" s="28">
+        <v>0.33</v>
+      </c>
+      <c r="H10" s="28" t="s">
+        <v>1119</v>
+      </c>
+      <c r="I10" s="28"/>
+      <c r="J10" s="28"/>
+      <c r="K10" s="28"/>
+      <c r="L10" s="28"/>
+    </row>
+    <row r="11" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A11" t="s">
+        <v>1129</v>
+      </c>
+      <c r="B11">
+        <v>0</v>
+      </c>
+      <c r="C11">
+        <v>0</v>
+      </c>
+      <c r="F11">
+        <v>-0.5</v>
+      </c>
+      <c r="G11">
+        <v>0.33</v>
+      </c>
+      <c r="H11" t="s">
+        <v>1131</v>
+      </c>
+    </row>
+    <row r="12" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A12" t="s">
+        <v>1091</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:P20"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -5922,7 +6580,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:P13"/>
   <sheetViews>
@@ -6321,7 +6979,639 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:P19"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D8" sqref="D8"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData>
+    <row r="1" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A1" s="28" t="s">
+        <v>565</v>
+      </c>
+      <c r="B1" s="28" t="s">
+        <v>728</v>
+      </c>
+      <c r="C1" s="28" t="s">
+        <v>731</v>
+      </c>
+      <c r="D1" s="28" t="s">
+        <v>729</v>
+      </c>
+      <c r="E1" s="28" t="s">
+        <v>730</v>
+      </c>
+      <c r="F1" s="28" t="s">
+        <v>830</v>
+      </c>
+      <c r="G1" s="28" t="s">
+        <v>818</v>
+      </c>
+      <c r="H1" s="28" t="s">
+        <v>1</v>
+      </c>
+      <c r="I1" s="28" t="s">
+        <v>608</v>
+      </c>
+      <c r="J1" s="28" t="s">
+        <v>609</v>
+      </c>
+      <c r="K1" s="28" t="s">
+        <v>654</v>
+      </c>
+      <c r="L1" s="28" t="s">
+        <v>656</v>
+      </c>
+      <c r="M1" s="28" t="s">
+        <v>657</v>
+      </c>
+      <c r="N1" s="28" t="s">
+        <v>726</v>
+      </c>
+      <c r="O1" s="28" t="s">
+        <v>828</v>
+      </c>
+      <c r="P1" s="28" t="s">
+        <v>829</v>
+      </c>
+    </row>
+    <row r="2" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A2" s="28" t="s">
+        <v>1248</v>
+      </c>
+      <c r="B2" s="28"/>
+      <c r="C2" s="28"/>
+      <c r="D2" s="28"/>
+      <c r="E2" s="28"/>
+      <c r="F2" s="28"/>
+      <c r="G2" s="28"/>
+      <c r="H2" s="28" t="s">
+        <v>1208</v>
+      </c>
+      <c r="I2" s="28"/>
+      <c r="J2" s="28"/>
+      <c r="K2" s="28"/>
+      <c r="L2" s="28"/>
+      <c r="M2" s="28"/>
+      <c r="N2" s="28" t="s">
+        <v>1190</v>
+      </c>
+      <c r="O2" s="28">
+        <v>0.1</v>
+      </c>
+      <c r="P2" s="28">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="3" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A3" s="28" t="s">
+        <v>1057</v>
+      </c>
+      <c r="B3" s="28">
+        <v>0</v>
+      </c>
+      <c r="C3" s="28">
+        <v>0</v>
+      </c>
+      <c r="D3" s="28"/>
+      <c r="E3" s="28"/>
+      <c r="F3" s="28">
+        <v>-8</v>
+      </c>
+      <c r="G3" s="28">
+        <v>20</v>
+      </c>
+      <c r="H3" s="1" t="s">
+        <v>1209</v>
+      </c>
+      <c r="I3" s="28"/>
+      <c r="J3" s="28"/>
+      <c r="K3" s="28"/>
+      <c r="L3" s="28"/>
+      <c r="M3" s="28"/>
+      <c r="N3" s="28" t="s">
+        <v>1223</v>
+      </c>
+      <c r="O3" s="28">
+        <v>0.1</v>
+      </c>
+      <c r="P3" s="28">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="4" spans="1:16" ht="18" x14ac:dyDescent="0.35">
+      <c r="A4" s="28" t="s">
+        <v>1252</v>
+      </c>
+      <c r="B4" s="28">
+        <v>0</v>
+      </c>
+      <c r="C4" s="28">
+        <v>0</v>
+      </c>
+      <c r="D4" s="28"/>
+      <c r="E4" s="28"/>
+      <c r="F4" s="28">
+        <v>-8</v>
+      </c>
+      <c r="G4" s="28">
+        <v>2.5</v>
+      </c>
+      <c r="H4" s="28" t="s">
+        <v>1210</v>
+      </c>
+      <c r="I4" s="28"/>
+      <c r="J4" s="28"/>
+      <c r="K4" s="28"/>
+      <c r="L4" s="28"/>
+      <c r="M4" s="28"/>
+      <c r="N4" s="28" t="s">
+        <v>1121</v>
+      </c>
+      <c r="O4" s="28">
+        <v>0.1</v>
+      </c>
+      <c r="P4" s="28">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="5" spans="1:16" ht="18" x14ac:dyDescent="0.35">
+      <c r="A5" s="28" t="s">
+        <v>1253</v>
+      </c>
+      <c r="B5" s="28">
+        <v>0</v>
+      </c>
+      <c r="C5" s="28">
+        <v>0</v>
+      </c>
+      <c r="D5" s="28"/>
+      <c r="E5" s="28"/>
+      <c r="F5" s="28">
+        <v>-8</v>
+      </c>
+      <c r="G5" s="28">
+        <v>2.5</v>
+      </c>
+      <c r="H5" s="28" t="s">
+        <v>1211</v>
+      </c>
+      <c r="I5" s="28"/>
+      <c r="J5" s="28"/>
+      <c r="K5" s="28"/>
+      <c r="L5" s="28"/>
+      <c r="M5" s="28"/>
+      <c r="N5" s="28" t="s">
+        <v>1224</v>
+      </c>
+      <c r="O5" s="28">
+        <v>0.1</v>
+      </c>
+      <c r="P5" s="28">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="6" spans="1:16" ht="18" x14ac:dyDescent="0.35">
+      <c r="A6" s="28" t="s">
+        <v>1254</v>
+      </c>
+      <c r="B6" s="28">
+        <v>0</v>
+      </c>
+      <c r="C6" s="28">
+        <v>0</v>
+      </c>
+      <c r="D6" s="28"/>
+      <c r="E6" s="28"/>
+      <c r="F6" s="28">
+        <v>-8</v>
+      </c>
+      <c r="G6" s="28">
+        <v>10</v>
+      </c>
+      <c r="H6" s="28" t="s">
+        <v>1212</v>
+      </c>
+      <c r="I6" s="28"/>
+      <c r="J6" s="28"/>
+      <c r="K6" s="28"/>
+      <c r="L6" s="28"/>
+      <c r="M6" s="28"/>
+      <c r="N6" s="28" t="s">
+        <v>1125</v>
+      </c>
+      <c r="O6" s="28">
+        <v>0.1</v>
+      </c>
+      <c r="P6" s="28">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="7" spans="1:16" ht="18" x14ac:dyDescent="0.35">
+      <c r="A7" s="28" t="s">
+        <v>1255</v>
+      </c>
+      <c r="B7" s="28">
+        <v>0</v>
+      </c>
+      <c r="C7" s="28">
+        <v>0</v>
+      </c>
+      <c r="D7" s="28"/>
+      <c r="E7" s="28"/>
+      <c r="F7" s="28">
+        <v>-8</v>
+      </c>
+      <c r="G7" s="28">
+        <v>5</v>
+      </c>
+      <c r="H7" s="28" t="s">
+        <v>1213</v>
+      </c>
+      <c r="I7" s="28"/>
+      <c r="J7" s="28"/>
+      <c r="K7" s="28"/>
+      <c r="L7" s="28"/>
+      <c r="M7" s="28"/>
+      <c r="N7" s="28" t="s">
+        <v>1225</v>
+      </c>
+      <c r="O7" s="28">
+        <v>0.1</v>
+      </c>
+      <c r="P7" s="28">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="8" spans="1:16" ht="18" x14ac:dyDescent="0.35">
+      <c r="A8" s="28" t="s">
+        <v>1256</v>
+      </c>
+      <c r="B8" s="28">
+        <v>0</v>
+      </c>
+      <c r="C8" s="28">
+        <v>0</v>
+      </c>
+      <c r="D8" s="28"/>
+      <c r="E8" s="28"/>
+      <c r="F8" s="28">
+        <v>-8</v>
+      </c>
+      <c r="G8" s="28">
+        <v>10</v>
+      </c>
+      <c r="H8" s="28" t="s">
+        <v>1214</v>
+      </c>
+      <c r="I8" s="28"/>
+      <c r="J8" s="28"/>
+      <c r="K8" s="28"/>
+      <c r="L8" s="28"/>
+      <c r="M8" s="28"/>
+      <c r="N8" s="28" t="s">
+        <v>1226</v>
+      </c>
+      <c r="O8" s="28">
+        <v>0.1</v>
+      </c>
+      <c r="P8" s="28">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="9" spans="1:16" ht="18" x14ac:dyDescent="0.35">
+      <c r="A9" s="28" t="s">
+        <v>1257</v>
+      </c>
+      <c r="B9" s="28">
+        <v>0</v>
+      </c>
+      <c r="C9" s="28">
+        <v>0</v>
+      </c>
+      <c r="D9" s="28"/>
+      <c r="E9" s="28"/>
+      <c r="F9" s="28">
+        <v>8</v>
+      </c>
+      <c r="G9" s="28">
+        <v>-5</v>
+      </c>
+      <c r="H9" s="28" t="s">
+        <v>1215</v>
+      </c>
+      <c r="I9" s="28"/>
+      <c r="J9" s="28"/>
+      <c r="K9" s="28" t="s">
+        <v>1250</v>
+      </c>
+      <c r="L9" s="28"/>
+      <c r="M9" s="28" t="s">
+        <v>1251</v>
+      </c>
+      <c r="N9" s="28" t="s">
+        <v>1227</v>
+      </c>
+      <c r="O9" s="28">
+        <v>0.1</v>
+      </c>
+      <c r="P9" s="28">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="10" spans="1:16" ht="18" x14ac:dyDescent="0.35">
+      <c r="A10" s="28" t="s">
+        <v>1258</v>
+      </c>
+      <c r="B10" s="28">
+        <v>0</v>
+      </c>
+      <c r="C10" s="28">
+        <v>0</v>
+      </c>
+      <c r="D10" s="28"/>
+      <c r="E10" s="28"/>
+      <c r="F10" s="28">
+        <v>-8</v>
+      </c>
+      <c r="G10" s="28">
+        <v>0.25</v>
+      </c>
+      <c r="H10" t="s">
+        <v>1216</v>
+      </c>
+      <c r="I10" s="28"/>
+      <c r="J10" s="28"/>
+      <c r="K10" s="28"/>
+      <c r="L10" s="28"/>
+      <c r="M10" s="28"/>
+      <c r="N10" s="28" t="s">
+        <v>1228</v>
+      </c>
+      <c r="O10" s="28">
+        <v>0.1</v>
+      </c>
+      <c r="P10" s="28">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="11" spans="1:16" ht="18" x14ac:dyDescent="0.35">
+      <c r="A11" s="28" t="s">
+        <v>1259</v>
+      </c>
+      <c r="B11" s="28">
+        <v>0</v>
+      </c>
+      <c r="C11" s="28">
+        <v>0</v>
+      </c>
+      <c r="D11" s="28"/>
+      <c r="E11" s="28"/>
+      <c r="F11" s="28">
+        <v>-8</v>
+      </c>
+      <c r="G11" s="28">
+        <v>0.25</v>
+      </c>
+      <c r="H11" t="s">
+        <v>1217</v>
+      </c>
+      <c r="I11" s="28"/>
+      <c r="J11" s="28"/>
+      <c r="K11" s="28"/>
+      <c r="L11" s="28"/>
+      <c r="M11" s="28"/>
+      <c r="N11" s="28" t="s">
+        <v>1229</v>
+      </c>
+      <c r="O11" s="28">
+        <v>0.1</v>
+      </c>
+      <c r="P11" s="28">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="12" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A12" s="28" t="s">
+        <v>1243</v>
+      </c>
+      <c r="B12" s="28">
+        <v>0</v>
+      </c>
+      <c r="C12" s="28">
+        <v>0</v>
+      </c>
+      <c r="D12" s="28"/>
+      <c r="E12" s="28"/>
+      <c r="F12" s="28">
+        <v>0</v>
+      </c>
+      <c r="G12" s="28"/>
+      <c r="H12" s="28" t="s">
+        <v>1189</v>
+      </c>
+      <c r="I12" s="28"/>
+      <c r="J12" s="28"/>
+      <c r="K12" s="28"/>
+      <c r="L12" s="28"/>
+      <c r="M12" s="28"/>
+      <c r="N12" s="28"/>
+      <c r="O12" s="28"/>
+      <c r="P12" s="28"/>
+    </row>
+    <row r="13" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A13" s="28" t="s">
+        <v>1246</v>
+      </c>
+      <c r="B13" s="28">
+        <v>0</v>
+      </c>
+      <c r="C13" s="28">
+        <v>0</v>
+      </c>
+      <c r="D13" s="28"/>
+      <c r="E13" s="28"/>
+      <c r="F13" s="28">
+        <v>0</v>
+      </c>
+      <c r="G13" s="28"/>
+      <c r="H13" s="28" t="s">
+        <v>1218</v>
+      </c>
+      <c r="I13" s="28"/>
+      <c r="J13" s="28"/>
+      <c r="K13" s="28"/>
+      <c r="L13" s="28"/>
+      <c r="M13" s="28"/>
+      <c r="N13" s="28"/>
+      <c r="O13" s="28"/>
+      <c r="P13" s="28"/>
+    </row>
+    <row r="14" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A14" s="28" t="s">
+        <v>1247</v>
+      </c>
+      <c r="B14" s="28">
+        <v>0</v>
+      </c>
+      <c r="C14" s="28">
+        <v>0</v>
+      </c>
+      <c r="D14" s="28"/>
+      <c r="E14" s="28"/>
+      <c r="F14" s="28">
+        <v>0</v>
+      </c>
+      <c r="G14" s="28"/>
+      <c r="H14" s="28" t="s">
+        <v>1219</v>
+      </c>
+      <c r="I14" s="28"/>
+      <c r="J14" s="28"/>
+      <c r="K14" s="28"/>
+      <c r="L14" s="28"/>
+      <c r="M14" s="28"/>
+      <c r="N14" s="28"/>
+      <c r="O14" s="28"/>
+      <c r="P14" s="28"/>
+    </row>
+    <row r="15" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A15" s="28" t="s">
+        <v>849</v>
+      </c>
+      <c r="B15" s="28">
+        <v>0</v>
+      </c>
+      <c r="C15" s="28">
+        <v>0</v>
+      </c>
+      <c r="D15" s="28"/>
+      <c r="E15" s="28"/>
+      <c r="F15" s="28">
+        <v>-8</v>
+      </c>
+      <c r="G15" s="28">
+        <v>0.33</v>
+      </c>
+      <c r="H15" s="28" t="s">
+        <v>1249</v>
+      </c>
+      <c r="I15" s="28"/>
+      <c r="J15" s="28"/>
+      <c r="K15" s="28"/>
+      <c r="L15" s="28"/>
+      <c r="M15" s="28"/>
+      <c r="N15" s="28"/>
+      <c r="O15" s="28"/>
+      <c r="P15" s="28"/>
+    </row>
+    <row r="16" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A16" s="28" t="s">
+        <v>1201</v>
+      </c>
+      <c r="B16" s="28">
+        <v>0</v>
+      </c>
+      <c r="C16" s="28">
+        <v>0</v>
+      </c>
+      <c r="D16" s="28"/>
+      <c r="E16" s="28"/>
+      <c r="F16" s="28">
+        <v>0</v>
+      </c>
+      <c r="G16" s="28"/>
+      <c r="H16" s="28" t="s">
+        <v>1203</v>
+      </c>
+      <c r="I16" s="28"/>
+      <c r="J16" s="28"/>
+      <c r="K16" s="28"/>
+      <c r="L16" s="28"/>
+      <c r="M16" s="28"/>
+      <c r="N16" s="28"/>
+      <c r="O16" s="28"/>
+      <c r="P16" s="28"/>
+    </row>
+    <row r="17" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A17" s="28" t="s">
+        <v>1230</v>
+      </c>
+      <c r="B17" s="28">
+        <v>0</v>
+      </c>
+      <c r="C17" s="28">
+        <v>0</v>
+      </c>
+      <c r="D17" s="28"/>
+      <c r="E17" s="28"/>
+      <c r="F17" s="28">
+        <v>0</v>
+      </c>
+      <c r="G17" s="28"/>
+      <c r="H17" s="28" t="s">
+        <v>1220</v>
+      </c>
+      <c r="I17" s="28"/>
+      <c r="J17" s="28"/>
+      <c r="K17" s="28"/>
+      <c r="L17" s="28"/>
+      <c r="M17" s="28"/>
+      <c r="N17" s="28"/>
+      <c r="O17" s="28"/>
+      <c r="P17" s="28"/>
+    </row>
+    <row r="18" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A18" s="28" t="s">
+        <v>1206</v>
+      </c>
+      <c r="B18" s="28">
+        <v>0</v>
+      </c>
+      <c r="C18" s="28">
+        <v>0</v>
+      </c>
+      <c r="D18" s="28"/>
+      <c r="E18" s="28"/>
+      <c r="F18" s="28">
+        <v>0</v>
+      </c>
+      <c r="G18" s="28"/>
+      <c r="H18" s="28" t="s">
+        <v>1221</v>
+      </c>
+    </row>
+    <row r="19" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A19" s="28" t="s">
+        <v>1204</v>
+      </c>
+      <c r="B19" s="28">
+        <v>0</v>
+      </c>
+      <c r="C19" s="28">
+        <v>0</v>
+      </c>
+      <c r="D19" s="28"/>
+      <c r="E19" s="28"/>
+      <c r="F19" s="28">
+        <v>0</v>
+      </c>
+      <c r="G19" s="28"/>
+      <c r="H19" s="28" t="s">
+        <v>1222</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:P60"/>
   <sheetViews>
@@ -7904,7 +9194,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet15.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:P12"/>
   <sheetViews>
@@ -8145,7 +9435,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet16.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:P20"/>
   <sheetViews>
@@ -8631,7 +9921,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet15.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet17.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:P11"/>
   <sheetViews>
@@ -8976,1692 +10266,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet16.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:P17"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="H9" sqref="H9"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <cols>
-    <col min="1" max="1" width="14.42578125" customWidth="1"/>
-    <col min="6" max="6" width="16.5703125" customWidth="1"/>
-    <col min="8" max="8" width="19" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A1" s="28" t="s">
-        <v>565</v>
-      </c>
-      <c r="B1" s="28" t="s">
-        <v>728</v>
-      </c>
-      <c r="C1" s="28" t="s">
-        <v>731</v>
-      </c>
-      <c r="D1" s="28" t="s">
-        <v>729</v>
-      </c>
-      <c r="E1" s="28" t="s">
-        <v>730</v>
-      </c>
-      <c r="F1" s="28" t="s">
-        <v>830</v>
-      </c>
-      <c r="G1" s="28" t="s">
-        <v>818</v>
-      </c>
-      <c r="H1" s="28" t="s">
-        <v>1</v>
-      </c>
-      <c r="I1" s="28" t="s">
-        <v>608</v>
-      </c>
-      <c r="J1" s="28" t="s">
-        <v>609</v>
-      </c>
-      <c r="K1" s="28" t="s">
-        <v>654</v>
-      </c>
-      <c r="L1" s="28" t="s">
-        <v>656</v>
-      </c>
-      <c r="M1" s="28" t="s">
-        <v>657</v>
-      </c>
-      <c r="N1" s="28" t="s">
-        <v>726</v>
-      </c>
-      <c r="O1" s="28" t="s">
-        <v>828</v>
-      </c>
-      <c r="P1" s="28" t="s">
-        <v>829</v>
-      </c>
-    </row>
-    <row r="2" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A2" t="s">
-        <v>1206</v>
-      </c>
-      <c r="H2" t="s">
-        <v>1207</v>
-      </c>
-      <c r="I2" s="28"/>
-      <c r="J2" s="28"/>
-      <c r="K2" s="28"/>
-      <c r="L2" s="28"/>
-      <c r="M2" s="28"/>
-      <c r="N2" s="28" t="s">
-        <v>1190</v>
-      </c>
-      <c r="O2" s="28">
-        <v>0.1</v>
-      </c>
-      <c r="P2" s="28">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="3" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A3" s="28" t="s">
-        <v>1057</v>
-      </c>
-      <c r="B3" s="28">
-        <v>0</v>
-      </c>
-      <c r="C3" s="28">
-        <v>0</v>
-      </c>
-      <c r="D3" s="28"/>
-      <c r="E3" s="28"/>
-      <c r="F3" s="28">
-        <v>-8</v>
-      </c>
-      <c r="G3" s="28">
-        <v>20</v>
-      </c>
-      <c r="H3" s="1" t="s">
-        <v>1205</v>
-      </c>
-      <c r="I3" s="28"/>
-      <c r="J3" s="28"/>
-      <c r="K3" s="28"/>
-      <c r="L3" s="28" t="s">
-        <v>667</v>
-      </c>
-      <c r="M3" s="28"/>
-      <c r="N3" s="28" t="s">
-        <v>1122</v>
-      </c>
-      <c r="O3" s="28">
-        <v>0.1</v>
-      </c>
-      <c r="P3" s="28">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="4" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A4" s="28" t="s">
-        <v>1054</v>
-      </c>
-      <c r="B4" s="28">
-        <v>0</v>
-      </c>
-      <c r="C4" s="28">
-        <v>0</v>
-      </c>
-      <c r="D4" s="28"/>
-      <c r="E4" s="28"/>
-      <c r="F4" s="28">
-        <v>-8</v>
-      </c>
-      <c r="G4" s="28">
-        <v>20</v>
-      </c>
-      <c r="H4" s="28" t="s">
-        <v>1187</v>
-      </c>
-      <c r="I4" s="28"/>
-      <c r="J4" s="28"/>
-      <c r="K4" s="28"/>
-      <c r="L4" s="28" t="s">
-        <v>667</v>
-      </c>
-      <c r="M4" s="28"/>
-      <c r="N4" s="28" t="s">
-        <v>1121</v>
-      </c>
-      <c r="O4" s="28">
-        <v>0.1</v>
-      </c>
-      <c r="P4" s="28">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="5" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A5" s="28" t="s">
-        <v>764</v>
-      </c>
-      <c r="B5" s="28">
-        <v>0</v>
-      </c>
-      <c r="C5" s="28">
-        <v>0</v>
-      </c>
-      <c r="D5" s="28"/>
-      <c r="E5" s="28"/>
-      <c r="F5" s="28">
-        <v>-8</v>
-      </c>
-      <c r="G5" s="28">
-        <v>20</v>
-      </c>
-      <c r="H5" s="28" t="s">
-        <v>1188</v>
-      </c>
-      <c r="I5" s="28"/>
-      <c r="J5" s="28"/>
-      <c r="K5" s="28"/>
-      <c r="L5" s="28" t="s">
-        <v>667</v>
-      </c>
-      <c r="M5" s="28"/>
-      <c r="N5" s="28" t="s">
-        <v>1123</v>
-      </c>
-      <c r="O5" s="28">
-        <v>0.1</v>
-      </c>
-      <c r="P5" s="28">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="6" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A6" s="28" t="s">
-        <v>1055</v>
-      </c>
-      <c r="B6" s="28">
-        <v>0</v>
-      </c>
-      <c r="C6" s="28">
-        <v>0</v>
-      </c>
-      <c r="D6" s="28"/>
-      <c r="E6" s="28"/>
-      <c r="F6" s="28">
-        <v>0</v>
-      </c>
-      <c r="G6" s="28">
-        <v>40</v>
-      </c>
-      <c r="H6" s="28" t="s">
-        <v>1233</v>
-      </c>
-      <c r="I6" s="28"/>
-      <c r="J6" s="28"/>
-      <c r="K6" s="28"/>
-      <c r="L6" s="28" t="s">
-        <v>667</v>
-      </c>
-      <c r="M6" s="28"/>
-      <c r="N6" s="28" t="s">
-        <v>1125</v>
-      </c>
-      <c r="O6" s="28">
-        <v>0.1</v>
-      </c>
-      <c r="P6" s="28">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="7" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A7" s="28" t="s">
-        <v>1056</v>
-      </c>
-      <c r="B7" s="28">
-        <v>0</v>
-      </c>
-      <c r="C7" s="28">
-        <v>0</v>
-      </c>
-      <c r="D7" s="28"/>
-      <c r="E7" s="28"/>
-      <c r="F7" s="28">
-        <v>-8</v>
-      </c>
-      <c r="G7" s="28">
-        <v>20</v>
-      </c>
-      <c r="H7" s="28" t="s">
-        <v>1191</v>
-      </c>
-      <c r="I7" s="28"/>
-      <c r="J7" s="28"/>
-      <c r="K7" s="28"/>
-      <c r="L7" s="28" t="s">
-        <v>667</v>
-      </c>
-      <c r="M7" s="28"/>
-      <c r="N7" s="28" t="s">
-        <v>1124</v>
-      </c>
-      <c r="O7" s="28">
-        <v>0.1</v>
-      </c>
-      <c r="P7" s="28">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="8" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A8" s="28" t="s">
-        <v>1059</v>
-      </c>
-      <c r="B8" s="28">
-        <v>0</v>
-      </c>
-      <c r="C8" s="28">
-        <v>0</v>
-      </c>
-      <c r="D8" s="28"/>
-      <c r="E8" s="28"/>
-      <c r="F8" s="28">
-        <v>-8</v>
-      </c>
-      <c r="G8" s="28">
-        <v>20</v>
-      </c>
-      <c r="H8" s="28" t="s">
-        <v>1117</v>
-      </c>
-      <c r="I8" s="28"/>
-      <c r="J8" s="28"/>
-      <c r="K8" s="28"/>
-      <c r="L8" s="28" t="s">
-        <v>1077</v>
-      </c>
-      <c r="M8" s="28"/>
-      <c r="N8" s="28"/>
-      <c r="O8" s="28"/>
-      <c r="P8" s="28"/>
-    </row>
-    <row r="9" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A9" s="28" t="s">
-        <v>1058</v>
-      </c>
-      <c r="B9" s="28">
-        <v>0</v>
-      </c>
-      <c r="C9" s="28">
-        <v>0</v>
-      </c>
-      <c r="D9" s="28"/>
-      <c r="E9" s="28"/>
-      <c r="F9" s="28">
-        <v>0</v>
-      </c>
-      <c r="G9" s="28">
-        <v>20</v>
-      </c>
-      <c r="H9" s="28" t="s">
-        <v>1234</v>
-      </c>
-      <c r="I9" s="28"/>
-      <c r="J9" s="28"/>
-      <c r="K9" s="28"/>
-      <c r="L9" s="28"/>
-      <c r="M9" s="28"/>
-      <c r="N9" s="28"/>
-      <c r="O9" s="28"/>
-      <c r="P9" s="28"/>
-    </row>
-    <row r="10" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A10" s="28" t="s">
-        <v>1060</v>
-      </c>
-      <c r="B10" s="28">
-        <v>0</v>
-      </c>
-      <c r="C10" s="28">
-        <v>0</v>
-      </c>
-      <c r="D10" s="28"/>
-      <c r="E10" s="28"/>
-      <c r="F10" s="28">
-        <v>-0.5</v>
-      </c>
-      <c r="G10" s="28">
-        <v>5</v>
-      </c>
-      <c r="H10" s="28" t="s">
-        <v>1189</v>
-      </c>
-      <c r="I10" s="28"/>
-      <c r="J10" s="28"/>
-      <c r="K10" s="28"/>
-      <c r="L10" s="28"/>
-      <c r="M10" s="28"/>
-      <c r="N10" s="28"/>
-      <c r="O10" s="28"/>
-      <c r="P10" s="28"/>
-    </row>
-    <row r="11" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A11" s="28" t="s">
-        <v>1061</v>
-      </c>
-      <c r="B11" s="28">
-        <v>0</v>
-      </c>
-      <c r="C11" s="28">
-        <v>0</v>
-      </c>
-      <c r="D11" s="28"/>
-      <c r="E11" s="28"/>
-      <c r="F11" s="28">
-        <v>-0.5</v>
-      </c>
-      <c r="G11" s="28">
-        <v>2.5</v>
-      </c>
-      <c r="H11" s="28" t="s">
-        <v>1242</v>
-      </c>
-    </row>
-    <row r="12" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A12" t="s">
-        <v>1062</v>
-      </c>
-      <c r="B12">
-        <v>0</v>
-      </c>
-      <c r="C12">
-        <v>0</v>
-      </c>
-      <c r="F12">
-        <v>-0.5</v>
-      </c>
-      <c r="G12">
-        <v>0</v>
-      </c>
-      <c r="H12" t="s">
-        <v>1240</v>
-      </c>
-    </row>
-    <row r="13" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A13" t="s">
-        <v>1237</v>
-      </c>
-      <c r="B13">
-        <v>0</v>
-      </c>
-      <c r="C13">
-        <v>0</v>
-      </c>
-      <c r="F13">
-        <v>-0.5</v>
-      </c>
-      <c r="G13">
-        <v>0.33</v>
-      </c>
-      <c r="H13" t="s">
-        <v>1235</v>
-      </c>
-    </row>
-    <row r="14" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A14" t="s">
-        <v>1201</v>
-      </c>
-      <c r="B14" s="28">
-        <v>0</v>
-      </c>
-      <c r="C14" s="28">
-        <v>0</v>
-      </c>
-      <c r="D14" s="28"/>
-      <c r="E14" s="28"/>
-      <c r="F14" s="28">
-        <v>-0.5</v>
-      </c>
-      <c r="G14">
-        <v>0</v>
-      </c>
-      <c r="H14" t="s">
-        <v>1203</v>
-      </c>
-    </row>
-    <row r="15" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A15" t="s">
-        <v>1202</v>
-      </c>
-      <c r="B15" s="28">
-        <v>0</v>
-      </c>
-      <c r="C15" s="28">
-        <v>0</v>
-      </c>
-      <c r="D15" s="28"/>
-      <c r="E15" s="28"/>
-      <c r="F15" s="28">
-        <v>-0.5</v>
-      </c>
-      <c r="G15">
-        <v>0</v>
-      </c>
-      <c r="H15" t="s">
-        <v>1241</v>
-      </c>
-    </row>
-    <row r="16" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A16" t="s">
-        <v>1238</v>
-      </c>
-      <c r="H16" t="s">
-        <v>1239</v>
-      </c>
-    </row>
-    <row r="17" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A17" t="s">
-        <v>1204</v>
-      </c>
-      <c r="H17" t="s">
-        <v>1236</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId1"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet17.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:P17"/>
-  <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="F7" sqref="F7"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <cols>
-    <col min="8" max="8" width="23.140625" customWidth="1"/>
-    <col min="9" max="9" width="16.42578125" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A1" s="28" t="s">
-        <v>565</v>
-      </c>
-      <c r="B1" s="28" t="s">
-        <v>728</v>
-      </c>
-      <c r="C1" s="28" t="s">
-        <v>731</v>
-      </c>
-      <c r="D1" s="28" t="s">
-        <v>729</v>
-      </c>
-      <c r="E1" s="28" t="s">
-        <v>730</v>
-      </c>
-      <c r="F1" s="28" t="s">
-        <v>830</v>
-      </c>
-      <c r="G1" s="28" t="s">
-        <v>818</v>
-      </c>
-      <c r="H1" s="28" t="s">
-        <v>1</v>
-      </c>
-      <c r="I1" s="28" t="s">
-        <v>608</v>
-      </c>
-      <c r="J1" s="28" t="s">
-        <v>609</v>
-      </c>
-      <c r="K1" s="28" t="s">
-        <v>654</v>
-      </c>
-      <c r="L1" s="28" t="s">
-        <v>656</v>
-      </c>
-      <c r="M1" s="28" t="s">
-        <v>657</v>
-      </c>
-      <c r="N1" s="28" t="s">
-        <v>726</v>
-      </c>
-      <c r="O1" s="28" t="s">
-        <v>828</v>
-      </c>
-      <c r="P1" s="28" t="s">
-        <v>829</v>
-      </c>
-    </row>
-    <row r="2" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A2" s="28" t="s">
-        <v>1206</v>
-      </c>
-      <c r="B2" s="28">
-        <v>0</v>
-      </c>
-      <c r="C2" s="28">
-        <v>0</v>
-      </c>
-      <c r="D2" s="28"/>
-      <c r="E2" s="28"/>
-      <c r="F2" s="28">
-        <v>0</v>
-      </c>
-      <c r="G2" s="28">
-        <v>5</v>
-      </c>
-      <c r="H2" s="28" t="s">
-        <v>1207</v>
-      </c>
-      <c r="I2" s="28"/>
-      <c r="J2" s="28"/>
-      <c r="K2" s="28"/>
-      <c r="L2" s="28"/>
-      <c r="M2" s="28"/>
-      <c r="N2" s="28" t="s">
-        <v>1190</v>
-      </c>
-      <c r="O2" s="28">
-        <v>0.1</v>
-      </c>
-      <c r="P2" s="28">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="3" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A3" s="28" t="s">
-        <v>1057</v>
-      </c>
-      <c r="B3" s="28">
-        <v>0</v>
-      </c>
-      <c r="C3" s="28">
-        <v>0</v>
-      </c>
-      <c r="D3" s="28"/>
-      <c r="E3" s="28"/>
-      <c r="F3" s="28">
-        <v>-8</v>
-      </c>
-      <c r="G3" s="28">
-        <v>20</v>
-      </c>
-      <c r="H3" s="1" t="s">
-        <v>1205</v>
-      </c>
-      <c r="I3" s="28"/>
-      <c r="J3" s="28"/>
-      <c r="K3" s="28"/>
-      <c r="L3" s="28" t="s">
-        <v>667</v>
-      </c>
-      <c r="M3" s="28"/>
-      <c r="N3" s="28" t="s">
-        <v>1122</v>
-      </c>
-      <c r="O3" s="28">
-        <v>0.1</v>
-      </c>
-      <c r="P3" s="28">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="4" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A4" s="28" t="s">
-        <v>1054</v>
-      </c>
-      <c r="B4" s="28">
-        <v>0</v>
-      </c>
-      <c r="C4" s="28">
-        <v>3000</v>
-      </c>
-      <c r="D4" s="28"/>
-      <c r="E4" s="28"/>
-      <c r="F4" s="28">
-        <v>-8</v>
-      </c>
-      <c r="G4" s="28">
-        <v>20</v>
-      </c>
-      <c r="H4" s="28" t="s">
-        <v>1187</v>
-      </c>
-      <c r="I4" s="28"/>
-      <c r="J4" s="28"/>
-      <c r="K4" s="28"/>
-      <c r="L4" s="28" t="s">
-        <v>667</v>
-      </c>
-      <c r="M4" s="28"/>
-      <c r="N4" s="28" t="s">
-        <v>1121</v>
-      </c>
-      <c r="O4" s="28">
-        <v>0.1</v>
-      </c>
-      <c r="P4" s="28">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="5" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A5" s="28" t="s">
-        <v>764</v>
-      </c>
-      <c r="B5" s="28">
-        <v>0</v>
-      </c>
-      <c r="C5" s="28">
-        <v>3000</v>
-      </c>
-      <c r="D5" s="28"/>
-      <c r="E5" s="28"/>
-      <c r="F5" s="28">
-        <v>-8</v>
-      </c>
-      <c r="G5" s="28">
-        <v>20</v>
-      </c>
-      <c r="H5" s="28" t="s">
-        <v>1188</v>
-      </c>
-      <c r="I5" s="28"/>
-      <c r="J5" s="28"/>
-      <c r="K5" s="28"/>
-      <c r="L5" s="28" t="s">
-        <v>667</v>
-      </c>
-      <c r="M5" s="28"/>
-      <c r="N5" s="28" t="s">
-        <v>1123</v>
-      </c>
-      <c r="O5" s="28">
-        <v>0.1</v>
-      </c>
-      <c r="P5" s="28">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="6" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A6" s="28" t="s">
-        <v>1055</v>
-      </c>
-      <c r="B6" s="28">
-        <v>0</v>
-      </c>
-      <c r="C6" s="28">
-        <v>3000</v>
-      </c>
-      <c r="D6" s="28"/>
-      <c r="E6" s="28"/>
-      <c r="F6" s="28">
-        <v>0</v>
-      </c>
-      <c r="G6" s="28">
-        <v>40</v>
-      </c>
-      <c r="H6" s="28" t="s">
-        <v>1243</v>
-      </c>
-      <c r="I6" s="28"/>
-      <c r="J6" s="28"/>
-      <c r="K6" s="28"/>
-      <c r="L6" s="28" t="s">
-        <v>667</v>
-      </c>
-      <c r="M6" s="28"/>
-      <c r="N6" s="28" t="s">
-        <v>1125</v>
-      </c>
-      <c r="O6" s="28">
-        <v>0.1</v>
-      </c>
-      <c r="P6" s="28">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="7" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A7" s="28" t="s">
-        <v>1056</v>
-      </c>
-      <c r="B7" s="28">
-        <v>0</v>
-      </c>
-      <c r="C7" s="28">
-        <v>3000</v>
-      </c>
-      <c r="D7" s="28"/>
-      <c r="E7" s="28"/>
-      <c r="F7" s="28">
-        <v>-8</v>
-      </c>
-      <c r="G7" s="28">
-        <v>20</v>
-      </c>
-      <c r="H7" s="28" t="s">
-        <v>1191</v>
-      </c>
-      <c r="I7" s="28"/>
-      <c r="J7" s="28"/>
-      <c r="K7" s="28"/>
-      <c r="L7" s="28" t="s">
-        <v>667</v>
-      </c>
-      <c r="M7" s="28"/>
-      <c r="N7" s="28" t="s">
-        <v>1124</v>
-      </c>
-      <c r="O7" s="28">
-        <v>0.1</v>
-      </c>
-      <c r="P7" s="28">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="8" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A8" s="28" t="s">
-        <v>1059</v>
-      </c>
-      <c r="B8" s="28">
-        <v>0</v>
-      </c>
-      <c r="C8" s="28">
-        <v>3000</v>
-      </c>
-      <c r="D8" s="28"/>
-      <c r="E8" s="28"/>
-      <c r="F8" s="28">
-        <v>-8</v>
-      </c>
-      <c r="G8" s="28">
-        <v>20</v>
-      </c>
-      <c r="H8" s="28" t="s">
-        <v>1117</v>
-      </c>
-      <c r="I8" s="28"/>
-      <c r="J8" s="28"/>
-      <c r="K8" s="28"/>
-      <c r="L8" s="28" t="s">
-        <v>1077</v>
-      </c>
-      <c r="M8" s="28"/>
-      <c r="N8" s="28"/>
-      <c r="O8" s="28"/>
-      <c r="P8" s="28"/>
-    </row>
-    <row r="9" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A9" s="28" t="s">
-        <v>1058</v>
-      </c>
-      <c r="B9" s="28">
-        <v>0</v>
-      </c>
-      <c r="C9" s="28">
-        <v>3000</v>
-      </c>
-      <c r="D9" s="28"/>
-      <c r="E9" s="28"/>
-      <c r="F9" s="28">
-        <v>-0.05</v>
-      </c>
-      <c r="G9" s="28">
-        <v>20</v>
-      </c>
-      <c r="H9" s="28" t="s">
-        <v>1118</v>
-      </c>
-      <c r="I9" s="28" t="s">
-        <v>1245</v>
-      </c>
-      <c r="J9" s="28"/>
-      <c r="K9" s="28"/>
-      <c r="L9" s="28"/>
-      <c r="M9" s="28" t="s">
-        <v>1246</v>
-      </c>
-      <c r="N9" s="28"/>
-      <c r="O9" s="28"/>
-      <c r="P9" s="28"/>
-    </row>
-    <row r="10" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A10" s="28" t="s">
-        <v>1060</v>
-      </c>
-      <c r="B10" s="28">
-        <v>0</v>
-      </c>
-      <c r="C10" s="28">
-        <v>0</v>
-      </c>
-      <c r="D10" s="28"/>
-      <c r="E10" s="28"/>
-      <c r="F10" s="28">
-        <v>-0.5</v>
-      </c>
-      <c r="G10" s="28">
-        <v>5</v>
-      </c>
-      <c r="H10" s="28" t="s">
-        <v>1189</v>
-      </c>
-      <c r="I10" s="28"/>
-      <c r="J10" s="28"/>
-      <c r="K10" s="28"/>
-      <c r="L10" s="28"/>
-      <c r="M10" s="28"/>
-      <c r="N10" s="28"/>
-      <c r="O10" s="28"/>
-      <c r="P10" s="28"/>
-    </row>
-    <row r="11" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A11" s="28" t="s">
-        <v>1061</v>
-      </c>
-      <c r="B11" s="28">
-        <v>0</v>
-      </c>
-      <c r="C11" s="28">
-        <v>0</v>
-      </c>
-      <c r="D11" s="28"/>
-      <c r="E11" s="28"/>
-      <c r="F11" s="28">
-        <v>-0.5</v>
-      </c>
-      <c r="G11" s="28">
-        <v>2.5</v>
-      </c>
-      <c r="H11" s="28" t="s">
-        <v>1242</v>
-      </c>
-      <c r="I11" s="28"/>
-      <c r="J11" s="28"/>
-      <c r="K11" s="28"/>
-      <c r="L11" s="28"/>
-      <c r="M11" s="28"/>
-      <c r="N11" s="28"/>
-      <c r="O11" s="28"/>
-      <c r="P11" s="28"/>
-    </row>
-    <row r="12" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A12" s="28" t="s">
-        <v>1062</v>
-      </c>
-      <c r="B12" s="28">
-        <v>0</v>
-      </c>
-      <c r="C12" s="28">
-        <v>0</v>
-      </c>
-      <c r="D12" s="28"/>
-      <c r="E12" s="28"/>
-      <c r="F12" s="28">
-        <v>-0.5</v>
-      </c>
-      <c r="G12" s="28">
-        <v>0</v>
-      </c>
-      <c r="H12" s="28" t="s">
-        <v>1240</v>
-      </c>
-      <c r="I12" s="28"/>
-      <c r="J12" s="28"/>
-      <c r="K12" s="28"/>
-      <c r="L12" s="28"/>
-      <c r="M12" s="28"/>
-      <c r="N12" s="28"/>
-      <c r="O12" s="28"/>
-      <c r="P12" s="28"/>
-    </row>
-    <row r="13" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A13" s="28" t="s">
-        <v>1237</v>
-      </c>
-      <c r="B13" s="28">
-        <v>0</v>
-      </c>
-      <c r="C13" s="28">
-        <v>0</v>
-      </c>
-      <c r="D13" s="28"/>
-      <c r="E13" s="28"/>
-      <c r="F13" s="28">
-        <v>-0.5</v>
-      </c>
-      <c r="G13" s="28">
-        <v>0.33</v>
-      </c>
-      <c r="H13" s="28" t="s">
-        <v>1244</v>
-      </c>
-      <c r="I13" s="28"/>
-      <c r="J13" s="28"/>
-      <c r="K13" s="28"/>
-      <c r="L13" s="28"/>
-      <c r="M13" s="28"/>
-      <c r="N13" s="28"/>
-      <c r="O13" s="28"/>
-      <c r="P13" s="28"/>
-    </row>
-    <row r="14" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A14" s="28" t="s">
-        <v>1201</v>
-      </c>
-      <c r="B14" s="28">
-        <v>0</v>
-      </c>
-      <c r="C14" s="28">
-        <v>0</v>
-      </c>
-      <c r="D14" s="28"/>
-      <c r="E14" s="28"/>
-      <c r="F14" s="28">
-        <v>-0.5</v>
-      </c>
-      <c r="G14" s="28">
-        <v>0</v>
-      </c>
-      <c r="H14" s="28" t="s">
-        <v>1203</v>
-      </c>
-      <c r="I14" s="28"/>
-      <c r="J14" s="28"/>
-      <c r="K14" s="28"/>
-      <c r="L14" s="28"/>
-      <c r="M14" s="28"/>
-      <c r="N14" s="28"/>
-      <c r="O14" s="28"/>
-      <c r="P14" s="28"/>
-    </row>
-    <row r="15" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A15" s="28" t="s">
-        <v>1202</v>
-      </c>
-      <c r="B15" s="28">
-        <v>0</v>
-      </c>
-      <c r="C15" s="28">
-        <v>0</v>
-      </c>
-      <c r="D15" s="28"/>
-      <c r="E15" s="28"/>
-      <c r="F15" s="28">
-        <v>-0.5</v>
-      </c>
-      <c r="G15" s="28">
-        <v>0</v>
-      </c>
-      <c r="H15" s="28" t="s">
-        <v>1241</v>
-      </c>
-      <c r="I15" s="28"/>
-      <c r="J15" s="28"/>
-      <c r="K15" s="28"/>
-      <c r="L15" s="28"/>
-      <c r="M15" s="28"/>
-      <c r="N15" s="28"/>
-      <c r="O15" s="28"/>
-      <c r="P15" s="28"/>
-    </row>
-    <row r="16" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A16" s="28" t="s">
-        <v>1238</v>
-      </c>
-      <c r="B16" s="28">
-        <v>0</v>
-      </c>
-      <c r="C16" s="28">
-        <v>0</v>
-      </c>
-      <c r="D16" s="28"/>
-      <c r="E16" s="28"/>
-      <c r="F16" s="28">
-        <v>-0.5</v>
-      </c>
-      <c r="G16" s="28">
-        <v>0</v>
-      </c>
-      <c r="H16" s="28" t="s">
-        <v>1239</v>
-      </c>
-      <c r="I16" s="28"/>
-      <c r="J16" s="28"/>
-      <c r="K16" s="28"/>
-      <c r="L16" s="28"/>
-      <c r="M16" s="28"/>
-      <c r="N16" s="28"/>
-      <c r="O16" s="28"/>
-      <c r="P16" s="28"/>
-    </row>
-    <row r="17" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A17" s="28" t="s">
-        <v>1204</v>
-      </c>
-      <c r="B17" s="28">
-        <v>0</v>
-      </c>
-      <c r="C17" s="28">
-        <v>0</v>
-      </c>
-      <c r="D17" s="28"/>
-      <c r="E17" s="28"/>
-      <c r="F17" s="28">
-        <v>0</v>
-      </c>
-      <c r="G17" s="28">
-        <v>0</v>
-      </c>
-      <c r="H17" s="28" t="s">
-        <v>1236</v>
-      </c>
-      <c r="I17" s="28"/>
-      <c r="J17" s="28"/>
-      <c r="K17" s="28"/>
-      <c r="L17" s="28"/>
-      <c r="M17" s="28"/>
-      <c r="N17" s="28"/>
-      <c r="O17" s="28"/>
-      <c r="P17" s="28"/>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
 <file path=xl/worksheets/sheet18.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:P19"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="G4" sqref="G4"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <sheetData>
-    <row r="1" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A1" s="28" t="s">
-        <v>565</v>
-      </c>
-      <c r="B1" s="28" t="s">
-        <v>728</v>
-      </c>
-      <c r="C1" s="28" t="s">
-        <v>731</v>
-      </c>
-      <c r="D1" s="28" t="s">
-        <v>729</v>
-      </c>
-      <c r="E1" s="28" t="s">
-        <v>730</v>
-      </c>
-      <c r="F1" s="28" t="s">
-        <v>830</v>
-      </c>
-      <c r="G1" s="28" t="s">
-        <v>818</v>
-      </c>
-      <c r="H1" s="28" t="s">
-        <v>1</v>
-      </c>
-      <c r="I1" s="28" t="s">
-        <v>608</v>
-      </c>
-      <c r="J1" s="28" t="s">
-        <v>609</v>
-      </c>
-      <c r="K1" s="28" t="s">
-        <v>654</v>
-      </c>
-      <c r="L1" s="28" t="s">
-        <v>656</v>
-      </c>
-      <c r="M1" s="28" t="s">
-        <v>657</v>
-      </c>
-      <c r="N1" s="28" t="s">
-        <v>726</v>
-      </c>
-      <c r="O1" s="28" t="s">
-        <v>828</v>
-      </c>
-      <c r="P1" s="28" t="s">
-        <v>829</v>
-      </c>
-    </row>
-    <row r="2" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A2" s="28" t="s">
-        <v>1231</v>
-      </c>
-      <c r="B2" s="28"/>
-      <c r="C2" s="28"/>
-      <c r="D2" s="28"/>
-      <c r="E2" s="28"/>
-      <c r="F2" s="28"/>
-      <c r="G2" s="28"/>
-      <c r="H2" s="28" t="s">
-        <v>1208</v>
-      </c>
-      <c r="I2" s="28"/>
-      <c r="J2" s="28"/>
-      <c r="K2" s="28"/>
-      <c r="L2" s="28"/>
-      <c r="M2" s="28"/>
-      <c r="N2" s="28" t="s">
-        <v>1190</v>
-      </c>
-      <c r="O2" s="28">
-        <v>0.1</v>
-      </c>
-      <c r="P2" s="28">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="3" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A3" s="28" t="s">
-        <v>1057</v>
-      </c>
-      <c r="B3" s="28">
-        <v>0</v>
-      </c>
-      <c r="C3" s="28">
-        <v>0</v>
-      </c>
-      <c r="D3" s="28"/>
-      <c r="E3" s="28"/>
-      <c r="F3" s="28">
-        <v>-0.5</v>
-      </c>
-      <c r="G3" s="28">
-        <v>20</v>
-      </c>
-      <c r="H3" s="1" t="s">
-        <v>1209</v>
-      </c>
-      <c r="I3" s="28"/>
-      <c r="J3" s="28"/>
-      <c r="K3" s="28"/>
-      <c r="L3" s="28"/>
-      <c r="M3" s="28"/>
-      <c r="N3" s="28" t="s">
-        <v>1223</v>
-      </c>
-      <c r="O3" s="28">
-        <v>0.1</v>
-      </c>
-      <c r="P3" s="28">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="4" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A4" s="28" t="s">
-        <v>1054</v>
-      </c>
-      <c r="B4" s="28">
-        <v>0</v>
-      </c>
-      <c r="C4" s="28">
-        <v>0</v>
-      </c>
-      <c r="D4" s="28"/>
-      <c r="E4" s="28"/>
-      <c r="F4" s="28">
-        <v>-0.5</v>
-      </c>
-      <c r="G4" s="28">
-        <v>2.5</v>
-      </c>
-      <c r="H4" s="28" t="s">
-        <v>1210</v>
-      </c>
-      <c r="I4" s="28"/>
-      <c r="J4" s="28"/>
-      <c r="K4" s="28"/>
-      <c r="L4" s="28"/>
-      <c r="M4" s="28"/>
-      <c r="N4" s="28" t="s">
-        <v>1121</v>
-      </c>
-      <c r="O4" s="28">
-        <v>0.1</v>
-      </c>
-      <c r="P4" s="28">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="5" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A5" s="28" t="s">
-        <v>764</v>
-      </c>
-      <c r="B5" s="28">
-        <v>0</v>
-      </c>
-      <c r="C5" s="28">
-        <v>0</v>
-      </c>
-      <c r="D5" s="28"/>
-      <c r="E5" s="28"/>
-      <c r="F5" s="28">
-        <v>-0.5</v>
-      </c>
-      <c r="G5" s="28">
-        <v>2.5</v>
-      </c>
-      <c r="H5" s="28" t="s">
-        <v>1211</v>
-      </c>
-      <c r="I5" s="28"/>
-      <c r="J5" s="28" t="s">
-        <v>1125</v>
-      </c>
-      <c r="K5" s="28"/>
-      <c r="L5" s="28"/>
-      <c r="M5" s="28"/>
-      <c r="N5" s="28" t="s">
-        <v>1224</v>
-      </c>
-      <c r="O5" s="28">
-        <v>0.1</v>
-      </c>
-      <c r="P5" s="28">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="6" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A6" s="28" t="s">
-        <v>1055</v>
-      </c>
-      <c r="B6" s="28">
-        <v>0</v>
-      </c>
-      <c r="C6" s="28">
-        <v>0</v>
-      </c>
-      <c r="D6" s="28"/>
-      <c r="E6" s="28"/>
-      <c r="F6" s="28">
-        <v>-0.5</v>
-      </c>
-      <c r="G6" s="28">
-        <v>10</v>
-      </c>
-      <c r="H6" s="28" t="s">
-        <v>1212</v>
-      </c>
-      <c r="I6" s="28"/>
-      <c r="J6" s="28"/>
-      <c r="K6" s="28"/>
-      <c r="L6" s="28"/>
-      <c r="M6" s="28"/>
-      <c r="N6" s="28" t="s">
-        <v>1125</v>
-      </c>
-      <c r="O6" s="28">
-        <v>0.1</v>
-      </c>
-      <c r="P6" s="28">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="7" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A7" s="28" t="s">
-        <v>1059</v>
-      </c>
-      <c r="B7" s="28">
-        <v>0</v>
-      </c>
-      <c r="C7" s="28">
-        <v>0</v>
-      </c>
-      <c r="D7" s="28"/>
-      <c r="E7" s="28"/>
-      <c r="F7" s="28">
-        <v>-0.5</v>
-      </c>
-      <c r="G7" s="28">
-        <v>5</v>
-      </c>
-      <c r="H7" s="28" t="s">
-        <v>1213</v>
-      </c>
-      <c r="I7" s="28"/>
-      <c r="J7" s="28"/>
-      <c r="K7" s="28"/>
-      <c r="L7" s="28"/>
-      <c r="M7" s="28"/>
-      <c r="N7" s="28" t="s">
-        <v>1225</v>
-      </c>
-      <c r="O7" s="28">
-        <v>0.1</v>
-      </c>
-      <c r="P7" s="28">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="8" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A8" s="28" t="s">
-        <v>1056</v>
-      </c>
-      <c r="B8" s="28">
-        <v>0</v>
-      </c>
-      <c r="C8" s="28">
-        <v>0</v>
-      </c>
-      <c r="D8" s="28"/>
-      <c r="E8" s="28"/>
-      <c r="F8" s="28">
-        <v>-0.5</v>
-      </c>
-      <c r="G8" s="28">
-        <v>10</v>
-      </c>
-      <c r="H8" s="28" t="s">
-        <v>1214</v>
-      </c>
-      <c r="I8" s="28"/>
-      <c r="J8" s="28"/>
-      <c r="K8" s="28"/>
-      <c r="L8" s="28"/>
-      <c r="M8" s="28"/>
-      <c r="N8" s="28" t="s">
-        <v>1226</v>
-      </c>
-      <c r="O8" s="28">
-        <v>0.1</v>
-      </c>
-      <c r="P8" s="28">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="9" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A9" s="28" t="s">
-        <v>1058</v>
-      </c>
-      <c r="B9" s="28">
-        <v>0</v>
-      </c>
-      <c r="C9" s="28">
-        <v>0</v>
-      </c>
-      <c r="D9" s="28"/>
-      <c r="E9" s="28"/>
-      <c r="F9" s="28">
-        <v>0</v>
-      </c>
-      <c r="G9" s="28">
-        <v>9.5</v>
-      </c>
-      <c r="H9" s="28" t="s">
-        <v>1215</v>
-      </c>
-      <c r="I9" s="28"/>
-      <c r="J9" s="28"/>
-      <c r="K9" s="28"/>
-      <c r="L9" s="28"/>
-      <c r="M9" s="28"/>
-      <c r="N9" s="28" t="s">
-        <v>1227</v>
-      </c>
-      <c r="O9" s="28">
-        <v>0.1</v>
-      </c>
-      <c r="P9" s="28">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="10" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A10" t="s">
-        <v>1063</v>
-      </c>
-      <c r="B10" s="28">
-        <v>0</v>
-      </c>
-      <c r="C10" s="28">
-        <v>0</v>
-      </c>
-      <c r="D10" s="28"/>
-      <c r="E10" s="28"/>
-      <c r="F10" s="28">
-        <v>-0.5</v>
-      </c>
-      <c r="G10" s="28">
-        <v>0.25</v>
-      </c>
-      <c r="H10" t="s">
-        <v>1216</v>
-      </c>
-      <c r="I10" s="28"/>
-      <c r="J10" s="28"/>
-      <c r="K10" s="28"/>
-      <c r="L10" s="28"/>
-      <c r="M10" s="28"/>
-      <c r="N10" s="28" t="s">
-        <v>1228</v>
-      </c>
-      <c r="O10" s="28">
-        <v>0.1</v>
-      </c>
-      <c r="P10" s="28">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="11" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A11" t="s">
-        <v>1064</v>
-      </c>
-      <c r="B11" s="28">
-        <v>0</v>
-      </c>
-      <c r="C11" s="28">
-        <v>0</v>
-      </c>
-      <c r="D11" s="28"/>
-      <c r="E11" s="28"/>
-      <c r="F11" s="28">
-        <v>-0.5</v>
-      </c>
-      <c r="G11" s="28">
-        <v>0.25</v>
-      </c>
-      <c r="H11" t="s">
-        <v>1217</v>
-      </c>
-      <c r="I11" s="28"/>
-      <c r="J11" s="28"/>
-      <c r="K11" s="28"/>
-      <c r="L11" s="28"/>
-      <c r="M11" s="28"/>
-      <c r="N11" s="28" t="s">
-        <v>1229</v>
-      </c>
-      <c r="O11" s="28">
-        <v>0.1</v>
-      </c>
-      <c r="P11" s="28">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="12" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A12" s="28" t="s">
-        <v>1060</v>
-      </c>
-      <c r="B12" s="28"/>
-      <c r="C12" s="28"/>
-      <c r="D12" s="28"/>
-      <c r="E12" s="28"/>
-      <c r="F12" s="28"/>
-      <c r="G12" s="28"/>
-      <c r="H12" s="28" t="s">
-        <v>1189</v>
-      </c>
-      <c r="I12" s="28"/>
-      <c r="J12" s="28"/>
-      <c r="K12" s="28"/>
-      <c r="L12" s="28"/>
-      <c r="M12" s="28"/>
-      <c r="N12" s="28"/>
-      <c r="O12" s="28"/>
-      <c r="P12" s="28"/>
-    </row>
-    <row r="13" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A13" s="28" t="s">
-        <v>1061</v>
-      </c>
-      <c r="B13" s="28"/>
-      <c r="C13" s="28"/>
-      <c r="D13" s="28"/>
-      <c r="E13" s="28"/>
-      <c r="F13" s="28"/>
-      <c r="G13" s="28"/>
-      <c r="H13" s="28" t="s">
-        <v>1218</v>
-      </c>
-      <c r="I13" s="28"/>
-      <c r="J13" s="28"/>
-      <c r="K13" s="28"/>
-      <c r="L13" s="28"/>
-      <c r="M13" s="28"/>
-      <c r="N13" s="28"/>
-      <c r="O13" s="28"/>
-      <c r="P13" s="28"/>
-    </row>
-    <row r="14" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A14" s="28" t="s">
-        <v>1062</v>
-      </c>
-      <c r="B14" s="28"/>
-      <c r="C14" s="28"/>
-      <c r="D14" s="28"/>
-      <c r="E14" s="28"/>
-      <c r="F14" s="28"/>
-      <c r="G14" s="28"/>
-      <c r="H14" s="28" t="s">
-        <v>1219</v>
-      </c>
-      <c r="I14" s="28"/>
-      <c r="J14" s="28"/>
-      <c r="K14" s="28"/>
-      <c r="L14" s="28"/>
-      <c r="M14" s="28"/>
-      <c r="N14" s="28"/>
-      <c r="O14" s="28"/>
-      <c r="P14" s="28"/>
-    </row>
-    <row r="15" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A15" s="28" t="s">
-        <v>849</v>
-      </c>
-      <c r="B15" s="28">
-        <v>0</v>
-      </c>
-      <c r="C15" s="28">
-        <v>0</v>
-      </c>
-      <c r="D15" s="28"/>
-      <c r="E15" s="28"/>
-      <c r="F15" s="28">
-        <v>-0.5</v>
-      </c>
-      <c r="G15" s="28">
-        <v>0.33</v>
-      </c>
-      <c r="H15" s="28" t="s">
-        <v>1232</v>
-      </c>
-      <c r="I15" s="28"/>
-      <c r="J15" s="28"/>
-      <c r="K15" s="28"/>
-      <c r="L15" s="28"/>
-      <c r="M15" s="28"/>
-      <c r="N15" s="28"/>
-      <c r="O15" s="28"/>
-      <c r="P15" s="28"/>
-    </row>
-    <row r="16" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A16" s="28" t="s">
-        <v>1201</v>
-      </c>
-      <c r="B16" s="28"/>
-      <c r="C16" s="28"/>
-      <c r="D16" s="28"/>
-      <c r="E16" s="28"/>
-      <c r="F16" s="28"/>
-      <c r="G16" s="28"/>
-      <c r="H16" s="28" t="s">
-        <v>1203</v>
-      </c>
-      <c r="I16" s="28"/>
-      <c r="J16" s="28"/>
-      <c r="K16" s="28"/>
-      <c r="L16" s="28"/>
-      <c r="M16" s="28"/>
-      <c r="N16" s="28"/>
-      <c r="O16" s="28"/>
-      <c r="P16" s="28"/>
-    </row>
-    <row r="17" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A17" s="28" t="s">
-        <v>1230</v>
-      </c>
-      <c r="B17" s="28"/>
-      <c r="C17" s="28"/>
-      <c r="D17" s="28"/>
-      <c r="E17" s="28"/>
-      <c r="F17" s="28"/>
-      <c r="G17" s="28"/>
-      <c r="H17" s="28" t="s">
-        <v>1220</v>
-      </c>
-      <c r="I17" s="28"/>
-      <c r="J17" s="28"/>
-      <c r="K17" s="28"/>
-      <c r="L17" s="28"/>
-      <c r="M17" s="28"/>
-      <c r="N17" s="28"/>
-      <c r="O17" s="28"/>
-      <c r="P17" s="28"/>
-    </row>
-    <row r="18" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A18" s="28" t="s">
-        <v>1206</v>
-      </c>
-      <c r="B18" s="28"/>
-      <c r="C18" s="28"/>
-      <c r="D18" s="28"/>
-      <c r="E18" s="28"/>
-      <c r="F18" s="28"/>
-      <c r="G18" s="28"/>
-      <c r="H18" s="28" t="s">
-        <v>1221</v>
-      </c>
-    </row>
-    <row r="19" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A19" s="28" t="s">
-        <v>1204</v>
-      </c>
-      <c r="B19" s="28"/>
-      <c r="C19" s="28"/>
-      <c r="D19" s="28"/>
-      <c r="E19" s="28"/>
-      <c r="F19" s="28"/>
-      <c r="G19" s="28"/>
-      <c r="H19" s="28" t="s">
-        <v>1222</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet19.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:P33"/>
   <sheetViews>
@@ -11379,6 +10984,2418 @@
       </c>
     </row>
   </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet19.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:P128"/>
+  <sheetViews>
+    <sheetView topLeftCell="A52" workbookViewId="0">
+      <selection activeCell="H58" sqref="H58"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="12.42578125" customWidth="1"/>
+    <col min="2" max="2" width="12.28515625" customWidth="1"/>
+    <col min="5" max="5" width="12.28515625" customWidth="1"/>
+    <col min="6" max="6" width="14.85546875" customWidth="1"/>
+    <col min="8" max="8" width="50.42578125" customWidth="1"/>
+    <col min="9" max="9" width="13.28515625" customWidth="1"/>
+    <col min="10" max="10" width="13" customWidth="1"/>
+    <col min="11" max="11" width="14.28515625" customWidth="1"/>
+    <col min="12" max="12" width="18.42578125" customWidth="1"/>
+    <col min="13" max="13" width="18.140625" customWidth="1"/>
+    <col min="14" max="14" width="13.7109375" style="28" customWidth="1"/>
+    <col min="15" max="15" width="12.5703125" style="28" customWidth="1"/>
+    <col min="16" max="16" width="9.140625" style="28"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:16" s="28" customFormat="1" ht="18" x14ac:dyDescent="0.35">
+      <c r="A1" s="28" t="s">
+        <v>565</v>
+      </c>
+      <c r="B1" s="28" t="s">
+        <v>728</v>
+      </c>
+      <c r="C1" t="s">
+        <v>731</v>
+      </c>
+      <c r="D1" t="s">
+        <v>729</v>
+      </c>
+      <c r="E1" s="24" t="s">
+        <v>730</v>
+      </c>
+      <c r="F1" s="18" t="s">
+        <v>985</v>
+      </c>
+      <c r="G1" s="30" t="s">
+        <v>986</v>
+      </c>
+      <c r="H1" s="10" t="s">
+        <v>861</v>
+      </c>
+      <c r="I1" t="s">
+        <v>608</v>
+      </c>
+      <c r="J1" t="s">
+        <v>609</v>
+      </c>
+      <c r="K1" t="s">
+        <v>654</v>
+      </c>
+      <c r="L1" t="s">
+        <v>656</v>
+      </c>
+      <c r="M1" t="s">
+        <v>657</v>
+      </c>
+      <c r="N1" s="28" t="s">
+        <v>726</v>
+      </c>
+      <c r="O1" s="28" t="s">
+        <v>838</v>
+      </c>
+      <c r="P1" s="28" t="s">
+        <v>839</v>
+      </c>
+    </row>
+    <row r="2" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A2" s="13" t="s">
+        <v>902</v>
+      </c>
+      <c r="B2" s="16"/>
+      <c r="E2" s="26">
+        <v>1662.2306343841162</v>
+      </c>
+      <c r="F2" s="21">
+        <v>-4.4000000000000004</v>
+      </c>
+      <c r="G2" s="29">
+        <v>0</v>
+      </c>
+      <c r="H2" s="9" t="s">
+        <v>862</v>
+      </c>
+      <c r="L2" t="s">
+        <v>1141</v>
+      </c>
+      <c r="N2" s="28" t="s">
+        <v>1153</v>
+      </c>
+      <c r="O2" s="28">
+        <v>1.24E-3</v>
+      </c>
+      <c r="P2" s="28">
+        <v>1.24E-3</v>
+      </c>
+    </row>
+    <row r="3" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A3" s="13" t="s">
+        <v>903</v>
+      </c>
+      <c r="B3" s="15"/>
+      <c r="E3" s="26">
+        <v>1</v>
+      </c>
+      <c r="F3" s="21">
+        <v>0</v>
+      </c>
+      <c r="G3" s="29">
+        <v>0</v>
+      </c>
+      <c r="H3" s="9" t="s">
+        <v>863</v>
+      </c>
+      <c r="N3" s="28" t="s">
+        <v>1132</v>
+      </c>
+      <c r="O3" s="28">
+        <v>1.24E-3</v>
+      </c>
+      <c r="P3" s="28">
+        <v>1.24E-3</v>
+      </c>
+    </row>
+    <row r="4" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A4" s="12" t="s">
+        <v>904</v>
+      </c>
+      <c r="B4" s="15"/>
+      <c r="E4" s="27">
+        <v>7.1204304242112172E-4</v>
+      </c>
+      <c r="F4" s="19">
+        <v>4.3</v>
+      </c>
+      <c r="G4" s="29">
+        <v>0</v>
+      </c>
+      <c r="H4" s="8" t="s">
+        <v>864</v>
+      </c>
+      <c r="N4" s="28" t="s">
+        <v>1133</v>
+      </c>
+      <c r="O4" s="28">
+        <v>0.01</v>
+      </c>
+      <c r="P4" s="28">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="5" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A5" s="13" t="s">
+        <v>905</v>
+      </c>
+      <c r="B5" s="14"/>
+      <c r="E5" s="26">
+        <v>7.9806279155107629E-2</v>
+      </c>
+      <c r="F5" s="21">
+        <v>1.5</v>
+      </c>
+      <c r="G5" s="29">
+        <v>6.0072000000000001</v>
+      </c>
+      <c r="H5" s="9" t="s">
+        <v>1174</v>
+      </c>
+      <c r="N5" s="28" t="s">
+        <v>1017</v>
+      </c>
+      <c r="O5" s="28">
+        <v>3.5999999999999999E-3</v>
+      </c>
+      <c r="P5" s="28">
+        <v>3.5999999999999999E-3</v>
+      </c>
+    </row>
+    <row r="6" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A6" s="13" t="s">
+        <v>906</v>
+      </c>
+      <c r="B6" s="15"/>
+      <c r="E6" s="26">
+        <v>1.4008610438135416</v>
+      </c>
+      <c r="F6" s="21">
+        <v>-0.2</v>
+      </c>
+      <c r="G6" s="29">
+        <v>6.0072000000000001</v>
+      </c>
+      <c r="H6" s="9" t="s">
+        <v>1175</v>
+      </c>
+      <c r="N6" s="28" t="s">
+        <v>1013</v>
+      </c>
+      <c r="O6" s="28">
+        <v>0</v>
+      </c>
+      <c r="P6" s="28">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A7" s="12" t="s">
+        <v>907</v>
+      </c>
+      <c r="B7" s="15"/>
+      <c r="E7" s="27">
+        <v>1</v>
+      </c>
+      <c r="F7" s="19">
+        <v>0</v>
+      </c>
+      <c r="G7" s="29">
+        <v>0</v>
+      </c>
+      <c r="H7" s="8" t="s">
+        <v>865</v>
+      </c>
+      <c r="N7" s="28" t="s">
+        <v>1016</v>
+      </c>
+      <c r="O7" s="28">
+        <v>1E-3</v>
+      </c>
+      <c r="P7" s="28">
+        <v>0.01</v>
+      </c>
+    </row>
+    <row r="8" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A8" s="12" t="s">
+        <v>908</v>
+      </c>
+      <c r="B8" s="14"/>
+      <c r="E8" s="27">
+        <v>1.1835797581124567</v>
+      </c>
+      <c r="F8" s="19">
+        <v>-0.1</v>
+      </c>
+      <c r="G8" s="29">
+        <v>0</v>
+      </c>
+      <c r="H8" s="8" t="s">
+        <v>983</v>
+      </c>
+      <c r="N8" s="28" t="s">
+        <v>1015</v>
+      </c>
+      <c r="O8" s="28">
+        <v>0.193</v>
+      </c>
+      <c r="P8" s="28">
+        <v>0.193</v>
+      </c>
+    </row>
+    <row r="9" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A9" s="12" t="s">
+        <v>909</v>
+      </c>
+      <c r="B9" s="14"/>
+      <c r="E9" s="27">
+        <v>1189583.4630809485</v>
+      </c>
+      <c r="F9" s="19">
+        <v>-8.3000000000000007</v>
+      </c>
+      <c r="G9" s="29">
+        <v>5.0644</v>
+      </c>
+      <c r="H9" s="8" t="s">
+        <v>866</v>
+      </c>
+      <c r="N9" s="28" t="s">
+        <v>1176</v>
+      </c>
+      <c r="O9" s="28">
+        <v>1E-4</v>
+      </c>
+      <c r="P9" s="28">
+        <v>1E-3</v>
+      </c>
+    </row>
+    <row r="10" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A10" s="12" t="s">
+        <v>910</v>
+      </c>
+      <c r="B10" s="14"/>
+      <c r="E10" s="27">
+        <v>1</v>
+      </c>
+      <c r="F10" s="19">
+        <v>0</v>
+      </c>
+      <c r="G10" s="29">
+        <v>0</v>
+      </c>
+      <c r="H10" s="8" t="s">
+        <v>867</v>
+      </c>
+      <c r="N10" s="28" t="s">
+        <v>1014</v>
+      </c>
+      <c r="O10" s="28">
+        <v>1.07</v>
+      </c>
+      <c r="P10" s="28">
+        <v>1.07</v>
+      </c>
+    </row>
+    <row r="11" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A11" s="13" t="s">
+        <v>911</v>
+      </c>
+      <c r="B11" s="14"/>
+      <c r="E11" s="26">
+        <v>4.0564698450902027E-5</v>
+      </c>
+      <c r="F11" s="21">
+        <v>6</v>
+      </c>
+      <c r="G11" s="29">
+        <v>0</v>
+      </c>
+      <c r="H11" s="9" t="s">
+        <v>1142</v>
+      </c>
+      <c r="N11" s="28" t="s">
+        <v>1036</v>
+      </c>
+      <c r="O11" s="28">
+        <v>0.56200000000000006</v>
+      </c>
+      <c r="P11" s="28">
+        <v>0.56200000000000006</v>
+      </c>
+    </row>
+    <row r="12" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A12" s="12" t="s">
+        <v>912</v>
+      </c>
+      <c r="B12" s="15"/>
+      <c r="E12" s="27">
+        <v>67769.912192357311</v>
+      </c>
+      <c r="F12" s="19">
+        <v>-6.6</v>
+      </c>
+      <c r="G12" s="29">
+        <v>8.39</v>
+      </c>
+      <c r="H12" s="8" t="s">
+        <v>868</v>
+      </c>
+      <c r="N12" s="1" t="s">
+        <v>1035</v>
+      </c>
+      <c r="O12" s="28">
+        <v>0.443</v>
+      </c>
+      <c r="P12" s="28">
+        <v>0.443</v>
+      </c>
+    </row>
+    <row r="13" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A13" s="12" t="s">
+        <v>913</v>
+      </c>
+      <c r="B13" s="14"/>
+      <c r="E13" s="27">
+        <v>1.4755810766902159E-5</v>
+      </c>
+      <c r="F13" s="19">
+        <v>6.6</v>
+      </c>
+      <c r="G13" s="29">
+        <v>45.514000000000003</v>
+      </c>
+      <c r="H13" s="8" t="s">
+        <v>982</v>
+      </c>
+      <c r="N13" s="28" t="s">
+        <v>1034</v>
+      </c>
+      <c r="O13" s="28">
+        <v>0.57099999999999995</v>
+      </c>
+      <c r="P13" s="28">
+        <v>0.57099999999999995</v>
+      </c>
+    </row>
+    <row r="14" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A14" s="13" t="s">
+        <v>849</v>
+      </c>
+      <c r="B14" s="14"/>
+      <c r="E14" s="27"/>
+      <c r="F14" s="17"/>
+      <c r="G14" s="29">
+        <v>0.87390000000000001</v>
+      </c>
+      <c r="H14" s="9" t="s">
+        <v>1171</v>
+      </c>
+      <c r="N14" s="28" t="s">
+        <v>1033</v>
+      </c>
+      <c r="O14" s="28">
+        <v>9.6300000000000008</v>
+      </c>
+      <c r="P14" s="28">
+        <v>9.6300000000000008</v>
+      </c>
+    </row>
+    <row r="15" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A15" s="12" t="s">
+        <v>914</v>
+      </c>
+      <c r="B15" s="15"/>
+      <c r="E15" s="27">
+        <v>1</v>
+      </c>
+      <c r="F15" s="19">
+        <v>0</v>
+      </c>
+      <c r="G15" s="29">
+        <v>-22.809799999999999</v>
+      </c>
+      <c r="H15" s="8" t="s">
+        <v>869</v>
+      </c>
+      <c r="N15" s="28" t="s">
+        <v>652</v>
+      </c>
+      <c r="O15" s="28">
+        <v>1E-4</v>
+      </c>
+      <c r="P15" s="28">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="16" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A16" s="12" t="s">
+        <v>629</v>
+      </c>
+      <c r="B16" s="14"/>
+      <c r="E16" s="27">
+        <v>1972365.99167846</v>
+      </c>
+      <c r="F16" s="19">
+        <v>-8.6</v>
+      </c>
+      <c r="G16" s="29">
+        <v>6.0072000000000001</v>
+      </c>
+      <c r="H16" s="8" t="s">
+        <v>1172</v>
+      </c>
+      <c r="N16" s="28" t="s">
+        <v>1032</v>
+      </c>
+      <c r="O16" s="28">
+        <v>1.64E-3</v>
+      </c>
+      <c r="P16" s="28">
+        <v>1.64E-3</v>
+      </c>
+    </row>
+    <row r="17" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A17" s="12" t="s">
+        <v>915</v>
+      </c>
+      <c r="B17" s="14"/>
+      <c r="E17" s="27">
+        <v>1.6962147614400713E+27</v>
+      </c>
+      <c r="F17" s="19">
+        <v>-37.200000000000003</v>
+      </c>
+      <c r="G17" s="29">
+        <v>43.5989</v>
+      </c>
+      <c r="H17" s="8" t="s">
+        <v>996</v>
+      </c>
+      <c r="N17" s="28" t="s">
+        <v>1037</v>
+      </c>
+      <c r="O17" s="28">
+        <v>1E-4</v>
+      </c>
+      <c r="P17" s="28">
+        <v>1E-3</v>
+      </c>
+    </row>
+    <row r="18" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A18" s="12" t="s">
+        <v>916</v>
+      </c>
+      <c r="B18" s="14"/>
+      <c r="E18" s="27">
+        <v>1</v>
+      </c>
+      <c r="F18" s="19">
+        <v>0</v>
+      </c>
+      <c r="G18" s="29">
+        <v>0</v>
+      </c>
+      <c r="H18" s="8" t="s">
+        <v>1150</v>
+      </c>
+      <c r="N18" s="28" t="s">
+        <v>1038</v>
+      </c>
+      <c r="O18" s="28">
+        <v>0</v>
+      </c>
+      <c r="P18" s="28">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A19" s="12" t="s">
+        <v>594</v>
+      </c>
+      <c r="B19" s="14"/>
+      <c r="E19" s="27">
+        <v>4.5580361179955871</v>
+      </c>
+      <c r="F19" s="19">
+        <v>-0.9</v>
+      </c>
+      <c r="G19" s="29">
+        <v>14.716100000000001</v>
+      </c>
+      <c r="H19" s="8" t="s">
+        <v>870</v>
+      </c>
+      <c r="N19" s="28" t="s">
+        <v>1039</v>
+      </c>
+      <c r="O19" s="28">
+        <v>1.37</v>
+      </c>
+      <c r="P19" s="28">
+        <v>1.37</v>
+      </c>
+    </row>
+    <row r="20" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A20" s="12" t="s">
+        <v>917</v>
+      </c>
+      <c r="B20" s="14"/>
+      <c r="E20" s="27">
+        <v>1</v>
+      </c>
+      <c r="F20" s="19">
+        <v>0</v>
+      </c>
+      <c r="G20" s="29">
+        <v>0</v>
+      </c>
+      <c r="H20" s="8" t="s">
+        <v>1143</v>
+      </c>
+      <c r="N20" s="28" t="s">
+        <v>1160</v>
+      </c>
+      <c r="O20" s="28">
+        <v>8.9800000000000001E-3</v>
+      </c>
+      <c r="P20" s="28">
+        <v>8.9800000000000001E-3</v>
+      </c>
+    </row>
+    <row r="21" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A21" s="12" t="s">
+        <v>918</v>
+      </c>
+      <c r="B21" s="14"/>
+      <c r="E21" s="27"/>
+      <c r="F21" s="19"/>
+      <c r="G21" s="29">
+        <v>0</v>
+      </c>
+      <c r="H21" s="8" t="s">
+        <v>997</v>
+      </c>
+      <c r="N21" s="28" t="s">
+        <v>1159</v>
+      </c>
+      <c r="O21" s="28">
+        <v>8.9800000000000001E-3</v>
+      </c>
+      <c r="P21" s="28">
+        <v>8.9800000000000001E-3</v>
+      </c>
+    </row>
+    <row r="22" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A22" s="13" t="s">
+        <v>919</v>
+      </c>
+      <c r="B22" s="14"/>
+      <c r="E22" s="27"/>
+      <c r="F22" s="19"/>
+      <c r="G22" s="29">
+        <v>0</v>
+      </c>
+      <c r="H22" s="9" t="s">
+        <v>998</v>
+      </c>
+      <c r="N22" s="28" t="s">
+        <v>1040</v>
+      </c>
+      <c r="O22" s="28">
+        <v>0.126</v>
+      </c>
+      <c r="P22" s="28">
+        <v>0.126</v>
+      </c>
+    </row>
+    <row r="23" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A23" s="12" t="s">
+        <v>920</v>
+      </c>
+      <c r="B23" s="15"/>
+      <c r="E23" s="27"/>
+      <c r="F23" s="19"/>
+      <c r="G23" s="29">
+        <v>0</v>
+      </c>
+      <c r="H23" s="8" t="s">
+        <v>999</v>
+      </c>
+      <c r="N23" s="28" t="s">
+        <v>1041</v>
+      </c>
+      <c r="O23" s="28">
+        <v>1E-3</v>
+      </c>
+      <c r="P23" s="28">
+        <v>0.01</v>
+      </c>
+    </row>
+    <row r="24" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A24" s="12" t="s">
+        <v>921</v>
+      </c>
+      <c r="B24" s="14"/>
+      <c r="E24" s="27"/>
+      <c r="F24" s="19"/>
+      <c r="G24" s="29">
+        <v>22.809799999999999</v>
+      </c>
+      <c r="H24" s="8" t="s">
+        <v>1000</v>
+      </c>
+      <c r="N24" s="28" t="s">
+        <v>1144</v>
+      </c>
+      <c r="O24" s="28">
+        <v>1.66E-2</v>
+      </c>
+      <c r="P24" s="28">
+        <v>1.66E-2</v>
+      </c>
+    </row>
+    <row r="25" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A25" s="12" t="s">
+        <v>922</v>
+      </c>
+      <c r="B25" s="14"/>
+      <c r="E25" s="27"/>
+      <c r="F25" s="19"/>
+      <c r="G25" s="29">
+        <v>0</v>
+      </c>
+      <c r="H25" s="8" t="s">
+        <v>1146</v>
+      </c>
+      <c r="N25" s="28" t="s">
+        <v>1145</v>
+      </c>
+      <c r="O25" s="28">
+        <v>0</v>
+      </c>
+      <c r="P25" s="28">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A26" s="12" t="s">
+        <v>923</v>
+      </c>
+      <c r="B26" s="14"/>
+      <c r="E26" s="27"/>
+      <c r="F26" s="19"/>
+      <c r="G26" s="29">
+        <v>0</v>
+      </c>
+      <c r="H26" s="8" t="s">
+        <v>1001</v>
+      </c>
+      <c r="N26" s="28" t="s">
+        <v>1042</v>
+      </c>
+      <c r="O26" s="28">
+        <v>4.3900000000000002E-2</v>
+      </c>
+      <c r="P26" s="28">
+        <v>4.3900000000000002E-2</v>
+      </c>
+    </row>
+    <row r="27" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A27" s="13" t="s">
+        <v>924</v>
+      </c>
+      <c r="B27" s="14"/>
+      <c r="E27" s="27"/>
+      <c r="F27" s="19"/>
+      <c r="G27" s="29">
+        <v>0</v>
+      </c>
+      <c r="H27" s="9" t="s">
+        <v>1002</v>
+      </c>
+      <c r="N27" s="28" t="s">
+        <v>1136</v>
+      </c>
+      <c r="O27" s="28">
+        <v>2.5899999999999999E-2</v>
+      </c>
+      <c r="P27" s="28">
+        <v>2.5899999999999999E-2</v>
+      </c>
+    </row>
+    <row r="28" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A28" s="12" t="s">
+        <v>925</v>
+      </c>
+      <c r="B28" s="15"/>
+      <c r="E28" s="27"/>
+      <c r="F28" s="19"/>
+      <c r="G28" s="29">
+        <v>0</v>
+      </c>
+      <c r="H28" s="8" t="s">
+        <v>1003</v>
+      </c>
+      <c r="N28" s="28" t="s">
+        <v>1043</v>
+      </c>
+      <c r="O28" s="28">
+        <v>1E-3</v>
+      </c>
+      <c r="P28" s="28">
+        <v>0.01</v>
+      </c>
+    </row>
+    <row r="29" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A29" s="12" t="s">
+        <v>926</v>
+      </c>
+      <c r="B29" s="14"/>
+      <c r="E29" s="27"/>
+      <c r="F29" s="19"/>
+      <c r="G29" s="29">
+        <v>-10</v>
+      </c>
+      <c r="H29" s="8" t="s">
+        <v>1156</v>
+      </c>
+      <c r="N29" s="28" t="s">
+        <v>1044</v>
+      </c>
+      <c r="O29" s="28">
+        <v>0</v>
+      </c>
+      <c r="P29" s="28">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A30" s="12" t="s">
+        <v>927</v>
+      </c>
+      <c r="B30" s="14"/>
+      <c r="E30" s="27"/>
+      <c r="F30" s="19"/>
+      <c r="G30" s="29">
+        <v>0</v>
+      </c>
+      <c r="H30" s="8" t="s">
+        <v>1004</v>
+      </c>
+      <c r="N30" s="28" t="s">
+        <v>1045</v>
+      </c>
+      <c r="O30" s="28">
+        <v>5.7000000000000002E-2</v>
+      </c>
+      <c r="P30" s="28">
+        <v>5.7000000000000002E-2</v>
+      </c>
+    </row>
+    <row r="31" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A31" s="12" t="s">
+        <v>928</v>
+      </c>
+      <c r="B31" s="14"/>
+      <c r="E31" s="27"/>
+      <c r="F31" s="19"/>
+      <c r="G31" s="29">
+        <v>0</v>
+      </c>
+      <c r="H31" s="8" t="s">
+        <v>1005</v>
+      </c>
+      <c r="N31" s="28" t="s">
+        <v>1135</v>
+      </c>
+      <c r="O31" s="28">
+        <v>1E-3</v>
+      </c>
+      <c r="P31" s="28">
+        <v>0.1</v>
+      </c>
+    </row>
+    <row r="32" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A32" s="12" t="s">
+        <v>929</v>
+      </c>
+      <c r="B32" s="14"/>
+      <c r="E32" s="27"/>
+      <c r="F32" s="19"/>
+      <c r="G32" s="29">
+        <v>17.530899999999999</v>
+      </c>
+      <c r="H32" s="8" t="s">
+        <v>1006</v>
+      </c>
+      <c r="N32" s="28" t="s">
+        <v>1046</v>
+      </c>
+      <c r="O32" s="28">
+        <v>0.18099999999999999</v>
+      </c>
+      <c r="P32" s="28">
+        <v>0.18099999999999999</v>
+      </c>
+    </row>
+    <row r="33" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A33" s="12" t="s">
+        <v>930</v>
+      </c>
+      <c r="B33" s="14"/>
+      <c r="E33" s="27"/>
+      <c r="F33" s="19"/>
+      <c r="G33" s="29">
+        <v>29.175799999999999</v>
+      </c>
+      <c r="H33" s="8" t="s">
+        <v>1007</v>
+      </c>
+      <c r="N33" s="28" t="s">
+        <v>1157</v>
+      </c>
+      <c r="O33" s="28">
+        <v>1</v>
+      </c>
+      <c r="P33" s="28">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="34" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A34" s="13" t="s">
+        <v>931</v>
+      </c>
+      <c r="B34" s="14"/>
+      <c r="E34" s="27"/>
+      <c r="F34" s="19"/>
+      <c r="G34" s="29">
+        <v>0</v>
+      </c>
+      <c r="H34" s="8" t="s">
+        <v>1151</v>
+      </c>
+      <c r="N34" s="28" t="s">
+        <v>1137</v>
+      </c>
+      <c r="O34" s="28">
+        <v>1E-4</v>
+      </c>
+      <c r="P34" s="28">
+        <v>1E-3</v>
+      </c>
+    </row>
+    <row r="35" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A35" s="13" t="s">
+        <v>932</v>
+      </c>
+      <c r="B35" s="15"/>
+      <c r="E35" s="27"/>
+      <c r="F35" s="19"/>
+      <c r="G35" s="29">
+        <v>0</v>
+      </c>
+      <c r="H35" s="9" t="s">
+        <v>1184</v>
+      </c>
+      <c r="N35" s="28" t="s">
+        <v>1047</v>
+      </c>
+      <c r="O35" s="28">
+        <v>1</v>
+      </c>
+      <c r="P35" s="28">
+        <v>0.01</v>
+      </c>
+    </row>
+    <row r="36" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A36" s="12" t="s">
+        <v>933</v>
+      </c>
+      <c r="B36" s="15"/>
+      <c r="E36" s="27"/>
+      <c r="F36" s="19"/>
+      <c r="G36" s="29">
+        <v>-4.7652999999999999</v>
+      </c>
+      <c r="H36" s="8" t="s">
+        <v>1008</v>
+      </c>
+      <c r="N36" s="28" t="s">
+        <v>1031</v>
+      </c>
+      <c r="O36" s="28">
+        <v>1.64E-3</v>
+      </c>
+      <c r="P36" s="28">
+        <v>1.64E-3</v>
+      </c>
+    </row>
+    <row r="37" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A37" s="12" t="s">
+        <v>934</v>
+      </c>
+      <c r="B37" s="14"/>
+      <c r="E37" s="27"/>
+      <c r="F37" s="19"/>
+      <c r="G37" s="29">
+        <v>-21.799499999999998</v>
+      </c>
+      <c r="H37" s="8" t="s">
+        <v>1009</v>
+      </c>
+      <c r="N37" s="28" t="s">
+        <v>1147</v>
+      </c>
+      <c r="O37" s="28">
+        <v>1E-4</v>
+      </c>
+      <c r="P37" s="28">
+        <v>0.01</v>
+      </c>
+    </row>
+    <row r="38" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A38" s="12" t="s">
+        <v>935</v>
+      </c>
+      <c r="B38" s="14"/>
+      <c r="E38" s="27"/>
+      <c r="F38" s="19"/>
+      <c r="G38" s="29">
+        <v>-3.2149000000000001</v>
+      </c>
+      <c r="H38" s="8" t="s">
+        <v>1010</v>
+      </c>
+      <c r="N38" s="28" t="s">
+        <v>1148</v>
+      </c>
+      <c r="O38" s="28">
+        <v>0</v>
+      </c>
+      <c r="P38" s="28">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="39" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A39" s="12" t="s">
+        <v>936</v>
+      </c>
+      <c r="B39" s="14"/>
+      <c r="E39" s="27"/>
+      <c r="F39" s="19"/>
+      <c r="G39" s="29">
+        <v>0</v>
+      </c>
+      <c r="H39" s="8" t="s">
+        <v>1012</v>
+      </c>
+      <c r="N39" s="28" t="s">
+        <v>1177</v>
+      </c>
+      <c r="O39" s="28">
+        <v>6.8599999999999994E-2</v>
+      </c>
+      <c r="P39" s="28">
+        <v>6.8599999999999994E-2</v>
+      </c>
+    </row>
+    <row r="40" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A40" s="12" t="s">
+        <v>937</v>
+      </c>
+      <c r="B40" s="14"/>
+      <c r="E40" s="27"/>
+      <c r="F40" s="19"/>
+      <c r="G40" s="29">
+        <v>0</v>
+      </c>
+      <c r="H40" s="8" t="s">
+        <v>1011</v>
+      </c>
+      <c r="N40" s="28" t="s">
+        <v>1029</v>
+      </c>
+      <c r="O40" s="28">
+        <v>5.3499999999999997E-3</v>
+      </c>
+      <c r="P40" s="28">
+        <v>5.3499999999999997E-3</v>
+      </c>
+    </row>
+    <row r="41" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A41" s="12" t="s">
+        <v>589</v>
+      </c>
+      <c r="B41" s="14"/>
+      <c r="E41" s="27">
+        <v>8.4275973191444799E-4</v>
+      </c>
+      <c r="F41" s="19">
+        <v>4.2</v>
+      </c>
+      <c r="G41" s="29">
+        <v>7.4774000000000003</v>
+      </c>
+      <c r="H41" s="8" t="s">
+        <v>871</v>
+      </c>
+      <c r="N41" s="28" t="s">
+        <v>1028</v>
+      </c>
+      <c r="O41" s="28">
+        <v>0.47299999999999998</v>
+      </c>
+      <c r="P41" s="28">
+        <v>0.47299999999999998</v>
+      </c>
+    </row>
+    <row r="42" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A42" s="12" t="s">
+        <v>588</v>
+      </c>
+      <c r="B42" s="14"/>
+      <c r="E42" s="27">
+        <v>112.08069512728699</v>
+      </c>
+      <c r="F42" s="19">
+        <v>-7</v>
+      </c>
+      <c r="G42" s="29">
+        <v>0</v>
+      </c>
+      <c r="H42" s="8" t="s">
+        <v>872</v>
+      </c>
+      <c r="N42" s="28" t="s">
+        <v>1027</v>
+      </c>
+      <c r="O42" s="28">
+        <v>2.0799999999999998E-3</v>
+      </c>
+      <c r="P42" s="28">
+        <v>2.0799999999999998E-3</v>
+      </c>
+    </row>
+    <row r="43" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A43" s="13" t="s">
+        <v>938</v>
+      </c>
+      <c r="B43" s="14"/>
+      <c r="E43" s="26">
+        <v>1</v>
+      </c>
+      <c r="F43" s="21">
+        <v>0</v>
+      </c>
+      <c r="G43" s="29">
+        <v>0</v>
+      </c>
+      <c r="H43" s="9" t="s">
+        <v>873</v>
+      </c>
+      <c r="N43" s="28" t="s">
+        <v>1026</v>
+      </c>
+      <c r="O43" s="28">
+        <v>0.121</v>
+      </c>
+      <c r="P43" s="28">
+        <v>0.121</v>
+      </c>
+    </row>
+    <row r="44" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A44" s="13" t="s">
+        <v>939</v>
+      </c>
+      <c r="B44" s="15"/>
+      <c r="E44" s="26">
+        <v>1</v>
+      </c>
+      <c r="F44" s="21">
+        <v>0</v>
+      </c>
+      <c r="G44" s="29">
+        <v>0</v>
+      </c>
+      <c r="H44" s="9" t="s">
+        <v>874</v>
+      </c>
+      <c r="N44" s="28" t="s">
+        <v>1139</v>
+      </c>
+      <c r="O44" s="28">
+        <v>1E-4</v>
+      </c>
+      <c r="P44" s="28">
+        <v>1E-3</v>
+      </c>
+    </row>
+    <row r="45" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A45" s="13" t="s">
+        <v>940</v>
+      </c>
+      <c r="B45" s="15"/>
+      <c r="E45" s="25">
+        <v>4.8011555980423353E-5</v>
+      </c>
+      <c r="F45" s="20">
+        <v>5.9</v>
+      </c>
+      <c r="G45" s="29">
+        <v>0</v>
+      </c>
+      <c r="H45" s="9" t="s">
+        <v>875</v>
+      </c>
+      <c r="N45" s="28" t="s">
+        <v>1140</v>
+      </c>
+      <c r="O45" s="28">
+        <v>1E-4</v>
+      </c>
+      <c r="P45" s="28">
+        <v>1E-3</v>
+      </c>
+    </row>
+    <row r="46" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A46" s="13" t="s">
+        <v>941</v>
+      </c>
+      <c r="B46" s="15"/>
+      <c r="E46" s="26">
+        <v>4581156.7432856048</v>
+      </c>
+      <c r="F46" s="21">
+        <v>-9.1</v>
+      </c>
+      <c r="G46" s="29">
+        <v>0</v>
+      </c>
+      <c r="H46" s="9" t="s">
+        <v>876</v>
+      </c>
+      <c r="N46" s="28" t="s">
+        <v>1025</v>
+      </c>
+      <c r="O46" s="28">
+        <v>1E-3</v>
+      </c>
+      <c r="P46" s="28">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="47" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A47" s="12" t="s">
+        <v>704</v>
+      </c>
+      <c r="B47" s="15"/>
+      <c r="E47" s="27">
+        <v>2.7490660521270844</v>
+      </c>
+      <c r="F47" s="19">
+        <v>-0.6</v>
+      </c>
+      <c r="G47" s="29">
+        <v>5.0644</v>
+      </c>
+      <c r="H47" s="8" t="s">
+        <v>1178</v>
+      </c>
+      <c r="N47" s="28" t="s">
+        <v>1173</v>
+      </c>
+      <c r="O47" s="28">
+        <v>1E-4</v>
+      </c>
+      <c r="P47" s="28">
+        <v>0.01</v>
+      </c>
+    </row>
+    <row r="48" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A48" s="12" t="s">
+        <v>942</v>
+      </c>
+      <c r="B48" s="14"/>
+      <c r="E48" s="27">
+        <v>1</v>
+      </c>
+      <c r="F48" s="19">
+        <v>0</v>
+      </c>
+      <c r="G48" s="29">
+        <v>0</v>
+      </c>
+      <c r="H48" s="8" t="s">
+        <v>981</v>
+      </c>
+      <c r="N48" s="28" t="s">
+        <v>1024</v>
+      </c>
+      <c r="O48" s="28">
+        <v>0.184</v>
+      </c>
+      <c r="P48" s="28">
+        <v>0.184</v>
+      </c>
+    </row>
+    <row r="49" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A49" s="12" t="s">
+        <v>943</v>
+      </c>
+      <c r="B49" s="14"/>
+      <c r="E49" s="27">
+        <v>1.1835797581124567</v>
+      </c>
+      <c r="F49" s="19">
+        <v>-0.1</v>
+      </c>
+      <c r="G49" s="29">
+        <v>16.023499999999999</v>
+      </c>
+      <c r="H49" s="8" t="s">
+        <v>1154</v>
+      </c>
+      <c r="N49" s="28" t="s">
+        <v>1138</v>
+      </c>
+      <c r="O49" s="28">
+        <v>1E-4</v>
+      </c>
+      <c r="P49" s="28">
+        <v>0.01</v>
+      </c>
+    </row>
+    <row r="50" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A50" s="12" t="s">
+        <v>944</v>
+      </c>
+      <c r="B50" s="14"/>
+      <c r="E50" s="27">
+        <v>4581156.7432856048</v>
+      </c>
+      <c r="F50" s="19">
+        <v>-9.1</v>
+      </c>
+      <c r="G50" s="29">
+        <v>10</v>
+      </c>
+      <c r="H50" s="8" t="s">
+        <v>1155</v>
+      </c>
+      <c r="N50" s="28" t="s">
+        <v>1023</v>
+      </c>
+      <c r="O50" s="28">
+        <v>0.128</v>
+      </c>
+      <c r="P50" s="28">
+        <v>0.128</v>
+      </c>
+    </row>
+    <row r="51" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A51" s="12" t="s">
+        <v>946</v>
+      </c>
+      <c r="B51" s="14"/>
+      <c r="E51" s="27">
+        <v>67769.912192357311</v>
+      </c>
+      <c r="F51" s="19">
+        <v>-6.6</v>
+      </c>
+      <c r="G51" s="29">
+        <v>0</v>
+      </c>
+      <c r="H51" s="8" t="s">
+        <v>878</v>
+      </c>
+      <c r="N51" s="28" t="s">
+        <v>1022</v>
+      </c>
+      <c r="O51" s="28">
+        <v>3.6200000000000003E-2</v>
+      </c>
+      <c r="P51" s="28">
+        <v>3.6200000000000003E-2</v>
+      </c>
+    </row>
+    <row r="52" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A52" s="12" t="s">
+        <v>945</v>
+      </c>
+      <c r="B52" s="14"/>
+      <c r="E52" s="27">
+        <v>17.553268472658598</v>
+      </c>
+      <c r="F52" s="19">
+        <v>-1.7</v>
+      </c>
+      <c r="G52" s="29">
+        <v>0.2235</v>
+      </c>
+      <c r="H52" s="8" t="s">
+        <v>877</v>
+      </c>
+      <c r="N52" s="28" t="s">
+        <v>1164</v>
+      </c>
+      <c r="O52" s="28">
+        <v>0.128</v>
+      </c>
+      <c r="P52" s="28">
+        <v>0.128</v>
+      </c>
+    </row>
+    <row r="53" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A53" s="12" t="s">
+        <v>947</v>
+      </c>
+      <c r="B53" s="14"/>
+      <c r="E53" s="27">
+        <v>1.558223645776738E-7</v>
+      </c>
+      <c r="F53" s="19">
+        <v>9.3000000000000007</v>
+      </c>
+      <c r="G53" s="29">
+        <v>-4.5419</v>
+      </c>
+      <c r="H53" s="8" t="s">
+        <v>879</v>
+      </c>
+      <c r="N53" s="28" t="s">
+        <v>1021</v>
+      </c>
+      <c r="O53" s="28">
+        <v>0.22</v>
+      </c>
+      <c r="P53" s="28">
+        <v>0.22</v>
+      </c>
+    </row>
+    <row r="54" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A54" s="12" t="s">
+        <v>948</v>
+      </c>
+      <c r="B54" s="14"/>
+      <c r="E54" s="27">
+        <v>3860.8144288294484</v>
+      </c>
+      <c r="F54" s="19">
+        <v>-4.9000000000000004</v>
+      </c>
+      <c r="G54" s="29">
+        <v>0</v>
+      </c>
+      <c r="H54" s="8" t="s">
+        <v>880</v>
+      </c>
+      <c r="N54" s="28" t="s">
+        <v>1019</v>
+      </c>
+      <c r="O54" s="28">
+        <v>6.9500000000000006E-2</v>
+      </c>
+      <c r="P54" s="28">
+        <v>6.9500000000000006E-2</v>
+      </c>
+    </row>
+    <row r="55" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A55" s="12" t="s">
+        <v>949</v>
+      </c>
+      <c r="B55" s="14"/>
+      <c r="E55" s="27">
+        <v>24777023755.822395</v>
+      </c>
+      <c r="F55" s="19">
+        <v>-14.2</v>
+      </c>
+      <c r="G55" s="29">
+        <v>0</v>
+      </c>
+      <c r="H55" s="8" t="s">
+        <v>977</v>
+      </c>
+      <c r="N55" s="28" t="s">
+        <v>1018</v>
+      </c>
+      <c r="O55" s="28">
+        <v>0</v>
+      </c>
+      <c r="P55" s="28">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="56" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A56" s="12" t="s">
+        <v>950</v>
+      </c>
+      <c r="B56" s="14"/>
+      <c r="E56" s="27">
+        <v>1</v>
+      </c>
+      <c r="F56" s="19">
+        <v>0</v>
+      </c>
+      <c r="G56" s="29">
+        <v>0</v>
+      </c>
+      <c r="H56" s="8" t="s">
+        <v>881</v>
+      </c>
+      <c r="N56" s="28" t="s">
+        <v>1020</v>
+      </c>
+      <c r="O56" s="28">
+        <v>0.23300000000000001</v>
+      </c>
+      <c r="P56" s="28">
+        <v>0.23300000000000001</v>
+      </c>
+    </row>
+    <row r="57" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A57" s="12" t="s">
+        <v>951</v>
+      </c>
+      <c r="B57" s="14"/>
+      <c r="E57" s="27">
+        <v>0.2193927327718837</v>
+      </c>
+      <c r="F57" s="19">
+        <v>0.9</v>
+      </c>
+      <c r="G57" s="29">
+        <v>4.96</v>
+      </c>
+      <c r="H57" s="8" t="s">
+        <v>1162</v>
+      </c>
+      <c r="N57" s="28" t="s">
+        <v>1168</v>
+      </c>
+      <c r="O57" s="28">
+        <v>9.1800000000000007E-2</v>
+      </c>
+      <c r="P57" s="28">
+        <v>9.1800000000000007E-2</v>
+      </c>
+    </row>
+    <row r="58" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A58" s="12" t="s">
+        <v>952</v>
+      </c>
+      <c r="B58" s="14"/>
+      <c r="E58" s="27">
+        <v>1</v>
+      </c>
+      <c r="F58" s="19">
+        <v>0</v>
+      </c>
+      <c r="G58" s="29">
+        <v>-29.175799999999999</v>
+      </c>
+      <c r="H58" s="8" t="s">
+        <v>882</v>
+      </c>
+      <c r="N58" s="28" t="s">
+        <v>1185</v>
+      </c>
+      <c r="O58" s="28">
+        <v>0</v>
+      </c>
+      <c r="P58" s="28">
+        <v>1E-3</v>
+      </c>
+    </row>
+    <row r="59" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A59" s="12" t="s">
+        <v>953</v>
+      </c>
+      <c r="B59" s="14"/>
+      <c r="E59" s="27">
+        <v>3.2455179049229346E-3</v>
+      </c>
+      <c r="F59" s="19">
+        <v>3.4</v>
+      </c>
+      <c r="G59" s="29">
+        <v>6.0072000000000001</v>
+      </c>
+      <c r="H59" s="8" t="s">
+        <v>883</v>
+      </c>
+      <c r="N59" s="28" t="s">
+        <v>1186</v>
+      </c>
+      <c r="O59" s="28">
+        <v>0</v>
+      </c>
+      <c r="P59" s="28">
+        <v>1E-3</v>
+      </c>
+    </row>
+    <row r="60" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A60" s="12" t="s">
+        <v>636</v>
+      </c>
+      <c r="B60" s="14"/>
+      <c r="E60" s="27">
+        <v>2.5901270792317975E-4</v>
+      </c>
+      <c r="F60" s="19">
+        <v>4.9000000000000004</v>
+      </c>
+      <c r="G60" s="29">
+        <v>0</v>
+      </c>
+      <c r="H60" s="8" t="s">
+        <v>884</v>
+      </c>
+      <c r="N60" s="28" t="s">
+        <v>1192</v>
+      </c>
+      <c r="O60" s="28">
+        <v>0</v>
+      </c>
+      <c r="P60" s="28">
+        <v>1E-3</v>
+      </c>
+    </row>
+    <row r="61" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A61" s="12" t="s">
+        <v>954</v>
+      </c>
+      <c r="B61" s="14"/>
+      <c r="E61" s="27">
+        <v>2.0670840473237604E-5</v>
+      </c>
+      <c r="F61" s="19">
+        <v>6.4</v>
+      </c>
+      <c r="G61" s="29">
+        <v>0</v>
+      </c>
+      <c r="H61" s="8" t="s">
+        <v>1149</v>
+      </c>
+      <c r="N61" s="28" t="s">
+        <v>1193</v>
+      </c>
+      <c r="O61" s="28">
+        <v>0</v>
+      </c>
+      <c r="P61" s="28">
+        <v>1E-3</v>
+      </c>
+    </row>
+    <row r="62" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A62" s="12" t="s">
+        <v>955</v>
+      </c>
+      <c r="B62" s="14"/>
+      <c r="E62" s="27">
+        <v>2334452.463340031</v>
+      </c>
+      <c r="F62" s="19">
+        <v>-8.6999999999999993</v>
+      </c>
+      <c r="G62" s="29">
+        <v>0</v>
+      </c>
+      <c r="H62" s="8" t="s">
+        <v>1179</v>
+      </c>
+    </row>
+    <row r="63" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A63" s="29" t="s">
+        <v>956</v>
+      </c>
+      <c r="B63" s="14"/>
+      <c r="E63" s="26">
+        <v>1</v>
+      </c>
+      <c r="F63" s="21">
+        <v>0</v>
+      </c>
+      <c r="G63" s="29">
+        <v>0</v>
+      </c>
+      <c r="H63" s="29" t="s">
+        <v>1180</v>
+      </c>
+    </row>
+    <row r="64" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A64" s="14" t="s">
+        <v>622</v>
+      </c>
+      <c r="B64" s="29"/>
+      <c r="E64" s="31">
+        <v>2.0670840473237604E-5</v>
+      </c>
+      <c r="F64" s="23">
+        <v>6.4</v>
+      </c>
+      <c r="G64" s="29">
+        <v>5.0644</v>
+      </c>
+      <c r="H64" s="14" t="s">
+        <v>1181</v>
+      </c>
+    </row>
+    <row r="65" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A65" s="12" t="s">
+        <v>957</v>
+      </c>
+      <c r="B65" s="14"/>
+      <c r="E65" s="27">
+        <v>0.11179750752009893</v>
+      </c>
+      <c r="F65" s="19">
+        <v>1.3</v>
+      </c>
+      <c r="G65" s="29">
+        <v>0</v>
+      </c>
+      <c r="H65" s="8" t="s">
+        <v>1182</v>
+      </c>
+    </row>
+    <row r="66" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A66" s="12" t="s">
+        <v>958</v>
+      </c>
+      <c r="B66" s="14"/>
+      <c r="E66" s="27">
+        <v>6.7427884439643204E-2</v>
+      </c>
+      <c r="F66" s="19">
+        <v>1.6</v>
+      </c>
+      <c r="G66" s="29">
+        <v>0</v>
+      </c>
+      <c r="H66" s="8" t="s">
+        <v>1183</v>
+      </c>
+    </row>
+    <row r="67" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A67" s="29" t="s">
+        <v>959</v>
+      </c>
+      <c r="B67" s="14"/>
+      <c r="E67" s="26">
+        <v>5449668303594.3379</v>
+      </c>
+      <c r="F67" s="21">
+        <v>-17.399999999999999</v>
+      </c>
+      <c r="G67" s="29">
+        <v>38.534599999999998</v>
+      </c>
+      <c r="H67" s="29" t="s">
+        <v>984</v>
+      </c>
+    </row>
+    <row r="68" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A68" s="14" t="s">
+        <v>960</v>
+      </c>
+      <c r="B68" s="29"/>
+      <c r="E68" s="31">
+        <v>1.6580307753859953</v>
+      </c>
+      <c r="F68" s="23">
+        <v>-0.3</v>
+      </c>
+      <c r="G68" s="29">
+        <v>0</v>
+      </c>
+      <c r="H68" s="14" t="s">
+        <v>885</v>
+      </c>
+    </row>
+    <row r="69" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A69" s="12" t="s">
+        <v>961</v>
+      </c>
+      <c r="B69" s="14"/>
+      <c r="E69" s="27">
+        <v>1</v>
+      </c>
+      <c r="F69" s="19">
+        <v>0</v>
+      </c>
+      <c r="G69" s="29">
+        <v>4.7652999999999999</v>
+      </c>
+      <c r="H69" s="8" t="s">
+        <v>886</v>
+      </c>
+    </row>
+    <row r="70" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A70" s="12" t="s">
+        <v>962</v>
+      </c>
+      <c r="B70" s="14"/>
+      <c r="E70" s="27">
+        <v>1</v>
+      </c>
+      <c r="F70" s="19">
+        <v>0</v>
+      </c>
+      <c r="G70" s="29">
+        <v>21.799499999999998</v>
+      </c>
+      <c r="H70" s="8" t="s">
+        <v>887</v>
+      </c>
+    </row>
+    <row r="71" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A71" s="12" t="s">
+        <v>528</v>
+      </c>
+      <c r="B71" s="14"/>
+      <c r="E71" s="27">
+        <v>1189583.4630809485</v>
+      </c>
+      <c r="F71" s="19">
+        <v>-8.3000000000000007</v>
+      </c>
+      <c r="G71" s="29">
+        <v>9.2825000000000006</v>
+      </c>
+      <c r="H71" s="8" t="s">
+        <v>888</v>
+      </c>
+    </row>
+    <row r="72" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A72" s="12" t="s">
+        <v>590</v>
+      </c>
+      <c r="B72" s="14"/>
+      <c r="E72" s="27">
+        <v>604.65285404763836</v>
+      </c>
+      <c r="F72" s="19">
+        <v>-3.8</v>
+      </c>
+      <c r="G72" s="29">
+        <v>7.4774000000000003</v>
+      </c>
+      <c r="H72" s="8" t="s">
+        <v>889</v>
+      </c>
+    </row>
+    <row r="73" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A73" s="12" t="s">
+        <v>598</v>
+      </c>
+      <c r="B73" s="14"/>
+      <c r="E73" s="27">
+        <v>5408.4645307404089</v>
+      </c>
+      <c r="F73" s="19">
+        <v>-5.0999999999999996</v>
+      </c>
+      <c r="G73" s="29">
+        <v>0</v>
+      </c>
+      <c r="H73" s="8" t="s">
+        <v>890</v>
+      </c>
+    </row>
+    <row r="74" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A74" s="12" t="s">
+        <v>587</v>
+      </c>
+      <c r="B74" s="14"/>
+      <c r="E74" s="27">
+        <v>3.8510595392951203</v>
+      </c>
+      <c r="F74" s="19">
+        <v>-0.8</v>
+      </c>
+      <c r="G74" s="29">
+        <v>4.8609</v>
+      </c>
+      <c r="H74" s="8" t="s">
+        <v>891</v>
+      </c>
+    </row>
+    <row r="75" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A75" s="12" t="s">
+        <v>593</v>
+      </c>
+      <c r="B75" s="14"/>
+      <c r="E75" s="27">
+        <v>8.9221430939942625E-3</v>
+      </c>
+      <c r="F75" s="19">
+        <v>2.8</v>
+      </c>
+      <c r="G75" s="29">
+        <v>-16.023499999999999</v>
+      </c>
+      <c r="H75" s="8" t="s">
+        <v>1152</v>
+      </c>
+    </row>
+    <row r="76" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A76" s="12" t="s">
+        <v>963</v>
+      </c>
+      <c r="B76" s="14"/>
+      <c r="E76" s="27">
+        <v>5408.4645307404089</v>
+      </c>
+      <c r="F76" s="19">
+        <v>-5.0999999999999996</v>
+      </c>
+      <c r="G76" s="29">
+        <v>4.96</v>
+      </c>
+      <c r="H76" s="8" t="s">
+        <v>1161</v>
+      </c>
+    </row>
+    <row r="77" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A77" s="12" t="s">
+        <v>615</v>
+      </c>
+      <c r="B77" s="14"/>
+      <c r="E77" s="27">
+        <v>1</v>
+      </c>
+      <c r="F77" s="19">
+        <v>0</v>
+      </c>
+      <c r="G77" s="29">
+        <v>-14.716100000000001</v>
+      </c>
+      <c r="H77" s="8" t="s">
+        <v>892</v>
+      </c>
+    </row>
+    <row r="78" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A78" s="12" t="s">
+        <v>964</v>
+      </c>
+      <c r="B78" s="14"/>
+      <c r="E78" s="27">
+        <v>1</v>
+      </c>
+      <c r="F78" s="19">
+        <v>0</v>
+      </c>
+      <c r="G78" s="29">
+        <v>3.2149000000000001</v>
+      </c>
+      <c r="H78" s="8" t="s">
+        <v>893</v>
+      </c>
+    </row>
+    <row r="79" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A79" s="12" t="s">
+        <v>607</v>
+      </c>
+      <c r="B79" s="14"/>
+      <c r="E79" s="27">
+        <v>94936.229932937829</v>
+      </c>
+      <c r="F79" s="19">
+        <v>-6.8</v>
+      </c>
+      <c r="G79" s="29">
+        <v>2.5043000000000002</v>
+      </c>
+      <c r="H79" s="8" t="s">
+        <v>1169</v>
+      </c>
+    </row>
+    <row r="80" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A80" s="12" t="s">
+        <v>965</v>
+      </c>
+      <c r="B80" s="14"/>
+      <c r="E80" s="27">
+        <v>0.71384667623971898</v>
+      </c>
+      <c r="F80" s="19">
+        <v>0.2</v>
+      </c>
+      <c r="G80" s="29">
+        <v>0</v>
+      </c>
+      <c r="H80" s="8" t="s">
+        <v>1170</v>
+      </c>
+    </row>
+    <row r="81" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A81" s="12" t="s">
+        <v>597</v>
+      </c>
+      <c r="B81" s="14"/>
+      <c r="E81" s="27">
+        <v>7.5573641589575944</v>
+      </c>
+      <c r="F81" s="19">
+        <v>-1.2</v>
+      </c>
+      <c r="G81" s="29">
+        <v>0</v>
+      </c>
+      <c r="H81" s="8" t="s">
+        <v>978</v>
+      </c>
+    </row>
+    <row r="82" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A82" s="12" t="s">
+        <v>966</v>
+      </c>
+      <c r="B82" s="14"/>
+      <c r="E82" s="27">
+        <v>1.6538415279210997E-3</v>
+      </c>
+      <c r="F82" s="19">
+        <v>3.8</v>
+      </c>
+      <c r="G82" s="29">
+        <v>0</v>
+      </c>
+      <c r="H82" s="8" t="s">
+        <v>894</v>
+      </c>
+    </row>
+    <row r="83" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A83" s="12" t="s">
+        <v>595</v>
+      </c>
+      <c r="B83" s="14"/>
+      <c r="E83" s="27">
+        <v>7576.5072679615205</v>
+      </c>
+      <c r="F83" s="19">
+        <v>-5.3</v>
+      </c>
+      <c r="G83" s="29">
+        <v>1.7582</v>
+      </c>
+      <c r="H83" s="8" t="s">
+        <v>895</v>
+      </c>
+    </row>
+    <row r="84" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A84" s="12" t="s">
+        <v>967</v>
+      </c>
+      <c r="B84" s="14"/>
+      <c r="E84" s="27">
+        <v>1</v>
+      </c>
+      <c r="F84" s="19">
+        <v>0</v>
+      </c>
+      <c r="G84" s="29">
+        <v>0</v>
+      </c>
+      <c r="H84" s="8" t="s">
+        <v>896</v>
+      </c>
+    </row>
+    <row r="85" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A85" s="12" t="s">
+        <v>968</v>
+      </c>
+      <c r="B85" s="14"/>
+      <c r="E85" s="27">
+        <v>1</v>
+      </c>
+      <c r="F85" s="19">
+        <v>0</v>
+      </c>
+      <c r="G85" s="29">
+        <v>2.6785000000000001</v>
+      </c>
+      <c r="H85" s="8" t="s">
+        <v>1165</v>
+      </c>
+    </row>
+    <row r="86" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A86" s="12" t="s">
+        <v>649</v>
+      </c>
+      <c r="B86" s="14"/>
+      <c r="E86" s="27">
+        <v>0.43053885780469486</v>
+      </c>
+      <c r="F86" s="19">
+        <v>0.5</v>
+      </c>
+      <c r="G86" s="29">
+        <v>-2.2814999999999999</v>
+      </c>
+      <c r="H86" s="8" t="s">
+        <v>1163</v>
+      </c>
+    </row>
+    <row r="87" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A87" s="12" t="s">
+        <v>969</v>
+      </c>
+      <c r="B87" s="14"/>
+      <c r="E87" s="27">
+        <v>1</v>
+      </c>
+      <c r="F87" s="19">
+        <v>0</v>
+      </c>
+      <c r="G87" s="29">
+        <v>0</v>
+      </c>
+      <c r="H87" s="8" t="s">
+        <v>979</v>
+      </c>
+    </row>
+    <row r="88" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A88" s="12" t="s">
+        <v>970</v>
+      </c>
+      <c r="B88" s="14"/>
+      <c r="E88" s="27">
+        <v>1</v>
+      </c>
+      <c r="F88" s="19">
+        <v>0</v>
+      </c>
+      <c r="G88" s="29">
+        <v>0</v>
+      </c>
+      <c r="H88" s="8" t="s">
+        <v>897</v>
+      </c>
+    </row>
+    <row r="89" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A89" s="29" t="s">
+        <v>971</v>
+      </c>
+      <c r="B89" s="14"/>
+      <c r="E89" s="29">
+        <v>34.446738793374067</v>
+      </c>
+      <c r="F89" s="29">
+        <v>-2.1</v>
+      </c>
+      <c r="G89" s="29">
+        <v>5.0644</v>
+      </c>
+      <c r="H89" s="29" t="s">
+        <v>898</v>
+      </c>
+    </row>
+    <row r="90" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A90" s="14" t="s">
+        <v>972</v>
+      </c>
+      <c r="B90" s="29"/>
+      <c r="E90" s="31">
+        <v>5.3947992860050586</v>
+      </c>
+      <c r="F90" s="23">
+        <v>-1</v>
+      </c>
+      <c r="G90" s="29">
+        <v>-5.0644</v>
+      </c>
+      <c r="H90" s="14" t="s">
+        <v>899</v>
+      </c>
+    </row>
+    <row r="91" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A91" s="12" t="s">
+        <v>973</v>
+      </c>
+      <c r="B91" s="14"/>
+      <c r="E91" s="27">
+        <v>17.553268472658598</v>
+      </c>
+      <c r="F91" s="19">
+        <v>-1.7</v>
+      </c>
+      <c r="G91" s="29">
+        <v>1.4970000000000001</v>
+      </c>
+      <c r="H91" s="8" t="s">
+        <v>900</v>
+      </c>
+    </row>
+    <row r="92" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A92" s="12" t="s">
+        <v>974</v>
+      </c>
+      <c r="B92" s="14"/>
+      <c r="E92" s="27">
+        <v>0.60312511374657485</v>
+      </c>
+      <c r="F92" s="19">
+        <v>0.3</v>
+      </c>
+      <c r="G92" s="29">
+        <v>0</v>
+      </c>
+      <c r="H92" s="8" t="s">
+        <v>980</v>
+      </c>
+    </row>
+    <row r="93" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A93" s="12" t="s">
+        <v>975</v>
+      </c>
+      <c r="B93" s="14"/>
+      <c r="E93" s="27">
+        <v>4.0667450472350736E-2</v>
+      </c>
+      <c r="F93" s="19">
+        <v>1.9</v>
+      </c>
+      <c r="G93" s="29">
+        <v>1.4970000000000001</v>
+      </c>
+      <c r="H93" s="8" t="s">
+        <v>1166</v>
+      </c>
+    </row>
+    <row r="94" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A94" s="12" t="s">
+        <v>976</v>
+      </c>
+      <c r="B94" s="14"/>
+      <c r="E94" s="27">
+        <v>17.553268472658598</v>
+      </c>
+      <c r="F94" s="19">
+        <v>-1.7</v>
+      </c>
+      <c r="G94" s="29">
+        <v>1.1815</v>
+      </c>
+      <c r="H94" s="8" t="s">
+        <v>1167</v>
+      </c>
+    </row>
+    <row r="95" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A95" s="12" t="s">
+        <v>591</v>
+      </c>
+      <c r="B95" s="14"/>
+      <c r="E95" s="27">
+        <v>9.4457096578257488E-2</v>
+      </c>
+      <c r="F95" s="19">
+        <v>1.4</v>
+      </c>
+      <c r="G95" s="29">
+        <v>7.4774000000000003</v>
+      </c>
+      <c r="H95" s="8" t="s">
+        <v>901</v>
+      </c>
+    </row>
+    <row r="96" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A96" s="12" t="s">
+        <v>1134</v>
+      </c>
+      <c r="B96" s="14"/>
+      <c r="E96" s="27">
+        <v>14.830659575195945</v>
+      </c>
+      <c r="F96" s="19">
+        <v>-1.6</v>
+      </c>
+      <c r="G96" s="29">
+        <v>4.96</v>
+      </c>
+      <c r="H96" s="8" t="s">
+        <v>1158</v>
+      </c>
+    </row>
+    <row r="97" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B97" s="14"/>
+    </row>
+    <row r="98" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="E98" s="23"/>
+      <c r="F98" s="17"/>
+      <c r="G98" s="31"/>
+      <c r="H98" s="9"/>
+    </row>
+    <row r="99" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="E99" s="23"/>
+      <c r="F99" s="17"/>
+      <c r="G99" s="31"/>
+      <c r="H99" s="7"/>
+    </row>
+    <row r="100" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="E100" s="23"/>
+      <c r="F100" s="17"/>
+      <c r="G100" s="31"/>
+      <c r="H100" s="7"/>
+    </row>
+    <row r="101" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="E101" s="23"/>
+      <c r="F101" s="17"/>
+      <c r="G101" s="31"/>
+      <c r="H101" s="7"/>
+    </row>
+    <row r="102" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="E102" s="23"/>
+      <c r="F102" s="17"/>
+      <c r="G102" s="31"/>
+      <c r="H102" s="7"/>
+    </row>
+    <row r="103" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="E103" s="23"/>
+      <c r="F103" s="17"/>
+      <c r="G103" s="31"/>
+      <c r="H103" s="9"/>
+    </row>
+    <row r="104" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="E104" s="23"/>
+      <c r="F104" s="17"/>
+      <c r="G104" s="31"/>
+      <c r="H104" s="7"/>
+    </row>
+    <row r="105" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="E105" s="22"/>
+      <c r="F105" s="17"/>
+      <c r="G105" s="31"/>
+      <c r="H105" s="7"/>
+    </row>
+    <row r="106" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="E106" s="23"/>
+      <c r="F106" s="17"/>
+      <c r="G106" s="31"/>
+      <c r="H106" s="9"/>
+    </row>
+    <row r="107" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="E107" s="23"/>
+      <c r="F107" s="17"/>
+      <c r="G107" s="31"/>
+      <c r="H107" s="9"/>
+    </row>
+    <row r="108" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="E108" s="23"/>
+      <c r="F108" s="17"/>
+      <c r="G108" s="31"/>
+      <c r="H108" s="7"/>
+    </row>
+    <row r="109" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="E109" s="23"/>
+      <c r="F109" s="17"/>
+      <c r="G109" s="31"/>
+      <c r="H109" s="7"/>
+    </row>
+    <row r="110" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="E110" s="23"/>
+      <c r="F110" s="17"/>
+      <c r="G110" s="31"/>
+      <c r="H110" s="9"/>
+    </row>
+    <row r="111" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="E111" s="23"/>
+      <c r="F111" s="17"/>
+      <c r="G111" s="31"/>
+      <c r="H111" s="9"/>
+    </row>
+    <row r="112" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="E112" s="23"/>
+      <c r="F112" s="17"/>
+      <c r="G112" s="31"/>
+      <c r="H112" s="7"/>
+    </row>
+    <row r="113" spans="5:8" x14ac:dyDescent="0.25">
+      <c r="E113" s="23"/>
+      <c r="F113" s="17"/>
+      <c r="G113" s="31"/>
+      <c r="H113" s="7"/>
+    </row>
+    <row r="114" spans="5:8" x14ac:dyDescent="0.25">
+      <c r="E114" s="23"/>
+      <c r="F114" s="17"/>
+      <c r="G114" s="31"/>
+      <c r="H114" s="7"/>
+    </row>
+    <row r="115" spans="5:8" x14ac:dyDescent="0.25">
+      <c r="E115" s="23"/>
+      <c r="F115" s="17"/>
+      <c r="G115" s="31"/>
+      <c r="H115" s="7"/>
+    </row>
+    <row r="116" spans="5:8" x14ac:dyDescent="0.25">
+      <c r="E116" s="23"/>
+      <c r="F116" s="17"/>
+      <c r="G116" s="31"/>
+      <c r="H116" s="7"/>
+    </row>
+    <row r="122" spans="5:8" x14ac:dyDescent="0.25">
+      <c r="E122" s="22"/>
+      <c r="F122" s="17"/>
+      <c r="G122" s="28"/>
+      <c r="H122" s="11"/>
+    </row>
+    <row r="123" spans="5:8" x14ac:dyDescent="0.25">
+      <c r="E123" s="22"/>
+      <c r="F123" s="17"/>
+      <c r="G123" s="28"/>
+      <c r="H123" s="11"/>
+    </row>
+    <row r="124" spans="5:8" x14ac:dyDescent="0.25">
+      <c r="E124" s="22"/>
+      <c r="F124" s="17"/>
+      <c r="G124" s="28"/>
+      <c r="H124" s="11"/>
+    </row>
+    <row r="125" spans="5:8" x14ac:dyDescent="0.25">
+      <c r="E125" s="22"/>
+      <c r="F125" s="17"/>
+      <c r="G125" s="28"/>
+      <c r="H125" s="11"/>
+    </row>
+    <row r="126" spans="5:8" x14ac:dyDescent="0.25">
+      <c r="E126" s="22"/>
+      <c r="F126" s="17"/>
+      <c r="G126" s="28"/>
+      <c r="H126" s="11"/>
+    </row>
+    <row r="127" spans="5:8" x14ac:dyDescent="0.25">
+      <c r="E127" s="22"/>
+      <c r="F127" s="17"/>
+      <c r="G127" s="28"/>
+      <c r="H127" s="11"/>
+    </row>
+    <row r="128" spans="5:8" x14ac:dyDescent="0.25">
+      <c r="E128" s="22"/>
+      <c r="F128" s="17"/>
+      <c r="G128" s="28"/>
+      <c r="H128" s="11"/>
+    </row>
+  </sheetData>
+  <sortState ref="N2:P57">
+    <sortCondition ref="N2:N57"/>
+  </sortState>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
@@ -55890,2430 +57907,619 @@
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:P128"/>
+  <dimension ref="A1:P17"/>
   <sheetViews>
-    <sheetView topLeftCell="A52" workbookViewId="0">
-      <selection activeCell="H58" sqref="H58"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D9" sqref="D9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="12.42578125" customWidth="1"/>
-    <col min="2" max="2" width="12.28515625" customWidth="1"/>
-    <col min="5" max="5" width="12.28515625" customWidth="1"/>
-    <col min="6" max="6" width="14.85546875" customWidth="1"/>
-    <col min="8" max="8" width="50.42578125" customWidth="1"/>
-    <col min="9" max="9" width="13.28515625" customWidth="1"/>
-    <col min="10" max="10" width="13" customWidth="1"/>
-    <col min="11" max="11" width="14.28515625" customWidth="1"/>
-    <col min="12" max="12" width="18.42578125" customWidth="1"/>
-    <col min="13" max="13" width="18.140625" customWidth="1"/>
-    <col min="14" max="14" width="13.7109375" style="28" customWidth="1"/>
-    <col min="15" max="15" width="12.5703125" style="28" customWidth="1"/>
-    <col min="16" max="16" width="9.140625" style="28"/>
+    <col min="8" max="8" width="23.140625" customWidth="1"/>
+    <col min="9" max="9" width="16.42578125" customWidth="1"/>
+    <col min="10" max="10" width="16.85546875" customWidth="1"/>
+    <col min="13" max="13" width="13.5703125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:16" s="28" customFormat="1" ht="18" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A1" s="28" t="s">
         <v>565</v>
       </c>
       <c r="B1" s="28" t="s">
         <v>728</v>
       </c>
-      <c r="C1" t="s">
+      <c r="C1" s="28" t="s">
         <v>731</v>
       </c>
-      <c r="D1" t="s">
+      <c r="D1" s="28" t="s">
         <v>729</v>
       </c>
-      <c r="E1" s="24" t="s">
+      <c r="E1" s="28" t="s">
         <v>730</v>
       </c>
-      <c r="F1" s="18" t="s">
-        <v>985</v>
-      </c>
-      <c r="G1" s="30" t="s">
-        <v>986</v>
-      </c>
-      <c r="H1" s="10" t="s">
-        <v>861</v>
-      </c>
-      <c r="I1" t="s">
+      <c r="F1" s="28" t="s">
+        <v>830</v>
+      </c>
+      <c r="G1" s="28" t="s">
+        <v>818</v>
+      </c>
+      <c r="H1" s="28" t="s">
+        <v>1</v>
+      </c>
+      <c r="I1" s="28" t="s">
         <v>608</v>
       </c>
-      <c r="J1" t="s">
+      <c r="J1" s="28" t="s">
         <v>609</v>
       </c>
-      <c r="K1" t="s">
+      <c r="K1" s="28" t="s">
         <v>654</v>
       </c>
-      <c r="L1" t="s">
+      <c r="L1" s="28" t="s">
         <v>656</v>
       </c>
-      <c r="M1" t="s">
+      <c r="M1" s="28" t="s">
         <v>657</v>
       </c>
       <c r="N1" s="28" t="s">
         <v>726</v>
       </c>
       <c r="O1" s="28" t="s">
-        <v>838</v>
+        <v>828</v>
       </c>
       <c r="P1" s="28" t="s">
-        <v>839</v>
+        <v>829</v>
       </c>
     </row>
     <row r="2" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A2" s="13" t="s">
-        <v>902</v>
-      </c>
-      <c r="B2" s="16"/>
-      <c r="E2" s="26">
-        <v>1662.2306343841162</v>
-      </c>
-      <c r="F2" s="21">
-        <v>-4.4000000000000004</v>
-      </c>
-      <c r="G2" s="29">
-        <v>0</v>
-      </c>
-      <c r="H2" s="9" t="s">
-        <v>862</v>
-      </c>
-      <c r="L2" t="s">
-        <v>1141</v>
-      </c>
+      <c r="A2" s="28" t="s">
+        <v>1206</v>
+      </c>
+      <c r="B2" s="28">
+        <v>0</v>
+      </c>
+      <c r="C2" s="28">
+        <v>0</v>
+      </c>
+      <c r="D2" s="28"/>
+      <c r="E2" s="28"/>
+      <c r="F2" s="28">
+        <v>0</v>
+      </c>
+      <c r="G2" s="28">
+        <v>5</v>
+      </c>
+      <c r="H2" s="28" t="s">
+        <v>1207</v>
+      </c>
+      <c r="I2" s="28"/>
+      <c r="J2" s="28"/>
+      <c r="K2" s="28"/>
+      <c r="L2" s="28"/>
+      <c r="M2" s="28"/>
       <c r="N2" s="28" t="s">
-        <v>1153</v>
+        <v>1190</v>
       </c>
       <c r="O2" s="28">
-        <v>1.24E-3</v>
+        <v>0.1</v>
       </c>
       <c r="P2" s="28">
-        <v>1.24E-3</v>
+        <v>20</v>
       </c>
     </row>
     <row r="3" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A3" s="13" t="s">
-        <v>903</v>
-      </c>
-      <c r="B3" s="15"/>
-      <c r="E3" s="26">
+      <c r="A3" s="28" t="s">
+        <v>1057</v>
+      </c>
+      <c r="B3" s="28">
+        <v>0</v>
+      </c>
+      <c r="C3" s="28">
+        <v>0</v>
+      </c>
+      <c r="D3" s="28"/>
+      <c r="E3" s="28"/>
+      <c r="F3" s="28">
+        <v>-8</v>
+      </c>
+      <c r="G3" s="28">
+        <v>20</v>
+      </c>
+      <c r="H3" s="1" t="s">
+        <v>1205</v>
+      </c>
+      <c r="I3" s="28"/>
+      <c r="J3" s="28"/>
+      <c r="K3" s="28"/>
+      <c r="L3" s="28" t="s">
+        <v>667</v>
+      </c>
+      <c r="M3" s="28"/>
+      <c r="N3" s="28" t="s">
+        <v>1122</v>
+      </c>
+      <c r="O3" s="28">
+        <v>0.1</v>
+      </c>
+      <c r="P3" s="28">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="4" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A4" s="28" t="s">
+        <v>1260</v>
+      </c>
+      <c r="B4" s="28">
+        <v>0</v>
+      </c>
+      <c r="C4" s="28">
+        <v>3000</v>
+      </c>
+      <c r="D4" s="28"/>
+      <c r="E4" s="28"/>
+      <c r="F4" s="28">
+        <v>-8</v>
+      </c>
+      <c r="G4" s="28">
+        <v>20</v>
+      </c>
+      <c r="H4" s="28" t="s">
+        <v>1187</v>
+      </c>
+      <c r="I4" s="28"/>
+      <c r="J4" s="28"/>
+      <c r="K4" s="28"/>
+      <c r="L4" s="28" t="s">
+        <v>667</v>
+      </c>
+      <c r="M4" s="28"/>
+      <c r="N4" s="28" t="s">
+        <v>1121</v>
+      </c>
+      <c r="O4" s="28">
+        <v>0.1</v>
+      </c>
+      <c r="P4" s="28">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="5" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A5" s="28" t="s">
+        <v>1261</v>
+      </c>
+      <c r="B5" s="28">
+        <v>0</v>
+      </c>
+      <c r="C5" s="28">
+        <v>3000</v>
+      </c>
+      <c r="D5" s="28"/>
+      <c r="E5" s="28"/>
+      <c r="F5" s="28">
+        <v>-8</v>
+      </c>
+      <c r="G5" s="28">
+        <v>20</v>
+      </c>
+      <c r="H5" s="28" t="s">
+        <v>1188</v>
+      </c>
+      <c r="I5" s="28"/>
+      <c r="J5" s="28"/>
+      <c r="K5" s="28"/>
+      <c r="L5" s="28" t="s">
+        <v>667</v>
+      </c>
+      <c r="M5" s="28"/>
+      <c r="N5" s="28" t="s">
+        <v>1123</v>
+      </c>
+      <c r="O5" s="28">
+        <v>0.1</v>
+      </c>
+      <c r="P5" s="28">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="6" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A6" s="28" t="s">
+        <v>1262</v>
+      </c>
+      <c r="B6" s="28">
+        <v>0</v>
+      </c>
+      <c r="C6" s="28">
+        <v>3000</v>
+      </c>
+      <c r="D6" s="28"/>
+      <c r="E6" s="28"/>
+      <c r="F6" s="28">
+        <v>8</v>
+      </c>
+      <c r="G6" s="28">
+        <v>-40</v>
+      </c>
+      <c r="H6" s="28" t="s">
+        <v>1241</v>
+      </c>
+      <c r="I6" s="28"/>
+      <c r="J6" s="28"/>
+      <c r="K6" s="28"/>
+      <c r="L6" s="28" t="s">
+        <v>667</v>
+      </c>
+      <c r="M6" s="28"/>
+      <c r="N6" s="28" t="s">
+        <v>1125</v>
+      </c>
+      <c r="O6" s="28">
+        <v>0.1</v>
+      </c>
+      <c r="P6" s="28">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="7" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A7" s="28" t="s">
+        <v>1263</v>
+      </c>
+      <c r="B7" s="28">
+        <v>0</v>
+      </c>
+      <c r="C7" s="28">
+        <v>3000</v>
+      </c>
+      <c r="D7" s="28"/>
+      <c r="E7" s="28"/>
+      <c r="F7" s="28">
+        <v>-8</v>
+      </c>
+      <c r="G7" s="28">
+        <v>20</v>
+      </c>
+      <c r="H7" s="28" t="s">
+        <v>1191</v>
+      </c>
+      <c r="I7" s="28"/>
+      <c r="J7" s="28"/>
+      <c r="K7" s="28"/>
+      <c r="L7" s="28" t="s">
+        <v>667</v>
+      </c>
+      <c r="M7" s="28"/>
+      <c r="N7" s="28" t="s">
+        <v>1124</v>
+      </c>
+      <c r="O7" s="28">
+        <v>0.1</v>
+      </c>
+      <c r="P7" s="28">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="8" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A8" s="28" t="s">
+        <v>1264</v>
+      </c>
+      <c r="B8" s="28">
+        <v>0</v>
+      </c>
+      <c r="C8" s="28">
+        <v>3000</v>
+      </c>
+      <c r="D8" s="28">
+        <v>30</v>
+      </c>
+      <c r="E8" s="28"/>
+      <c r="F8" s="28">
+        <v>-8</v>
+      </c>
+      <c r="G8" s="28">
         <v>1</v>
       </c>
-      <c r="F3" s="21">
-        <v>0</v>
-      </c>
-      <c r="G3" s="29">
-        <v>0</v>
-      </c>
-      <c r="H3" s="9" t="s">
-        <v>863</v>
-      </c>
-      <c r="N3" s="28" t="s">
-        <v>1132</v>
-      </c>
-      <c r="O3" s="28">
-        <v>1.24E-3</v>
-      </c>
-      <c r="P3" s="28">
-        <v>1.24E-3</v>
-      </c>
-    </row>
-    <row r="4" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A4" s="12" t="s">
-        <v>904</v>
-      </c>
-      <c r="B4" s="15"/>
-      <c r="E4" s="27">
-        <v>7.1204304242112172E-4</v>
-      </c>
-      <c r="F4" s="19">
-        <v>4.3</v>
-      </c>
-      <c r="G4" s="29">
-        <v>0</v>
-      </c>
-      <c r="H4" s="8" t="s">
-        <v>864</v>
-      </c>
-      <c r="N4" s="28" t="s">
-        <v>1133</v>
-      </c>
-      <c r="O4" s="28">
-        <v>0.01</v>
-      </c>
-      <c r="P4" s="28">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="5" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A5" s="13" t="s">
-        <v>905</v>
-      </c>
-      <c r="B5" s="14"/>
-      <c r="E5" s="26">
-        <v>7.9806279155107629E-2</v>
-      </c>
-      <c r="F5" s="21">
-        <v>1.5</v>
-      </c>
-      <c r="G5" s="29">
-        <v>6.0072000000000001</v>
-      </c>
-      <c r="H5" s="9" t="s">
-        <v>1174</v>
-      </c>
-      <c r="N5" s="28" t="s">
-        <v>1017</v>
-      </c>
-      <c r="O5" s="28">
-        <v>3.5999999999999999E-3</v>
-      </c>
-      <c r="P5" s="28">
-        <v>3.5999999999999999E-3</v>
-      </c>
-    </row>
-    <row r="6" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A6" s="13" t="s">
-        <v>906</v>
-      </c>
-      <c r="B6" s="15"/>
-      <c r="E6" s="26">
-        <v>1.4008610438135416</v>
-      </c>
-      <c r="F6" s="21">
-        <v>-0.2</v>
-      </c>
-      <c r="G6" s="29">
-        <v>6.0072000000000001</v>
-      </c>
-      <c r="H6" s="9" t="s">
-        <v>1175</v>
-      </c>
-      <c r="N6" s="28" t="s">
-        <v>1013</v>
-      </c>
-      <c r="O6" s="28">
-        <v>0</v>
-      </c>
-      <c r="P6" s="28">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="7" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A7" s="12" t="s">
-        <v>907</v>
-      </c>
-      <c r="B7" s="15"/>
-      <c r="E7" s="27">
-        <v>1</v>
-      </c>
-      <c r="F7" s="19">
-        <v>0</v>
-      </c>
-      <c r="G7" s="29">
-        <v>0</v>
-      </c>
-      <c r="H7" s="8" t="s">
-        <v>865</v>
-      </c>
-      <c r="N7" s="28" t="s">
-        <v>1016</v>
-      </c>
-      <c r="O7" s="28">
-        <v>1E-3</v>
-      </c>
-      <c r="P7" s="28">
-        <v>0.01</v>
-      </c>
-    </row>
-    <row r="8" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A8" s="12" t="s">
-        <v>908</v>
-      </c>
-      <c r="B8" s="14"/>
-      <c r="E8" s="27">
-        <v>1.1835797581124567</v>
-      </c>
-      <c r="F8" s="19">
-        <v>-0.1</v>
-      </c>
-      <c r="G8" s="29">
-        <v>0</v>
-      </c>
-      <c r="H8" s="8" t="s">
-        <v>983</v>
-      </c>
-      <c r="N8" s="28" t="s">
-        <v>1015</v>
-      </c>
-      <c r="O8" s="28">
-        <v>0.193</v>
-      </c>
-      <c r="P8" s="28">
-        <v>0.193</v>
-      </c>
+      <c r="H8" s="28" t="s">
+        <v>1117</v>
+      </c>
+      <c r="I8" s="28" t="s">
+        <v>1125</v>
+      </c>
+      <c r="J8" s="1"/>
+      <c r="K8" s="28"/>
+      <c r="L8" s="28" t="s">
+        <v>1077</v>
+      </c>
+      <c r="M8" s="1" t="s">
+        <v>1266</v>
+      </c>
+      <c r="N8" s="28"/>
+      <c r="O8" s="28"/>
+      <c r="P8" s="28"/>
     </row>
     <row r="9" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A9" s="12" t="s">
-        <v>909</v>
-      </c>
-      <c r="B9" s="14"/>
-      <c r="E9" s="27">
-        <v>1189583.4630809485</v>
-      </c>
-      <c r="F9" s="19">
-        <v>-8.3000000000000007</v>
-      </c>
-      <c r="G9" s="29">
-        <v>5.0644</v>
-      </c>
-      <c r="H9" s="8" t="s">
-        <v>866</v>
-      </c>
-      <c r="N9" s="28" t="s">
-        <v>1176</v>
-      </c>
-      <c r="O9" s="28">
-        <v>1E-4</v>
-      </c>
-      <c r="P9" s="28">
-        <v>1E-3</v>
-      </c>
+      <c r="A9" s="28" t="s">
+        <v>1265</v>
+      </c>
+      <c r="B9" s="28">
+        <v>0</v>
+      </c>
+      <c r="C9" s="28">
+        <v>3000</v>
+      </c>
+      <c r="D9" s="28"/>
+      <c r="E9" s="28"/>
+      <c r="F9" s="28">
+        <v>8</v>
+      </c>
+      <c r="G9" s="28">
+        <v>-10</v>
+      </c>
+      <c r="H9" s="28" t="s">
+        <v>1118</v>
+      </c>
+      <c r="J9" s="28"/>
+      <c r="K9" s="28"/>
+      <c r="M9" s="28"/>
+      <c r="N9" s="28"/>
+      <c r="O9" s="28"/>
+      <c r="P9" s="28"/>
     </row>
     <row r="10" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A10" s="12" t="s">
-        <v>910</v>
-      </c>
-      <c r="B10" s="14"/>
-      <c r="E10" s="27">
-        <v>1</v>
-      </c>
-      <c r="F10" s="19">
-        <v>0</v>
-      </c>
-      <c r="G10" s="29">
-        <v>0</v>
-      </c>
-      <c r="H10" s="8" t="s">
-        <v>867</v>
-      </c>
-      <c r="N10" s="28" t="s">
-        <v>1014</v>
-      </c>
-      <c r="O10" s="28">
-        <v>1.07</v>
-      </c>
-      <c r="P10" s="28">
-        <v>1.07</v>
-      </c>
+      <c r="A10" s="28" t="s">
+        <v>1243</v>
+      </c>
+      <c r="B10" s="28">
+        <v>0</v>
+      </c>
+      <c r="C10" s="28">
+        <v>0</v>
+      </c>
+      <c r="D10" s="28"/>
+      <c r="E10" s="28"/>
+      <c r="F10" s="28">
+        <v>-0.5</v>
+      </c>
+      <c r="G10" s="28">
+        <v>5</v>
+      </c>
+      <c r="H10" s="28" t="s">
+        <v>1189</v>
+      </c>
+      <c r="I10" s="28"/>
+      <c r="J10" s="28"/>
+      <c r="K10" s="28"/>
+      <c r="L10" s="28"/>
+      <c r="M10" s="28"/>
+      <c r="N10" s="28"/>
+      <c r="O10" s="28"/>
+      <c r="P10" s="28"/>
     </row>
     <row r="11" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A11" s="13" t="s">
-        <v>911</v>
-      </c>
-      <c r="B11" s="14"/>
-      <c r="E11" s="26">
-        <v>4.0564698450902027E-5</v>
-      </c>
-      <c r="F11" s="21">
-        <v>6</v>
-      </c>
-      <c r="G11" s="29">
-        <v>0</v>
-      </c>
-      <c r="H11" s="9" t="s">
-        <v>1142</v>
-      </c>
-      <c r="N11" s="28" t="s">
-        <v>1036</v>
-      </c>
-      <c r="O11" s="28">
-        <v>0.56200000000000006</v>
-      </c>
-      <c r="P11" s="28">
-        <v>0.56200000000000006</v>
-      </c>
+      <c r="A11" s="28" t="s">
+        <v>1244</v>
+      </c>
+      <c r="B11" s="28">
+        <v>0</v>
+      </c>
+      <c r="C11" s="28">
+        <v>0</v>
+      </c>
+      <c r="D11" s="28"/>
+      <c r="E11" s="28"/>
+      <c r="F11" s="28">
+        <v>-0.5</v>
+      </c>
+      <c r="G11" s="28">
+        <v>0</v>
+      </c>
+      <c r="H11" s="28" t="s">
+        <v>1238</v>
+      </c>
+      <c r="I11" s="28"/>
+      <c r="J11" s="28"/>
+      <c r="K11" s="28"/>
+      <c r="L11" s="28"/>
+      <c r="M11" s="28"/>
+      <c r="N11" s="28"/>
+      <c r="O11" s="28"/>
+      <c r="P11" s="28"/>
     </row>
     <row r="12" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A12" s="12" t="s">
-        <v>912</v>
-      </c>
-      <c r="B12" s="15"/>
-      <c r="E12" s="27">
-        <v>67769.912192357311</v>
-      </c>
-      <c r="F12" s="19">
-        <v>-6.6</v>
-      </c>
-      <c r="G12" s="29">
-        <v>8.39</v>
-      </c>
-      <c r="H12" s="8" t="s">
-        <v>868</v>
-      </c>
-      <c r="N12" s="1" t="s">
-        <v>1035</v>
-      </c>
-      <c r="O12" s="28">
-        <v>0.443</v>
-      </c>
-      <c r="P12" s="28">
-        <v>0.443</v>
-      </c>
+      <c r="A12" s="28" t="s">
+        <v>1235</v>
+      </c>
+      <c r="B12" s="28">
+        <v>0</v>
+      </c>
+      <c r="C12" s="28">
+        <v>0</v>
+      </c>
+      <c r="D12" s="28"/>
+      <c r="E12" s="28"/>
+      <c r="F12" s="28">
+        <v>-0.5</v>
+      </c>
+      <c r="G12" s="28">
+        <v>0.33</v>
+      </c>
+      <c r="H12" s="28" t="s">
+        <v>1242</v>
+      </c>
+      <c r="I12" s="28"/>
+      <c r="J12" s="28"/>
+      <c r="K12" s="28"/>
+      <c r="L12" s="28"/>
+      <c r="M12" s="28"/>
+      <c r="N12" s="28"/>
+      <c r="O12" s="28"/>
+      <c r="P12" s="28"/>
     </row>
     <row r="13" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A13" s="12" t="s">
-        <v>913</v>
-      </c>
-      <c r="B13" s="14"/>
-      <c r="E13" s="27">
-        <v>1.4755810766902159E-5</v>
-      </c>
-      <c r="F13" s="19">
-        <v>6.6</v>
-      </c>
-      <c r="G13" s="29">
-        <v>45.514000000000003</v>
-      </c>
-      <c r="H13" s="8" t="s">
-        <v>982</v>
-      </c>
-      <c r="N13" s="28" t="s">
-        <v>1034</v>
-      </c>
-      <c r="O13" s="28">
-        <v>0.57099999999999995</v>
-      </c>
-      <c r="P13" s="28">
-        <v>0.57099999999999995</v>
-      </c>
+      <c r="A13" s="28" t="s">
+        <v>1201</v>
+      </c>
+      <c r="B13" s="28">
+        <v>0</v>
+      </c>
+      <c r="C13" s="28">
+        <v>0</v>
+      </c>
+      <c r="D13" s="28"/>
+      <c r="E13" s="28"/>
+      <c r="F13" s="28">
+        <v>-0.5</v>
+      </c>
+      <c r="G13" s="28">
+        <v>0</v>
+      </c>
+      <c r="H13" s="28" t="s">
+        <v>1203</v>
+      </c>
+      <c r="I13" s="28"/>
+      <c r="J13" s="28"/>
+      <c r="K13" s="28"/>
+      <c r="L13" s="28"/>
+      <c r="M13" s="28"/>
+      <c r="N13" s="28"/>
+      <c r="O13" s="28"/>
+      <c r="P13" s="28"/>
     </row>
     <row r="14" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A14" s="13" t="s">
-        <v>849</v>
-      </c>
-      <c r="B14" s="14"/>
-      <c r="E14" s="27"/>
-      <c r="F14" s="17"/>
-      <c r="G14" s="29">
-        <v>0.87390000000000001</v>
-      </c>
-      <c r="H14" s="9" t="s">
-        <v>1171</v>
-      </c>
-      <c r="N14" s="28" t="s">
-        <v>1033</v>
-      </c>
-      <c r="O14" s="28">
-        <v>9.6300000000000008</v>
-      </c>
-      <c r="P14" s="28">
-        <v>9.6300000000000008</v>
-      </c>
+      <c r="A14" s="28" t="s">
+        <v>1236</v>
+      </c>
+      <c r="B14" s="28">
+        <v>0</v>
+      </c>
+      <c r="C14" s="28">
+        <v>0</v>
+      </c>
+      <c r="D14" s="28"/>
+      <c r="E14" s="28"/>
+      <c r="F14" s="28">
+        <v>-0.5</v>
+      </c>
+      <c r="G14" s="28">
+        <v>0</v>
+      </c>
+      <c r="H14" s="28" t="s">
+        <v>1237</v>
+      </c>
+      <c r="I14" s="28"/>
+      <c r="J14" s="28"/>
+      <c r="K14" s="28"/>
+      <c r="L14" s="28"/>
+      <c r="M14" s="28"/>
+      <c r="N14" s="28"/>
+      <c r="O14" s="28"/>
+      <c r="P14" s="28"/>
     </row>
     <row r="15" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A15" s="12" t="s">
-        <v>914</v>
-      </c>
-      <c r="B15" s="15"/>
-      <c r="E15" s="27">
-        <v>1</v>
-      </c>
-      <c r="F15" s="19">
-        <v>0</v>
-      </c>
-      <c r="G15" s="29">
-        <v>-22.809799999999999</v>
-      </c>
-      <c r="H15" s="8" t="s">
-        <v>869</v>
-      </c>
-      <c r="N15" s="28" t="s">
-        <v>652</v>
-      </c>
-      <c r="O15" s="28">
-        <v>1E-4</v>
-      </c>
-      <c r="P15" s="28">
-        <v>1</v>
-      </c>
+      <c r="A15" s="28" t="s">
+        <v>1204</v>
+      </c>
+      <c r="B15" s="28">
+        <v>0</v>
+      </c>
+      <c r="C15" s="28">
+        <v>0</v>
+      </c>
+      <c r="D15" s="28"/>
+      <c r="E15" s="28"/>
+      <c r="F15" s="28">
+        <v>0</v>
+      </c>
+      <c r="G15" s="28">
+        <v>0</v>
+      </c>
+      <c r="H15" s="28" t="s">
+        <v>1234</v>
+      </c>
+      <c r="I15" s="28"/>
+      <c r="J15" s="28"/>
+      <c r="K15" s="28"/>
+      <c r="L15" s="28"/>
+      <c r="M15" s="28"/>
+      <c r="N15" s="28"/>
+      <c r="O15" s="28"/>
+      <c r="P15" s="28"/>
     </row>
     <row r="16" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A16" s="12" t="s">
-        <v>629</v>
-      </c>
-      <c r="B16" s="14"/>
-      <c r="E16" s="27">
-        <v>1972365.99167846</v>
-      </c>
-      <c r="F16" s="19">
-        <v>-8.6</v>
-      </c>
-      <c r="G16" s="29">
-        <v>6.0072000000000001</v>
-      </c>
-      <c r="H16" s="8" t="s">
-        <v>1172</v>
-      </c>
-      <c r="N16" s="28" t="s">
-        <v>1032</v>
-      </c>
-      <c r="O16" s="28">
-        <v>1.64E-3</v>
-      </c>
-      <c r="P16" s="28">
-        <v>1.64E-3</v>
-      </c>
+      <c r="A16" t="s">
+        <v>1245</v>
+      </c>
+      <c r="B16">
+        <v>0</v>
+      </c>
+      <c r="C16">
+        <v>0</v>
+      </c>
+      <c r="F16">
+        <v>-0.5</v>
+      </c>
+      <c r="G16">
+        <v>0</v>
+      </c>
+      <c r="H16" t="s">
+        <v>1240</v>
+      </c>
+      <c r="I16" s="28"/>
+      <c r="J16" s="28"/>
+      <c r="K16" s="28"/>
+      <c r="L16" s="28"/>
+      <c r="M16" s="28"/>
+      <c r="N16" s="28"/>
+      <c r="O16" s="28"/>
+      <c r="P16" s="28"/>
     </row>
     <row r="17" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A17" s="12" t="s">
-        <v>915</v>
-      </c>
-      <c r="B17" s="14"/>
-      <c r="E17" s="27">
-        <v>1.6962147614400713E+27</v>
-      </c>
-      <c r="F17" s="19">
-        <v>-37.200000000000003</v>
-      </c>
-      <c r="G17" s="29">
-        <v>43.5989</v>
-      </c>
-      <c r="H17" s="8" t="s">
-        <v>996</v>
-      </c>
-      <c r="N17" s="28" t="s">
-        <v>1037</v>
-      </c>
-      <c r="O17" s="28">
-        <v>1E-4</v>
-      </c>
-      <c r="P17" s="28">
-        <v>1E-3</v>
-      </c>
-    </row>
-    <row r="18" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A18" s="12" t="s">
-        <v>916</v>
-      </c>
-      <c r="B18" s="14"/>
-      <c r="E18" s="27">
-        <v>1</v>
-      </c>
-      <c r="F18" s="19">
-        <v>0</v>
-      </c>
-      <c r="G18" s="29">
-        <v>0</v>
-      </c>
-      <c r="H18" s="8" t="s">
-        <v>1150</v>
-      </c>
-      <c r="N18" s="28" t="s">
-        <v>1038</v>
-      </c>
-      <c r="O18" s="28">
-        <v>0</v>
-      </c>
-      <c r="P18" s="28">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="19" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A19" s="12" t="s">
-        <v>594</v>
-      </c>
-      <c r="B19" s="14"/>
-      <c r="E19" s="27">
-        <v>4.5580361179955871</v>
-      </c>
-      <c r="F19" s="19">
-        <v>-0.9</v>
-      </c>
-      <c r="G19" s="29">
-        <v>14.716100000000001</v>
-      </c>
-      <c r="H19" s="8" t="s">
-        <v>870</v>
-      </c>
-      <c r="N19" s="28" t="s">
-        <v>1039</v>
-      </c>
-      <c r="O19" s="28">
-        <v>1.37</v>
-      </c>
-      <c r="P19" s="28">
-        <v>1.37</v>
-      </c>
-    </row>
-    <row r="20" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A20" s="12" t="s">
-        <v>917</v>
-      </c>
-      <c r="B20" s="14"/>
-      <c r="E20" s="27">
-        <v>1</v>
-      </c>
-      <c r="F20" s="19">
-        <v>0</v>
-      </c>
-      <c r="G20" s="29">
-        <v>0</v>
-      </c>
-      <c r="H20" s="8" t="s">
-        <v>1143</v>
-      </c>
-      <c r="N20" s="28" t="s">
-        <v>1160</v>
-      </c>
-      <c r="O20" s="28">
-        <v>8.9800000000000001E-3</v>
-      </c>
-      <c r="P20" s="28">
-        <v>8.9800000000000001E-3</v>
-      </c>
-    </row>
-    <row r="21" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A21" s="12" t="s">
-        <v>918</v>
-      </c>
-      <c r="B21" s="14"/>
-      <c r="E21" s="27"/>
-      <c r="F21" s="19"/>
-      <c r="G21" s="29">
-        <v>0</v>
-      </c>
-      <c r="H21" s="8" t="s">
-        <v>997</v>
-      </c>
-      <c r="N21" s="28" t="s">
-        <v>1159</v>
-      </c>
-      <c r="O21" s="28">
-        <v>8.9800000000000001E-3</v>
-      </c>
-      <c r="P21" s="28">
-        <v>8.9800000000000001E-3</v>
-      </c>
-    </row>
-    <row r="22" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A22" s="13" t="s">
-        <v>919</v>
-      </c>
-      <c r="B22" s="14"/>
-      <c r="E22" s="27"/>
-      <c r="F22" s="19"/>
-      <c r="G22" s="29">
-        <v>0</v>
-      </c>
-      <c r="H22" s="9" t="s">
-        <v>998</v>
-      </c>
-      <c r="N22" s="28" t="s">
-        <v>1040</v>
-      </c>
-      <c r="O22" s="28">
-        <v>0.126</v>
-      </c>
-      <c r="P22" s="28">
-        <v>0.126</v>
-      </c>
-    </row>
-    <row r="23" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A23" s="12" t="s">
-        <v>920</v>
-      </c>
-      <c r="B23" s="15"/>
-      <c r="E23" s="27"/>
-      <c r="F23" s="19"/>
-      <c r="G23" s="29">
-        <v>0</v>
-      </c>
-      <c r="H23" s="8" t="s">
-        <v>999</v>
-      </c>
-      <c r="N23" s="28" t="s">
-        <v>1041</v>
-      </c>
-      <c r="O23" s="28">
-        <v>1E-3</v>
-      </c>
-      <c r="P23" s="28">
-        <v>0.01</v>
-      </c>
-    </row>
-    <row r="24" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A24" s="12" t="s">
-        <v>921</v>
-      </c>
-      <c r="B24" s="14"/>
-      <c r="E24" s="27"/>
-      <c r="F24" s="19"/>
-      <c r="G24" s="29">
-        <v>22.809799999999999</v>
-      </c>
-      <c r="H24" s="8" t="s">
-        <v>1000</v>
-      </c>
-      <c r="N24" s="28" t="s">
-        <v>1144</v>
-      </c>
-      <c r="O24" s="28">
-        <v>1.66E-2</v>
-      </c>
-      <c r="P24" s="28">
-        <v>1.66E-2</v>
-      </c>
-    </row>
-    <row r="25" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A25" s="12" t="s">
-        <v>922</v>
-      </c>
-      <c r="B25" s="14"/>
-      <c r="E25" s="27"/>
-      <c r="F25" s="19"/>
-      <c r="G25" s="29">
-        <v>0</v>
-      </c>
-      <c r="H25" s="8" t="s">
-        <v>1146</v>
-      </c>
-      <c r="N25" s="28" t="s">
-        <v>1145</v>
-      </c>
-      <c r="O25" s="28">
-        <v>0</v>
-      </c>
-      <c r="P25" s="28">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="26" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A26" s="12" t="s">
-        <v>923</v>
-      </c>
-      <c r="B26" s="14"/>
-      <c r="E26" s="27"/>
-      <c r="F26" s="19"/>
-      <c r="G26" s="29">
-        <v>0</v>
-      </c>
-      <c r="H26" s="8" t="s">
-        <v>1001</v>
-      </c>
-      <c r="N26" s="28" t="s">
-        <v>1042</v>
-      </c>
-      <c r="O26" s="28">
-        <v>4.3900000000000002E-2</v>
-      </c>
-      <c r="P26" s="28">
-        <v>4.3900000000000002E-2</v>
-      </c>
-    </row>
-    <row r="27" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A27" s="13" t="s">
-        <v>924</v>
-      </c>
-      <c r="B27" s="14"/>
-      <c r="E27" s="27"/>
-      <c r="F27" s="19"/>
-      <c r="G27" s="29">
-        <v>0</v>
-      </c>
-      <c r="H27" s="9" t="s">
-        <v>1002</v>
-      </c>
-      <c r="N27" s="28" t="s">
-        <v>1136</v>
-      </c>
-      <c r="O27" s="28">
-        <v>2.5899999999999999E-2</v>
-      </c>
-      <c r="P27" s="28">
-        <v>2.5899999999999999E-2</v>
-      </c>
-    </row>
-    <row r="28" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A28" s="12" t="s">
-        <v>925</v>
-      </c>
-      <c r="B28" s="15"/>
-      <c r="E28" s="27"/>
-      <c r="F28" s="19"/>
-      <c r="G28" s="29">
-        <v>0</v>
-      </c>
-      <c r="H28" s="8" t="s">
-        <v>1003</v>
-      </c>
-      <c r="N28" s="28" t="s">
-        <v>1043</v>
-      </c>
-      <c r="O28" s="28">
-        <v>1E-3</v>
-      </c>
-      <c r="P28" s="28">
-        <v>0.01</v>
-      </c>
-    </row>
-    <row r="29" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A29" s="12" t="s">
-        <v>926</v>
-      </c>
-      <c r="B29" s="14"/>
-      <c r="E29" s="27"/>
-      <c r="F29" s="19"/>
-      <c r="G29" s="29">
-        <v>-10</v>
-      </c>
-      <c r="H29" s="8" t="s">
-        <v>1156</v>
-      </c>
-      <c r="N29" s="28" t="s">
-        <v>1044</v>
-      </c>
-      <c r="O29" s="28">
-        <v>0</v>
-      </c>
-      <c r="P29" s="28">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="30" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A30" s="12" t="s">
-        <v>927</v>
-      </c>
-      <c r="B30" s="14"/>
-      <c r="E30" s="27"/>
-      <c r="F30" s="19"/>
-      <c r="G30" s="29">
-        <v>0</v>
-      </c>
-      <c r="H30" s="8" t="s">
-        <v>1004</v>
-      </c>
-      <c r="N30" s="28" t="s">
-        <v>1045</v>
-      </c>
-      <c r="O30" s="28">
-        <v>5.7000000000000002E-2</v>
-      </c>
-      <c r="P30" s="28">
-        <v>5.7000000000000002E-2</v>
-      </c>
-    </row>
-    <row r="31" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A31" s="12" t="s">
-        <v>928</v>
-      </c>
-      <c r="B31" s="14"/>
-      <c r="E31" s="27"/>
-      <c r="F31" s="19"/>
-      <c r="G31" s="29">
-        <v>0</v>
-      </c>
-      <c r="H31" s="8" t="s">
-        <v>1005</v>
-      </c>
-      <c r="N31" s="28" t="s">
-        <v>1135</v>
-      </c>
-      <c r="O31" s="28">
-        <v>1E-3</v>
-      </c>
-      <c r="P31" s="28">
-        <v>0.1</v>
-      </c>
-    </row>
-    <row r="32" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A32" s="12" t="s">
-        <v>929</v>
-      </c>
-      <c r="B32" s="14"/>
-      <c r="E32" s="27"/>
-      <c r="F32" s="19"/>
-      <c r="G32" s="29">
-        <v>17.530899999999999</v>
-      </c>
-      <c r="H32" s="8" t="s">
-        <v>1006</v>
-      </c>
-      <c r="N32" s="28" t="s">
-        <v>1046</v>
-      </c>
-      <c r="O32" s="28">
-        <v>0.18099999999999999</v>
-      </c>
-      <c r="P32" s="28">
-        <v>0.18099999999999999</v>
-      </c>
-    </row>
-    <row r="33" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A33" s="12" t="s">
-        <v>930</v>
-      </c>
-      <c r="B33" s="14"/>
-      <c r="E33" s="27"/>
-      <c r="F33" s="19"/>
-      <c r="G33" s="29">
-        <v>29.175799999999999</v>
-      </c>
-      <c r="H33" s="8" t="s">
-        <v>1007</v>
-      </c>
-      <c r="N33" s="28" t="s">
-        <v>1157</v>
-      </c>
-      <c r="O33" s="28">
-        <v>1</v>
-      </c>
-      <c r="P33" s="28">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="34" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A34" s="13" t="s">
-        <v>931</v>
-      </c>
-      <c r="B34" s="14"/>
-      <c r="E34" s="27"/>
-      <c r="F34" s="19"/>
-      <c r="G34" s="29">
-        <v>0</v>
-      </c>
-      <c r="H34" s="8" t="s">
-        <v>1151</v>
-      </c>
-      <c r="N34" s="28" t="s">
-        <v>1137</v>
-      </c>
-      <c r="O34" s="28">
-        <v>1E-4</v>
-      </c>
-      <c r="P34" s="28">
-        <v>1E-3</v>
-      </c>
-    </row>
-    <row r="35" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A35" s="13" t="s">
-        <v>932</v>
-      </c>
-      <c r="B35" s="15"/>
-      <c r="E35" s="27"/>
-      <c r="F35" s="19"/>
-      <c r="G35" s="29">
-        <v>0</v>
-      </c>
-      <c r="H35" s="9" t="s">
-        <v>1184</v>
-      </c>
-      <c r="N35" s="28" t="s">
-        <v>1047</v>
-      </c>
-      <c r="O35" s="28">
-        <v>1</v>
-      </c>
-      <c r="P35" s="28">
-        <v>0.01</v>
-      </c>
-    </row>
-    <row r="36" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A36" s="12" t="s">
-        <v>933</v>
-      </c>
-      <c r="B36" s="15"/>
-      <c r="E36" s="27"/>
-      <c r="F36" s="19"/>
-      <c r="G36" s="29">
-        <v>-4.7652999999999999</v>
-      </c>
-      <c r="H36" s="8" t="s">
-        <v>1008</v>
-      </c>
-      <c r="N36" s="28" t="s">
-        <v>1031</v>
-      </c>
-      <c r="O36" s="28">
-        <v>1.64E-3</v>
-      </c>
-      <c r="P36" s="28">
-        <v>1.64E-3</v>
-      </c>
-    </row>
-    <row r="37" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A37" s="12" t="s">
-        <v>934</v>
-      </c>
-      <c r="B37" s="14"/>
-      <c r="E37" s="27"/>
-      <c r="F37" s="19"/>
-      <c r="G37" s="29">
-        <v>-21.799499999999998</v>
-      </c>
-      <c r="H37" s="8" t="s">
-        <v>1009</v>
-      </c>
-      <c r="N37" s="28" t="s">
-        <v>1147</v>
-      </c>
-      <c r="O37" s="28">
-        <v>1E-4</v>
-      </c>
-      <c r="P37" s="28">
-        <v>0.01</v>
-      </c>
-    </row>
-    <row r="38" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A38" s="12" t="s">
-        <v>935</v>
-      </c>
-      <c r="B38" s="14"/>
-      <c r="E38" s="27"/>
-      <c r="F38" s="19"/>
-      <c r="G38" s="29">
-        <v>-3.2149000000000001</v>
-      </c>
-      <c r="H38" s="8" t="s">
-        <v>1010</v>
-      </c>
-      <c r="N38" s="28" t="s">
-        <v>1148</v>
-      </c>
-      <c r="O38" s="28">
-        <v>0</v>
-      </c>
-      <c r="P38" s="28">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="39" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A39" s="12" t="s">
-        <v>936</v>
-      </c>
-      <c r="B39" s="14"/>
-      <c r="E39" s="27"/>
-      <c r="F39" s="19"/>
-      <c r="G39" s="29">
-        <v>0</v>
-      </c>
-      <c r="H39" s="8" t="s">
-        <v>1012</v>
-      </c>
-      <c r="N39" s="28" t="s">
-        <v>1177</v>
-      </c>
-      <c r="O39" s="28">
-        <v>6.8599999999999994E-2</v>
-      </c>
-      <c r="P39" s="28">
-        <v>6.8599999999999994E-2</v>
-      </c>
-    </row>
-    <row r="40" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A40" s="12" t="s">
-        <v>937</v>
-      </c>
-      <c r="B40" s="14"/>
-      <c r="E40" s="27"/>
-      <c r="F40" s="19"/>
-      <c r="G40" s="29">
-        <v>0</v>
-      </c>
-      <c r="H40" s="8" t="s">
-        <v>1011</v>
-      </c>
-      <c r="N40" s="28" t="s">
-        <v>1029</v>
-      </c>
-      <c r="O40" s="28">
-        <v>5.3499999999999997E-3</v>
-      </c>
-      <c r="P40" s="28">
-        <v>5.3499999999999997E-3</v>
-      </c>
-    </row>
-    <row r="41" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A41" s="12" t="s">
-        <v>589</v>
-      </c>
-      <c r="B41" s="14"/>
-      <c r="E41" s="27">
-        <v>8.4275973191444799E-4</v>
-      </c>
-      <c r="F41" s="19">
-        <v>4.2</v>
-      </c>
-      <c r="G41" s="29">
-        <v>7.4774000000000003</v>
-      </c>
-      <c r="H41" s="8" t="s">
-        <v>871</v>
-      </c>
-      <c r="N41" s="28" t="s">
-        <v>1028</v>
-      </c>
-      <c r="O41" s="28">
-        <v>0.47299999999999998</v>
-      </c>
-      <c r="P41" s="28">
-        <v>0.47299999999999998</v>
-      </c>
-    </row>
-    <row r="42" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A42" s="12" t="s">
-        <v>588</v>
-      </c>
-      <c r="B42" s="14"/>
-      <c r="E42" s="27">
-        <v>112.08069512728699</v>
-      </c>
-      <c r="F42" s="19">
-        <v>-7</v>
-      </c>
-      <c r="G42" s="29">
-        <v>0</v>
-      </c>
-      <c r="H42" s="8" t="s">
-        <v>872</v>
-      </c>
-      <c r="N42" s="28" t="s">
-        <v>1027</v>
-      </c>
-      <c r="O42" s="28">
-        <v>2.0799999999999998E-3</v>
-      </c>
-      <c r="P42" s="28">
-        <v>2.0799999999999998E-3</v>
-      </c>
-    </row>
-    <row r="43" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A43" s="13" t="s">
-        <v>938</v>
-      </c>
-      <c r="B43" s="14"/>
-      <c r="E43" s="26">
-        <v>1</v>
-      </c>
-      <c r="F43" s="21">
-        <v>0</v>
-      </c>
-      <c r="G43" s="29">
-        <v>0</v>
-      </c>
-      <c r="H43" s="9" t="s">
-        <v>873</v>
-      </c>
-      <c r="N43" s="28" t="s">
-        <v>1026</v>
-      </c>
-      <c r="O43" s="28">
-        <v>0.121</v>
-      </c>
-      <c r="P43" s="28">
-        <v>0.121</v>
-      </c>
-    </row>
-    <row r="44" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A44" s="13" t="s">
-        <v>939</v>
-      </c>
-      <c r="B44" s="15"/>
-      <c r="E44" s="26">
-        <v>1</v>
-      </c>
-      <c r="F44" s="21">
-        <v>0</v>
-      </c>
-      <c r="G44" s="29">
-        <v>0</v>
-      </c>
-      <c r="H44" s="9" t="s">
-        <v>874</v>
-      </c>
-      <c r="N44" s="28" t="s">
-        <v>1139</v>
-      </c>
-      <c r="O44" s="28">
-        <v>1E-4</v>
-      </c>
-      <c r="P44" s="28">
-        <v>1E-3</v>
-      </c>
-    </row>
-    <row r="45" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A45" s="13" t="s">
-        <v>940</v>
-      </c>
-      <c r="B45" s="15"/>
-      <c r="E45" s="25">
-        <v>4.8011555980423353E-5</v>
-      </c>
-      <c r="F45" s="20">
-        <v>5.9</v>
-      </c>
-      <c r="G45" s="29">
-        <v>0</v>
-      </c>
-      <c r="H45" s="9" t="s">
-        <v>875</v>
-      </c>
-      <c r="N45" s="28" t="s">
-        <v>1140</v>
-      </c>
-      <c r="O45" s="28">
-        <v>1E-4</v>
-      </c>
-      <c r="P45" s="28">
-        <v>1E-3</v>
-      </c>
-    </row>
-    <row r="46" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A46" s="13" t="s">
-        <v>941</v>
-      </c>
-      <c r="B46" s="15"/>
-      <c r="E46" s="26">
-        <v>4581156.7432856048</v>
-      </c>
-      <c r="F46" s="21">
-        <v>-9.1</v>
-      </c>
-      <c r="G46" s="29">
-        <v>0</v>
-      </c>
-      <c r="H46" s="9" t="s">
-        <v>876</v>
-      </c>
-      <c r="N46" s="28" t="s">
-        <v>1025</v>
-      </c>
-      <c r="O46" s="28">
-        <v>1E-3</v>
-      </c>
-      <c r="P46" s="28">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="47" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A47" s="12" t="s">
-        <v>704</v>
-      </c>
-      <c r="B47" s="15"/>
-      <c r="E47" s="27">
-        <v>2.7490660521270844</v>
-      </c>
-      <c r="F47" s="19">
-        <v>-0.6</v>
-      </c>
-      <c r="G47" s="29">
-        <v>5.0644</v>
-      </c>
-      <c r="H47" s="8" t="s">
-        <v>1178</v>
-      </c>
-      <c r="N47" s="28" t="s">
-        <v>1173</v>
-      </c>
-      <c r="O47" s="28">
-        <v>1E-4</v>
-      </c>
-      <c r="P47" s="28">
-        <v>0.01</v>
-      </c>
-    </row>
-    <row r="48" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A48" s="12" t="s">
-        <v>942</v>
-      </c>
-      <c r="B48" s="14"/>
-      <c r="E48" s="27">
-        <v>1</v>
-      </c>
-      <c r="F48" s="19">
-        <v>0</v>
-      </c>
-      <c r="G48" s="29">
-        <v>0</v>
-      </c>
-      <c r="H48" s="8" t="s">
-        <v>981</v>
-      </c>
-      <c r="N48" s="28" t="s">
-        <v>1024</v>
-      </c>
-      <c r="O48" s="28">
-        <v>0.184</v>
-      </c>
-      <c r="P48" s="28">
-        <v>0.184</v>
-      </c>
-    </row>
-    <row r="49" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A49" s="12" t="s">
-        <v>943</v>
-      </c>
-      <c r="B49" s="14"/>
-      <c r="E49" s="27">
-        <v>1.1835797581124567</v>
-      </c>
-      <c r="F49" s="19">
-        <v>-0.1</v>
-      </c>
-      <c r="G49" s="29">
-        <v>16.023499999999999</v>
-      </c>
-      <c r="H49" s="8" t="s">
-        <v>1154</v>
-      </c>
-      <c r="N49" s="28" t="s">
-        <v>1138</v>
-      </c>
-      <c r="O49" s="28">
-        <v>1E-4</v>
-      </c>
-      <c r="P49" s="28">
-        <v>0.01</v>
-      </c>
-    </row>
-    <row r="50" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A50" s="12" t="s">
-        <v>944</v>
-      </c>
-      <c r="B50" s="14"/>
-      <c r="E50" s="27">
-        <v>4581156.7432856048</v>
-      </c>
-      <c r="F50" s="19">
-        <v>-9.1</v>
-      </c>
-      <c r="G50" s="29">
-        <v>10</v>
-      </c>
-      <c r="H50" s="8" t="s">
-        <v>1155</v>
-      </c>
-      <c r="N50" s="28" t="s">
-        <v>1023</v>
-      </c>
-      <c r="O50" s="28">
-        <v>0.128</v>
-      </c>
-      <c r="P50" s="28">
-        <v>0.128</v>
-      </c>
-    </row>
-    <row r="51" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A51" s="12" t="s">
-        <v>946</v>
-      </c>
-      <c r="B51" s="14"/>
-      <c r="E51" s="27">
-        <v>67769.912192357311</v>
-      </c>
-      <c r="F51" s="19">
-        <v>-6.6</v>
-      </c>
-      <c r="G51" s="29">
-        <v>0</v>
-      </c>
-      <c r="H51" s="8" t="s">
-        <v>878</v>
-      </c>
-      <c r="N51" s="28" t="s">
-        <v>1022</v>
-      </c>
-      <c r="O51" s="28">
-        <v>3.6200000000000003E-2</v>
-      </c>
-      <c r="P51" s="28">
-        <v>3.6200000000000003E-2</v>
-      </c>
-    </row>
-    <row r="52" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A52" s="12" t="s">
-        <v>945</v>
-      </c>
-      <c r="B52" s="14"/>
-      <c r="E52" s="27">
-        <v>17.553268472658598</v>
-      </c>
-      <c r="F52" s="19">
-        <v>-1.7</v>
-      </c>
-      <c r="G52" s="29">
-        <v>0.2235</v>
-      </c>
-      <c r="H52" s="8" t="s">
-        <v>877</v>
-      </c>
-      <c r="N52" s="28" t="s">
-        <v>1164</v>
-      </c>
-      <c r="O52" s="28">
-        <v>0.128</v>
-      </c>
-      <c r="P52" s="28">
-        <v>0.128</v>
-      </c>
-    </row>
-    <row r="53" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A53" s="12" t="s">
-        <v>947</v>
-      </c>
-      <c r="B53" s="14"/>
-      <c r="E53" s="27">
-        <v>1.558223645776738E-7</v>
-      </c>
-      <c r="F53" s="19">
-        <v>9.3000000000000007</v>
-      </c>
-      <c r="G53" s="29">
-        <v>-4.5419</v>
-      </c>
-      <c r="H53" s="8" t="s">
-        <v>879</v>
-      </c>
-      <c r="N53" s="28" t="s">
-        <v>1021</v>
-      </c>
-      <c r="O53" s="28">
-        <v>0.22</v>
-      </c>
-      <c r="P53" s="28">
-        <v>0.22</v>
-      </c>
-    </row>
-    <row r="54" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A54" s="12" t="s">
-        <v>948</v>
-      </c>
-      <c r="B54" s="14"/>
-      <c r="E54" s="27">
-        <v>3860.8144288294484</v>
-      </c>
-      <c r="F54" s="19">
-        <v>-4.9000000000000004</v>
-      </c>
-      <c r="G54" s="29">
-        <v>0</v>
-      </c>
-      <c r="H54" s="8" t="s">
-        <v>880</v>
-      </c>
-      <c r="N54" s="28" t="s">
-        <v>1019</v>
-      </c>
-      <c r="O54" s="28">
-        <v>6.9500000000000006E-2</v>
-      </c>
-      <c r="P54" s="28">
-        <v>6.9500000000000006E-2</v>
-      </c>
-    </row>
-    <row r="55" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A55" s="12" t="s">
-        <v>949</v>
-      </c>
-      <c r="B55" s="14"/>
-      <c r="E55" s="27">
-        <v>24777023755.822395</v>
-      </c>
-      <c r="F55" s="19">
-        <v>-14.2</v>
-      </c>
-      <c r="G55" s="29">
-        <v>0</v>
-      </c>
-      <c r="H55" s="8" t="s">
-        <v>977</v>
-      </c>
-      <c r="N55" s="28" t="s">
-        <v>1018</v>
-      </c>
-      <c r="O55" s="28">
-        <v>0</v>
-      </c>
-      <c r="P55" s="28">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="56" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A56" s="12" t="s">
-        <v>950</v>
-      </c>
-      <c r="B56" s="14"/>
-      <c r="E56" s="27">
-        <v>1</v>
-      </c>
-      <c r="F56" s="19">
-        <v>0</v>
-      </c>
-      <c r="G56" s="29">
-        <v>0</v>
-      </c>
-      <c r="H56" s="8" t="s">
-        <v>881</v>
-      </c>
-      <c r="N56" s="28" t="s">
-        <v>1020</v>
-      </c>
-      <c r="O56" s="28">
-        <v>0.23300000000000001</v>
-      </c>
-      <c r="P56" s="28">
-        <v>0.23300000000000001</v>
-      </c>
-    </row>
-    <row r="57" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A57" s="12" t="s">
-        <v>951</v>
-      </c>
-      <c r="B57" s="14"/>
-      <c r="E57" s="27">
-        <v>0.2193927327718837</v>
-      </c>
-      <c r="F57" s="19">
-        <v>0.9</v>
-      </c>
-      <c r="G57" s="29">
-        <v>4.96</v>
-      </c>
-      <c r="H57" s="8" t="s">
-        <v>1162</v>
-      </c>
-      <c r="N57" s="28" t="s">
-        <v>1168</v>
-      </c>
-      <c r="O57" s="28">
-        <v>9.1800000000000007E-2</v>
-      </c>
-      <c r="P57" s="28">
-        <v>9.1800000000000007E-2</v>
-      </c>
-    </row>
-    <row r="58" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A58" s="12" t="s">
-        <v>952</v>
-      </c>
-      <c r="B58" s="14"/>
-      <c r="E58" s="27">
-        <v>1</v>
-      </c>
-      <c r="F58" s="19">
-        <v>0</v>
-      </c>
-      <c r="G58" s="29">
-        <v>-29.175799999999999</v>
-      </c>
-      <c r="H58" s="8" t="s">
-        <v>882</v>
-      </c>
-      <c r="N58" s="28" t="s">
-        <v>1185</v>
-      </c>
-      <c r="O58" s="28">
-        <v>0</v>
-      </c>
-      <c r="P58" s="28">
-        <v>1E-3</v>
-      </c>
-    </row>
-    <row r="59" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A59" s="12" t="s">
-        <v>953</v>
-      </c>
-      <c r="B59" s="14"/>
-      <c r="E59" s="27">
-        <v>3.2455179049229346E-3</v>
-      </c>
-      <c r="F59" s="19">
-        <v>3.4</v>
-      </c>
-      <c r="G59" s="29">
-        <v>6.0072000000000001</v>
-      </c>
-      <c r="H59" s="8" t="s">
-        <v>883</v>
-      </c>
-      <c r="N59" s="28" t="s">
-        <v>1186</v>
-      </c>
-      <c r="O59" s="28">
-        <v>0</v>
-      </c>
-      <c r="P59" s="28">
-        <v>1E-3</v>
-      </c>
-    </row>
-    <row r="60" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A60" s="12" t="s">
-        <v>636</v>
-      </c>
-      <c r="B60" s="14"/>
-      <c r="E60" s="27">
-        <v>2.5901270792317975E-4</v>
-      </c>
-      <c r="F60" s="19">
-        <v>4.9000000000000004</v>
-      </c>
-      <c r="G60" s="29">
-        <v>0</v>
-      </c>
-      <c r="H60" s="8" t="s">
-        <v>884</v>
-      </c>
-      <c r="N60" s="28" t="s">
-        <v>1192</v>
-      </c>
-      <c r="O60" s="28">
-        <v>0</v>
-      </c>
-      <c r="P60" s="28">
-        <v>1E-3</v>
-      </c>
-    </row>
-    <row r="61" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A61" s="12" t="s">
-        <v>954</v>
-      </c>
-      <c r="B61" s="14"/>
-      <c r="E61" s="27">
-        <v>2.0670840473237604E-5</v>
-      </c>
-      <c r="F61" s="19">
-        <v>6.4</v>
-      </c>
-      <c r="G61" s="29">
-        <v>0</v>
-      </c>
-      <c r="H61" s="8" t="s">
-        <v>1149</v>
-      </c>
-      <c r="N61" s="28" t="s">
-        <v>1193</v>
-      </c>
-      <c r="O61" s="28">
-        <v>0</v>
-      </c>
-      <c r="P61" s="28">
-        <v>1E-3</v>
-      </c>
-    </row>
-    <row r="62" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A62" s="12" t="s">
-        <v>955</v>
-      </c>
-      <c r="B62" s="14"/>
-      <c r="E62" s="27">
-        <v>2334452.463340031</v>
-      </c>
-      <c r="F62" s="19">
-        <v>-8.6999999999999993</v>
-      </c>
-      <c r="G62" s="29">
-        <v>0</v>
-      </c>
-      <c r="H62" s="8" t="s">
-        <v>1179</v>
-      </c>
-    </row>
-    <row r="63" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A63" s="29" t="s">
-        <v>956</v>
-      </c>
-      <c r="B63" s="14"/>
-      <c r="E63" s="26">
-        <v>1</v>
-      </c>
-      <c r="F63" s="21">
-        <v>0</v>
-      </c>
-      <c r="G63" s="29">
-        <v>0</v>
-      </c>
-      <c r="H63" s="29" t="s">
-        <v>1180</v>
-      </c>
-    </row>
-    <row r="64" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A64" s="14" t="s">
-        <v>622</v>
-      </c>
-      <c r="B64" s="29"/>
-      <c r="E64" s="31">
-        <v>2.0670840473237604E-5</v>
-      </c>
-      <c r="F64" s="23">
-        <v>6.4</v>
-      </c>
-      <c r="G64" s="29">
-        <v>5.0644</v>
-      </c>
-      <c r="H64" s="14" t="s">
-        <v>1181</v>
-      </c>
-    </row>
-    <row r="65" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A65" s="12" t="s">
-        <v>957</v>
-      </c>
-      <c r="B65" s="14"/>
-      <c r="E65" s="27">
-        <v>0.11179750752009893</v>
-      </c>
-      <c r="F65" s="19">
-        <v>1.3</v>
-      </c>
-      <c r="G65" s="29">
-        <v>0</v>
-      </c>
-      <c r="H65" s="8" t="s">
-        <v>1182</v>
-      </c>
-    </row>
-    <row r="66" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A66" s="12" t="s">
-        <v>958</v>
-      </c>
-      <c r="B66" s="14"/>
-      <c r="E66" s="27">
-        <v>6.7427884439643204E-2</v>
-      </c>
-      <c r="F66" s="19">
-        <v>1.6</v>
-      </c>
-      <c r="G66" s="29">
-        <v>0</v>
-      </c>
-      <c r="H66" s="8" t="s">
-        <v>1183</v>
-      </c>
-    </row>
-    <row r="67" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A67" s="29" t="s">
-        <v>959</v>
-      </c>
-      <c r="B67" s="14"/>
-      <c r="E67" s="26">
-        <v>5449668303594.3379</v>
-      </c>
-      <c r="F67" s="21">
-        <v>-17.399999999999999</v>
-      </c>
-      <c r="G67" s="29">
-        <v>38.534599999999998</v>
-      </c>
-      <c r="H67" s="29" t="s">
-        <v>984</v>
-      </c>
-    </row>
-    <row r="68" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A68" s="14" t="s">
-        <v>960</v>
-      </c>
-      <c r="B68" s="29"/>
-      <c r="E68" s="31">
-        <v>1.6580307753859953</v>
-      </c>
-      <c r="F68" s="23">
-        <v>-0.3</v>
-      </c>
-      <c r="G68" s="29">
-        <v>0</v>
-      </c>
-      <c r="H68" s="14" t="s">
-        <v>885</v>
-      </c>
-    </row>
-    <row r="69" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A69" s="12" t="s">
-        <v>961</v>
-      </c>
-      <c r="B69" s="14"/>
-      <c r="E69" s="27">
-        <v>1</v>
-      </c>
-      <c r="F69" s="19">
-        <v>0</v>
-      </c>
-      <c r="G69" s="29">
-        <v>4.7652999999999999</v>
-      </c>
-      <c r="H69" s="8" t="s">
-        <v>886</v>
-      </c>
-    </row>
-    <row r="70" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A70" s="12" t="s">
-        <v>962</v>
-      </c>
-      <c r="B70" s="14"/>
-      <c r="E70" s="27">
-        <v>1</v>
-      </c>
-      <c r="F70" s="19">
-        <v>0</v>
-      </c>
-      <c r="G70" s="29">
-        <v>21.799499999999998</v>
-      </c>
-      <c r="H70" s="8" t="s">
-        <v>887</v>
-      </c>
-    </row>
-    <row r="71" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A71" s="12" t="s">
-        <v>528</v>
-      </c>
-      <c r="B71" s="14"/>
-      <c r="E71" s="27">
-        <v>1189583.4630809485</v>
-      </c>
-      <c r="F71" s="19">
-        <v>-8.3000000000000007</v>
-      </c>
-      <c r="G71" s="29">
-        <v>9.2825000000000006</v>
-      </c>
-      <c r="H71" s="8" t="s">
-        <v>888</v>
-      </c>
-    </row>
-    <row r="72" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A72" s="12" t="s">
-        <v>590</v>
-      </c>
-      <c r="B72" s="14"/>
-      <c r="E72" s="27">
-        <v>604.65285404763836</v>
-      </c>
-      <c r="F72" s="19">
-        <v>-3.8</v>
-      </c>
-      <c r="G72" s="29">
-        <v>7.4774000000000003</v>
-      </c>
-      <c r="H72" s="8" t="s">
-        <v>889</v>
-      </c>
-    </row>
-    <row r="73" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A73" s="12" t="s">
-        <v>598</v>
-      </c>
-      <c r="B73" s="14"/>
-      <c r="E73" s="27">
-        <v>5408.4645307404089</v>
-      </c>
-      <c r="F73" s="19">
-        <v>-5.0999999999999996</v>
-      </c>
-      <c r="G73" s="29">
-        <v>0</v>
-      </c>
-      <c r="H73" s="8" t="s">
-        <v>890</v>
-      </c>
-    </row>
-    <row r="74" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A74" s="12" t="s">
-        <v>587</v>
-      </c>
-      <c r="B74" s="14"/>
-      <c r="E74" s="27">
-        <v>3.8510595392951203</v>
-      </c>
-      <c r="F74" s="19">
-        <v>-0.8</v>
-      </c>
-      <c r="G74" s="29">
-        <v>4.8609</v>
-      </c>
-      <c r="H74" s="8" t="s">
-        <v>891</v>
-      </c>
-    </row>
-    <row r="75" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A75" s="12" t="s">
-        <v>593</v>
-      </c>
-      <c r="B75" s="14"/>
-      <c r="E75" s="27">
-        <v>8.9221430939942625E-3</v>
-      </c>
-      <c r="F75" s="19">
-        <v>2.8</v>
-      </c>
-      <c r="G75" s="29">
-        <v>-16.023499999999999</v>
-      </c>
-      <c r="H75" s="8" t="s">
-        <v>1152</v>
-      </c>
-    </row>
-    <row r="76" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A76" s="12" t="s">
-        <v>963</v>
-      </c>
-      <c r="B76" s="14"/>
-      <c r="E76" s="27">
-        <v>5408.4645307404089</v>
-      </c>
-      <c r="F76" s="19">
-        <v>-5.0999999999999996</v>
-      </c>
-      <c r="G76" s="29">
-        <v>4.96</v>
-      </c>
-      <c r="H76" s="8" t="s">
-        <v>1161</v>
-      </c>
-    </row>
-    <row r="77" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A77" s="12" t="s">
-        <v>615</v>
-      </c>
-      <c r="B77" s="14"/>
-      <c r="E77" s="27">
-        <v>1</v>
-      </c>
-      <c r="F77" s="19">
-        <v>0</v>
-      </c>
-      <c r="G77" s="29">
-        <v>-14.716100000000001</v>
-      </c>
-      <c r="H77" s="8" t="s">
-        <v>892</v>
-      </c>
-    </row>
-    <row r="78" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A78" s="12" t="s">
-        <v>964</v>
-      </c>
-      <c r="B78" s="14"/>
-      <c r="E78" s="27">
-        <v>1</v>
-      </c>
-      <c r="F78" s="19">
-        <v>0</v>
-      </c>
-      <c r="G78" s="29">
-        <v>3.2149000000000001</v>
-      </c>
-      <c r="H78" s="8" t="s">
-        <v>893</v>
-      </c>
-    </row>
-    <row r="79" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A79" s="12" t="s">
-        <v>607</v>
-      </c>
-      <c r="B79" s="14"/>
-      <c r="E79" s="27">
-        <v>94936.229932937829</v>
-      </c>
-      <c r="F79" s="19">
-        <v>-6.8</v>
-      </c>
-      <c r="G79" s="29">
-        <v>2.5043000000000002</v>
-      </c>
-      <c r="H79" s="8" t="s">
-        <v>1169</v>
-      </c>
-    </row>
-    <row r="80" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A80" s="12" t="s">
-        <v>965</v>
-      </c>
-      <c r="B80" s="14"/>
-      <c r="E80" s="27">
-        <v>0.71384667623971898</v>
-      </c>
-      <c r="F80" s="19">
-        <v>0.2</v>
-      </c>
-      <c r="G80" s="29">
-        <v>0</v>
-      </c>
-      <c r="H80" s="8" t="s">
-        <v>1170</v>
-      </c>
-    </row>
-    <row r="81" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A81" s="12" t="s">
-        <v>597</v>
-      </c>
-      <c r="B81" s="14"/>
-      <c r="E81" s="27">
-        <v>7.5573641589575944</v>
-      </c>
-      <c r="F81" s="19">
-        <v>-1.2</v>
-      </c>
-      <c r="G81" s="29">
-        <v>0</v>
-      </c>
-      <c r="H81" s="8" t="s">
-        <v>978</v>
-      </c>
-    </row>
-    <row r="82" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A82" s="12" t="s">
-        <v>966</v>
-      </c>
-      <c r="B82" s="14"/>
-      <c r="E82" s="27">
-        <v>1.6538415279210997E-3</v>
-      </c>
-      <c r="F82" s="19">
-        <v>3.8</v>
-      </c>
-      <c r="G82" s="29">
-        <v>0</v>
-      </c>
-      <c r="H82" s="8" t="s">
-        <v>894</v>
-      </c>
-    </row>
-    <row r="83" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A83" s="12" t="s">
-        <v>595</v>
-      </c>
-      <c r="B83" s="14"/>
-      <c r="E83" s="27">
-        <v>7576.5072679615205</v>
-      </c>
-      <c r="F83" s="19">
-        <v>-5.3</v>
-      </c>
-      <c r="G83" s="29">
-        <v>1.7582</v>
-      </c>
-      <c r="H83" s="8" t="s">
-        <v>895</v>
-      </c>
-    </row>
-    <row r="84" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A84" s="12" t="s">
-        <v>967</v>
-      </c>
-      <c r="B84" s="14"/>
-      <c r="E84" s="27">
-        <v>1</v>
-      </c>
-      <c r="F84" s="19">
-        <v>0</v>
-      </c>
-      <c r="G84" s="29">
-        <v>0</v>
-      </c>
-      <c r="H84" s="8" t="s">
-        <v>896</v>
-      </c>
-    </row>
-    <row r="85" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A85" s="12" t="s">
-        <v>968</v>
-      </c>
-      <c r="B85" s="14"/>
-      <c r="E85" s="27">
-        <v>1</v>
-      </c>
-      <c r="F85" s="19">
-        <v>0</v>
-      </c>
-      <c r="G85" s="29">
-        <v>2.6785000000000001</v>
-      </c>
-      <c r="H85" s="8" t="s">
-        <v>1165</v>
-      </c>
-    </row>
-    <row r="86" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A86" s="12" t="s">
-        <v>649</v>
-      </c>
-      <c r="B86" s="14"/>
-      <c r="E86" s="27">
-        <v>0.43053885780469486</v>
-      </c>
-      <c r="F86" s="19">
-        <v>0.5</v>
-      </c>
-      <c r="G86" s="29">
-        <v>-2.2814999999999999</v>
-      </c>
-      <c r="H86" s="8" t="s">
-        <v>1163</v>
-      </c>
-    </row>
-    <row r="87" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A87" s="12" t="s">
-        <v>969</v>
-      </c>
-      <c r="B87" s="14"/>
-      <c r="E87" s="27">
-        <v>1</v>
-      </c>
-      <c r="F87" s="19">
-        <v>0</v>
-      </c>
-      <c r="G87" s="29">
-        <v>0</v>
-      </c>
-      <c r="H87" s="8" t="s">
-        <v>979</v>
-      </c>
-    </row>
-    <row r="88" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A88" s="12" t="s">
-        <v>970</v>
-      </c>
-      <c r="B88" s="14"/>
-      <c r="E88" s="27">
-        <v>1</v>
-      </c>
-      <c r="F88" s="19">
-        <v>0</v>
-      </c>
-      <c r="G88" s="29">
-        <v>0</v>
-      </c>
-      <c r="H88" s="8" t="s">
-        <v>897</v>
-      </c>
-    </row>
-    <row r="89" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A89" s="29" t="s">
-        <v>971</v>
-      </c>
-      <c r="B89" s="14"/>
-      <c r="E89" s="29">
-        <v>34.446738793374067</v>
-      </c>
-      <c r="F89" s="29">
-        <v>-2.1</v>
-      </c>
-      <c r="G89" s="29">
-        <v>5.0644</v>
-      </c>
-      <c r="H89" s="29" t="s">
-        <v>898</v>
-      </c>
-    </row>
-    <row r="90" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A90" s="14" t="s">
-        <v>972</v>
-      </c>
-      <c r="B90" s="29"/>
-      <c r="E90" s="31">
-        <v>5.3947992860050586</v>
-      </c>
-      <c r="F90" s="23">
-        <v>-1</v>
-      </c>
-      <c r="G90" s="29">
-        <v>-5.0644</v>
-      </c>
-      <c r="H90" s="14" t="s">
-        <v>899</v>
-      </c>
-    </row>
-    <row r="91" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A91" s="12" t="s">
-        <v>973</v>
-      </c>
-      <c r="B91" s="14"/>
-      <c r="E91" s="27">
-        <v>17.553268472658598</v>
-      </c>
-      <c r="F91" s="19">
-        <v>-1.7</v>
-      </c>
-      <c r="G91" s="29">
-        <v>1.4970000000000001</v>
-      </c>
-      <c r="H91" s="8" t="s">
-        <v>900</v>
-      </c>
-    </row>
-    <row r="92" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A92" s="12" t="s">
-        <v>974</v>
-      </c>
-      <c r="B92" s="14"/>
-      <c r="E92" s="27">
-        <v>0.60312511374657485</v>
-      </c>
-      <c r="F92" s="19">
-        <v>0.3</v>
-      </c>
-      <c r="G92" s="29">
-        <v>0</v>
-      </c>
-      <c r="H92" s="8" t="s">
-        <v>980</v>
-      </c>
-    </row>
-    <row r="93" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A93" s="12" t="s">
-        <v>975</v>
-      </c>
-      <c r="B93" s="14"/>
-      <c r="E93" s="27">
-        <v>4.0667450472350736E-2</v>
-      </c>
-      <c r="F93" s="19">
-        <v>1.9</v>
-      </c>
-      <c r="G93" s="29">
-        <v>1.4970000000000001</v>
-      </c>
-      <c r="H93" s="8" t="s">
-        <v>1166</v>
-      </c>
-    </row>
-    <row r="94" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A94" s="12" t="s">
-        <v>976</v>
-      </c>
-      <c r="B94" s="14"/>
-      <c r="E94" s="27">
-        <v>17.553268472658598</v>
-      </c>
-      <c r="F94" s="19">
-        <v>-1.7</v>
-      </c>
-      <c r="G94" s="29">
-        <v>1.1815</v>
-      </c>
-      <c r="H94" s="8" t="s">
-        <v>1167</v>
-      </c>
-    </row>
-    <row r="95" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A95" s="12" t="s">
-        <v>591</v>
-      </c>
-      <c r="B95" s="14"/>
-      <c r="E95" s="27">
-        <v>9.4457096578257488E-2</v>
-      </c>
-      <c r="F95" s="19">
-        <v>1.4</v>
-      </c>
-      <c r="G95" s="29">
-        <v>7.4774000000000003</v>
-      </c>
-      <c r="H95" s="8" t="s">
-        <v>901</v>
-      </c>
-    </row>
-    <row r="96" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A96" s="12" t="s">
-        <v>1134</v>
-      </c>
-      <c r="B96" s="14"/>
-      <c r="E96" s="27">
-        <v>14.830659575195945</v>
-      </c>
-      <c r="F96" s="19">
-        <v>-1.6</v>
-      </c>
-      <c r="G96" s="29">
-        <v>4.96</v>
-      </c>
-      <c r="H96" s="8" t="s">
-        <v>1158</v>
-      </c>
-    </row>
-    <row r="97" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B97" s="14"/>
-    </row>
-    <row r="98" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="E98" s="23"/>
-      <c r="F98" s="17"/>
-      <c r="G98" s="31"/>
-      <c r="H98" s="9"/>
-    </row>
-    <row r="99" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="E99" s="23"/>
-      <c r="F99" s="17"/>
-      <c r="G99" s="31"/>
-      <c r="H99" s="7"/>
-    </row>
-    <row r="100" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="E100" s="23"/>
-      <c r="F100" s="17"/>
-      <c r="G100" s="31"/>
-      <c r="H100" s="7"/>
-    </row>
-    <row r="101" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="E101" s="23"/>
-      <c r="F101" s="17"/>
-      <c r="G101" s="31"/>
-      <c r="H101" s="7"/>
-    </row>
-    <row r="102" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="E102" s="23"/>
-      <c r="F102" s="17"/>
-      <c r="G102" s="31"/>
-      <c r="H102" s="7"/>
-    </row>
-    <row r="103" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="E103" s="23"/>
-      <c r="F103" s="17"/>
-      <c r="G103" s="31"/>
-      <c r="H103" s="9"/>
-    </row>
-    <row r="104" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="E104" s="23"/>
-      <c r="F104" s="17"/>
-      <c r="G104" s="31"/>
-      <c r="H104" s="7"/>
-    </row>
-    <row r="105" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="E105" s="22"/>
-      <c r="F105" s="17"/>
-      <c r="G105" s="31"/>
-      <c r="H105" s="7"/>
-    </row>
-    <row r="106" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="E106" s="23"/>
-      <c r="F106" s="17"/>
-      <c r="G106" s="31"/>
-      <c r="H106" s="9"/>
-    </row>
-    <row r="107" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="E107" s="23"/>
-      <c r="F107" s="17"/>
-      <c r="G107" s="31"/>
-      <c r="H107" s="9"/>
-    </row>
-    <row r="108" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="E108" s="23"/>
-      <c r="F108" s="17"/>
-      <c r="G108" s="31"/>
-      <c r="H108" s="7"/>
-    </row>
-    <row r="109" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="E109" s="23"/>
-      <c r="F109" s="17"/>
-      <c r="G109" s="31"/>
-      <c r="H109" s="7"/>
-    </row>
-    <row r="110" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="E110" s="23"/>
-      <c r="F110" s="17"/>
-      <c r="G110" s="31"/>
-      <c r="H110" s="9"/>
-    </row>
-    <row r="111" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="E111" s="23"/>
-      <c r="F111" s="17"/>
-      <c r="G111" s="31"/>
-      <c r="H111" s="9"/>
-    </row>
-    <row r="112" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="E112" s="23"/>
-      <c r="F112" s="17"/>
-      <c r="G112" s="31"/>
-      <c r="H112" s="7"/>
-    </row>
-    <row r="113" spans="5:8" x14ac:dyDescent="0.25">
-      <c r="E113" s="23"/>
-      <c r="F113" s="17"/>
-      <c r="G113" s="31"/>
-      <c r="H113" s="7"/>
-    </row>
-    <row r="114" spans="5:8" x14ac:dyDescent="0.25">
-      <c r="E114" s="23"/>
-      <c r="F114" s="17"/>
-      <c r="G114" s="31"/>
-      <c r="H114" s="7"/>
-    </row>
-    <row r="115" spans="5:8" x14ac:dyDescent="0.25">
-      <c r="E115" s="23"/>
-      <c r="F115" s="17"/>
-      <c r="G115" s="31"/>
-      <c r="H115" s="7"/>
-    </row>
-    <row r="116" spans="5:8" x14ac:dyDescent="0.25">
-      <c r="E116" s="23"/>
-      <c r="F116" s="17"/>
-      <c r="G116" s="31"/>
-      <c r="H116" s="7"/>
-    </row>
-    <row r="122" spans="5:8" x14ac:dyDescent="0.25">
-      <c r="E122" s="22"/>
-      <c r="F122" s="17"/>
-      <c r="G122" s="28"/>
-      <c r="H122" s="11"/>
-    </row>
-    <row r="123" spans="5:8" x14ac:dyDescent="0.25">
-      <c r="E123" s="22"/>
-      <c r="F123" s="17"/>
-      <c r="G123" s="28"/>
-      <c r="H123" s="11"/>
-    </row>
-    <row r="124" spans="5:8" x14ac:dyDescent="0.25">
-      <c r="E124" s="22"/>
-      <c r="F124" s="17"/>
-      <c r="G124" s="28"/>
-      <c r="H124" s="11"/>
-    </row>
-    <row r="125" spans="5:8" x14ac:dyDescent="0.25">
-      <c r="E125" s="22"/>
-      <c r="F125" s="17"/>
-      <c r="G125" s="28"/>
-      <c r="H125" s="11"/>
-    </row>
-    <row r="126" spans="5:8" x14ac:dyDescent="0.25">
-      <c r="E126" s="22"/>
-      <c r="F126" s="17"/>
-      <c r="G126" s="28"/>
-      <c r="H126" s="11"/>
-    </row>
-    <row r="127" spans="5:8" x14ac:dyDescent="0.25">
-      <c r="E127" s="22"/>
-      <c r="F127" s="17"/>
-      <c r="G127" s="28"/>
-      <c r="H127" s="11"/>
-    </row>
-    <row r="128" spans="5:8" x14ac:dyDescent="0.25">
-      <c r="E128" s="22"/>
-      <c r="F128" s="17"/>
-      <c r="G128" s="28"/>
-      <c r="H128" s="11"/>
+      <c r="A17" t="s">
+        <v>1202</v>
+      </c>
+      <c r="B17">
+        <v>0</v>
+      </c>
+      <c r="C17">
+        <v>0</v>
+      </c>
+      <c r="F17">
+        <v>-0.5</v>
+      </c>
+      <c r="G17">
+        <v>0</v>
+      </c>
+      <c r="H17" t="s">
+        <v>1239</v>
+      </c>
+      <c r="I17" s="28"/>
+      <c r="J17" s="28"/>
+      <c r="K17" s="28"/>
+      <c r="L17" s="28"/>
+      <c r="M17" s="28"/>
+      <c r="N17" s="28"/>
+      <c r="O17" s="28"/>
+      <c r="P17" s="28"/>
     </row>
   </sheetData>
-  <sortState ref="N2:P57">
-    <sortCondition ref="N2:N57"/>
-  </sortState>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:P12"/>
+  <dimension ref="A1:P17"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="J10" sqref="J10"/>
+      <selection activeCell="A13" sqref="A13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="8" max="8" width="19.42578125" customWidth="1"/>
+    <col min="1" max="1" width="14.42578125" customWidth="1"/>
+    <col min="6" max="6" width="16.5703125" customWidth="1"/>
+    <col min="8" max="8" width="19" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:16" s="28" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A1" s="28" t="s">
         <v>565</v>
       </c>
@@ -58365,45 +58571,29 @@
     </row>
     <row r="2" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>1114</v>
-      </c>
-      <c r="B2" s="28">
-        <v>0</v>
-      </c>
-      <c r="C2" s="28">
-        <v>0</v>
-      </c>
-      <c r="D2" s="28"/>
-      <c r="E2" s="28"/>
-      <c r="F2" s="28">
-        <v>-0.5</v>
-      </c>
-      <c r="G2" s="28">
-        <v>1</v>
-      </c>
-      <c r="H2" s="1" t="s">
-        <v>1097</v>
+        <v>1206</v>
+      </c>
+      <c r="H2" t="s">
+        <v>1207</v>
       </c>
       <c r="I2" s="28"/>
       <c r="J2" s="28"/>
       <c r="K2" s="28"/>
-      <c r="L2" s="28" t="s">
-        <v>667</v>
-      </c>
+      <c r="L2" s="28"/>
       <c r="M2" s="28"/>
-      <c r="N2" t="s">
-        <v>1030</v>
-      </c>
-      <c r="O2">
+      <c r="N2" s="28" t="s">
+        <v>1190</v>
+      </c>
+      <c r="O2" s="28">
         <v>0.1</v>
       </c>
-      <c r="P2">
+      <c r="P2" s="28">
         <v>20</v>
       </c>
     </row>
     <row r="3" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A3" t="s">
-        <v>1115</v>
+      <c r="A3" s="28" t="s">
+        <v>1057</v>
       </c>
       <c r="B3" s="28">
         <v>0</v>
@@ -58414,13 +58604,13 @@
       <c r="D3" s="28"/>
       <c r="E3" s="28"/>
       <c r="F3" s="28">
-        <v>-0.5</v>
+        <v>-8</v>
       </c>
       <c r="G3" s="28">
-        <v>0.33</v>
-      </c>
-      <c r="H3" s="28" t="s">
-        <v>1126</v>
+        <v>20</v>
+      </c>
+      <c r="H3" s="1" t="s">
+        <v>1205</v>
       </c>
       <c r="I3" s="28"/>
       <c r="J3" s="28"/>
@@ -58429,8 +58619,8 @@
         <v>667</v>
       </c>
       <c r="M3" s="28"/>
-      <c r="N3" t="s">
-        <v>1121</v>
+      <c r="N3" s="28" t="s">
+        <v>1122</v>
       </c>
       <c r="O3" s="28">
         <v>0.1</v>
@@ -58440,7 +58630,7 @@
       </c>
     </row>
     <row r="4" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A4" t="s">
+      <c r="A4" s="28" t="s">
         <v>1054</v>
       </c>
       <c r="B4" s="28">
@@ -58452,13 +58642,13 @@
       <c r="D4" s="28"/>
       <c r="E4" s="28"/>
       <c r="F4" s="28">
-        <v>-0.5</v>
+        <v>-8</v>
       </c>
       <c r="G4" s="28">
-        <v>0.33</v>
+        <v>20</v>
       </c>
       <c r="H4" s="28" t="s">
-        <v>1127</v>
+        <v>1187</v>
       </c>
       <c r="I4" s="28"/>
       <c r="J4" s="28"/>
@@ -58466,8 +58656,9 @@
       <c r="L4" s="28" t="s">
         <v>667</v>
       </c>
-      <c r="N4" t="s">
-        <v>1122</v>
+      <c r="M4" s="28"/>
+      <c r="N4" s="28" t="s">
+        <v>1121</v>
       </c>
       <c r="O4" s="28">
         <v>0.1</v>
@@ -58477,8 +58668,8 @@
       </c>
     </row>
     <row r="5" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A5" t="s">
-        <v>1055</v>
+      <c r="A5" s="28" t="s">
+        <v>764</v>
       </c>
       <c r="B5" s="28">
         <v>0</v>
@@ -58489,13 +58680,13 @@
       <c r="D5" s="28"/>
       <c r="E5" s="28"/>
       <c r="F5" s="28">
-        <v>-0.5</v>
+        <v>-8</v>
       </c>
       <c r="G5" s="28">
-        <v>0.34</v>
+        <v>20</v>
       </c>
       <c r="H5" s="28" t="s">
-        <v>1128</v>
+        <v>1188</v>
       </c>
       <c r="I5" s="28"/>
       <c r="J5" s="28"/>
@@ -58503,7 +58694,8 @@
       <c r="L5" s="28" t="s">
         <v>667</v>
       </c>
-      <c r="N5" t="s">
+      <c r="M5" s="28"/>
+      <c r="N5" s="28" t="s">
         <v>1123</v>
       </c>
       <c r="O5" s="28">
@@ -58514,8 +58706,8 @@
       </c>
     </row>
     <row r="6" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A6" t="s">
-        <v>1056</v>
+      <c r="A6" s="28" t="s">
+        <v>1055</v>
       </c>
       <c r="B6" s="28">
         <v>0</v>
@@ -58526,13 +58718,13 @@
       <c r="D6" s="28"/>
       <c r="E6" s="28"/>
       <c r="F6" s="28">
-        <v>-0.5</v>
+        <v>0</v>
       </c>
       <c r="G6" s="28">
-        <v>0.16500000000000001</v>
+        <v>40</v>
       </c>
       <c r="H6" s="28" t="s">
-        <v>1116</v>
+        <v>1231</v>
       </c>
       <c r="I6" s="28"/>
       <c r="J6" s="28"/>
@@ -58540,8 +58732,9 @@
       <c r="L6" s="28" t="s">
         <v>667</v>
       </c>
-      <c r="N6" t="s">
-        <v>1124</v>
+      <c r="M6" s="28"/>
+      <c r="N6" s="28" t="s">
+        <v>1125</v>
       </c>
       <c r="O6" s="28">
         <v>0.1</v>
@@ -58551,8 +58744,8 @@
       </c>
     </row>
     <row r="7" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A7" t="s">
-        <v>1059</v>
+      <c r="A7" s="28" t="s">
+        <v>1056</v>
       </c>
       <c r="B7" s="28">
         <v>0</v>
@@ -58563,13 +58756,13 @@
       <c r="D7" s="28"/>
       <c r="E7" s="28"/>
       <c r="F7" s="28">
-        <v>-0.5</v>
+        <v>-8</v>
       </c>
       <c r="G7" s="28">
-        <v>0.16500000000000001</v>
+        <v>20</v>
       </c>
       <c r="H7" s="28" t="s">
-        <v>1117</v>
+        <v>1191</v>
       </c>
       <c r="I7" s="28"/>
       <c r="J7" s="28"/>
@@ -58577,8 +58770,9 @@
       <c r="L7" s="28" t="s">
         <v>667</v>
       </c>
-      <c r="N7" t="s">
-        <v>1125</v>
+      <c r="M7" s="28"/>
+      <c r="N7" s="28" t="s">
+        <v>1124</v>
       </c>
       <c r="O7" s="28">
         <v>0.1</v>
@@ -58588,8 +58782,8 @@
       </c>
     </row>
     <row r="8" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A8" t="s">
-        <v>1058</v>
+      <c r="A8" s="28" t="s">
+        <v>1059</v>
       </c>
       <c r="B8" s="28">
         <v>0</v>
@@ -58600,13 +58794,13 @@
       <c r="D8" s="28"/>
       <c r="E8" s="28"/>
       <c r="F8" s="28">
-        <v>-0.5</v>
+        <v>-8</v>
       </c>
       <c r="G8" s="28">
-        <v>0.33</v>
+        <v>20</v>
       </c>
       <c r="H8" s="28" t="s">
-        <v>1118</v>
+        <v>1117</v>
       </c>
       <c r="I8" s="28"/>
       <c r="J8" s="28"/>
@@ -58614,19 +58808,14 @@
       <c r="L8" s="28" t="s">
         <v>1077</v>
       </c>
-      <c r="N8" t="s">
-        <v>1091</v>
-      </c>
-      <c r="O8" s="4">
-        <v>9.9999999999999995E-7</v>
-      </c>
-      <c r="P8">
-        <v>0.01</v>
-      </c>
+      <c r="M8" s="28"/>
+      <c r="N8" s="28"/>
+      <c r="O8" s="28"/>
+      <c r="P8" s="28"/>
     </row>
     <row r="9" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A9" t="s">
-        <v>1060</v>
+      <c r="A9" s="28" t="s">
+        <v>1058</v>
       </c>
       <c r="B9" s="28">
         <v>0</v>
@@ -58637,31 +58826,26 @@
       <c r="D9" s="28"/>
       <c r="E9" s="28"/>
       <c r="F9" s="28">
-        <v>-0.5</v>
+        <v>0</v>
       </c>
       <c r="G9" s="28">
-        <v>0.495</v>
+        <v>20</v>
       </c>
       <c r="H9" s="28" t="s">
-        <v>1120</v>
+        <v>1232</v>
       </c>
       <c r="I9" s="28"/>
       <c r="J9" s="28"/>
       <c r="K9" s="28"/>
       <c r="L9" s="28"/>
-      <c r="N9" t="s">
-        <v>1130</v>
-      </c>
-      <c r="O9" s="4">
-        <v>9.9999999999999995E-7</v>
-      </c>
-      <c r="P9" s="4">
-        <v>1E-4</v>
-      </c>
+      <c r="M9" s="28"/>
+      <c r="N9" s="28"/>
+      <c r="O9" s="28"/>
+      <c r="P9" s="28"/>
     </row>
     <row r="10" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A10" t="s">
-        <v>1061</v>
+      <c r="A10" s="28" t="s">
+        <v>1243</v>
       </c>
       <c r="B10" s="28">
         <v>0</v>
@@ -58675,39 +58859,140 @@
         <v>-0.5</v>
       </c>
       <c r="G10" s="28">
-        <v>0.33</v>
+        <v>5</v>
       </c>
       <c r="H10" s="28" t="s">
-        <v>1119</v>
+        <v>1189</v>
       </c>
       <c r="I10" s="28"/>
       <c r="J10" s="28"/>
       <c r="K10" s="28"/>
       <c r="L10" s="28"/>
+      <c r="M10" s="28"/>
+      <c r="N10" s="28"/>
+      <c r="O10" s="28"/>
+      <c r="P10" s="28"/>
     </row>
     <row r="11" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A11" t="s">
-        <v>1129</v>
-      </c>
-      <c r="B11">
-        <v>0</v>
-      </c>
-      <c r="C11">
-        <v>0</v>
-      </c>
-      <c r="F11">
+      <c r="A11" s="28" t="s">
+        <v>1245</v>
+      </c>
+      <c r="B11" s="28">
+        <v>0</v>
+      </c>
+      <c r="C11" s="28">
+        <v>0</v>
+      </c>
+      <c r="D11" s="28"/>
+      <c r="E11" s="28"/>
+      <c r="F11" s="28">
         <v>-0.5</v>
       </c>
-      <c r="G11">
-        <v>0.33</v>
-      </c>
-      <c r="H11" t="s">
-        <v>1131</v>
+      <c r="G11" s="28">
+        <v>2.5</v>
+      </c>
+      <c r="H11" s="28" t="s">
+        <v>1240</v>
       </c>
     </row>
     <row r="12" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
-        <v>1091</v>
+        <v>1244</v>
+      </c>
+      <c r="B12">
+        <v>0</v>
+      </c>
+      <c r="C12">
+        <v>0</v>
+      </c>
+      <c r="F12">
+        <v>-0.5</v>
+      </c>
+      <c r="G12">
+        <v>0</v>
+      </c>
+      <c r="H12" t="s">
+        <v>1238</v>
+      </c>
+    </row>
+    <row r="13" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A13" t="s">
+        <v>1235</v>
+      </c>
+      <c r="B13">
+        <v>0</v>
+      </c>
+      <c r="C13">
+        <v>0</v>
+      </c>
+      <c r="F13">
+        <v>-0.5</v>
+      </c>
+      <c r="G13">
+        <v>0.33</v>
+      </c>
+      <c r="H13" t="s">
+        <v>1233</v>
+      </c>
+    </row>
+    <row r="14" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A14" t="s">
+        <v>1201</v>
+      </c>
+      <c r="B14" s="28">
+        <v>0</v>
+      </c>
+      <c r="C14" s="28">
+        <v>0</v>
+      </c>
+      <c r="D14" s="28"/>
+      <c r="E14" s="28"/>
+      <c r="F14" s="28">
+        <v>-0.5</v>
+      </c>
+      <c r="G14">
+        <v>0</v>
+      </c>
+      <c r="H14" t="s">
+        <v>1203</v>
+      </c>
+    </row>
+    <row r="15" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A15" t="s">
+        <v>1202</v>
+      </c>
+      <c r="B15" s="28">
+        <v>0</v>
+      </c>
+      <c r="C15" s="28">
+        <v>0</v>
+      </c>
+      <c r="D15" s="28"/>
+      <c r="E15" s="28"/>
+      <c r="F15" s="28">
+        <v>-0.5</v>
+      </c>
+      <c r="G15">
+        <v>0</v>
+      </c>
+      <c r="H15" t="s">
+        <v>1239</v>
+      </c>
+    </row>
+    <row r="16" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A16" t="s">
+        <v>1236</v>
+      </c>
+      <c r="H16" t="s">
+        <v>1237</v>
+      </c>
+    </row>
+    <row r="17" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A17" t="s">
+        <v>1204</v>
+      </c>
+      <c r="H17" t="s">
+        <v>1234</v>
       </c>
     </row>
   </sheetData>

--- a/KineticModel/test.xlsx
+++ b/KineticModel/test.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="4665" windowWidth="16275" windowHeight="3180" firstSheet="5" activeTab="7"/>
+    <workbookView xWindow="240" yWindow="4665" windowWidth="16275" windowHeight="3180" activeTab="7"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -16,16 +16,17 @@
     <sheet name="N2" sheetId="13" r:id="rId7"/>
     <sheet name="N2mR" sheetId="20" r:id="rId8"/>
     <sheet name="N2mD" sheetId="17" r:id="rId9"/>
-    <sheet name="lacOP" sheetId="16" r:id="rId10"/>
-    <sheet name="N2lacZ" sheetId="15" r:id="rId11"/>
-    <sheet name="N3" sheetId="14" r:id="rId12"/>
-    <sheet name="N3mR" sheetId="19" r:id="rId13"/>
-    <sheet name="PTS" sheetId="8" r:id="rId14"/>
-    <sheet name="Sheet6" sheetId="10" r:id="rId15"/>
-    <sheet name="Sheet3" sheetId="9" r:id="rId16"/>
-    <sheet name="Sheet7" sheetId="11" r:id="rId17"/>
-    <sheet name="EcoliCCM" sheetId="18" r:id="rId18"/>
-    <sheet name="testN2m" sheetId="12" r:id="rId19"/>
+    <sheet name="N2mC" sheetId="21" r:id="rId10"/>
+    <sheet name="lacOP" sheetId="16" r:id="rId11"/>
+    <sheet name="N2lacZ" sheetId="15" r:id="rId12"/>
+    <sheet name="N3" sheetId="14" r:id="rId13"/>
+    <sheet name="N3mR" sheetId="19" r:id="rId14"/>
+    <sheet name="PTS" sheetId="8" r:id="rId15"/>
+    <sheet name="Sheet6" sheetId="10" r:id="rId16"/>
+    <sheet name="Sheet3" sheetId="9" r:id="rId17"/>
+    <sheet name="Sheet7" sheetId="11" r:id="rId18"/>
+    <sheet name="EcoliCCM" sheetId="18" r:id="rId19"/>
+    <sheet name="testN2m" sheetId="12" r:id="rId20"/>
   </sheets>
   <calcPr calcId="145621"/>
   <fileRecoveryPr repairLoad="1"/>
@@ -33,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2324" uniqueCount="1267">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2384" uniqueCount="1270">
   <si>
     <t>Name</t>
   </si>
@@ -3747,15 +3748,6 @@
   </si>
   <si>
     <t>Bex</t>
-  </si>
-  <si>
-    <t>[c] : D ---&gt; A</t>
-  </si>
-  <si>
-    <t>[c] : P + E ---&gt; C + D</t>
-  </si>
-  <si>
-    <t>20 B[c] ---&gt; Biomass[c]</t>
   </si>
   <si>
     <t>Biomass[c] ---&gt;</t>
@@ -4028,7 +4020,25 @@
     <t>v6</t>
   </si>
   <si>
-    <t>50</t>
+    <t>[c] : A &lt;==&gt; D</t>
+  </si>
+  <si>
+    <t>[c] : C + D &lt;==&gt; P + E</t>
+  </si>
+  <si>
+    <t>&lt;==&gt; E[e]</t>
+  </si>
+  <si>
+    <t>&lt;==&gt; D[e]</t>
+  </si>
+  <si>
+    <t>D[e] &lt;==&gt; D[c]</t>
+  </si>
+  <si>
+    <t>E[e] &lt;==&gt; E[c]</t>
+  </si>
+  <si>
+    <t>1</t>
   </si>
 </sst>
 </file>
@@ -5643,6 +5653,587 @@
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:P17"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="I7" sqref="I7"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData>
+    <row r="1" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A1" s="28" t="s">
+        <v>565</v>
+      </c>
+      <c r="B1" s="28" t="s">
+        <v>728</v>
+      </c>
+      <c r="C1" s="28" t="s">
+        <v>731</v>
+      </c>
+      <c r="D1" s="28" t="s">
+        <v>729</v>
+      </c>
+      <c r="E1" s="28" t="s">
+        <v>730</v>
+      </c>
+      <c r="F1" s="28" t="s">
+        <v>830</v>
+      </c>
+      <c r="G1" s="28" t="s">
+        <v>818</v>
+      </c>
+      <c r="H1" s="28" t="s">
+        <v>1</v>
+      </c>
+      <c r="I1" s="28" t="s">
+        <v>608</v>
+      </c>
+      <c r="J1" s="28" t="s">
+        <v>609</v>
+      </c>
+      <c r="K1" s="28" t="s">
+        <v>654</v>
+      </c>
+      <c r="L1" s="28" t="s">
+        <v>656</v>
+      </c>
+      <c r="M1" s="28" t="s">
+        <v>657</v>
+      </c>
+      <c r="N1" s="28" t="s">
+        <v>726</v>
+      </c>
+      <c r="O1" s="28" t="s">
+        <v>828</v>
+      </c>
+      <c r="P1" s="28" t="s">
+        <v>829</v>
+      </c>
+    </row>
+    <row r="2" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A2" s="28" t="s">
+        <v>1206</v>
+      </c>
+      <c r="B2" s="28">
+        <v>0</v>
+      </c>
+      <c r="C2" s="28">
+        <v>0</v>
+      </c>
+      <c r="D2" s="28"/>
+      <c r="E2" s="28"/>
+      <c r="F2" s="28"/>
+      <c r="G2" s="28"/>
+      <c r="H2" s="28" t="s">
+        <v>1207</v>
+      </c>
+      <c r="I2" s="28"/>
+      <c r="J2" s="28"/>
+      <c r="K2" s="28"/>
+      <c r="L2" s="28"/>
+      <c r="M2" s="28"/>
+      <c r="N2" s="28" t="s">
+        <v>1190</v>
+      </c>
+      <c r="O2" s="28">
+        <v>0.1</v>
+      </c>
+      <c r="P2" s="28">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="3" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A3" s="28" t="s">
+        <v>1057</v>
+      </c>
+      <c r="B3" s="28">
+        <v>0</v>
+      </c>
+      <c r="C3" s="28">
+        <v>0</v>
+      </c>
+      <c r="D3" s="28"/>
+      <c r="E3" s="28"/>
+      <c r="F3" s="28">
+        <v>-8</v>
+      </c>
+      <c r="G3" s="28">
+        <v>20</v>
+      </c>
+      <c r="H3" s="1" t="s">
+        <v>1205</v>
+      </c>
+      <c r="I3" s="28"/>
+      <c r="J3" s="28"/>
+      <c r="K3" s="28"/>
+      <c r="L3" s="28" t="s">
+        <v>667</v>
+      </c>
+      <c r="M3" s="28"/>
+      <c r="N3" s="28" t="s">
+        <v>1122</v>
+      </c>
+      <c r="O3" s="28">
+        <v>0.1</v>
+      </c>
+      <c r="P3" s="28">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="4" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A4" s="28" t="s">
+        <v>1257</v>
+      </c>
+      <c r="B4" s="28">
+        <v>0</v>
+      </c>
+      <c r="C4" s="28">
+        <v>3000</v>
+      </c>
+      <c r="D4" s="28"/>
+      <c r="E4" s="28"/>
+      <c r="F4" s="28">
+        <v>-8</v>
+      </c>
+      <c r="G4" s="28">
+        <v>20</v>
+      </c>
+      <c r="H4" s="28" t="s">
+        <v>1187</v>
+      </c>
+      <c r="I4" s="28"/>
+      <c r="J4" s="28"/>
+      <c r="K4" s="28"/>
+      <c r="L4" s="28" t="s">
+        <v>667</v>
+      </c>
+      <c r="M4" s="28"/>
+      <c r="N4" s="28" t="s">
+        <v>1121</v>
+      </c>
+      <c r="O4" s="28">
+        <v>0.1</v>
+      </c>
+      <c r="P4" s="28">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="5" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A5" s="28" t="s">
+        <v>1258</v>
+      </c>
+      <c r="B5" s="28">
+        <v>0</v>
+      </c>
+      <c r="C5" s="28">
+        <v>3000</v>
+      </c>
+      <c r="D5" s="28"/>
+      <c r="E5" s="28"/>
+      <c r="F5" s="28">
+        <v>-8</v>
+      </c>
+      <c r="G5" s="28">
+        <v>20</v>
+      </c>
+      <c r="H5" s="28" t="s">
+        <v>1188</v>
+      </c>
+      <c r="I5" s="28"/>
+      <c r="J5" s="28"/>
+      <c r="K5" s="28"/>
+      <c r="L5" s="28" t="s">
+        <v>667</v>
+      </c>
+      <c r="M5" s="28"/>
+      <c r="N5" s="28" t="s">
+        <v>1123</v>
+      </c>
+      <c r="O5" s="28">
+        <v>0.1</v>
+      </c>
+      <c r="P5" s="28">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="6" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A6" s="28" t="s">
+        <v>1259</v>
+      </c>
+      <c r="B6" s="28">
+        <v>0</v>
+      </c>
+      <c r="C6" s="28">
+        <v>3000</v>
+      </c>
+      <c r="D6" s="28"/>
+      <c r="E6" s="28"/>
+      <c r="F6" s="28">
+        <v>10</v>
+      </c>
+      <c r="G6" s="28">
+        <v>-40</v>
+      </c>
+      <c r="H6" s="28" t="s">
+        <v>1263</v>
+      </c>
+      <c r="I6" s="28"/>
+      <c r="J6" s="28"/>
+      <c r="K6" s="28"/>
+      <c r="L6" s="28" t="s">
+        <v>667</v>
+      </c>
+      <c r="M6" s="28"/>
+      <c r="N6" s="28" t="s">
+        <v>1125</v>
+      </c>
+      <c r="O6" s="28">
+        <v>0.1</v>
+      </c>
+      <c r="P6" s="28">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="7" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A7" s="28" t="s">
+        <v>1260</v>
+      </c>
+      <c r="B7" s="28">
+        <v>0</v>
+      </c>
+      <c r="C7" s="28">
+        <v>3000</v>
+      </c>
+      <c r="D7" s="28"/>
+      <c r="E7" s="28"/>
+      <c r="F7" s="28">
+        <v>-8</v>
+      </c>
+      <c r="G7" s="28">
+        <v>20</v>
+      </c>
+      <c r="H7" s="28" t="s">
+        <v>1191</v>
+      </c>
+      <c r="I7" s="28"/>
+      <c r="J7" s="28"/>
+      <c r="K7" s="28"/>
+      <c r="L7" s="28" t="s">
+        <v>667</v>
+      </c>
+      <c r="M7" s="28"/>
+      <c r="N7" s="28" t="s">
+        <v>1124</v>
+      </c>
+      <c r="O7" s="28">
+        <v>0.1</v>
+      </c>
+      <c r="P7" s="28">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="8" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A8" s="28" t="s">
+        <v>1261</v>
+      </c>
+      <c r="B8" s="28">
+        <v>0</v>
+      </c>
+      <c r="C8" s="28">
+        <v>3000</v>
+      </c>
+      <c r="D8" s="28"/>
+      <c r="E8" s="28"/>
+      <c r="F8" s="28">
+        <v>-8</v>
+      </c>
+      <c r="G8" s="28">
+        <v>20</v>
+      </c>
+      <c r="H8" s="28" t="s">
+        <v>1117</v>
+      </c>
+      <c r="I8" s="28"/>
+      <c r="J8" s="28"/>
+      <c r="K8" s="28"/>
+      <c r="L8" s="28" t="s">
+        <v>1077</v>
+      </c>
+      <c r="M8" s="28"/>
+      <c r="N8" s="28"/>
+      <c r="O8" s="28"/>
+      <c r="P8" s="28"/>
+    </row>
+    <row r="9" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A9" s="28" t="s">
+        <v>1262</v>
+      </c>
+      <c r="B9" s="28">
+        <v>0</v>
+      </c>
+      <c r="C9" s="28">
+        <v>3000</v>
+      </c>
+      <c r="D9" s="28"/>
+      <c r="E9" s="28"/>
+      <c r="F9" s="28">
+        <v>10</v>
+      </c>
+      <c r="G9" s="28">
+        <v>-20</v>
+      </c>
+      <c r="H9" s="28" t="s">
+        <v>1264</v>
+      </c>
+      <c r="I9" s="28"/>
+      <c r="J9" s="28"/>
+      <c r="K9" s="28"/>
+      <c r="L9" s="28"/>
+      <c r="M9" s="28"/>
+      <c r="N9" s="28"/>
+      <c r="O9" s="28"/>
+      <c r="P9" s="28"/>
+    </row>
+    <row r="10" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A10" s="28" t="s">
+        <v>1240</v>
+      </c>
+      <c r="B10" s="28">
+        <v>0</v>
+      </c>
+      <c r="C10" s="28">
+        <v>0</v>
+      </c>
+      <c r="D10" s="28"/>
+      <c r="E10" s="28"/>
+      <c r="F10" s="28">
+        <v>-0.5</v>
+      </c>
+      <c r="G10" s="28">
+        <v>5</v>
+      </c>
+      <c r="H10" s="28" t="s">
+        <v>1189</v>
+      </c>
+      <c r="I10" s="28"/>
+      <c r="J10" s="28"/>
+      <c r="K10" s="28"/>
+      <c r="L10" s="28"/>
+      <c r="M10" s="28"/>
+      <c r="N10" s="28"/>
+      <c r="O10" s="28"/>
+      <c r="P10" s="28"/>
+    </row>
+    <row r="11" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A11" s="28" t="s">
+        <v>1242</v>
+      </c>
+      <c r="B11" s="28">
+        <v>0</v>
+      </c>
+      <c r="C11" s="28">
+        <v>0</v>
+      </c>
+      <c r="D11" s="28"/>
+      <c r="E11" s="28"/>
+      <c r="F11" s="28">
+        <v>-0.5</v>
+      </c>
+      <c r="G11" s="28">
+        <v>2.5</v>
+      </c>
+      <c r="H11" s="28" t="s">
+        <v>1268</v>
+      </c>
+      <c r="I11" s="28"/>
+      <c r="J11" s="28"/>
+      <c r="K11" s="28"/>
+      <c r="L11" s="28"/>
+      <c r="M11" s="28"/>
+      <c r="N11" s="28"/>
+      <c r="O11" s="28"/>
+      <c r="P11" s="28"/>
+    </row>
+    <row r="12" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A12" s="28" t="s">
+        <v>1241</v>
+      </c>
+      <c r="B12" s="28">
+        <v>0</v>
+      </c>
+      <c r="C12" s="28">
+        <v>0</v>
+      </c>
+      <c r="D12" s="28"/>
+      <c r="E12" s="28"/>
+      <c r="F12" s="28">
+        <v>-0.5</v>
+      </c>
+      <c r="G12" s="28">
+        <v>0</v>
+      </c>
+      <c r="H12" s="28" t="s">
+        <v>1267</v>
+      </c>
+      <c r="I12" s="28"/>
+      <c r="J12" s="28"/>
+      <c r="K12" s="28"/>
+      <c r="L12" s="28"/>
+      <c r="M12" s="28"/>
+      <c r="N12" s="28"/>
+      <c r="O12" s="28"/>
+      <c r="P12" s="28"/>
+    </row>
+    <row r="13" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A13" s="28" t="s">
+        <v>1232</v>
+      </c>
+      <c r="B13" s="28">
+        <v>0</v>
+      </c>
+      <c r="C13" s="28">
+        <v>0</v>
+      </c>
+      <c r="D13" s="28"/>
+      <c r="E13" s="28"/>
+      <c r="F13" s="28">
+        <v>-0.5</v>
+      </c>
+      <c r="G13" s="28">
+        <v>0.33</v>
+      </c>
+      <c r="H13" s="28" t="s">
+        <v>1239</v>
+      </c>
+      <c r="I13" s="28"/>
+      <c r="J13" s="28"/>
+      <c r="K13" s="28"/>
+      <c r="L13" s="28"/>
+      <c r="M13" s="28"/>
+      <c r="N13" s="28"/>
+      <c r="O13" s="28"/>
+      <c r="P13" s="28"/>
+    </row>
+    <row r="14" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A14" s="28" t="s">
+        <v>1201</v>
+      </c>
+      <c r="B14" s="28">
+        <v>0</v>
+      </c>
+      <c r="C14" s="28">
+        <v>0</v>
+      </c>
+      <c r="D14" s="28"/>
+      <c r="E14" s="28"/>
+      <c r="F14" s="28">
+        <v>-0.5</v>
+      </c>
+      <c r="G14" s="28">
+        <v>0</v>
+      </c>
+      <c r="H14" s="28" t="s">
+        <v>1203</v>
+      </c>
+      <c r="I14" s="28"/>
+      <c r="J14" s="28"/>
+      <c r="K14" s="28"/>
+      <c r="L14" s="28"/>
+      <c r="M14" s="28"/>
+      <c r="N14" s="28"/>
+      <c r="O14" s="28"/>
+      <c r="P14" s="28"/>
+    </row>
+    <row r="15" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A15" s="28" t="s">
+        <v>1202</v>
+      </c>
+      <c r="B15" s="28">
+        <v>0</v>
+      </c>
+      <c r="C15" s="28">
+        <v>0</v>
+      </c>
+      <c r="D15" s="28"/>
+      <c r="E15" s="28"/>
+      <c r="F15" s="28">
+        <v>-0.5</v>
+      </c>
+      <c r="G15" s="28">
+        <v>0</v>
+      </c>
+      <c r="H15" s="1" t="s">
+        <v>1265</v>
+      </c>
+      <c r="I15" s="28"/>
+      <c r="J15" s="28"/>
+      <c r="K15" s="28"/>
+      <c r="L15" s="28"/>
+      <c r="M15" s="28"/>
+      <c r="N15" s="28"/>
+      <c r="O15" s="28"/>
+      <c r="P15" s="28"/>
+    </row>
+    <row r="16" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A16" s="28" t="s">
+        <v>1233</v>
+      </c>
+      <c r="B16" s="28">
+        <v>0</v>
+      </c>
+      <c r="C16" s="28">
+        <v>0</v>
+      </c>
+      <c r="D16" s="28"/>
+      <c r="E16" s="28"/>
+      <c r="F16" s="28"/>
+      <c r="G16" s="28"/>
+      <c r="H16" s="1" t="s">
+        <v>1266</v>
+      </c>
+      <c r="I16" s="28"/>
+      <c r="J16" s="28"/>
+      <c r="K16" s="28"/>
+      <c r="L16" s="28"/>
+      <c r="M16" s="28"/>
+      <c r="N16" s="28"/>
+      <c r="O16" s="28"/>
+      <c r="P16" s="28"/>
+    </row>
+    <row r="17" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A17" s="28" t="s">
+        <v>1204</v>
+      </c>
+      <c r="B17" s="28">
+        <v>0</v>
+      </c>
+      <c r="C17" s="28">
+        <v>0</v>
+      </c>
+      <c r="D17" s="28"/>
+      <c r="E17" s="28"/>
+      <c r="F17" s="28"/>
+      <c r="G17" s="28"/>
+      <c r="H17" s="28" t="s">
+        <v>1231</v>
+      </c>
+      <c r="I17" s="28"/>
+      <c r="J17" s="28"/>
+      <c r="K17" s="28"/>
+      <c r="L17" s="28"/>
+      <c r="M17" s="28"/>
+      <c r="N17" s="28"/>
+      <c r="O17" s="28"/>
+      <c r="P17" s="28"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:P12"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -6057,7 +6648,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:P20"/>
   <sheetViews>
@@ -6580,7 +7171,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:P13"/>
   <sheetViews>
@@ -6979,7 +7570,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:P19"/>
   <sheetViews>
@@ -7041,7 +7632,7 @@
     </row>
     <row r="2" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A2" s="28" t="s">
-        <v>1248</v>
+        <v>1245</v>
       </c>
       <c r="B2" s="28"/>
       <c r="C2" s="28"/>
@@ -7105,7 +7696,7 @@
     </row>
     <row r="4" spans="1:16" ht="18" x14ac:dyDescent="0.35">
       <c r="A4" s="28" t="s">
-        <v>1252</v>
+        <v>1249</v>
       </c>
       <c r="B4" s="28">
         <v>0</v>
@@ -7141,7 +7732,7 @@
     </row>
     <row r="5" spans="1:16" ht="18" x14ac:dyDescent="0.35">
       <c r="A5" s="28" t="s">
-        <v>1253</v>
+        <v>1250</v>
       </c>
       <c r="B5" s="28">
         <v>0</v>
@@ -7177,7 +7768,7 @@
     </row>
     <row r="6" spans="1:16" ht="18" x14ac:dyDescent="0.35">
       <c r="A6" s="28" t="s">
-        <v>1254</v>
+        <v>1251</v>
       </c>
       <c r="B6" s="28">
         <v>0</v>
@@ -7213,7 +7804,7 @@
     </row>
     <row r="7" spans="1:16" ht="18" x14ac:dyDescent="0.35">
       <c r="A7" s="28" t="s">
-        <v>1255</v>
+        <v>1252</v>
       </c>
       <c r="B7" s="28">
         <v>0</v>
@@ -7249,7 +7840,7 @@
     </row>
     <row r="8" spans="1:16" ht="18" x14ac:dyDescent="0.35">
       <c r="A8" s="28" t="s">
-        <v>1256</v>
+        <v>1253</v>
       </c>
       <c r="B8" s="28">
         <v>0</v>
@@ -7285,7 +7876,7 @@
     </row>
     <row r="9" spans="1:16" ht="18" x14ac:dyDescent="0.35">
       <c r="A9" s="28" t="s">
-        <v>1257</v>
+        <v>1254</v>
       </c>
       <c r="B9" s="28">
         <v>0</v>
@@ -7307,11 +7898,11 @@
       <c r="I9" s="28"/>
       <c r="J9" s="28"/>
       <c r="K9" s="28" t="s">
-        <v>1250</v>
+        <v>1247</v>
       </c>
       <c r="L9" s="28"/>
       <c r="M9" s="28" t="s">
-        <v>1251</v>
+        <v>1248</v>
       </c>
       <c r="N9" s="28" t="s">
         <v>1227</v>
@@ -7325,7 +7916,7 @@
     </row>
     <row r="10" spans="1:16" ht="18" x14ac:dyDescent="0.35">
       <c r="A10" s="28" t="s">
-        <v>1258</v>
+        <v>1255</v>
       </c>
       <c r="B10" s="28">
         <v>0</v>
@@ -7361,7 +7952,7 @@
     </row>
     <row r="11" spans="1:16" ht="18" x14ac:dyDescent="0.35">
       <c r="A11" s="28" t="s">
-        <v>1259</v>
+        <v>1256</v>
       </c>
       <c r="B11" s="28">
         <v>0</v>
@@ -7397,7 +7988,7 @@
     </row>
     <row r="12" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A12" s="28" t="s">
-        <v>1243</v>
+        <v>1240</v>
       </c>
       <c r="B12" s="28">
         <v>0</v>
@@ -7425,7 +8016,7 @@
     </row>
     <row r="13" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A13" s="28" t="s">
-        <v>1246</v>
+        <v>1243</v>
       </c>
       <c r="B13" s="28">
         <v>0</v>
@@ -7453,7 +8044,7 @@
     </row>
     <row r="14" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A14" s="28" t="s">
-        <v>1247</v>
+        <v>1244</v>
       </c>
       <c r="B14" s="28">
         <v>0</v>
@@ -7498,7 +8089,7 @@
         <v>0.33</v>
       </c>
       <c r="H15" s="28" t="s">
-        <v>1249</v>
+        <v>1246</v>
       </c>
       <c r="I15" s="28"/>
       <c r="J15" s="28"/>
@@ -7611,7 +8202,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet15.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:P60"/>
   <sheetViews>
@@ -9194,7 +9785,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet15.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet16.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:P12"/>
   <sheetViews>
@@ -9435,7 +10026,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet16.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet17.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:P20"/>
   <sheetViews>
@@ -9921,7 +10512,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet17.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet18.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:P11"/>
   <sheetViews>
@@ -10266,7 +10857,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet18.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet19.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:P33"/>
   <sheetViews>
@@ -10989,7 +11580,225 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet19.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:A40"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="K11" sqref="K11"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="18.42578125" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="2" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="3" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="4" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="5" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="6" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="7" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="8" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="9" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A9" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="10" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A10" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="11" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A11" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="12" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A12" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="13" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A13" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="14" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A14" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="15" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A15" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="16" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A16" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="17" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A17" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="18" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A18" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="19" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A19" t="s">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="20" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A20" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="21" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A21" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="22" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A22" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="23" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A23" t="s">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="24" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A24" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="25" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A25" t="s">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="26" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A26" t="s">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="27" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A27" t="s">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="28" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A28" t="s">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="29" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A29" t="s">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="30" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A30" t="s">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="31" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A31" t="s">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="32" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A32" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="33" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A33" t="s">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="34" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A34" t="s">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="35" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A35" t="s">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="36" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A36" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="37" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A37" t="s">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="38" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A38" t="s">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="39" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A39" t="s">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="40" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A40" t="s">
+        <v>150</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet20.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:P128"/>
   <sheetViews>
@@ -13398,224 +14207,6 @@
   </sortState>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:A40"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="K11" sqref="K11"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <cols>
-    <col min="1" max="1" width="18.42578125" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A1" t="s">
-        <v>110</v>
-      </c>
-    </row>
-    <row r="2" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A2" t="s">
-        <v>112</v>
-      </c>
-    </row>
-    <row r="3" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A3" t="s">
-        <v>113</v>
-      </c>
-    </row>
-    <row r="4" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A4" t="s">
-        <v>114</v>
-      </c>
-    </row>
-    <row r="5" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A5" t="s">
-        <v>115</v>
-      </c>
-    </row>
-    <row r="6" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A6" t="s">
-        <v>116</v>
-      </c>
-    </row>
-    <row r="7" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A7" t="s">
-        <v>117</v>
-      </c>
-    </row>
-    <row r="8" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A8" t="s">
-        <v>118</v>
-      </c>
-    </row>
-    <row r="9" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A9" t="s">
-        <v>119</v>
-      </c>
-    </row>
-    <row r="10" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A10" t="s">
-        <v>120</v>
-      </c>
-    </row>
-    <row r="11" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A11" t="s">
-        <v>121</v>
-      </c>
-    </row>
-    <row r="12" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A12" t="s">
-        <v>122</v>
-      </c>
-    </row>
-    <row r="13" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A13" t="s">
-        <v>123</v>
-      </c>
-    </row>
-    <row r="14" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A14" t="s">
-        <v>124</v>
-      </c>
-    </row>
-    <row r="15" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A15" t="s">
-        <v>125</v>
-      </c>
-    </row>
-    <row r="16" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A16" t="s">
-        <v>126</v>
-      </c>
-    </row>
-    <row r="17" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A17" t="s">
-        <v>127</v>
-      </c>
-    </row>
-    <row r="18" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A18" t="s">
-        <v>128</v>
-      </c>
-    </row>
-    <row r="19" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A19" t="s">
-        <v>129</v>
-      </c>
-    </row>
-    <row r="20" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A20" t="s">
-        <v>130</v>
-      </c>
-    </row>
-    <row r="21" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A21" t="s">
-        <v>131</v>
-      </c>
-    </row>
-    <row r="22" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A22" t="s">
-        <v>132</v>
-      </c>
-    </row>
-    <row r="23" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A23" t="s">
-        <v>133</v>
-      </c>
-    </row>
-    <row r="24" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A24" t="s">
-        <v>134</v>
-      </c>
-    </row>
-    <row r="25" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A25" t="s">
-        <v>135</v>
-      </c>
-    </row>
-    <row r="26" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A26" t="s">
-        <v>136</v>
-      </c>
-    </row>
-    <row r="27" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A27" t="s">
-        <v>137</v>
-      </c>
-    </row>
-    <row r="28" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A28" t="s">
-        <v>138</v>
-      </c>
-    </row>
-    <row r="29" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A29" t="s">
-        <v>139</v>
-      </c>
-    </row>
-    <row r="30" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A30" t="s">
-        <v>140</v>
-      </c>
-    </row>
-    <row r="31" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A31" t="s">
-        <v>141</v>
-      </c>
-    </row>
-    <row r="32" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A32" t="s">
-        <v>142</v>
-      </c>
-    </row>
-    <row r="33" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A33" t="s">
-        <v>143</v>
-      </c>
-    </row>
-    <row r="34" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A34" t="s">
-        <v>144</v>
-      </c>
-    </row>
-    <row r="35" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A35" t="s">
-        <v>145</v>
-      </c>
-    </row>
-    <row r="36" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A36" t="s">
-        <v>146</v>
-      </c>
-    </row>
-    <row r="37" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A37" t="s">
-        <v>147</v>
-      </c>
-    </row>
-    <row r="38" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A38" t="s">
-        <v>148</v>
-      </c>
-    </row>
-    <row r="39" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A39" t="s">
-        <v>149</v>
-      </c>
-    </row>
-    <row r="40" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A40" t="s">
-        <v>150</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
@@ -57910,7 +58501,7 @@
   <dimension ref="A1:P17"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D9" sqref="D9"/>
+      <selection activeCell="I9" sqref="I9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -58047,7 +58638,7 @@
     </row>
     <row r="4" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A4" s="28" t="s">
-        <v>1260</v>
+        <v>1257</v>
       </c>
       <c r="B4" s="28">
         <v>0</v>
@@ -58085,7 +58676,7 @@
     </row>
     <row r="5" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A5" s="28" t="s">
-        <v>1261</v>
+        <v>1258</v>
       </c>
       <c r="B5" s="28">
         <v>0</v>
@@ -58123,7 +58714,7 @@
     </row>
     <row r="6" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A6" s="28" t="s">
-        <v>1262</v>
+        <v>1259</v>
       </c>
       <c r="B6" s="28">
         <v>0</v>
@@ -58134,13 +58725,13 @@
       <c r="D6" s="28"/>
       <c r="E6" s="28"/>
       <c r="F6" s="28">
-        <v>8</v>
+        <v>-8</v>
       </c>
       <c r="G6" s="28">
-        <v>-40</v>
+        <v>40</v>
       </c>
       <c r="H6" s="28" t="s">
-        <v>1241</v>
+        <v>1238</v>
       </c>
       <c r="I6" s="28"/>
       <c r="J6" s="28"/>
@@ -58161,7 +58752,7 @@
     </row>
     <row r="7" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A7" s="28" t="s">
-        <v>1263</v>
+        <v>1260</v>
       </c>
       <c r="B7" s="28">
         <v>0</v>
@@ -58199,7 +58790,7 @@
     </row>
     <row r="8" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A8" s="28" t="s">
-        <v>1264</v>
+        <v>1261</v>
       </c>
       <c r="B8" s="28">
         <v>0</v>
@@ -58207,37 +58798,31 @@
       <c r="C8" s="28">
         <v>3000</v>
       </c>
-      <c r="D8" s="28">
-        <v>30</v>
-      </c>
+      <c r="D8" s="28"/>
       <c r="E8" s="28"/>
       <c r="F8" s="28">
         <v>-8</v>
       </c>
       <c r="G8" s="28">
-        <v>1</v>
+        <v>30</v>
       </c>
       <c r="H8" s="28" t="s">
         <v>1117</v>
       </c>
-      <c r="I8" s="28" t="s">
-        <v>1125</v>
-      </c>
+      <c r="I8" s="28"/>
       <c r="J8" s="1"/>
       <c r="K8" s="28"/>
       <c r="L8" s="28" t="s">
         <v>1077</v>
       </c>
-      <c r="M8" s="1" t="s">
-        <v>1266</v>
-      </c>
+      <c r="M8" s="1"/>
       <c r="N8" s="28"/>
       <c r="O8" s="28"/>
       <c r="P8" s="28"/>
     </row>
     <row r="9" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A9" s="28" t="s">
-        <v>1265</v>
+        <v>1262</v>
       </c>
       <c r="B9" s="28">
         <v>0</v>
@@ -58245,27 +58830,33 @@
       <c r="C9" s="28">
         <v>3000</v>
       </c>
-      <c r="D9" s="28"/>
+      <c r="D9" s="28">
+        <v>15</v>
+      </c>
       <c r="E9" s="28"/>
       <c r="F9" s="28">
-        <v>8</v>
+        <v>-8</v>
       </c>
       <c r="G9" s="28">
-        <v>-10</v>
+        <v>10</v>
       </c>
       <c r="H9" s="28" t="s">
         <v>1118</v>
       </c>
-      <c r="J9" s="28"/>
+      <c r="I9" t="s">
+        <v>1124</v>
+      </c>
       <c r="K9" s="28"/>
-      <c r="M9" s="28"/>
+      <c r="M9" s="1" t="s">
+        <v>1269</v>
+      </c>
       <c r="N9" s="28"/>
       <c r="O9" s="28"/>
       <c r="P9" s="28"/>
     </row>
     <row r="10" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A10" s="28" t="s">
-        <v>1243</v>
+        <v>1240</v>
       </c>
       <c r="B10" s="28">
         <v>0</v>
@@ -58295,7 +58886,7 @@
     </row>
     <row r="11" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A11" s="28" t="s">
-        <v>1244</v>
+        <v>1241</v>
       </c>
       <c r="B11" s="28">
         <v>0</v>
@@ -58312,7 +58903,7 @@
         <v>0</v>
       </c>
       <c r="H11" s="28" t="s">
-        <v>1238</v>
+        <v>1235</v>
       </c>
       <c r="I11" s="28"/>
       <c r="J11" s="28"/>
@@ -58325,7 +58916,7 @@
     </row>
     <row r="12" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A12" s="28" t="s">
-        <v>1235</v>
+        <v>1232</v>
       </c>
       <c r="B12" s="28">
         <v>0</v>
@@ -58342,7 +58933,7 @@
         <v>0.33</v>
       </c>
       <c r="H12" s="28" t="s">
-        <v>1242</v>
+        <v>1239</v>
       </c>
       <c r="I12" s="28"/>
       <c r="J12" s="28"/>
@@ -58385,7 +58976,7 @@
     </row>
     <row r="14" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A14" s="28" t="s">
-        <v>1236</v>
+        <v>1233</v>
       </c>
       <c r="B14" s="28">
         <v>0</v>
@@ -58402,7 +58993,7 @@
         <v>0</v>
       </c>
       <c r="H14" s="28" t="s">
-        <v>1237</v>
+        <v>1234</v>
       </c>
       <c r="I14" s="28"/>
       <c r="J14" s="28"/>
@@ -58432,7 +59023,7 @@
         <v>0</v>
       </c>
       <c r="H15" s="28" t="s">
-        <v>1234</v>
+        <v>1231</v>
       </c>
       <c r="I15" s="28"/>
       <c r="J15" s="28"/>
@@ -58445,7 +59036,7 @@
     </row>
     <row r="16" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
-        <v>1245</v>
+        <v>1242</v>
       </c>
       <c r="B16">
         <v>0</v>
@@ -58460,7 +59051,7 @@
         <v>0</v>
       </c>
       <c r="H16" t="s">
-        <v>1240</v>
+        <v>1237</v>
       </c>
       <c r="I16" s="28"/>
       <c r="J16" s="28"/>
@@ -58488,7 +59079,7 @@
         <v>0</v>
       </c>
       <c r="H17" t="s">
-        <v>1239</v>
+        <v>1236</v>
       </c>
       <c r="I17" s="28"/>
       <c r="J17" s="28"/>
@@ -58509,7 +59100,7 @@
   <dimension ref="A1:P17"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A13" sqref="A13"/>
+      <selection sqref="A1:P17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -58570,8 +59161,14 @@
       </c>
     </row>
     <row r="2" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A2" t="s">
+      <c r="A2" s="28" t="s">
         <v>1206</v>
+      </c>
+      <c r="B2">
+        <v>0</v>
+      </c>
+      <c r="C2" s="28">
+        <v>0</v>
       </c>
       <c r="H2" t="s">
         <v>1207</v>
@@ -58631,13 +59228,13 @@
     </row>
     <row r="4" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A4" s="28" t="s">
-        <v>1054</v>
+        <v>1257</v>
       </c>
       <c r="B4" s="28">
         <v>0</v>
       </c>
       <c r="C4" s="28">
-        <v>0</v>
+        <v>3000</v>
       </c>
       <c r="D4" s="28"/>
       <c r="E4" s="28"/>
@@ -58669,13 +59266,13 @@
     </row>
     <row r="5" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A5" s="28" t="s">
-        <v>764</v>
+        <v>1258</v>
       </c>
       <c r="B5" s="28">
         <v>0</v>
       </c>
       <c r="C5" s="28">
-        <v>0</v>
+        <v>3000</v>
       </c>
       <c r="D5" s="28"/>
       <c r="E5" s="28"/>
@@ -58707,24 +59304,24 @@
     </row>
     <row r="6" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A6" s="28" t="s">
-        <v>1055</v>
+        <v>1259</v>
       </c>
       <c r="B6" s="28">
         <v>0</v>
       </c>
       <c r="C6" s="28">
-        <v>0</v>
+        <v>3000</v>
       </c>
       <c r="D6" s="28"/>
       <c r="E6" s="28"/>
       <c r="F6" s="28">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="G6" s="28">
-        <v>40</v>
+        <v>-40</v>
       </c>
       <c r="H6" s="28" t="s">
-        <v>1231</v>
+        <v>1263</v>
       </c>
       <c r="I6" s="28"/>
       <c r="J6" s="28"/>
@@ -58745,13 +59342,13 @@
     </row>
     <row r="7" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A7" s="28" t="s">
-        <v>1056</v>
+        <v>1260</v>
       </c>
       <c r="B7" s="28">
         <v>0</v>
       </c>
       <c r="C7" s="28">
-        <v>0</v>
+        <v>3000</v>
       </c>
       <c r="D7" s="28"/>
       <c r="E7" s="28"/>
@@ -58783,13 +59380,13 @@
     </row>
     <row r="8" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A8" s="28" t="s">
-        <v>1059</v>
+        <v>1261</v>
       </c>
       <c r="B8" s="28">
         <v>0</v>
       </c>
       <c r="C8" s="28">
-        <v>0</v>
+        <v>3000</v>
       </c>
       <c r="D8" s="28"/>
       <c r="E8" s="28"/>
@@ -58815,24 +59412,24 @@
     </row>
     <row r="9" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A9" s="28" t="s">
-        <v>1058</v>
+        <v>1262</v>
       </c>
       <c r="B9" s="28">
         <v>0</v>
       </c>
       <c r="C9" s="28">
-        <v>0</v>
+        <v>3000</v>
       </c>
       <c r="D9" s="28"/>
       <c r="E9" s="28"/>
       <c r="F9" s="28">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="G9" s="28">
-        <v>20</v>
+        <v>-20</v>
       </c>
       <c r="H9" s="28" t="s">
-        <v>1232</v>
+        <v>1264</v>
       </c>
       <c r="I9" s="28"/>
       <c r="J9" s="28"/>
@@ -58845,7 +59442,7 @@
     </row>
     <row r="10" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A10" s="28" t="s">
-        <v>1243</v>
+        <v>1240</v>
       </c>
       <c r="B10" s="28">
         <v>0</v>
@@ -58875,7 +59472,7 @@
     </row>
     <row r="11" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A11" s="28" t="s">
-        <v>1245</v>
+        <v>1242</v>
       </c>
       <c r="B11" s="28">
         <v>0</v>
@@ -58892,17 +59489,17 @@
         <v>2.5</v>
       </c>
       <c r="H11" s="28" t="s">
-        <v>1240</v>
+        <v>1237</v>
       </c>
     </row>
     <row r="12" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
-        <v>1244</v>
+        <v>1241</v>
       </c>
       <c r="B12">
         <v>0</v>
       </c>
-      <c r="C12">
+      <c r="C12" s="28">
         <v>0</v>
       </c>
       <c r="F12">
@@ -58912,17 +59509,17 @@
         <v>0</v>
       </c>
       <c r="H12" t="s">
-        <v>1238</v>
+        <v>1235</v>
       </c>
     </row>
     <row r="13" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A13" t="s">
-        <v>1235</v>
+      <c r="A13" s="28" t="s">
+        <v>1232</v>
       </c>
       <c r="B13">
         <v>0</v>
       </c>
-      <c r="C13">
+      <c r="C13" s="28">
         <v>0</v>
       </c>
       <c r="F13">
@@ -58932,11 +59529,11 @@
         <v>0.33</v>
       </c>
       <c r="H13" t="s">
-        <v>1233</v>
+        <v>1239</v>
       </c>
     </row>
     <row r="14" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A14" t="s">
+      <c r="A14" s="28" t="s">
         <v>1201</v>
       </c>
       <c r="B14" s="28">
@@ -58976,23 +59573,35 @@
         <v>0</v>
       </c>
       <c r="H15" t="s">
-        <v>1239</v>
+        <v>1236</v>
       </c>
     </row>
     <row r="16" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A16" t="s">
-        <v>1236</v>
+      <c r="A16" s="28" t="s">
+        <v>1233</v>
+      </c>
+      <c r="B16">
+        <v>0</v>
+      </c>
+      <c r="C16" s="28">
+        <v>0</v>
       </c>
       <c r="H16" t="s">
-        <v>1237</v>
+        <v>1234</v>
       </c>
     </row>
     <row r="17" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A17" t="s">
+      <c r="A17" s="28" t="s">
         <v>1204</v>
       </c>
+      <c r="B17">
+        <v>0</v>
+      </c>
+      <c r="C17" s="28">
+        <v>0</v>
+      </c>
       <c r="H17" t="s">
-        <v>1234</v>
+        <v>1231</v>
       </c>
     </row>
   </sheetData>

--- a/KineticModel/test.xlsx
+++ b/KineticModel/test.xlsx
@@ -5,11 +5,11 @@
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\shyam\Documents\Courses\CHE1125Project\IntegratedModels\KineticModel\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Shyam\Documents\Courses\CHE1125Project\IntegratedModels\KineticModel\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="240" yWindow="4665" windowWidth="16275" windowHeight="3180" firstSheet="16" activeTab="16"/>
+    <workbookView xWindow="240" yWindow="4665" windowWidth="16275" windowHeight="3180" firstSheet="5" activeTab="7"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -19,25 +19,25 @@
     <sheet name="MN 1" sheetId="6" r:id="rId5"/>
     <sheet name="SN 1" sheetId="7" r:id="rId6"/>
     <sheet name="N2" sheetId="13" r:id="rId7"/>
-    <sheet name="testN2m" sheetId="12" r:id="rId8"/>
-    <sheet name="lacOP" sheetId="16" r:id="rId9"/>
-    <sheet name="N2lacZ" sheetId="15" r:id="rId10"/>
-    <sheet name="N3" sheetId="14" r:id="rId11"/>
-    <sheet name="PTS" sheetId="8" r:id="rId12"/>
-    <sheet name="Sheet6" sheetId="10" r:id="rId13"/>
-    <sheet name="Sheet3" sheetId="9" r:id="rId14"/>
-    <sheet name="Sheet7" sheetId="11" r:id="rId15"/>
-    <sheet name="N2mD" sheetId="17" r:id="rId16"/>
-    <sheet name="N2mR" sheetId="20" r:id="rId17"/>
-    <sheet name="N3m" sheetId="19" r:id="rId18"/>
-    <sheet name="EcoliCCM" sheetId="18" r:id="rId19"/>
+    <sheet name="N2mR" sheetId="20" r:id="rId8"/>
+    <sheet name="N2mD" sheetId="17" r:id="rId9"/>
+    <sheet name="lacOP" sheetId="16" r:id="rId10"/>
+    <sheet name="N2lacZ" sheetId="15" r:id="rId11"/>
+    <sheet name="N3" sheetId="14" r:id="rId12"/>
+    <sheet name="N3mD" sheetId="19" r:id="rId13"/>
+    <sheet name="PTS" sheetId="8" r:id="rId14"/>
+    <sheet name="Sheet6" sheetId="10" r:id="rId15"/>
+    <sheet name="Sheet3" sheetId="9" r:id="rId16"/>
+    <sheet name="Sheet7" sheetId="11" r:id="rId17"/>
+    <sheet name="EcoliCCM" sheetId="18" r:id="rId18"/>
+    <sheet name="testN2m" sheetId="12" r:id="rId19"/>
   </sheets>
   <calcPr calcId="152511"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2323" uniqueCount="1247">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2320" uniqueCount="1250">
   <si>
     <t>Name</t>
   </si>
@@ -3753,12 +3753,6 @@
     <t>Bex</t>
   </si>
   <si>
-    <t>exS</t>
-  </si>
-  <si>
-    <t>[c] : 10 M  + 5 N ---&gt; biomass</t>
-  </si>
-  <si>
     <t>[c] : D ---&gt; A</t>
   </si>
   <si>
@@ -3795,10 +3789,25 @@
     <t>B[c] ---&gt; Biomass[c]</t>
   </si>
   <si>
-    <t>C[c],D[c],P[c],E[c]</t>
-  </si>
-  <si>
-    <t>2,2,2,0.05</t>
+    <t>Pout</t>
+  </si>
+  <si>
+    <t>Dout</t>
+  </si>
+  <si>
+    <t>Eout</t>
+  </si>
+  <si>
+    <t>Bout</t>
+  </si>
+  <si>
+    <t>Aout</t>
+  </si>
+  <si>
+    <t>Sex</t>
+  </si>
+  <si>
+    <t>[c] : M  + N ---&gt; biomass</t>
   </si>
 </sst>
 </file>
@@ -5401,6 +5410,422 @@
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:P12"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="J10" sqref="J10"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="8" max="8" width="19.42578125" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:16" s="28" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="28" t="s">
+        <v>565</v>
+      </c>
+      <c r="B1" s="28" t="s">
+        <v>728</v>
+      </c>
+      <c r="C1" s="28" t="s">
+        <v>731</v>
+      </c>
+      <c r="D1" s="28" t="s">
+        <v>729</v>
+      </c>
+      <c r="E1" s="28" t="s">
+        <v>730</v>
+      </c>
+      <c r="F1" s="28" t="s">
+        <v>830</v>
+      </c>
+      <c r="G1" s="28" t="s">
+        <v>818</v>
+      </c>
+      <c r="H1" s="28" t="s">
+        <v>1</v>
+      </c>
+      <c r="I1" s="28" t="s">
+        <v>608</v>
+      </c>
+      <c r="J1" s="28" t="s">
+        <v>609</v>
+      </c>
+      <c r="K1" s="28" t="s">
+        <v>654</v>
+      </c>
+      <c r="L1" s="28" t="s">
+        <v>656</v>
+      </c>
+      <c r="M1" s="28" t="s">
+        <v>657</v>
+      </c>
+      <c r="N1" s="28" t="s">
+        <v>726</v>
+      </c>
+      <c r="O1" s="28" t="s">
+        <v>828</v>
+      </c>
+      <c r="P1" s="28" t="s">
+        <v>829</v>
+      </c>
+    </row>
+    <row r="2" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>1114</v>
+      </c>
+      <c r="B2" s="28">
+        <v>0</v>
+      </c>
+      <c r="C2" s="28">
+        <v>0</v>
+      </c>
+      <c r="D2" s="28"/>
+      <c r="E2" s="28"/>
+      <c r="F2" s="28">
+        <v>-0.5</v>
+      </c>
+      <c r="G2" s="28">
+        <v>1</v>
+      </c>
+      <c r="H2" s="1" t="s">
+        <v>1097</v>
+      </c>
+      <c r="I2" s="28"/>
+      <c r="J2" s="28"/>
+      <c r="K2" s="28"/>
+      <c r="L2" s="28" t="s">
+        <v>667</v>
+      </c>
+      <c r="M2" s="28"/>
+      <c r="N2" t="s">
+        <v>1030</v>
+      </c>
+      <c r="O2">
+        <v>0.1</v>
+      </c>
+      <c r="P2">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="3" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>1115</v>
+      </c>
+      <c r="B3" s="28">
+        <v>0</v>
+      </c>
+      <c r="C3" s="28">
+        <v>0</v>
+      </c>
+      <c r="D3" s="28"/>
+      <c r="E3" s="28"/>
+      <c r="F3" s="28">
+        <v>-0.5</v>
+      </c>
+      <c r="G3" s="28">
+        <v>0.33</v>
+      </c>
+      <c r="H3" s="28" t="s">
+        <v>1126</v>
+      </c>
+      <c r="I3" s="28"/>
+      <c r="J3" s="28"/>
+      <c r="K3" s="28"/>
+      <c r="L3" s="28" t="s">
+        <v>667</v>
+      </c>
+      <c r="M3" s="28"/>
+      <c r="N3" t="s">
+        <v>1121</v>
+      </c>
+      <c r="O3" s="28">
+        <v>0.1</v>
+      </c>
+      <c r="P3" s="28">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="4" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>1054</v>
+      </c>
+      <c r="B4" s="28">
+        <v>0</v>
+      </c>
+      <c r="C4" s="28">
+        <v>0</v>
+      </c>
+      <c r="D4" s="28"/>
+      <c r="E4" s="28"/>
+      <c r="F4" s="28">
+        <v>-0.5</v>
+      </c>
+      <c r="G4" s="28">
+        <v>0.33</v>
+      </c>
+      <c r="H4" s="28" t="s">
+        <v>1127</v>
+      </c>
+      <c r="I4" s="28"/>
+      <c r="J4" s="28"/>
+      <c r="K4" s="28"/>
+      <c r="L4" s="28" t="s">
+        <v>667</v>
+      </c>
+      <c r="N4" t="s">
+        <v>1122</v>
+      </c>
+      <c r="O4" s="28">
+        <v>0.1</v>
+      </c>
+      <c r="P4" s="28">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="5" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>1055</v>
+      </c>
+      <c r="B5" s="28">
+        <v>0</v>
+      </c>
+      <c r="C5" s="28">
+        <v>0</v>
+      </c>
+      <c r="D5" s="28"/>
+      <c r="E5" s="28"/>
+      <c r="F5" s="28">
+        <v>-0.5</v>
+      </c>
+      <c r="G5" s="28">
+        <v>0.34</v>
+      </c>
+      <c r="H5" s="28" t="s">
+        <v>1128</v>
+      </c>
+      <c r="I5" s="28"/>
+      <c r="J5" s="28"/>
+      <c r="K5" s="28"/>
+      <c r="L5" s="28" t="s">
+        <v>667</v>
+      </c>
+      <c r="N5" t="s">
+        <v>1123</v>
+      </c>
+      <c r="O5" s="28">
+        <v>0.1</v>
+      </c>
+      <c r="P5" s="28">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="6" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>1056</v>
+      </c>
+      <c r="B6" s="28">
+        <v>0</v>
+      </c>
+      <c r="C6" s="28">
+        <v>0</v>
+      </c>
+      <c r="D6" s="28"/>
+      <c r="E6" s="28"/>
+      <c r="F6" s="28">
+        <v>-0.5</v>
+      </c>
+      <c r="G6" s="28">
+        <v>0.16500000000000001</v>
+      </c>
+      <c r="H6" s="28" t="s">
+        <v>1116</v>
+      </c>
+      <c r="I6" s="28"/>
+      <c r="J6" s="28"/>
+      <c r="K6" s="28"/>
+      <c r="L6" s="28" t="s">
+        <v>667</v>
+      </c>
+      <c r="N6" t="s">
+        <v>1124</v>
+      </c>
+      <c r="O6" s="28">
+        <v>0.1</v>
+      </c>
+      <c r="P6" s="28">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="7" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
+        <v>1059</v>
+      </c>
+      <c r="B7" s="28">
+        <v>0</v>
+      </c>
+      <c r="C7" s="28">
+        <v>0</v>
+      </c>
+      <c r="D7" s="28"/>
+      <c r="E7" s="28"/>
+      <c r="F7" s="28">
+        <v>-0.5</v>
+      </c>
+      <c r="G7" s="28">
+        <v>0.16500000000000001</v>
+      </c>
+      <c r="H7" s="28" t="s">
+        <v>1117</v>
+      </c>
+      <c r="I7" s="28"/>
+      <c r="J7" s="28"/>
+      <c r="K7" s="28"/>
+      <c r="L7" s="28" t="s">
+        <v>667</v>
+      </c>
+      <c r="N7" t="s">
+        <v>1125</v>
+      </c>
+      <c r="O7" s="28">
+        <v>0.1</v>
+      </c>
+      <c r="P7" s="28">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="8" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
+        <v>1058</v>
+      </c>
+      <c r="B8" s="28">
+        <v>0</v>
+      </c>
+      <c r="C8" s="28">
+        <v>0</v>
+      </c>
+      <c r="D8" s="28"/>
+      <c r="E8" s="28"/>
+      <c r="F8" s="28">
+        <v>-0.5</v>
+      </c>
+      <c r="G8" s="28">
+        <v>0.33</v>
+      </c>
+      <c r="H8" s="28" t="s">
+        <v>1118</v>
+      </c>
+      <c r="I8" s="28"/>
+      <c r="J8" s="28"/>
+      <c r="K8" s="28"/>
+      <c r="L8" s="28" t="s">
+        <v>1077</v>
+      </c>
+      <c r="N8" t="s">
+        <v>1091</v>
+      </c>
+      <c r="O8" s="4">
+        <v>9.9999999999999995E-7</v>
+      </c>
+      <c r="P8">
+        <v>0.01</v>
+      </c>
+    </row>
+    <row r="9" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A9" t="s">
+        <v>1060</v>
+      </c>
+      <c r="B9" s="28">
+        <v>0</v>
+      </c>
+      <c r="C9" s="28">
+        <v>0</v>
+      </c>
+      <c r="D9" s="28"/>
+      <c r="E9" s="28"/>
+      <c r="F9" s="28">
+        <v>-0.5</v>
+      </c>
+      <c r="G9" s="28">
+        <v>0.495</v>
+      </c>
+      <c r="H9" s="28" t="s">
+        <v>1120</v>
+      </c>
+      <c r="I9" s="28"/>
+      <c r="J9" s="28"/>
+      <c r="K9" s="28"/>
+      <c r="L9" s="28"/>
+      <c r="N9" t="s">
+        <v>1130</v>
+      </c>
+      <c r="O9" s="4">
+        <v>9.9999999999999995E-7</v>
+      </c>
+      <c r="P9" s="4">
+        <v>1E-4</v>
+      </c>
+    </row>
+    <row r="10" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A10" t="s">
+        <v>1061</v>
+      </c>
+      <c r="B10" s="28">
+        <v>0</v>
+      </c>
+      <c r="C10" s="28">
+        <v>0</v>
+      </c>
+      <c r="D10" s="28"/>
+      <c r="E10" s="28"/>
+      <c r="F10" s="28">
+        <v>-0.5</v>
+      </c>
+      <c r="G10" s="28">
+        <v>0.33</v>
+      </c>
+      <c r="H10" s="28" t="s">
+        <v>1119</v>
+      </c>
+      <c r="I10" s="28"/>
+      <c r="J10" s="28"/>
+      <c r="K10" s="28"/>
+      <c r="L10" s="28"/>
+    </row>
+    <row r="11" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A11" t="s">
+        <v>1129</v>
+      </c>
+      <c r="B11">
+        <v>0</v>
+      </c>
+      <c r="C11">
+        <v>0</v>
+      </c>
+      <c r="F11">
+        <v>-0.5</v>
+      </c>
+      <c r="G11">
+        <v>0.33</v>
+      </c>
+      <c r="H11" t="s">
+        <v>1131</v>
+      </c>
+    </row>
+    <row r="12" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A12" t="s">
+        <v>1091</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:P20"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -5922,7 +6347,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:P13"/>
   <sheetViews>
@@ -6321,7 +6746,635 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:P19"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="G10" sqref="G10"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData>
+    <row r="1" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A1" s="28" t="s">
+        <v>565</v>
+      </c>
+      <c r="B1" s="28" t="s">
+        <v>728</v>
+      </c>
+      <c r="C1" s="28" t="s">
+        <v>731</v>
+      </c>
+      <c r="D1" s="28" t="s">
+        <v>729</v>
+      </c>
+      <c r="E1" s="28" t="s">
+        <v>730</v>
+      </c>
+      <c r="F1" s="28" t="s">
+        <v>830</v>
+      </c>
+      <c r="G1" s="28" t="s">
+        <v>818</v>
+      </c>
+      <c r="H1" s="28" t="s">
+        <v>1</v>
+      </c>
+      <c r="I1" s="28" t="s">
+        <v>608</v>
+      </c>
+      <c r="J1" s="28" t="s">
+        <v>609</v>
+      </c>
+      <c r="K1" s="28" t="s">
+        <v>654</v>
+      </c>
+      <c r="L1" s="28" t="s">
+        <v>656</v>
+      </c>
+      <c r="M1" s="28" t="s">
+        <v>657</v>
+      </c>
+      <c r="N1" s="28" t="s">
+        <v>726</v>
+      </c>
+      <c r="O1" s="28" t="s">
+        <v>828</v>
+      </c>
+      <c r="P1" s="28" t="s">
+        <v>829</v>
+      </c>
+    </row>
+    <row r="2" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A2" s="28" t="s">
+        <v>1248</v>
+      </c>
+      <c r="B2" s="28"/>
+      <c r="C2" s="28"/>
+      <c r="D2" s="28"/>
+      <c r="E2" s="28"/>
+      <c r="F2" s="28"/>
+      <c r="G2" s="28"/>
+      <c r="H2" s="28" t="s">
+        <v>1208</v>
+      </c>
+      <c r="I2" s="28"/>
+      <c r="J2" s="28"/>
+      <c r="K2" s="28"/>
+      <c r="L2" s="28"/>
+      <c r="M2" s="28"/>
+      <c r="N2" s="28" t="s">
+        <v>1190</v>
+      </c>
+      <c r="O2" s="28">
+        <v>0.1</v>
+      </c>
+      <c r="P2" s="28">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="3" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A3" s="28" t="s">
+        <v>1057</v>
+      </c>
+      <c r="B3" s="28">
+        <v>0</v>
+      </c>
+      <c r="C3" s="28">
+        <v>0</v>
+      </c>
+      <c r="D3" s="28"/>
+      <c r="E3" s="28"/>
+      <c r="F3" s="28">
+        <v>-8</v>
+      </c>
+      <c r="G3" s="28">
+        <v>20</v>
+      </c>
+      <c r="H3" s="1" t="s">
+        <v>1209</v>
+      </c>
+      <c r="I3" s="28"/>
+      <c r="J3" s="28"/>
+      <c r="K3" s="28"/>
+      <c r="L3" s="28"/>
+      <c r="M3" s="28"/>
+      <c r="N3" s="28" t="s">
+        <v>1223</v>
+      </c>
+      <c r="O3" s="28">
+        <v>0.1</v>
+      </c>
+      <c r="P3" s="28">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="4" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A4" s="28" t="s">
+        <v>1054</v>
+      </c>
+      <c r="B4" s="28">
+        <v>0</v>
+      </c>
+      <c r="C4" s="28">
+        <v>0</v>
+      </c>
+      <c r="D4" s="28"/>
+      <c r="E4" s="28"/>
+      <c r="F4" s="28">
+        <v>-8</v>
+      </c>
+      <c r="G4" s="28">
+        <v>2.5</v>
+      </c>
+      <c r="H4" s="28" t="s">
+        <v>1210</v>
+      </c>
+      <c r="I4" s="28"/>
+      <c r="J4" s="28"/>
+      <c r="K4" s="28"/>
+      <c r="L4" s="28"/>
+      <c r="M4" s="28"/>
+      <c r="N4" s="28" t="s">
+        <v>1121</v>
+      </c>
+      <c r="O4" s="28">
+        <v>0.1</v>
+      </c>
+      <c r="P4" s="28">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="5" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A5" s="28" t="s">
+        <v>764</v>
+      </c>
+      <c r="B5" s="28">
+        <v>0</v>
+      </c>
+      <c r="C5" s="28">
+        <v>0</v>
+      </c>
+      <c r="D5" s="28"/>
+      <c r="E5" s="28"/>
+      <c r="F5" s="28">
+        <v>-8</v>
+      </c>
+      <c r="G5" s="28">
+        <v>2.5</v>
+      </c>
+      <c r="H5" s="28" t="s">
+        <v>1211</v>
+      </c>
+      <c r="I5" s="28"/>
+      <c r="J5" s="28"/>
+      <c r="K5" s="28"/>
+      <c r="L5" s="28"/>
+      <c r="M5" s="28"/>
+      <c r="N5" s="28" t="s">
+        <v>1224</v>
+      </c>
+      <c r="O5" s="28">
+        <v>0.1</v>
+      </c>
+      <c r="P5" s="28">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="6" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A6" s="28" t="s">
+        <v>1055</v>
+      </c>
+      <c r="B6" s="28">
+        <v>0</v>
+      </c>
+      <c r="C6" s="28">
+        <v>0</v>
+      </c>
+      <c r="D6" s="28"/>
+      <c r="E6" s="28"/>
+      <c r="F6" s="28">
+        <v>-8</v>
+      </c>
+      <c r="G6" s="28">
+        <v>10</v>
+      </c>
+      <c r="H6" s="28" t="s">
+        <v>1212</v>
+      </c>
+      <c r="I6" s="28"/>
+      <c r="J6" s="28"/>
+      <c r="K6" s="28"/>
+      <c r="L6" s="28"/>
+      <c r="M6" s="28"/>
+      <c r="N6" s="28" t="s">
+        <v>1125</v>
+      </c>
+      <c r="O6" s="28">
+        <v>0.1</v>
+      </c>
+      <c r="P6" s="28">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="7" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A7" s="28" t="s">
+        <v>1059</v>
+      </c>
+      <c r="B7" s="28">
+        <v>0</v>
+      </c>
+      <c r="C7" s="28">
+        <v>0</v>
+      </c>
+      <c r="D7" s="28"/>
+      <c r="E7" s="28"/>
+      <c r="F7" s="28">
+        <v>-8</v>
+      </c>
+      <c r="G7" s="28">
+        <v>5</v>
+      </c>
+      <c r="H7" s="28" t="s">
+        <v>1213</v>
+      </c>
+      <c r="I7" s="28"/>
+      <c r="J7" s="28"/>
+      <c r="K7" s="28"/>
+      <c r="L7" s="28"/>
+      <c r="M7" s="28"/>
+      <c r="N7" s="28" t="s">
+        <v>1225</v>
+      </c>
+      <c r="O7" s="28">
+        <v>0.1</v>
+      </c>
+      <c r="P7" s="28">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="8" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A8" s="28" t="s">
+        <v>1056</v>
+      </c>
+      <c r="B8" s="28">
+        <v>0</v>
+      </c>
+      <c r="C8" s="28">
+        <v>0</v>
+      </c>
+      <c r="D8" s="28"/>
+      <c r="E8" s="28"/>
+      <c r="F8" s="28">
+        <v>-8</v>
+      </c>
+      <c r="G8" s="28">
+        <v>10</v>
+      </c>
+      <c r="H8" s="28" t="s">
+        <v>1214</v>
+      </c>
+      <c r="I8" s="28"/>
+      <c r="J8" s="28"/>
+      <c r="K8" s="28"/>
+      <c r="L8" s="28"/>
+      <c r="M8" s="28"/>
+      <c r="N8" s="28" t="s">
+        <v>1226</v>
+      </c>
+      <c r="O8" s="28">
+        <v>0.1</v>
+      </c>
+      <c r="P8" s="28">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="9" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A9" s="28" t="s">
+        <v>1058</v>
+      </c>
+      <c r="B9" s="28">
+        <v>0</v>
+      </c>
+      <c r="C9" s="28">
+        <v>0</v>
+      </c>
+      <c r="D9" s="28"/>
+      <c r="E9" s="28"/>
+      <c r="F9" s="28">
+        <v>8</v>
+      </c>
+      <c r="G9" s="28">
+        <v>-5</v>
+      </c>
+      <c r="H9" s="28" t="s">
+        <v>1215</v>
+      </c>
+      <c r="I9" s="28"/>
+      <c r="J9" s="28"/>
+      <c r="K9" s="28"/>
+      <c r="L9" s="28"/>
+      <c r="M9" s="28"/>
+      <c r="N9" s="28" t="s">
+        <v>1227</v>
+      </c>
+      <c r="O9" s="28">
+        <v>0.1</v>
+      </c>
+      <c r="P9" s="28">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="10" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A10" t="s">
+        <v>1063</v>
+      </c>
+      <c r="B10" s="28">
+        <v>0</v>
+      </c>
+      <c r="C10" s="28">
+        <v>0</v>
+      </c>
+      <c r="D10" s="28"/>
+      <c r="E10" s="28"/>
+      <c r="F10" s="28">
+        <v>-8</v>
+      </c>
+      <c r="G10" s="28">
+        <v>0.25</v>
+      </c>
+      <c r="H10" t="s">
+        <v>1216</v>
+      </c>
+      <c r="I10" s="28"/>
+      <c r="J10" s="28"/>
+      <c r="K10" s="28"/>
+      <c r="L10" s="28"/>
+      <c r="M10" s="28"/>
+      <c r="N10" s="28" t="s">
+        <v>1228</v>
+      </c>
+      <c r="O10" s="28">
+        <v>0.1</v>
+      </c>
+      <c r="P10" s="28">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="11" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A11" t="s">
+        <v>1064</v>
+      </c>
+      <c r="B11" s="28">
+        <v>0</v>
+      </c>
+      <c r="C11" s="28">
+        <v>0</v>
+      </c>
+      <c r="D11" s="28"/>
+      <c r="E11" s="28"/>
+      <c r="F11" s="28">
+        <v>-8</v>
+      </c>
+      <c r="G11" s="28">
+        <v>0.25</v>
+      </c>
+      <c r="H11" t="s">
+        <v>1217</v>
+      </c>
+      <c r="I11" s="28"/>
+      <c r="J11" s="28"/>
+      <c r="K11" s="28"/>
+      <c r="L11" s="28"/>
+      <c r="M11" s="28"/>
+      <c r="N11" s="28" t="s">
+        <v>1229</v>
+      </c>
+      <c r="O11" s="28">
+        <v>0.1</v>
+      </c>
+      <c r="P11" s="28">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="12" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A12" s="28" t="s">
+        <v>1243</v>
+      </c>
+      <c r="B12" s="28">
+        <v>0</v>
+      </c>
+      <c r="C12" s="28">
+        <v>0</v>
+      </c>
+      <c r="D12" s="28"/>
+      <c r="E12" s="28"/>
+      <c r="F12" s="28">
+        <v>0</v>
+      </c>
+      <c r="G12" s="28"/>
+      <c r="H12" s="28" t="s">
+        <v>1189</v>
+      </c>
+      <c r="I12" s="28"/>
+      <c r="J12" s="28"/>
+      <c r="K12" s="28"/>
+      <c r="L12" s="28"/>
+      <c r="M12" s="28"/>
+      <c r="N12" s="28"/>
+      <c r="O12" s="28"/>
+      <c r="P12" s="28"/>
+    </row>
+    <row r="13" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A13" s="28" t="s">
+        <v>1246</v>
+      </c>
+      <c r="B13" s="28">
+        <v>0</v>
+      </c>
+      <c r="C13" s="28">
+        <v>0</v>
+      </c>
+      <c r="D13" s="28"/>
+      <c r="E13" s="28"/>
+      <c r="F13" s="28">
+        <v>0</v>
+      </c>
+      <c r="G13" s="28"/>
+      <c r="H13" s="28" t="s">
+        <v>1218</v>
+      </c>
+      <c r="I13" s="28"/>
+      <c r="J13" s="28"/>
+      <c r="K13" s="28"/>
+      <c r="L13" s="28"/>
+      <c r="M13" s="28"/>
+      <c r="N13" s="28"/>
+      <c r="O13" s="28"/>
+      <c r="P13" s="28"/>
+    </row>
+    <row r="14" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A14" s="28" t="s">
+        <v>1247</v>
+      </c>
+      <c r="B14" s="28">
+        <v>0</v>
+      </c>
+      <c r="C14" s="28">
+        <v>0</v>
+      </c>
+      <c r="D14" s="28"/>
+      <c r="E14" s="28"/>
+      <c r="F14" s="28">
+        <v>0</v>
+      </c>
+      <c r="G14" s="28"/>
+      <c r="H14" s="28" t="s">
+        <v>1219</v>
+      </c>
+      <c r="I14" s="28"/>
+      <c r="J14" s="28"/>
+      <c r="K14" s="28"/>
+      <c r="L14" s="28"/>
+      <c r="M14" s="28"/>
+      <c r="N14" s="28"/>
+      <c r="O14" s="28"/>
+      <c r="P14" s="28"/>
+    </row>
+    <row r="15" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A15" s="28" t="s">
+        <v>849</v>
+      </c>
+      <c r="B15" s="28">
+        <v>0</v>
+      </c>
+      <c r="C15" s="28">
+        <v>0</v>
+      </c>
+      <c r="D15" s="28"/>
+      <c r="E15" s="28"/>
+      <c r="F15" s="28">
+        <v>-8</v>
+      </c>
+      <c r="G15" s="28">
+        <v>0.33</v>
+      </c>
+      <c r="H15" s="28" t="s">
+        <v>1249</v>
+      </c>
+      <c r="I15" s="28"/>
+      <c r="J15" s="28"/>
+      <c r="K15" s="28"/>
+      <c r="L15" s="28"/>
+      <c r="M15" s="28"/>
+      <c r="N15" s="28"/>
+      <c r="O15" s="28"/>
+      <c r="P15" s="28"/>
+    </row>
+    <row r="16" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A16" s="28" t="s">
+        <v>1201</v>
+      </c>
+      <c r="B16" s="28">
+        <v>0</v>
+      </c>
+      <c r="C16" s="28">
+        <v>0</v>
+      </c>
+      <c r="D16" s="28"/>
+      <c r="E16" s="28"/>
+      <c r="F16" s="28">
+        <v>0</v>
+      </c>
+      <c r="G16" s="28"/>
+      <c r="H16" s="28" t="s">
+        <v>1203</v>
+      </c>
+      <c r="I16" s="28"/>
+      <c r="J16" s="28"/>
+      <c r="K16" s="28"/>
+      <c r="L16" s="28"/>
+      <c r="M16" s="28"/>
+      <c r="N16" s="28"/>
+      <c r="O16" s="28"/>
+      <c r="P16" s="28"/>
+    </row>
+    <row r="17" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A17" s="28" t="s">
+        <v>1230</v>
+      </c>
+      <c r="B17" s="28">
+        <v>0</v>
+      </c>
+      <c r="C17" s="28">
+        <v>0</v>
+      </c>
+      <c r="D17" s="28"/>
+      <c r="E17" s="28"/>
+      <c r="F17" s="28">
+        <v>0</v>
+      </c>
+      <c r="G17" s="28"/>
+      <c r="H17" s="28" t="s">
+        <v>1220</v>
+      </c>
+      <c r="I17" s="28"/>
+      <c r="J17" s="28"/>
+      <c r="K17" s="28"/>
+      <c r="L17" s="28"/>
+      <c r="M17" s="28"/>
+      <c r="N17" s="28"/>
+      <c r="O17" s="28"/>
+      <c r="P17" s="28"/>
+    </row>
+    <row r="18" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A18" s="28" t="s">
+        <v>1206</v>
+      </c>
+      <c r="B18" s="28">
+        <v>0</v>
+      </c>
+      <c r="C18" s="28">
+        <v>0</v>
+      </c>
+      <c r="D18" s="28"/>
+      <c r="E18" s="28"/>
+      <c r="F18" s="28">
+        <v>0</v>
+      </c>
+      <c r="G18" s="28"/>
+      <c r="H18" s="28" t="s">
+        <v>1221</v>
+      </c>
+    </row>
+    <row r="19" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A19" s="28" t="s">
+        <v>1204</v>
+      </c>
+      <c r="B19" s="28">
+        <v>0</v>
+      </c>
+      <c r="C19" s="28">
+        <v>0</v>
+      </c>
+      <c r="D19" s="28"/>
+      <c r="E19" s="28"/>
+      <c r="F19" s="28">
+        <v>0</v>
+      </c>
+      <c r="G19" s="28"/>
+      <c r="H19" s="28" t="s">
+        <v>1222</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:P60"/>
   <sheetViews>
@@ -7904,7 +8957,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet15.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:P12"/>
   <sheetViews>
@@ -8145,7 +9198,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet16.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:P20"/>
   <sheetViews>
@@ -8631,7 +9684,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet15.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet17.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:P11"/>
   <sheetViews>
@@ -8976,1692 +10029,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet16.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:P17"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="H9" sqref="H9"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <cols>
-    <col min="1" max="1" width="14.42578125" customWidth="1"/>
-    <col min="6" max="6" width="16.5703125" customWidth="1"/>
-    <col min="8" max="8" width="19" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A1" s="28" t="s">
-        <v>565</v>
-      </c>
-      <c r="B1" s="28" t="s">
-        <v>728</v>
-      </c>
-      <c r="C1" s="28" t="s">
-        <v>731</v>
-      </c>
-      <c r="D1" s="28" t="s">
-        <v>729</v>
-      </c>
-      <c r="E1" s="28" t="s">
-        <v>730</v>
-      </c>
-      <c r="F1" s="28" t="s">
-        <v>830</v>
-      </c>
-      <c r="G1" s="28" t="s">
-        <v>818</v>
-      </c>
-      <c r="H1" s="28" t="s">
-        <v>1</v>
-      </c>
-      <c r="I1" s="28" t="s">
-        <v>608</v>
-      </c>
-      <c r="J1" s="28" t="s">
-        <v>609</v>
-      </c>
-      <c r="K1" s="28" t="s">
-        <v>654</v>
-      </c>
-      <c r="L1" s="28" t="s">
-        <v>656</v>
-      </c>
-      <c r="M1" s="28" t="s">
-        <v>657</v>
-      </c>
-      <c r="N1" s="28" t="s">
-        <v>726</v>
-      </c>
-      <c r="O1" s="28" t="s">
-        <v>828</v>
-      </c>
-      <c r="P1" s="28" t="s">
-        <v>829</v>
-      </c>
-    </row>
-    <row r="2" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A2" t="s">
-        <v>1206</v>
-      </c>
-      <c r="H2" t="s">
-        <v>1207</v>
-      </c>
-      <c r="I2" s="28"/>
-      <c r="J2" s="28"/>
-      <c r="K2" s="28"/>
-      <c r="L2" s="28"/>
-      <c r="M2" s="28"/>
-      <c r="N2" s="28" t="s">
-        <v>1190</v>
-      </c>
-      <c r="O2" s="28">
-        <v>0.1</v>
-      </c>
-      <c r="P2" s="28">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="3" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A3" s="28" t="s">
-        <v>1057</v>
-      </c>
-      <c r="B3" s="28">
-        <v>0</v>
-      </c>
-      <c r="C3" s="28">
-        <v>0</v>
-      </c>
-      <c r="D3" s="28"/>
-      <c r="E3" s="28"/>
-      <c r="F3" s="28">
-        <v>-8</v>
-      </c>
-      <c r="G3" s="28">
-        <v>20</v>
-      </c>
-      <c r="H3" s="1" t="s">
-        <v>1205</v>
-      </c>
-      <c r="I3" s="28"/>
-      <c r="J3" s="28"/>
-      <c r="K3" s="28"/>
-      <c r="L3" s="28" t="s">
-        <v>667</v>
-      </c>
-      <c r="M3" s="28"/>
-      <c r="N3" s="28" t="s">
-        <v>1122</v>
-      </c>
-      <c r="O3" s="28">
-        <v>0.1</v>
-      </c>
-      <c r="P3" s="28">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="4" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A4" s="28" t="s">
-        <v>1054</v>
-      </c>
-      <c r="B4" s="28">
-        <v>0</v>
-      </c>
-      <c r="C4" s="28">
-        <v>0</v>
-      </c>
-      <c r="D4" s="28"/>
-      <c r="E4" s="28"/>
-      <c r="F4" s="28">
-        <v>-8</v>
-      </c>
-      <c r="G4" s="28">
-        <v>20</v>
-      </c>
-      <c r="H4" s="28" t="s">
-        <v>1187</v>
-      </c>
-      <c r="I4" s="28"/>
-      <c r="J4" s="28"/>
-      <c r="K4" s="28"/>
-      <c r="L4" s="28" t="s">
-        <v>667</v>
-      </c>
-      <c r="M4" s="28"/>
-      <c r="N4" s="28" t="s">
-        <v>1121</v>
-      </c>
-      <c r="O4" s="28">
-        <v>0.1</v>
-      </c>
-      <c r="P4" s="28">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="5" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A5" s="28" t="s">
-        <v>764</v>
-      </c>
-      <c r="B5" s="28">
-        <v>0</v>
-      </c>
-      <c r="C5" s="28">
-        <v>0</v>
-      </c>
-      <c r="D5" s="28"/>
-      <c r="E5" s="28"/>
-      <c r="F5" s="28">
-        <v>-8</v>
-      </c>
-      <c r="G5" s="28">
-        <v>20</v>
-      </c>
-      <c r="H5" s="28" t="s">
-        <v>1188</v>
-      </c>
-      <c r="I5" s="28"/>
-      <c r="J5" s="28"/>
-      <c r="K5" s="28"/>
-      <c r="L5" s="28" t="s">
-        <v>667</v>
-      </c>
-      <c r="M5" s="28"/>
-      <c r="N5" s="28" t="s">
-        <v>1123</v>
-      </c>
-      <c r="O5" s="28">
-        <v>0.1</v>
-      </c>
-      <c r="P5" s="28">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="6" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A6" s="28" t="s">
-        <v>1055</v>
-      </c>
-      <c r="B6" s="28">
-        <v>0</v>
-      </c>
-      <c r="C6" s="28">
-        <v>0</v>
-      </c>
-      <c r="D6" s="28"/>
-      <c r="E6" s="28"/>
-      <c r="F6" s="28">
-        <v>0</v>
-      </c>
-      <c r="G6" s="28">
-        <v>40</v>
-      </c>
-      <c r="H6" s="28" t="s">
-        <v>1233</v>
-      </c>
-      <c r="I6" s="28"/>
-      <c r="J6" s="28"/>
-      <c r="K6" s="28"/>
-      <c r="L6" s="28" t="s">
-        <v>667</v>
-      </c>
-      <c r="M6" s="28"/>
-      <c r="N6" s="28" t="s">
-        <v>1125</v>
-      </c>
-      <c r="O6" s="28">
-        <v>0.1</v>
-      </c>
-      <c r="P6" s="28">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="7" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A7" s="28" t="s">
-        <v>1056</v>
-      </c>
-      <c r="B7" s="28">
-        <v>0</v>
-      </c>
-      <c r="C7" s="28">
-        <v>0</v>
-      </c>
-      <c r="D7" s="28"/>
-      <c r="E7" s="28"/>
-      <c r="F7" s="28">
-        <v>-8</v>
-      </c>
-      <c r="G7" s="28">
-        <v>20</v>
-      </c>
-      <c r="H7" s="28" t="s">
-        <v>1191</v>
-      </c>
-      <c r="I7" s="28"/>
-      <c r="J7" s="28"/>
-      <c r="K7" s="28"/>
-      <c r="L7" s="28" t="s">
-        <v>667</v>
-      </c>
-      <c r="M7" s="28"/>
-      <c r="N7" s="28" t="s">
-        <v>1124</v>
-      </c>
-      <c r="O7" s="28">
-        <v>0.1</v>
-      </c>
-      <c r="P7" s="28">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="8" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A8" s="28" t="s">
-        <v>1059</v>
-      </c>
-      <c r="B8" s="28">
-        <v>0</v>
-      </c>
-      <c r="C8" s="28">
-        <v>0</v>
-      </c>
-      <c r="D8" s="28"/>
-      <c r="E8" s="28"/>
-      <c r="F8" s="28">
-        <v>-8</v>
-      </c>
-      <c r="G8" s="28">
-        <v>20</v>
-      </c>
-      <c r="H8" s="28" t="s">
-        <v>1117</v>
-      </c>
-      <c r="I8" s="28"/>
-      <c r="J8" s="28"/>
-      <c r="K8" s="28"/>
-      <c r="L8" s="28" t="s">
-        <v>1077</v>
-      </c>
-      <c r="M8" s="28"/>
-      <c r="N8" s="28"/>
-      <c r="O8" s="28"/>
-      <c r="P8" s="28"/>
-    </row>
-    <row r="9" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A9" s="28" t="s">
-        <v>1058</v>
-      </c>
-      <c r="B9" s="28">
-        <v>0</v>
-      </c>
-      <c r="C9" s="28">
-        <v>0</v>
-      </c>
-      <c r="D9" s="28"/>
-      <c r="E9" s="28"/>
-      <c r="F9" s="28">
-        <v>0</v>
-      </c>
-      <c r="G9" s="28">
-        <v>20</v>
-      </c>
-      <c r="H9" s="28" t="s">
-        <v>1234</v>
-      </c>
-      <c r="I9" s="28"/>
-      <c r="J9" s="28"/>
-      <c r="K9" s="28"/>
-      <c r="L9" s="28"/>
-      <c r="M9" s="28"/>
-      <c r="N9" s="28"/>
-      <c r="O9" s="28"/>
-      <c r="P9" s="28"/>
-    </row>
-    <row r="10" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A10" s="28" t="s">
-        <v>1060</v>
-      </c>
-      <c r="B10" s="28">
-        <v>0</v>
-      </c>
-      <c r="C10" s="28">
-        <v>0</v>
-      </c>
-      <c r="D10" s="28"/>
-      <c r="E10" s="28"/>
-      <c r="F10" s="28">
-        <v>-0.5</v>
-      </c>
-      <c r="G10" s="28">
-        <v>5</v>
-      </c>
-      <c r="H10" s="28" t="s">
-        <v>1189</v>
-      </c>
-      <c r="I10" s="28"/>
-      <c r="J10" s="28"/>
-      <c r="K10" s="28"/>
-      <c r="L10" s="28"/>
-      <c r="M10" s="28"/>
-      <c r="N10" s="28"/>
-      <c r="O10" s="28"/>
-      <c r="P10" s="28"/>
-    </row>
-    <row r="11" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A11" s="28" t="s">
-        <v>1061</v>
-      </c>
-      <c r="B11" s="28">
-        <v>0</v>
-      </c>
-      <c r="C11" s="28">
-        <v>0</v>
-      </c>
-      <c r="D11" s="28"/>
-      <c r="E11" s="28"/>
-      <c r="F11" s="28">
-        <v>-0.5</v>
-      </c>
-      <c r="G11" s="28">
-        <v>2.5</v>
-      </c>
-      <c r="H11" s="28" t="s">
-        <v>1242</v>
-      </c>
-    </row>
-    <row r="12" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A12" t="s">
-        <v>1062</v>
-      </c>
-      <c r="B12">
-        <v>0</v>
-      </c>
-      <c r="C12">
-        <v>0</v>
-      </c>
-      <c r="F12">
-        <v>-0.5</v>
-      </c>
-      <c r="G12">
-        <v>0</v>
-      </c>
-      <c r="H12" t="s">
-        <v>1240</v>
-      </c>
-    </row>
-    <row r="13" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A13" t="s">
-        <v>1237</v>
-      </c>
-      <c r="B13">
-        <v>0</v>
-      </c>
-      <c r="C13">
-        <v>0</v>
-      </c>
-      <c r="F13">
-        <v>-0.5</v>
-      </c>
-      <c r="G13">
-        <v>0.33</v>
-      </c>
-      <c r="H13" t="s">
-        <v>1235</v>
-      </c>
-    </row>
-    <row r="14" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A14" t="s">
-        <v>1201</v>
-      </c>
-      <c r="B14" s="28">
-        <v>0</v>
-      </c>
-      <c r="C14" s="28">
-        <v>0</v>
-      </c>
-      <c r="D14" s="28"/>
-      <c r="E14" s="28"/>
-      <c r="F14" s="28">
-        <v>-0.5</v>
-      </c>
-      <c r="G14">
-        <v>0</v>
-      </c>
-      <c r="H14" t="s">
-        <v>1203</v>
-      </c>
-    </row>
-    <row r="15" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A15" t="s">
-        <v>1202</v>
-      </c>
-      <c r="B15" s="28">
-        <v>0</v>
-      </c>
-      <c r="C15" s="28">
-        <v>0</v>
-      </c>
-      <c r="D15" s="28"/>
-      <c r="E15" s="28"/>
-      <c r="F15" s="28">
-        <v>-0.5</v>
-      </c>
-      <c r="G15">
-        <v>0</v>
-      </c>
-      <c r="H15" t="s">
-        <v>1241</v>
-      </c>
-    </row>
-    <row r="16" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A16" t="s">
-        <v>1238</v>
-      </c>
-      <c r="H16" t="s">
-        <v>1239</v>
-      </c>
-    </row>
-    <row r="17" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A17" t="s">
-        <v>1204</v>
-      </c>
-      <c r="H17" t="s">
-        <v>1236</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId1"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet17.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:P17"/>
-  <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="F7" sqref="F7"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <cols>
-    <col min="8" max="8" width="23.140625" customWidth="1"/>
-    <col min="9" max="9" width="16.42578125" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A1" s="28" t="s">
-        <v>565</v>
-      </c>
-      <c r="B1" s="28" t="s">
-        <v>728</v>
-      </c>
-      <c r="C1" s="28" t="s">
-        <v>731</v>
-      </c>
-      <c r="D1" s="28" t="s">
-        <v>729</v>
-      </c>
-      <c r="E1" s="28" t="s">
-        <v>730</v>
-      </c>
-      <c r="F1" s="28" t="s">
-        <v>830</v>
-      </c>
-      <c r="G1" s="28" t="s">
-        <v>818</v>
-      </c>
-      <c r="H1" s="28" t="s">
-        <v>1</v>
-      </c>
-      <c r="I1" s="28" t="s">
-        <v>608</v>
-      </c>
-      <c r="J1" s="28" t="s">
-        <v>609</v>
-      </c>
-      <c r="K1" s="28" t="s">
-        <v>654</v>
-      </c>
-      <c r="L1" s="28" t="s">
-        <v>656</v>
-      </c>
-      <c r="M1" s="28" t="s">
-        <v>657</v>
-      </c>
-      <c r="N1" s="28" t="s">
-        <v>726</v>
-      </c>
-      <c r="O1" s="28" t="s">
-        <v>828</v>
-      </c>
-      <c r="P1" s="28" t="s">
-        <v>829</v>
-      </c>
-    </row>
-    <row r="2" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A2" s="28" t="s">
-        <v>1206</v>
-      </c>
-      <c r="B2" s="28">
-        <v>0</v>
-      </c>
-      <c r="C2" s="28">
-        <v>0</v>
-      </c>
-      <c r="D2" s="28"/>
-      <c r="E2" s="28"/>
-      <c r="F2" s="28">
-        <v>0</v>
-      </c>
-      <c r="G2" s="28">
-        <v>5</v>
-      </c>
-      <c r="H2" s="28" t="s">
-        <v>1207</v>
-      </c>
-      <c r="I2" s="28"/>
-      <c r="J2" s="28"/>
-      <c r="K2" s="28"/>
-      <c r="L2" s="28"/>
-      <c r="M2" s="28"/>
-      <c r="N2" s="28" t="s">
-        <v>1190</v>
-      </c>
-      <c r="O2" s="28">
-        <v>0.1</v>
-      </c>
-      <c r="P2" s="28">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="3" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A3" s="28" t="s">
-        <v>1057</v>
-      </c>
-      <c r="B3" s="28">
-        <v>0</v>
-      </c>
-      <c r="C3" s="28">
-        <v>0</v>
-      </c>
-      <c r="D3" s="28"/>
-      <c r="E3" s="28"/>
-      <c r="F3" s="28">
-        <v>-8</v>
-      </c>
-      <c r="G3" s="28">
-        <v>20</v>
-      </c>
-      <c r="H3" s="1" t="s">
-        <v>1205</v>
-      </c>
-      <c r="I3" s="28"/>
-      <c r="J3" s="28"/>
-      <c r="K3" s="28"/>
-      <c r="L3" s="28" t="s">
-        <v>667</v>
-      </c>
-      <c r="M3" s="28"/>
-      <c r="N3" s="28" t="s">
-        <v>1122</v>
-      </c>
-      <c r="O3" s="28">
-        <v>0.1</v>
-      </c>
-      <c r="P3" s="28">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="4" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A4" s="28" t="s">
-        <v>1054</v>
-      </c>
-      <c r="B4" s="28">
-        <v>0</v>
-      </c>
-      <c r="C4" s="28">
-        <v>3000</v>
-      </c>
-      <c r="D4" s="28"/>
-      <c r="E4" s="28"/>
-      <c r="F4" s="28">
-        <v>-8</v>
-      </c>
-      <c r="G4" s="28">
-        <v>20</v>
-      </c>
-      <c r="H4" s="28" t="s">
-        <v>1187</v>
-      </c>
-      <c r="I4" s="28"/>
-      <c r="J4" s="28"/>
-      <c r="K4" s="28"/>
-      <c r="L4" s="28" t="s">
-        <v>667</v>
-      </c>
-      <c r="M4" s="28"/>
-      <c r="N4" s="28" t="s">
-        <v>1121</v>
-      </c>
-      <c r="O4" s="28">
-        <v>0.1</v>
-      </c>
-      <c r="P4" s="28">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="5" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A5" s="28" t="s">
-        <v>764</v>
-      </c>
-      <c r="B5" s="28">
-        <v>0</v>
-      </c>
-      <c r="C5" s="28">
-        <v>3000</v>
-      </c>
-      <c r="D5" s="28"/>
-      <c r="E5" s="28"/>
-      <c r="F5" s="28">
-        <v>-8</v>
-      </c>
-      <c r="G5" s="28">
-        <v>20</v>
-      </c>
-      <c r="H5" s="28" t="s">
-        <v>1188</v>
-      </c>
-      <c r="I5" s="28"/>
-      <c r="J5" s="28"/>
-      <c r="K5" s="28"/>
-      <c r="L5" s="28" t="s">
-        <v>667</v>
-      </c>
-      <c r="M5" s="28"/>
-      <c r="N5" s="28" t="s">
-        <v>1123</v>
-      </c>
-      <c r="O5" s="28">
-        <v>0.1</v>
-      </c>
-      <c r="P5" s="28">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="6" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A6" s="28" t="s">
-        <v>1055</v>
-      </c>
-      <c r="B6" s="28">
-        <v>0</v>
-      </c>
-      <c r="C6" s="28">
-        <v>3000</v>
-      </c>
-      <c r="D6" s="28"/>
-      <c r="E6" s="28"/>
-      <c r="F6" s="28">
-        <v>0</v>
-      </c>
-      <c r="G6" s="28">
-        <v>40</v>
-      </c>
-      <c r="H6" s="28" t="s">
-        <v>1243</v>
-      </c>
-      <c r="I6" s="28"/>
-      <c r="J6" s="28"/>
-      <c r="K6" s="28"/>
-      <c r="L6" s="28" t="s">
-        <v>667</v>
-      </c>
-      <c r="M6" s="28"/>
-      <c r="N6" s="28" t="s">
-        <v>1125</v>
-      </c>
-      <c r="O6" s="28">
-        <v>0.1</v>
-      </c>
-      <c r="P6" s="28">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="7" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A7" s="28" t="s">
-        <v>1056</v>
-      </c>
-      <c r="B7" s="28">
-        <v>0</v>
-      </c>
-      <c r="C7" s="28">
-        <v>3000</v>
-      </c>
-      <c r="D7" s="28"/>
-      <c r="E7" s="28"/>
-      <c r="F7" s="28">
-        <v>-8</v>
-      </c>
-      <c r="G7" s="28">
-        <v>20</v>
-      </c>
-      <c r="H7" s="28" t="s">
-        <v>1191</v>
-      </c>
-      <c r="I7" s="28"/>
-      <c r="J7" s="28"/>
-      <c r="K7" s="28"/>
-      <c r="L7" s="28" t="s">
-        <v>667</v>
-      </c>
-      <c r="M7" s="28"/>
-      <c r="N7" s="28" t="s">
-        <v>1124</v>
-      </c>
-      <c r="O7" s="28">
-        <v>0.1</v>
-      </c>
-      <c r="P7" s="28">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="8" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A8" s="28" t="s">
-        <v>1059</v>
-      </c>
-      <c r="B8" s="28">
-        <v>0</v>
-      </c>
-      <c r="C8" s="28">
-        <v>3000</v>
-      </c>
-      <c r="D8" s="28"/>
-      <c r="E8" s="28"/>
-      <c r="F8" s="28">
-        <v>-8</v>
-      </c>
-      <c r="G8" s="28">
-        <v>20</v>
-      </c>
-      <c r="H8" s="28" t="s">
-        <v>1117</v>
-      </c>
-      <c r="I8" s="28"/>
-      <c r="J8" s="28"/>
-      <c r="K8" s="28"/>
-      <c r="L8" s="28" t="s">
-        <v>1077</v>
-      </c>
-      <c r="M8" s="28"/>
-      <c r="N8" s="28"/>
-      <c r="O8" s="28"/>
-      <c r="P8" s="28"/>
-    </row>
-    <row r="9" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A9" s="28" t="s">
-        <v>1058</v>
-      </c>
-      <c r="B9" s="28">
-        <v>0</v>
-      </c>
-      <c r="C9" s="28">
-        <v>3000</v>
-      </c>
-      <c r="D9" s="28"/>
-      <c r="E9" s="28"/>
-      <c r="F9" s="28">
-        <v>-0.05</v>
-      </c>
-      <c r="G9" s="28">
-        <v>20</v>
-      </c>
-      <c r="H9" s="28" t="s">
-        <v>1118</v>
-      </c>
-      <c r="I9" s="28" t="s">
-        <v>1245</v>
-      </c>
-      <c r="J9" s="28"/>
-      <c r="K9" s="28"/>
-      <c r="L9" s="28"/>
-      <c r="M9" s="28" t="s">
-        <v>1246</v>
-      </c>
-      <c r="N9" s="28"/>
-      <c r="O9" s="28"/>
-      <c r="P9" s="28"/>
-    </row>
-    <row r="10" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A10" s="28" t="s">
-        <v>1060</v>
-      </c>
-      <c r="B10" s="28">
-        <v>0</v>
-      </c>
-      <c r="C10" s="28">
-        <v>0</v>
-      </c>
-      <c r="D10" s="28"/>
-      <c r="E10" s="28"/>
-      <c r="F10" s="28">
-        <v>-0.5</v>
-      </c>
-      <c r="G10" s="28">
-        <v>5</v>
-      </c>
-      <c r="H10" s="28" t="s">
-        <v>1189</v>
-      </c>
-      <c r="I10" s="28"/>
-      <c r="J10" s="28"/>
-      <c r="K10" s="28"/>
-      <c r="L10" s="28"/>
-      <c r="M10" s="28"/>
-      <c r="N10" s="28"/>
-      <c r="O10" s="28"/>
-      <c r="P10" s="28"/>
-    </row>
-    <row r="11" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A11" s="28" t="s">
-        <v>1061</v>
-      </c>
-      <c r="B11" s="28">
-        <v>0</v>
-      </c>
-      <c r="C11" s="28">
-        <v>0</v>
-      </c>
-      <c r="D11" s="28"/>
-      <c r="E11" s="28"/>
-      <c r="F11" s="28">
-        <v>-0.5</v>
-      </c>
-      <c r="G11" s="28">
-        <v>2.5</v>
-      </c>
-      <c r="H11" s="28" t="s">
-        <v>1242</v>
-      </c>
-      <c r="I11" s="28"/>
-      <c r="J11" s="28"/>
-      <c r="K11" s="28"/>
-      <c r="L11" s="28"/>
-      <c r="M11" s="28"/>
-      <c r="N11" s="28"/>
-      <c r="O11" s="28"/>
-      <c r="P11" s="28"/>
-    </row>
-    <row r="12" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A12" s="28" t="s">
-        <v>1062</v>
-      </c>
-      <c r="B12" s="28">
-        <v>0</v>
-      </c>
-      <c r="C12" s="28">
-        <v>0</v>
-      </c>
-      <c r="D12" s="28"/>
-      <c r="E12" s="28"/>
-      <c r="F12" s="28">
-        <v>-0.5</v>
-      </c>
-      <c r="G12" s="28">
-        <v>0</v>
-      </c>
-      <c r="H12" s="28" t="s">
-        <v>1240</v>
-      </c>
-      <c r="I12" s="28"/>
-      <c r="J12" s="28"/>
-      <c r="K12" s="28"/>
-      <c r="L12" s="28"/>
-      <c r="M12" s="28"/>
-      <c r="N12" s="28"/>
-      <c r="O12" s="28"/>
-      <c r="P12" s="28"/>
-    </row>
-    <row r="13" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A13" s="28" t="s">
-        <v>1237</v>
-      </c>
-      <c r="B13" s="28">
-        <v>0</v>
-      </c>
-      <c r="C13" s="28">
-        <v>0</v>
-      </c>
-      <c r="D13" s="28"/>
-      <c r="E13" s="28"/>
-      <c r="F13" s="28">
-        <v>-0.5</v>
-      </c>
-      <c r="G13" s="28">
-        <v>0.33</v>
-      </c>
-      <c r="H13" s="28" t="s">
-        <v>1244</v>
-      </c>
-      <c r="I13" s="28"/>
-      <c r="J13" s="28"/>
-      <c r="K13" s="28"/>
-      <c r="L13" s="28"/>
-      <c r="M13" s="28"/>
-      <c r="N13" s="28"/>
-      <c r="O13" s="28"/>
-      <c r="P13" s="28"/>
-    </row>
-    <row r="14" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A14" s="28" t="s">
-        <v>1201</v>
-      </c>
-      <c r="B14" s="28">
-        <v>0</v>
-      </c>
-      <c r="C14" s="28">
-        <v>0</v>
-      </c>
-      <c r="D14" s="28"/>
-      <c r="E14" s="28"/>
-      <c r="F14" s="28">
-        <v>-0.5</v>
-      </c>
-      <c r="G14" s="28">
-        <v>0</v>
-      </c>
-      <c r="H14" s="28" t="s">
-        <v>1203</v>
-      </c>
-      <c r="I14" s="28"/>
-      <c r="J14" s="28"/>
-      <c r="K14" s="28"/>
-      <c r="L14" s="28"/>
-      <c r="M14" s="28"/>
-      <c r="N14" s="28"/>
-      <c r="O14" s="28"/>
-      <c r="P14" s="28"/>
-    </row>
-    <row r="15" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A15" s="28" t="s">
-        <v>1202</v>
-      </c>
-      <c r="B15" s="28">
-        <v>0</v>
-      </c>
-      <c r="C15" s="28">
-        <v>0</v>
-      </c>
-      <c r="D15" s="28"/>
-      <c r="E15" s="28"/>
-      <c r="F15" s="28">
-        <v>-0.5</v>
-      </c>
-      <c r="G15" s="28">
-        <v>0</v>
-      </c>
-      <c r="H15" s="28" t="s">
-        <v>1241</v>
-      </c>
-      <c r="I15" s="28"/>
-      <c r="J15" s="28"/>
-      <c r="K15" s="28"/>
-      <c r="L15" s="28"/>
-      <c r="M15" s="28"/>
-      <c r="N15" s="28"/>
-      <c r="O15" s="28"/>
-      <c r="P15" s="28"/>
-    </row>
-    <row r="16" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A16" s="28" t="s">
-        <v>1238</v>
-      </c>
-      <c r="B16" s="28">
-        <v>0</v>
-      </c>
-      <c r="C16" s="28">
-        <v>0</v>
-      </c>
-      <c r="D16" s="28"/>
-      <c r="E16" s="28"/>
-      <c r="F16" s="28">
-        <v>-0.5</v>
-      </c>
-      <c r="G16" s="28">
-        <v>0</v>
-      </c>
-      <c r="H16" s="28" t="s">
-        <v>1239</v>
-      </c>
-      <c r="I16" s="28"/>
-      <c r="J16" s="28"/>
-      <c r="K16" s="28"/>
-      <c r="L16" s="28"/>
-      <c r="M16" s="28"/>
-      <c r="N16" s="28"/>
-      <c r="O16" s="28"/>
-      <c r="P16" s="28"/>
-    </row>
-    <row r="17" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A17" s="28" t="s">
-        <v>1204</v>
-      </c>
-      <c r="B17" s="28">
-        <v>0</v>
-      </c>
-      <c r="C17" s="28">
-        <v>0</v>
-      </c>
-      <c r="D17" s="28"/>
-      <c r="E17" s="28"/>
-      <c r="F17" s="28">
-        <v>0</v>
-      </c>
-      <c r="G17" s="28">
-        <v>0</v>
-      </c>
-      <c r="H17" s="28" t="s">
-        <v>1236</v>
-      </c>
-      <c r="I17" s="28"/>
-      <c r="J17" s="28"/>
-      <c r="K17" s="28"/>
-      <c r="L17" s="28"/>
-      <c r="M17" s="28"/>
-      <c r="N17" s="28"/>
-      <c r="O17" s="28"/>
-      <c r="P17" s="28"/>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
 <file path=xl/worksheets/sheet18.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:P19"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="G4" sqref="G4"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <sheetData>
-    <row r="1" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A1" s="28" t="s">
-        <v>565</v>
-      </c>
-      <c r="B1" s="28" t="s">
-        <v>728</v>
-      </c>
-      <c r="C1" s="28" t="s">
-        <v>731</v>
-      </c>
-      <c r="D1" s="28" t="s">
-        <v>729</v>
-      </c>
-      <c r="E1" s="28" t="s">
-        <v>730</v>
-      </c>
-      <c r="F1" s="28" t="s">
-        <v>830</v>
-      </c>
-      <c r="G1" s="28" t="s">
-        <v>818</v>
-      </c>
-      <c r="H1" s="28" t="s">
-        <v>1</v>
-      </c>
-      <c r="I1" s="28" t="s">
-        <v>608</v>
-      </c>
-      <c r="J1" s="28" t="s">
-        <v>609</v>
-      </c>
-      <c r="K1" s="28" t="s">
-        <v>654</v>
-      </c>
-      <c r="L1" s="28" t="s">
-        <v>656</v>
-      </c>
-      <c r="M1" s="28" t="s">
-        <v>657</v>
-      </c>
-      <c r="N1" s="28" t="s">
-        <v>726</v>
-      </c>
-      <c r="O1" s="28" t="s">
-        <v>828</v>
-      </c>
-      <c r="P1" s="28" t="s">
-        <v>829</v>
-      </c>
-    </row>
-    <row r="2" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A2" s="28" t="s">
-        <v>1231</v>
-      </c>
-      <c r="B2" s="28"/>
-      <c r="C2" s="28"/>
-      <c r="D2" s="28"/>
-      <c r="E2" s="28"/>
-      <c r="F2" s="28"/>
-      <c r="G2" s="28"/>
-      <c r="H2" s="28" t="s">
-        <v>1208</v>
-      </c>
-      <c r="I2" s="28"/>
-      <c r="J2" s="28"/>
-      <c r="K2" s="28"/>
-      <c r="L2" s="28"/>
-      <c r="M2" s="28"/>
-      <c r="N2" s="28" t="s">
-        <v>1190</v>
-      </c>
-      <c r="O2" s="28">
-        <v>0.1</v>
-      </c>
-      <c r="P2" s="28">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="3" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A3" s="28" t="s">
-        <v>1057</v>
-      </c>
-      <c r="B3" s="28">
-        <v>0</v>
-      </c>
-      <c r="C3" s="28">
-        <v>0</v>
-      </c>
-      <c r="D3" s="28"/>
-      <c r="E3" s="28"/>
-      <c r="F3" s="28">
-        <v>-0.5</v>
-      </c>
-      <c r="G3" s="28">
-        <v>20</v>
-      </c>
-      <c r="H3" s="1" t="s">
-        <v>1209</v>
-      </c>
-      <c r="I3" s="28"/>
-      <c r="J3" s="28"/>
-      <c r="K3" s="28"/>
-      <c r="L3" s="28"/>
-      <c r="M3" s="28"/>
-      <c r="N3" s="28" t="s">
-        <v>1223</v>
-      </c>
-      <c r="O3" s="28">
-        <v>0.1</v>
-      </c>
-      <c r="P3" s="28">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="4" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A4" s="28" t="s">
-        <v>1054</v>
-      </c>
-      <c r="B4" s="28">
-        <v>0</v>
-      </c>
-      <c r="C4" s="28">
-        <v>0</v>
-      </c>
-      <c r="D4" s="28"/>
-      <c r="E4" s="28"/>
-      <c r="F4" s="28">
-        <v>-0.5</v>
-      </c>
-      <c r="G4" s="28">
-        <v>2.5</v>
-      </c>
-      <c r="H4" s="28" t="s">
-        <v>1210</v>
-      </c>
-      <c r="I4" s="28"/>
-      <c r="J4" s="28"/>
-      <c r="K4" s="28"/>
-      <c r="L4" s="28"/>
-      <c r="M4" s="28"/>
-      <c r="N4" s="28" t="s">
-        <v>1121</v>
-      </c>
-      <c r="O4" s="28">
-        <v>0.1</v>
-      </c>
-      <c r="P4" s="28">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="5" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A5" s="28" t="s">
-        <v>764</v>
-      </c>
-      <c r="B5" s="28">
-        <v>0</v>
-      </c>
-      <c r="C5" s="28">
-        <v>0</v>
-      </c>
-      <c r="D5" s="28"/>
-      <c r="E5" s="28"/>
-      <c r="F5" s="28">
-        <v>-0.5</v>
-      </c>
-      <c r="G5" s="28">
-        <v>2.5</v>
-      </c>
-      <c r="H5" s="28" t="s">
-        <v>1211</v>
-      </c>
-      <c r="I5" s="28"/>
-      <c r="J5" s="28" t="s">
-        <v>1125</v>
-      </c>
-      <c r="K5" s="28"/>
-      <c r="L5" s="28"/>
-      <c r="M5" s="28"/>
-      <c r="N5" s="28" t="s">
-        <v>1224</v>
-      </c>
-      <c r="O5" s="28">
-        <v>0.1</v>
-      </c>
-      <c r="P5" s="28">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="6" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A6" s="28" t="s">
-        <v>1055</v>
-      </c>
-      <c r="B6" s="28">
-        <v>0</v>
-      </c>
-      <c r="C6" s="28">
-        <v>0</v>
-      </c>
-      <c r="D6" s="28"/>
-      <c r="E6" s="28"/>
-      <c r="F6" s="28">
-        <v>-0.5</v>
-      </c>
-      <c r="G6" s="28">
-        <v>10</v>
-      </c>
-      <c r="H6" s="28" t="s">
-        <v>1212</v>
-      </c>
-      <c r="I6" s="28"/>
-      <c r="J6" s="28"/>
-      <c r="K6" s="28"/>
-      <c r="L6" s="28"/>
-      <c r="M6" s="28"/>
-      <c r="N6" s="28" t="s">
-        <v>1125</v>
-      </c>
-      <c r="O6" s="28">
-        <v>0.1</v>
-      </c>
-      <c r="P6" s="28">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="7" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A7" s="28" t="s">
-        <v>1059</v>
-      </c>
-      <c r="B7" s="28">
-        <v>0</v>
-      </c>
-      <c r="C7" s="28">
-        <v>0</v>
-      </c>
-      <c r="D7" s="28"/>
-      <c r="E7" s="28"/>
-      <c r="F7" s="28">
-        <v>-0.5</v>
-      </c>
-      <c r="G7" s="28">
-        <v>5</v>
-      </c>
-      <c r="H7" s="28" t="s">
-        <v>1213</v>
-      </c>
-      <c r="I7" s="28"/>
-      <c r="J7" s="28"/>
-      <c r="K7" s="28"/>
-      <c r="L7" s="28"/>
-      <c r="M7" s="28"/>
-      <c r="N7" s="28" t="s">
-        <v>1225</v>
-      </c>
-      <c r="O7" s="28">
-        <v>0.1</v>
-      </c>
-      <c r="P7" s="28">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="8" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A8" s="28" t="s">
-        <v>1056</v>
-      </c>
-      <c r="B8" s="28">
-        <v>0</v>
-      </c>
-      <c r="C8" s="28">
-        <v>0</v>
-      </c>
-      <c r="D8" s="28"/>
-      <c r="E8" s="28"/>
-      <c r="F8" s="28">
-        <v>-0.5</v>
-      </c>
-      <c r="G8" s="28">
-        <v>10</v>
-      </c>
-      <c r="H8" s="28" t="s">
-        <v>1214</v>
-      </c>
-      <c r="I8" s="28"/>
-      <c r="J8" s="28"/>
-      <c r="K8" s="28"/>
-      <c r="L8" s="28"/>
-      <c r="M8" s="28"/>
-      <c r="N8" s="28" t="s">
-        <v>1226</v>
-      </c>
-      <c r="O8" s="28">
-        <v>0.1</v>
-      </c>
-      <c r="P8" s="28">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="9" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A9" s="28" t="s">
-        <v>1058</v>
-      </c>
-      <c r="B9" s="28">
-        <v>0</v>
-      </c>
-      <c r="C9" s="28">
-        <v>0</v>
-      </c>
-      <c r="D9" s="28"/>
-      <c r="E9" s="28"/>
-      <c r="F9" s="28">
-        <v>0</v>
-      </c>
-      <c r="G9" s="28">
-        <v>9.5</v>
-      </c>
-      <c r="H9" s="28" t="s">
-        <v>1215</v>
-      </c>
-      <c r="I9" s="28"/>
-      <c r="J9" s="28"/>
-      <c r="K9" s="28"/>
-      <c r="L9" s="28"/>
-      <c r="M9" s="28"/>
-      <c r="N9" s="28" t="s">
-        <v>1227</v>
-      </c>
-      <c r="O9" s="28">
-        <v>0.1</v>
-      </c>
-      <c r="P9" s="28">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="10" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A10" t="s">
-        <v>1063</v>
-      </c>
-      <c r="B10" s="28">
-        <v>0</v>
-      </c>
-      <c r="C10" s="28">
-        <v>0</v>
-      </c>
-      <c r="D10" s="28"/>
-      <c r="E10" s="28"/>
-      <c r="F10" s="28">
-        <v>-0.5</v>
-      </c>
-      <c r="G10" s="28">
-        <v>0.25</v>
-      </c>
-      <c r="H10" t="s">
-        <v>1216</v>
-      </c>
-      <c r="I10" s="28"/>
-      <c r="J10" s="28"/>
-      <c r="K10" s="28"/>
-      <c r="L10" s="28"/>
-      <c r="M10" s="28"/>
-      <c r="N10" s="28" t="s">
-        <v>1228</v>
-      </c>
-      <c r="O10" s="28">
-        <v>0.1</v>
-      </c>
-      <c r="P10" s="28">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="11" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A11" t="s">
-        <v>1064</v>
-      </c>
-      <c r="B11" s="28">
-        <v>0</v>
-      </c>
-      <c r="C11" s="28">
-        <v>0</v>
-      </c>
-      <c r="D11" s="28"/>
-      <c r="E11" s="28"/>
-      <c r="F11" s="28">
-        <v>-0.5</v>
-      </c>
-      <c r="G11" s="28">
-        <v>0.25</v>
-      </c>
-      <c r="H11" t="s">
-        <v>1217</v>
-      </c>
-      <c r="I11" s="28"/>
-      <c r="J11" s="28"/>
-      <c r="K11" s="28"/>
-      <c r="L11" s="28"/>
-      <c r="M11" s="28"/>
-      <c r="N11" s="28" t="s">
-        <v>1229</v>
-      </c>
-      <c r="O11" s="28">
-        <v>0.1</v>
-      </c>
-      <c r="P11" s="28">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="12" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A12" s="28" t="s">
-        <v>1060</v>
-      </c>
-      <c r="B12" s="28"/>
-      <c r="C12" s="28"/>
-      <c r="D12" s="28"/>
-      <c r="E12" s="28"/>
-      <c r="F12" s="28"/>
-      <c r="G12" s="28"/>
-      <c r="H12" s="28" t="s">
-        <v>1189</v>
-      </c>
-      <c r="I12" s="28"/>
-      <c r="J12" s="28"/>
-      <c r="K12" s="28"/>
-      <c r="L12" s="28"/>
-      <c r="M12" s="28"/>
-      <c r="N12" s="28"/>
-      <c r="O12" s="28"/>
-      <c r="P12" s="28"/>
-    </row>
-    <row r="13" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A13" s="28" t="s">
-        <v>1061</v>
-      </c>
-      <c r="B13" s="28"/>
-      <c r="C13" s="28"/>
-      <c r="D13" s="28"/>
-      <c r="E13" s="28"/>
-      <c r="F13" s="28"/>
-      <c r="G13" s="28"/>
-      <c r="H13" s="28" t="s">
-        <v>1218</v>
-      </c>
-      <c r="I13" s="28"/>
-      <c r="J13" s="28"/>
-      <c r="K13" s="28"/>
-      <c r="L13" s="28"/>
-      <c r="M13" s="28"/>
-      <c r="N13" s="28"/>
-      <c r="O13" s="28"/>
-      <c r="P13" s="28"/>
-    </row>
-    <row r="14" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A14" s="28" t="s">
-        <v>1062</v>
-      </c>
-      <c r="B14" s="28"/>
-      <c r="C14" s="28"/>
-      <c r="D14" s="28"/>
-      <c r="E14" s="28"/>
-      <c r="F14" s="28"/>
-      <c r="G14" s="28"/>
-      <c r="H14" s="28" t="s">
-        <v>1219</v>
-      </c>
-      <c r="I14" s="28"/>
-      <c r="J14" s="28"/>
-      <c r="K14" s="28"/>
-      <c r="L14" s="28"/>
-      <c r="M14" s="28"/>
-      <c r="N14" s="28"/>
-      <c r="O14" s="28"/>
-      <c r="P14" s="28"/>
-    </row>
-    <row r="15" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A15" s="28" t="s">
-        <v>849</v>
-      </c>
-      <c r="B15" s="28">
-        <v>0</v>
-      </c>
-      <c r="C15" s="28">
-        <v>0</v>
-      </c>
-      <c r="D15" s="28"/>
-      <c r="E15" s="28"/>
-      <c r="F15" s="28">
-        <v>-0.5</v>
-      </c>
-      <c r="G15" s="28">
-        <v>0.33</v>
-      </c>
-      <c r="H15" s="28" t="s">
-        <v>1232</v>
-      </c>
-      <c r="I15" s="28"/>
-      <c r="J15" s="28"/>
-      <c r="K15" s="28"/>
-      <c r="L15" s="28"/>
-      <c r="M15" s="28"/>
-      <c r="N15" s="28"/>
-      <c r="O15" s="28"/>
-      <c r="P15" s="28"/>
-    </row>
-    <row r="16" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A16" s="28" t="s">
-        <v>1201</v>
-      </c>
-      <c r="B16" s="28"/>
-      <c r="C16" s="28"/>
-      <c r="D16" s="28"/>
-      <c r="E16" s="28"/>
-      <c r="F16" s="28"/>
-      <c r="G16" s="28"/>
-      <c r="H16" s="28" t="s">
-        <v>1203</v>
-      </c>
-      <c r="I16" s="28"/>
-      <c r="J16" s="28"/>
-      <c r="K16" s="28"/>
-      <c r="L16" s="28"/>
-      <c r="M16" s="28"/>
-      <c r="N16" s="28"/>
-      <c r="O16" s="28"/>
-      <c r="P16" s="28"/>
-    </row>
-    <row r="17" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A17" s="28" t="s">
-        <v>1230</v>
-      </c>
-      <c r="B17" s="28"/>
-      <c r="C17" s="28"/>
-      <c r="D17" s="28"/>
-      <c r="E17" s="28"/>
-      <c r="F17" s="28"/>
-      <c r="G17" s="28"/>
-      <c r="H17" s="28" t="s">
-        <v>1220</v>
-      </c>
-      <c r="I17" s="28"/>
-      <c r="J17" s="28"/>
-      <c r="K17" s="28"/>
-      <c r="L17" s="28"/>
-      <c r="M17" s="28"/>
-      <c r="N17" s="28"/>
-      <c r="O17" s="28"/>
-      <c r="P17" s="28"/>
-    </row>
-    <row r="18" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A18" s="28" t="s">
-        <v>1206</v>
-      </c>
-      <c r="B18" s="28"/>
-      <c r="C18" s="28"/>
-      <c r="D18" s="28"/>
-      <c r="E18" s="28"/>
-      <c r="F18" s="28"/>
-      <c r="G18" s="28"/>
-      <c r="H18" s="28" t="s">
-        <v>1221</v>
-      </c>
-    </row>
-    <row r="19" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A19" s="28" t="s">
-        <v>1204</v>
-      </c>
-      <c r="B19" s="28"/>
-      <c r="C19" s="28"/>
-      <c r="D19" s="28"/>
-      <c r="E19" s="28"/>
-      <c r="F19" s="28"/>
-      <c r="G19" s="28"/>
-      <c r="H19" s="28" t="s">
-        <v>1222</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet19.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:P33"/>
   <sheetViews>
@@ -11379,6 +10747,2418 @@
       </c>
     </row>
   </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet19.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:P128"/>
+  <sheetViews>
+    <sheetView topLeftCell="A52" workbookViewId="0">
+      <selection activeCell="H58" sqref="H58"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="12.42578125" customWidth="1"/>
+    <col min="2" max="2" width="12.28515625" customWidth="1"/>
+    <col min="5" max="5" width="12.28515625" customWidth="1"/>
+    <col min="6" max="6" width="14.85546875" customWidth="1"/>
+    <col min="8" max="8" width="50.42578125" customWidth="1"/>
+    <col min="9" max="9" width="13.28515625" customWidth="1"/>
+    <col min="10" max="10" width="13" customWidth="1"/>
+    <col min="11" max="11" width="14.28515625" customWidth="1"/>
+    <col min="12" max="12" width="18.42578125" customWidth="1"/>
+    <col min="13" max="13" width="18.140625" customWidth="1"/>
+    <col min="14" max="14" width="13.7109375" style="28" customWidth="1"/>
+    <col min="15" max="15" width="12.5703125" style="28" customWidth="1"/>
+    <col min="16" max="16" width="9.140625" style="28"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:16" s="28" customFormat="1" ht="18" x14ac:dyDescent="0.35">
+      <c r="A1" s="28" t="s">
+        <v>565</v>
+      </c>
+      <c r="B1" s="28" t="s">
+        <v>728</v>
+      </c>
+      <c r="C1" t="s">
+        <v>731</v>
+      </c>
+      <c r="D1" t="s">
+        <v>729</v>
+      </c>
+      <c r="E1" s="24" t="s">
+        <v>730</v>
+      </c>
+      <c r="F1" s="18" t="s">
+        <v>985</v>
+      </c>
+      <c r="G1" s="30" t="s">
+        <v>986</v>
+      </c>
+      <c r="H1" s="10" t="s">
+        <v>861</v>
+      </c>
+      <c r="I1" t="s">
+        <v>608</v>
+      </c>
+      <c r="J1" t="s">
+        <v>609</v>
+      </c>
+      <c r="K1" t="s">
+        <v>654</v>
+      </c>
+      <c r="L1" t="s">
+        <v>656</v>
+      </c>
+      <c r="M1" t="s">
+        <v>657</v>
+      </c>
+      <c r="N1" s="28" t="s">
+        <v>726</v>
+      </c>
+      <c r="O1" s="28" t="s">
+        <v>838</v>
+      </c>
+      <c r="P1" s="28" t="s">
+        <v>839</v>
+      </c>
+    </row>
+    <row r="2" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A2" s="13" t="s">
+        <v>902</v>
+      </c>
+      <c r="B2" s="16"/>
+      <c r="E2" s="26">
+        <v>1662.2306343841162</v>
+      </c>
+      <c r="F2" s="21">
+        <v>-4.4000000000000004</v>
+      </c>
+      <c r="G2" s="29">
+        <v>0</v>
+      </c>
+      <c r="H2" s="9" t="s">
+        <v>862</v>
+      </c>
+      <c r="L2" t="s">
+        <v>1141</v>
+      </c>
+      <c r="N2" s="28" t="s">
+        <v>1153</v>
+      </c>
+      <c r="O2" s="28">
+        <v>1.24E-3</v>
+      </c>
+      <c r="P2" s="28">
+        <v>1.24E-3</v>
+      </c>
+    </row>
+    <row r="3" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A3" s="13" t="s">
+        <v>903</v>
+      </c>
+      <c r="B3" s="15"/>
+      <c r="E3" s="26">
+        <v>1</v>
+      </c>
+      <c r="F3" s="21">
+        <v>0</v>
+      </c>
+      <c r="G3" s="29">
+        <v>0</v>
+      </c>
+      <c r="H3" s="9" t="s">
+        <v>863</v>
+      </c>
+      <c r="N3" s="28" t="s">
+        <v>1132</v>
+      </c>
+      <c r="O3" s="28">
+        <v>1.24E-3</v>
+      </c>
+      <c r="P3" s="28">
+        <v>1.24E-3</v>
+      </c>
+    </row>
+    <row r="4" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A4" s="12" t="s">
+        <v>904</v>
+      </c>
+      <c r="B4" s="15"/>
+      <c r="E4" s="27">
+        <v>7.1204304242112172E-4</v>
+      </c>
+      <c r="F4" s="19">
+        <v>4.3</v>
+      </c>
+      <c r="G4" s="29">
+        <v>0</v>
+      </c>
+      <c r="H4" s="8" t="s">
+        <v>864</v>
+      </c>
+      <c r="N4" s="28" t="s">
+        <v>1133</v>
+      </c>
+      <c r="O4" s="28">
+        <v>0.01</v>
+      </c>
+      <c r="P4" s="28">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="5" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A5" s="13" t="s">
+        <v>905</v>
+      </c>
+      <c r="B5" s="14"/>
+      <c r="E5" s="26">
+        <v>7.9806279155107629E-2</v>
+      </c>
+      <c r="F5" s="21">
+        <v>1.5</v>
+      </c>
+      <c r="G5" s="29">
+        <v>6.0072000000000001</v>
+      </c>
+      <c r="H5" s="9" t="s">
+        <v>1174</v>
+      </c>
+      <c r="N5" s="28" t="s">
+        <v>1017</v>
+      </c>
+      <c r="O5" s="28">
+        <v>3.5999999999999999E-3</v>
+      </c>
+      <c r="P5" s="28">
+        <v>3.5999999999999999E-3</v>
+      </c>
+    </row>
+    <row r="6" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A6" s="13" t="s">
+        <v>906</v>
+      </c>
+      <c r="B6" s="15"/>
+      <c r="E6" s="26">
+        <v>1.4008610438135416</v>
+      </c>
+      <c r="F6" s="21">
+        <v>-0.2</v>
+      </c>
+      <c r="G6" s="29">
+        <v>6.0072000000000001</v>
+      </c>
+      <c r="H6" s="9" t="s">
+        <v>1175</v>
+      </c>
+      <c r="N6" s="28" t="s">
+        <v>1013</v>
+      </c>
+      <c r="O6" s="28">
+        <v>0</v>
+      </c>
+      <c r="P6" s="28">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A7" s="12" t="s">
+        <v>907</v>
+      </c>
+      <c r="B7" s="15"/>
+      <c r="E7" s="27">
+        <v>1</v>
+      </c>
+      <c r="F7" s="19">
+        <v>0</v>
+      </c>
+      <c r="G7" s="29">
+        <v>0</v>
+      </c>
+      <c r="H7" s="8" t="s">
+        <v>865</v>
+      </c>
+      <c r="N7" s="28" t="s">
+        <v>1016</v>
+      </c>
+      <c r="O7" s="28">
+        <v>1E-3</v>
+      </c>
+      <c r="P7" s="28">
+        <v>0.01</v>
+      </c>
+    </row>
+    <row r="8" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A8" s="12" t="s">
+        <v>908</v>
+      </c>
+      <c r="B8" s="14"/>
+      <c r="E8" s="27">
+        <v>1.1835797581124567</v>
+      </c>
+      <c r="F8" s="19">
+        <v>-0.1</v>
+      </c>
+      <c r="G8" s="29">
+        <v>0</v>
+      </c>
+      <c r="H8" s="8" t="s">
+        <v>983</v>
+      </c>
+      <c r="N8" s="28" t="s">
+        <v>1015</v>
+      </c>
+      <c r="O8" s="28">
+        <v>0.193</v>
+      </c>
+      <c r="P8" s="28">
+        <v>0.193</v>
+      </c>
+    </row>
+    <row r="9" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A9" s="12" t="s">
+        <v>909</v>
+      </c>
+      <c r="B9" s="14"/>
+      <c r="E9" s="27">
+        <v>1189583.4630809485</v>
+      </c>
+      <c r="F9" s="19">
+        <v>-8.3000000000000007</v>
+      </c>
+      <c r="G9" s="29">
+        <v>5.0644</v>
+      </c>
+      <c r="H9" s="8" t="s">
+        <v>866</v>
+      </c>
+      <c r="N9" s="28" t="s">
+        <v>1176</v>
+      </c>
+      <c r="O9" s="28">
+        <v>1E-4</v>
+      </c>
+      <c r="P9" s="28">
+        <v>1E-3</v>
+      </c>
+    </row>
+    <row r="10" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A10" s="12" t="s">
+        <v>910</v>
+      </c>
+      <c r="B10" s="14"/>
+      <c r="E10" s="27">
+        <v>1</v>
+      </c>
+      <c r="F10" s="19">
+        <v>0</v>
+      </c>
+      <c r="G10" s="29">
+        <v>0</v>
+      </c>
+      <c r="H10" s="8" t="s">
+        <v>867</v>
+      </c>
+      <c r="N10" s="28" t="s">
+        <v>1014</v>
+      </c>
+      <c r="O10" s="28">
+        <v>1.07</v>
+      </c>
+      <c r="P10" s="28">
+        <v>1.07</v>
+      </c>
+    </row>
+    <row r="11" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A11" s="13" t="s">
+        <v>911</v>
+      </c>
+      <c r="B11" s="14"/>
+      <c r="E11" s="26">
+        <v>4.0564698450902027E-5</v>
+      </c>
+      <c r="F11" s="21">
+        <v>6</v>
+      </c>
+      <c r="G11" s="29">
+        <v>0</v>
+      </c>
+      <c r="H11" s="9" t="s">
+        <v>1142</v>
+      </c>
+      <c r="N11" s="28" t="s">
+        <v>1036</v>
+      </c>
+      <c r="O11" s="28">
+        <v>0.56200000000000006</v>
+      </c>
+      <c r="P11" s="28">
+        <v>0.56200000000000006</v>
+      </c>
+    </row>
+    <row r="12" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A12" s="12" t="s">
+        <v>912</v>
+      </c>
+      <c r="B12" s="15"/>
+      <c r="E12" s="27">
+        <v>67769.912192357311</v>
+      </c>
+      <c r="F12" s="19">
+        <v>-6.6</v>
+      </c>
+      <c r="G12" s="29">
+        <v>8.39</v>
+      </c>
+      <c r="H12" s="8" t="s">
+        <v>868</v>
+      </c>
+      <c r="N12" s="1" t="s">
+        <v>1035</v>
+      </c>
+      <c r="O12" s="28">
+        <v>0.443</v>
+      </c>
+      <c r="P12" s="28">
+        <v>0.443</v>
+      </c>
+    </row>
+    <row r="13" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A13" s="12" t="s">
+        <v>913</v>
+      </c>
+      <c r="B13" s="14"/>
+      <c r="E13" s="27">
+        <v>1.4755810766902159E-5</v>
+      </c>
+      <c r="F13" s="19">
+        <v>6.6</v>
+      </c>
+      <c r="G13" s="29">
+        <v>45.514000000000003</v>
+      </c>
+      <c r="H13" s="8" t="s">
+        <v>982</v>
+      </c>
+      <c r="N13" s="28" t="s">
+        <v>1034</v>
+      </c>
+      <c r="O13" s="28">
+        <v>0.57099999999999995</v>
+      </c>
+      <c r="P13" s="28">
+        <v>0.57099999999999995</v>
+      </c>
+    </row>
+    <row r="14" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A14" s="13" t="s">
+        <v>849</v>
+      </c>
+      <c r="B14" s="14"/>
+      <c r="E14" s="27"/>
+      <c r="F14" s="17"/>
+      <c r="G14" s="29">
+        <v>0.87390000000000001</v>
+      </c>
+      <c r="H14" s="9" t="s">
+        <v>1171</v>
+      </c>
+      <c r="N14" s="28" t="s">
+        <v>1033</v>
+      </c>
+      <c r="O14" s="28">
+        <v>9.6300000000000008</v>
+      </c>
+      <c r="P14" s="28">
+        <v>9.6300000000000008</v>
+      </c>
+    </row>
+    <row r="15" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A15" s="12" t="s">
+        <v>914</v>
+      </c>
+      <c r="B15" s="15"/>
+      <c r="E15" s="27">
+        <v>1</v>
+      </c>
+      <c r="F15" s="19">
+        <v>0</v>
+      </c>
+      <c r="G15" s="29">
+        <v>-22.809799999999999</v>
+      </c>
+      <c r="H15" s="8" t="s">
+        <v>869</v>
+      </c>
+      <c r="N15" s="28" t="s">
+        <v>652</v>
+      </c>
+      <c r="O15" s="28">
+        <v>1E-4</v>
+      </c>
+      <c r="P15" s="28">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="16" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A16" s="12" t="s">
+        <v>629</v>
+      </c>
+      <c r="B16" s="14"/>
+      <c r="E16" s="27">
+        <v>1972365.99167846</v>
+      </c>
+      <c r="F16" s="19">
+        <v>-8.6</v>
+      </c>
+      <c r="G16" s="29">
+        <v>6.0072000000000001</v>
+      </c>
+      <c r="H16" s="8" t="s">
+        <v>1172</v>
+      </c>
+      <c r="N16" s="28" t="s">
+        <v>1032</v>
+      </c>
+      <c r="O16" s="28">
+        <v>1.64E-3</v>
+      </c>
+      <c r="P16" s="28">
+        <v>1.64E-3</v>
+      </c>
+    </row>
+    <row r="17" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A17" s="12" t="s">
+        <v>915</v>
+      </c>
+      <c r="B17" s="14"/>
+      <c r="E17" s="27">
+        <v>1.6962147614400713E+27</v>
+      </c>
+      <c r="F17" s="19">
+        <v>-37.200000000000003</v>
+      </c>
+      <c r="G17" s="29">
+        <v>43.5989</v>
+      </c>
+      <c r="H17" s="8" t="s">
+        <v>996</v>
+      </c>
+      <c r="N17" s="28" t="s">
+        <v>1037</v>
+      </c>
+      <c r="O17" s="28">
+        <v>1E-4</v>
+      </c>
+      <c r="P17" s="28">
+        <v>1E-3</v>
+      </c>
+    </row>
+    <row r="18" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A18" s="12" t="s">
+        <v>916</v>
+      </c>
+      <c r="B18" s="14"/>
+      <c r="E18" s="27">
+        <v>1</v>
+      </c>
+      <c r="F18" s="19">
+        <v>0</v>
+      </c>
+      <c r="G18" s="29">
+        <v>0</v>
+      </c>
+      <c r="H18" s="8" t="s">
+        <v>1150</v>
+      </c>
+      <c r="N18" s="28" t="s">
+        <v>1038</v>
+      </c>
+      <c r="O18" s="28">
+        <v>0</v>
+      </c>
+      <c r="P18" s="28">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A19" s="12" t="s">
+        <v>594</v>
+      </c>
+      <c r="B19" s="14"/>
+      <c r="E19" s="27">
+        <v>4.5580361179955871</v>
+      </c>
+      <c r="F19" s="19">
+        <v>-0.9</v>
+      </c>
+      <c r="G19" s="29">
+        <v>14.716100000000001</v>
+      </c>
+      <c r="H19" s="8" t="s">
+        <v>870</v>
+      </c>
+      <c r="N19" s="28" t="s">
+        <v>1039</v>
+      </c>
+      <c r="O19" s="28">
+        <v>1.37</v>
+      </c>
+      <c r="P19" s="28">
+        <v>1.37</v>
+      </c>
+    </row>
+    <row r="20" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A20" s="12" t="s">
+        <v>917</v>
+      </c>
+      <c r="B20" s="14"/>
+      <c r="E20" s="27">
+        <v>1</v>
+      </c>
+      <c r="F20" s="19">
+        <v>0</v>
+      </c>
+      <c r="G20" s="29">
+        <v>0</v>
+      </c>
+      <c r="H20" s="8" t="s">
+        <v>1143</v>
+      </c>
+      <c r="N20" s="28" t="s">
+        <v>1160</v>
+      </c>
+      <c r="O20" s="28">
+        <v>8.9800000000000001E-3</v>
+      </c>
+      <c r="P20" s="28">
+        <v>8.9800000000000001E-3</v>
+      </c>
+    </row>
+    <row r="21" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A21" s="12" t="s">
+        <v>918</v>
+      </c>
+      <c r="B21" s="14"/>
+      <c r="E21" s="27"/>
+      <c r="F21" s="19"/>
+      <c r="G21" s="29">
+        <v>0</v>
+      </c>
+      <c r="H21" s="8" t="s">
+        <v>997</v>
+      </c>
+      <c r="N21" s="28" t="s">
+        <v>1159</v>
+      </c>
+      <c r="O21" s="28">
+        <v>8.9800000000000001E-3</v>
+      </c>
+      <c r="P21" s="28">
+        <v>8.9800000000000001E-3</v>
+      </c>
+    </row>
+    <row r="22" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A22" s="13" t="s">
+        <v>919</v>
+      </c>
+      <c r="B22" s="14"/>
+      <c r="E22" s="27"/>
+      <c r="F22" s="19"/>
+      <c r="G22" s="29">
+        <v>0</v>
+      </c>
+      <c r="H22" s="9" t="s">
+        <v>998</v>
+      </c>
+      <c r="N22" s="28" t="s">
+        <v>1040</v>
+      </c>
+      <c r="O22" s="28">
+        <v>0.126</v>
+      </c>
+      <c r="P22" s="28">
+        <v>0.126</v>
+      </c>
+    </row>
+    <row r="23" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A23" s="12" t="s">
+        <v>920</v>
+      </c>
+      <c r="B23" s="15"/>
+      <c r="E23" s="27"/>
+      <c r="F23" s="19"/>
+      <c r="G23" s="29">
+        <v>0</v>
+      </c>
+      <c r="H23" s="8" t="s">
+        <v>999</v>
+      </c>
+      <c r="N23" s="28" t="s">
+        <v>1041</v>
+      </c>
+      <c r="O23" s="28">
+        <v>1E-3</v>
+      </c>
+      <c r="P23" s="28">
+        <v>0.01</v>
+      </c>
+    </row>
+    <row r="24" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A24" s="12" t="s">
+        <v>921</v>
+      </c>
+      <c r="B24" s="14"/>
+      <c r="E24" s="27"/>
+      <c r="F24" s="19"/>
+      <c r="G24" s="29">
+        <v>22.809799999999999</v>
+      </c>
+      <c r="H24" s="8" t="s">
+        <v>1000</v>
+      </c>
+      <c r="N24" s="28" t="s">
+        <v>1144</v>
+      </c>
+      <c r="O24" s="28">
+        <v>1.66E-2</v>
+      </c>
+      <c r="P24" s="28">
+        <v>1.66E-2</v>
+      </c>
+    </row>
+    <row r="25" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A25" s="12" t="s">
+        <v>922</v>
+      </c>
+      <c r="B25" s="14"/>
+      <c r="E25" s="27"/>
+      <c r="F25" s="19"/>
+      <c r="G25" s="29">
+        <v>0</v>
+      </c>
+      <c r="H25" s="8" t="s">
+        <v>1146</v>
+      </c>
+      <c r="N25" s="28" t="s">
+        <v>1145</v>
+      </c>
+      <c r="O25" s="28">
+        <v>0</v>
+      </c>
+      <c r="P25" s="28">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A26" s="12" t="s">
+        <v>923</v>
+      </c>
+      <c r="B26" s="14"/>
+      <c r="E26" s="27"/>
+      <c r="F26" s="19"/>
+      <c r="G26" s="29">
+        <v>0</v>
+      </c>
+      <c r="H26" s="8" t="s">
+        <v>1001</v>
+      </c>
+      <c r="N26" s="28" t="s">
+        <v>1042</v>
+      </c>
+      <c r="O26" s="28">
+        <v>4.3900000000000002E-2</v>
+      </c>
+      <c r="P26" s="28">
+        <v>4.3900000000000002E-2</v>
+      </c>
+    </row>
+    <row r="27" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A27" s="13" t="s">
+        <v>924</v>
+      </c>
+      <c r="B27" s="14"/>
+      <c r="E27" s="27"/>
+      <c r="F27" s="19"/>
+      <c r="G27" s="29">
+        <v>0</v>
+      </c>
+      <c r="H27" s="9" t="s">
+        <v>1002</v>
+      </c>
+      <c r="N27" s="28" t="s">
+        <v>1136</v>
+      </c>
+      <c r="O27" s="28">
+        <v>2.5899999999999999E-2</v>
+      </c>
+      <c r="P27" s="28">
+        <v>2.5899999999999999E-2</v>
+      </c>
+    </row>
+    <row r="28" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A28" s="12" t="s">
+        <v>925</v>
+      </c>
+      <c r="B28" s="15"/>
+      <c r="E28" s="27"/>
+      <c r="F28" s="19"/>
+      <c r="G28" s="29">
+        <v>0</v>
+      </c>
+      <c r="H28" s="8" t="s">
+        <v>1003</v>
+      </c>
+      <c r="N28" s="28" t="s">
+        <v>1043</v>
+      </c>
+      <c r="O28" s="28">
+        <v>1E-3</v>
+      </c>
+      <c r="P28" s="28">
+        <v>0.01</v>
+      </c>
+    </row>
+    <row r="29" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A29" s="12" t="s">
+        <v>926</v>
+      </c>
+      <c r="B29" s="14"/>
+      <c r="E29" s="27"/>
+      <c r="F29" s="19"/>
+      <c r="G29" s="29">
+        <v>-10</v>
+      </c>
+      <c r="H29" s="8" t="s">
+        <v>1156</v>
+      </c>
+      <c r="N29" s="28" t="s">
+        <v>1044</v>
+      </c>
+      <c r="O29" s="28">
+        <v>0</v>
+      </c>
+      <c r="P29" s="28">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A30" s="12" t="s">
+        <v>927</v>
+      </c>
+      <c r="B30" s="14"/>
+      <c r="E30" s="27"/>
+      <c r="F30" s="19"/>
+      <c r="G30" s="29">
+        <v>0</v>
+      </c>
+      <c r="H30" s="8" t="s">
+        <v>1004</v>
+      </c>
+      <c r="N30" s="28" t="s">
+        <v>1045</v>
+      </c>
+      <c r="O30" s="28">
+        <v>5.7000000000000002E-2</v>
+      </c>
+      <c r="P30" s="28">
+        <v>5.7000000000000002E-2</v>
+      </c>
+    </row>
+    <row r="31" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A31" s="12" t="s">
+        <v>928</v>
+      </c>
+      <c r="B31" s="14"/>
+      <c r="E31" s="27"/>
+      <c r="F31" s="19"/>
+      <c r="G31" s="29">
+        <v>0</v>
+      </c>
+      <c r="H31" s="8" t="s">
+        <v>1005</v>
+      </c>
+      <c r="N31" s="28" t="s">
+        <v>1135</v>
+      </c>
+      <c r="O31" s="28">
+        <v>1E-3</v>
+      </c>
+      <c r="P31" s="28">
+        <v>0.1</v>
+      </c>
+    </row>
+    <row r="32" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A32" s="12" t="s">
+        <v>929</v>
+      </c>
+      <c r="B32" s="14"/>
+      <c r="E32" s="27"/>
+      <c r="F32" s="19"/>
+      <c r="G32" s="29">
+        <v>17.530899999999999</v>
+      </c>
+      <c r="H32" s="8" t="s">
+        <v>1006</v>
+      </c>
+      <c r="N32" s="28" t="s">
+        <v>1046</v>
+      </c>
+      <c r="O32" s="28">
+        <v>0.18099999999999999</v>
+      </c>
+      <c r="P32" s="28">
+        <v>0.18099999999999999</v>
+      </c>
+    </row>
+    <row r="33" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A33" s="12" t="s">
+        <v>930</v>
+      </c>
+      <c r="B33" s="14"/>
+      <c r="E33" s="27"/>
+      <c r="F33" s="19"/>
+      <c r="G33" s="29">
+        <v>29.175799999999999</v>
+      </c>
+      <c r="H33" s="8" t="s">
+        <v>1007</v>
+      </c>
+      <c r="N33" s="28" t="s">
+        <v>1157</v>
+      </c>
+      <c r="O33" s="28">
+        <v>1</v>
+      </c>
+      <c r="P33" s="28">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="34" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A34" s="13" t="s">
+        <v>931</v>
+      </c>
+      <c r="B34" s="14"/>
+      <c r="E34" s="27"/>
+      <c r="F34" s="19"/>
+      <c r="G34" s="29">
+        <v>0</v>
+      </c>
+      <c r="H34" s="8" t="s">
+        <v>1151</v>
+      </c>
+      <c r="N34" s="28" t="s">
+        <v>1137</v>
+      </c>
+      <c r="O34" s="28">
+        <v>1E-4</v>
+      </c>
+      <c r="P34" s="28">
+        <v>1E-3</v>
+      </c>
+    </row>
+    <row r="35" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A35" s="13" t="s">
+        <v>932</v>
+      </c>
+      <c r="B35" s="15"/>
+      <c r="E35" s="27"/>
+      <c r="F35" s="19"/>
+      <c r="G35" s="29">
+        <v>0</v>
+      </c>
+      <c r="H35" s="9" t="s">
+        <v>1184</v>
+      </c>
+      <c r="N35" s="28" t="s">
+        <v>1047</v>
+      </c>
+      <c r="O35" s="28">
+        <v>1</v>
+      </c>
+      <c r="P35" s="28">
+        <v>0.01</v>
+      </c>
+    </row>
+    <row r="36" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A36" s="12" t="s">
+        <v>933</v>
+      </c>
+      <c r="B36" s="15"/>
+      <c r="E36" s="27"/>
+      <c r="F36" s="19"/>
+      <c r="G36" s="29">
+        <v>-4.7652999999999999</v>
+      </c>
+      <c r="H36" s="8" t="s">
+        <v>1008</v>
+      </c>
+      <c r="N36" s="28" t="s">
+        <v>1031</v>
+      </c>
+      <c r="O36" s="28">
+        <v>1.64E-3</v>
+      </c>
+      <c r="P36" s="28">
+        <v>1.64E-3</v>
+      </c>
+    </row>
+    <row r="37" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A37" s="12" t="s">
+        <v>934</v>
+      </c>
+      <c r="B37" s="14"/>
+      <c r="E37" s="27"/>
+      <c r="F37" s="19"/>
+      <c r="G37" s="29">
+        <v>-21.799499999999998</v>
+      </c>
+      <c r="H37" s="8" t="s">
+        <v>1009</v>
+      </c>
+      <c r="N37" s="28" t="s">
+        <v>1147</v>
+      </c>
+      <c r="O37" s="28">
+        <v>1E-4</v>
+      </c>
+      <c r="P37" s="28">
+        <v>0.01</v>
+      </c>
+    </row>
+    <row r="38" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A38" s="12" t="s">
+        <v>935</v>
+      </c>
+      <c r="B38" s="14"/>
+      <c r="E38" s="27"/>
+      <c r="F38" s="19"/>
+      <c r="G38" s="29">
+        <v>-3.2149000000000001</v>
+      </c>
+      <c r="H38" s="8" t="s">
+        <v>1010</v>
+      </c>
+      <c r="N38" s="28" t="s">
+        <v>1148</v>
+      </c>
+      <c r="O38" s="28">
+        <v>0</v>
+      </c>
+      <c r="P38" s="28">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="39" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A39" s="12" t="s">
+        <v>936</v>
+      </c>
+      <c r="B39" s="14"/>
+      <c r="E39" s="27"/>
+      <c r="F39" s="19"/>
+      <c r="G39" s="29">
+        <v>0</v>
+      </c>
+      <c r="H39" s="8" t="s">
+        <v>1012</v>
+      </c>
+      <c r="N39" s="28" t="s">
+        <v>1177</v>
+      </c>
+      <c r="O39" s="28">
+        <v>6.8599999999999994E-2</v>
+      </c>
+      <c r="P39" s="28">
+        <v>6.8599999999999994E-2</v>
+      </c>
+    </row>
+    <row r="40" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A40" s="12" t="s">
+        <v>937</v>
+      </c>
+      <c r="B40" s="14"/>
+      <c r="E40" s="27"/>
+      <c r="F40" s="19"/>
+      <c r="G40" s="29">
+        <v>0</v>
+      </c>
+      <c r="H40" s="8" t="s">
+        <v>1011</v>
+      </c>
+      <c r="N40" s="28" t="s">
+        <v>1029</v>
+      </c>
+      <c r="O40" s="28">
+        <v>5.3499999999999997E-3</v>
+      </c>
+      <c r="P40" s="28">
+        <v>5.3499999999999997E-3</v>
+      </c>
+    </row>
+    <row r="41" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A41" s="12" t="s">
+        <v>589</v>
+      </c>
+      <c r="B41" s="14"/>
+      <c r="E41" s="27">
+        <v>8.4275973191444799E-4</v>
+      </c>
+      <c r="F41" s="19">
+        <v>4.2</v>
+      </c>
+      <c r="G41" s="29">
+        <v>7.4774000000000003</v>
+      </c>
+      <c r="H41" s="8" t="s">
+        <v>871</v>
+      </c>
+      <c r="N41" s="28" t="s">
+        <v>1028</v>
+      </c>
+      <c r="O41" s="28">
+        <v>0.47299999999999998</v>
+      </c>
+      <c r="P41" s="28">
+        <v>0.47299999999999998</v>
+      </c>
+    </row>
+    <row r="42" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A42" s="12" t="s">
+        <v>588</v>
+      </c>
+      <c r="B42" s="14"/>
+      <c r="E42" s="27">
+        <v>112.08069512728699</v>
+      </c>
+      <c r="F42" s="19">
+        <v>-7</v>
+      </c>
+      <c r="G42" s="29">
+        <v>0</v>
+      </c>
+      <c r="H42" s="8" t="s">
+        <v>872</v>
+      </c>
+      <c r="N42" s="28" t="s">
+        <v>1027</v>
+      </c>
+      <c r="O42" s="28">
+        <v>2.0799999999999998E-3</v>
+      </c>
+      <c r="P42" s="28">
+        <v>2.0799999999999998E-3</v>
+      </c>
+    </row>
+    <row r="43" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A43" s="13" t="s">
+        <v>938</v>
+      </c>
+      <c r="B43" s="14"/>
+      <c r="E43" s="26">
+        <v>1</v>
+      </c>
+      <c r="F43" s="21">
+        <v>0</v>
+      </c>
+      <c r="G43" s="29">
+        <v>0</v>
+      </c>
+      <c r="H43" s="9" t="s">
+        <v>873</v>
+      </c>
+      <c r="N43" s="28" t="s">
+        <v>1026</v>
+      </c>
+      <c r="O43" s="28">
+        <v>0.121</v>
+      </c>
+      <c r="P43" s="28">
+        <v>0.121</v>
+      </c>
+    </row>
+    <row r="44" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A44" s="13" t="s">
+        <v>939</v>
+      </c>
+      <c r="B44" s="15"/>
+      <c r="E44" s="26">
+        <v>1</v>
+      </c>
+      <c r="F44" s="21">
+        <v>0</v>
+      </c>
+      <c r="G44" s="29">
+        <v>0</v>
+      </c>
+      <c r="H44" s="9" t="s">
+        <v>874</v>
+      </c>
+      <c r="N44" s="28" t="s">
+        <v>1139</v>
+      </c>
+      <c r="O44" s="28">
+        <v>1E-4</v>
+      </c>
+      <c r="P44" s="28">
+        <v>1E-3</v>
+      </c>
+    </row>
+    <row r="45" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A45" s="13" t="s">
+        <v>940</v>
+      </c>
+      <c r="B45" s="15"/>
+      <c r="E45" s="25">
+        <v>4.8011555980423353E-5</v>
+      </c>
+      <c r="F45" s="20">
+        <v>5.9</v>
+      </c>
+      <c r="G45" s="29">
+        <v>0</v>
+      </c>
+      <c r="H45" s="9" t="s">
+        <v>875</v>
+      </c>
+      <c r="N45" s="28" t="s">
+        <v>1140</v>
+      </c>
+      <c r="O45" s="28">
+        <v>1E-4</v>
+      </c>
+      <c r="P45" s="28">
+        <v>1E-3</v>
+      </c>
+    </row>
+    <row r="46" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A46" s="13" t="s">
+        <v>941</v>
+      </c>
+      <c r="B46" s="15"/>
+      <c r="E46" s="26">
+        <v>4581156.7432856048</v>
+      </c>
+      <c r="F46" s="21">
+        <v>-9.1</v>
+      </c>
+      <c r="G46" s="29">
+        <v>0</v>
+      </c>
+      <c r="H46" s="9" t="s">
+        <v>876</v>
+      </c>
+      <c r="N46" s="28" t="s">
+        <v>1025</v>
+      </c>
+      <c r="O46" s="28">
+        <v>1E-3</v>
+      </c>
+      <c r="P46" s="28">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="47" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A47" s="12" t="s">
+        <v>704</v>
+      </c>
+      <c r="B47" s="15"/>
+      <c r="E47" s="27">
+        <v>2.7490660521270844</v>
+      </c>
+      <c r="F47" s="19">
+        <v>-0.6</v>
+      </c>
+      <c r="G47" s="29">
+        <v>5.0644</v>
+      </c>
+      <c r="H47" s="8" t="s">
+        <v>1178</v>
+      </c>
+      <c r="N47" s="28" t="s">
+        <v>1173</v>
+      </c>
+      <c r="O47" s="28">
+        <v>1E-4</v>
+      </c>
+      <c r="P47" s="28">
+        <v>0.01</v>
+      </c>
+    </row>
+    <row r="48" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A48" s="12" t="s">
+        <v>942</v>
+      </c>
+      <c r="B48" s="14"/>
+      <c r="E48" s="27">
+        <v>1</v>
+      </c>
+      <c r="F48" s="19">
+        <v>0</v>
+      </c>
+      <c r="G48" s="29">
+        <v>0</v>
+      </c>
+      <c r="H48" s="8" t="s">
+        <v>981</v>
+      </c>
+      <c r="N48" s="28" t="s">
+        <v>1024</v>
+      </c>
+      <c r="O48" s="28">
+        <v>0.184</v>
+      </c>
+      <c r="P48" s="28">
+        <v>0.184</v>
+      </c>
+    </row>
+    <row r="49" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A49" s="12" t="s">
+        <v>943</v>
+      </c>
+      <c r="B49" s="14"/>
+      <c r="E49" s="27">
+        <v>1.1835797581124567</v>
+      </c>
+      <c r="F49" s="19">
+        <v>-0.1</v>
+      </c>
+      <c r="G49" s="29">
+        <v>16.023499999999999</v>
+      </c>
+      <c r="H49" s="8" t="s">
+        <v>1154</v>
+      </c>
+      <c r="N49" s="28" t="s">
+        <v>1138</v>
+      </c>
+      <c r="O49" s="28">
+        <v>1E-4</v>
+      </c>
+      <c r="P49" s="28">
+        <v>0.01</v>
+      </c>
+    </row>
+    <row r="50" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A50" s="12" t="s">
+        <v>944</v>
+      </c>
+      <c r="B50" s="14"/>
+      <c r="E50" s="27">
+        <v>4581156.7432856048</v>
+      </c>
+      <c r="F50" s="19">
+        <v>-9.1</v>
+      </c>
+      <c r="G50" s="29">
+        <v>10</v>
+      </c>
+      <c r="H50" s="8" t="s">
+        <v>1155</v>
+      </c>
+      <c r="N50" s="28" t="s">
+        <v>1023</v>
+      </c>
+      <c r="O50" s="28">
+        <v>0.128</v>
+      </c>
+      <c r="P50" s="28">
+        <v>0.128</v>
+      </c>
+    </row>
+    <row r="51" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A51" s="12" t="s">
+        <v>946</v>
+      </c>
+      <c r="B51" s="14"/>
+      <c r="E51" s="27">
+        <v>67769.912192357311</v>
+      </c>
+      <c r="F51" s="19">
+        <v>-6.6</v>
+      </c>
+      <c r="G51" s="29">
+        <v>0</v>
+      </c>
+      <c r="H51" s="8" t="s">
+        <v>878</v>
+      </c>
+      <c r="N51" s="28" t="s">
+        <v>1022</v>
+      </c>
+      <c r="O51" s="28">
+        <v>3.6200000000000003E-2</v>
+      </c>
+      <c r="P51" s="28">
+        <v>3.6200000000000003E-2</v>
+      </c>
+    </row>
+    <row r="52" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A52" s="12" t="s">
+        <v>945</v>
+      </c>
+      <c r="B52" s="14"/>
+      <c r="E52" s="27">
+        <v>17.553268472658598</v>
+      </c>
+      <c r="F52" s="19">
+        <v>-1.7</v>
+      </c>
+      <c r="G52" s="29">
+        <v>0.2235</v>
+      </c>
+      <c r="H52" s="8" t="s">
+        <v>877</v>
+      </c>
+      <c r="N52" s="28" t="s">
+        <v>1164</v>
+      </c>
+      <c r="O52" s="28">
+        <v>0.128</v>
+      </c>
+      <c r="P52" s="28">
+        <v>0.128</v>
+      </c>
+    </row>
+    <row r="53" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A53" s="12" t="s">
+        <v>947</v>
+      </c>
+      <c r="B53" s="14"/>
+      <c r="E53" s="27">
+        <v>1.558223645776738E-7</v>
+      </c>
+      <c r="F53" s="19">
+        <v>9.3000000000000007</v>
+      </c>
+      <c r="G53" s="29">
+        <v>-4.5419</v>
+      </c>
+      <c r="H53" s="8" t="s">
+        <v>879</v>
+      </c>
+      <c r="N53" s="28" t="s">
+        <v>1021</v>
+      </c>
+      <c r="O53" s="28">
+        <v>0.22</v>
+      </c>
+      <c r="P53" s="28">
+        <v>0.22</v>
+      </c>
+    </row>
+    <row r="54" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A54" s="12" t="s">
+        <v>948</v>
+      </c>
+      <c r="B54" s="14"/>
+      <c r="E54" s="27">
+        <v>3860.8144288294484</v>
+      </c>
+      <c r="F54" s="19">
+        <v>-4.9000000000000004</v>
+      </c>
+      <c r="G54" s="29">
+        <v>0</v>
+      </c>
+      <c r="H54" s="8" t="s">
+        <v>880</v>
+      </c>
+      <c r="N54" s="28" t="s">
+        <v>1019</v>
+      </c>
+      <c r="O54" s="28">
+        <v>6.9500000000000006E-2</v>
+      </c>
+      <c r="P54" s="28">
+        <v>6.9500000000000006E-2</v>
+      </c>
+    </row>
+    <row r="55" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A55" s="12" t="s">
+        <v>949</v>
+      </c>
+      <c r="B55" s="14"/>
+      <c r="E55" s="27">
+        <v>24777023755.822395</v>
+      </c>
+      <c r="F55" s="19">
+        <v>-14.2</v>
+      </c>
+      <c r="G55" s="29">
+        <v>0</v>
+      </c>
+      <c r="H55" s="8" t="s">
+        <v>977</v>
+      </c>
+      <c r="N55" s="28" t="s">
+        <v>1018</v>
+      </c>
+      <c r="O55" s="28">
+        <v>0</v>
+      </c>
+      <c r="P55" s="28">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="56" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A56" s="12" t="s">
+        <v>950</v>
+      </c>
+      <c r="B56" s="14"/>
+      <c r="E56" s="27">
+        <v>1</v>
+      </c>
+      <c r="F56" s="19">
+        <v>0</v>
+      </c>
+      <c r="G56" s="29">
+        <v>0</v>
+      </c>
+      <c r="H56" s="8" t="s">
+        <v>881</v>
+      </c>
+      <c r="N56" s="28" t="s">
+        <v>1020</v>
+      </c>
+      <c r="O56" s="28">
+        <v>0.23300000000000001</v>
+      </c>
+      <c r="P56" s="28">
+        <v>0.23300000000000001</v>
+      </c>
+    </row>
+    <row r="57" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A57" s="12" t="s">
+        <v>951</v>
+      </c>
+      <c r="B57" s="14"/>
+      <c r="E57" s="27">
+        <v>0.2193927327718837</v>
+      </c>
+      <c r="F57" s="19">
+        <v>0.9</v>
+      </c>
+      <c r="G57" s="29">
+        <v>4.96</v>
+      </c>
+      <c r="H57" s="8" t="s">
+        <v>1162</v>
+      </c>
+      <c r="N57" s="28" t="s">
+        <v>1168</v>
+      </c>
+      <c r="O57" s="28">
+        <v>9.1800000000000007E-2</v>
+      </c>
+      <c r="P57" s="28">
+        <v>9.1800000000000007E-2</v>
+      </c>
+    </row>
+    <row r="58" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A58" s="12" t="s">
+        <v>952</v>
+      </c>
+      <c r="B58" s="14"/>
+      <c r="E58" s="27">
+        <v>1</v>
+      </c>
+      <c r="F58" s="19">
+        <v>0</v>
+      </c>
+      <c r="G58" s="29">
+        <v>-29.175799999999999</v>
+      </c>
+      <c r="H58" s="8" t="s">
+        <v>882</v>
+      </c>
+      <c r="N58" s="28" t="s">
+        <v>1185</v>
+      </c>
+      <c r="O58" s="28">
+        <v>0</v>
+      </c>
+      <c r="P58" s="28">
+        <v>1E-3</v>
+      </c>
+    </row>
+    <row r="59" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A59" s="12" t="s">
+        <v>953</v>
+      </c>
+      <c r="B59" s="14"/>
+      <c r="E59" s="27">
+        <v>3.2455179049229346E-3</v>
+      </c>
+      <c r="F59" s="19">
+        <v>3.4</v>
+      </c>
+      <c r="G59" s="29">
+        <v>6.0072000000000001</v>
+      </c>
+      <c r="H59" s="8" t="s">
+        <v>883</v>
+      </c>
+      <c r="N59" s="28" t="s">
+        <v>1186</v>
+      </c>
+      <c r="O59" s="28">
+        <v>0</v>
+      </c>
+      <c r="P59" s="28">
+        <v>1E-3</v>
+      </c>
+    </row>
+    <row r="60" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A60" s="12" t="s">
+        <v>636</v>
+      </c>
+      <c r="B60" s="14"/>
+      <c r="E60" s="27">
+        <v>2.5901270792317975E-4</v>
+      </c>
+      <c r="F60" s="19">
+        <v>4.9000000000000004</v>
+      </c>
+      <c r="G60" s="29">
+        <v>0</v>
+      </c>
+      <c r="H60" s="8" t="s">
+        <v>884</v>
+      </c>
+      <c r="N60" s="28" t="s">
+        <v>1192</v>
+      </c>
+      <c r="O60" s="28">
+        <v>0</v>
+      </c>
+      <c r="P60" s="28">
+        <v>1E-3</v>
+      </c>
+    </row>
+    <row r="61" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A61" s="12" t="s">
+        <v>954</v>
+      </c>
+      <c r="B61" s="14"/>
+      <c r="E61" s="27">
+        <v>2.0670840473237604E-5</v>
+      </c>
+      <c r="F61" s="19">
+        <v>6.4</v>
+      </c>
+      <c r="G61" s="29">
+        <v>0</v>
+      </c>
+      <c r="H61" s="8" t="s">
+        <v>1149</v>
+      </c>
+      <c r="N61" s="28" t="s">
+        <v>1193</v>
+      </c>
+      <c r="O61" s="28">
+        <v>0</v>
+      </c>
+      <c r="P61" s="28">
+        <v>1E-3</v>
+      </c>
+    </row>
+    <row r="62" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A62" s="12" t="s">
+        <v>955</v>
+      </c>
+      <c r="B62" s="14"/>
+      <c r="E62" s="27">
+        <v>2334452.463340031</v>
+      </c>
+      <c r="F62" s="19">
+        <v>-8.6999999999999993</v>
+      </c>
+      <c r="G62" s="29">
+        <v>0</v>
+      </c>
+      <c r="H62" s="8" t="s">
+        <v>1179</v>
+      </c>
+    </row>
+    <row r="63" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A63" s="29" t="s">
+        <v>956</v>
+      </c>
+      <c r="B63" s="14"/>
+      <c r="E63" s="26">
+        <v>1</v>
+      </c>
+      <c r="F63" s="21">
+        <v>0</v>
+      </c>
+      <c r="G63" s="29">
+        <v>0</v>
+      </c>
+      <c r="H63" s="29" t="s">
+        <v>1180</v>
+      </c>
+    </row>
+    <row r="64" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A64" s="14" t="s">
+        <v>622</v>
+      </c>
+      <c r="B64" s="29"/>
+      <c r="E64" s="31">
+        <v>2.0670840473237604E-5</v>
+      </c>
+      <c r="F64" s="23">
+        <v>6.4</v>
+      </c>
+      <c r="G64" s="29">
+        <v>5.0644</v>
+      </c>
+      <c r="H64" s="14" t="s">
+        <v>1181</v>
+      </c>
+    </row>
+    <row r="65" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A65" s="12" t="s">
+        <v>957</v>
+      </c>
+      <c r="B65" s="14"/>
+      <c r="E65" s="27">
+        <v>0.11179750752009893</v>
+      </c>
+      <c r="F65" s="19">
+        <v>1.3</v>
+      </c>
+      <c r="G65" s="29">
+        <v>0</v>
+      </c>
+      <c r="H65" s="8" t="s">
+        <v>1182</v>
+      </c>
+    </row>
+    <row r="66" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A66" s="12" t="s">
+        <v>958</v>
+      </c>
+      <c r="B66" s="14"/>
+      <c r="E66" s="27">
+        <v>6.7427884439643204E-2</v>
+      </c>
+      <c r="F66" s="19">
+        <v>1.6</v>
+      </c>
+      <c r="G66" s="29">
+        <v>0</v>
+      </c>
+      <c r="H66" s="8" t="s">
+        <v>1183</v>
+      </c>
+    </row>
+    <row r="67" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A67" s="29" t="s">
+        <v>959</v>
+      </c>
+      <c r="B67" s="14"/>
+      <c r="E67" s="26">
+        <v>5449668303594.3379</v>
+      </c>
+      <c r="F67" s="21">
+        <v>-17.399999999999999</v>
+      </c>
+      <c r="G67" s="29">
+        <v>38.534599999999998</v>
+      </c>
+      <c r="H67" s="29" t="s">
+        <v>984</v>
+      </c>
+    </row>
+    <row r="68" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A68" s="14" t="s">
+        <v>960</v>
+      </c>
+      <c r="B68" s="29"/>
+      <c r="E68" s="31">
+        <v>1.6580307753859953</v>
+      </c>
+      <c r="F68" s="23">
+        <v>-0.3</v>
+      </c>
+      <c r="G68" s="29">
+        <v>0</v>
+      </c>
+      <c r="H68" s="14" t="s">
+        <v>885</v>
+      </c>
+    </row>
+    <row r="69" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A69" s="12" t="s">
+        <v>961</v>
+      </c>
+      <c r="B69" s="14"/>
+      <c r="E69" s="27">
+        <v>1</v>
+      </c>
+      <c r="F69" s="19">
+        <v>0</v>
+      </c>
+      <c r="G69" s="29">
+        <v>4.7652999999999999</v>
+      </c>
+      <c r="H69" s="8" t="s">
+        <v>886</v>
+      </c>
+    </row>
+    <row r="70" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A70" s="12" t="s">
+        <v>962</v>
+      </c>
+      <c r="B70" s="14"/>
+      <c r="E70" s="27">
+        <v>1</v>
+      </c>
+      <c r="F70" s="19">
+        <v>0</v>
+      </c>
+      <c r="G70" s="29">
+        <v>21.799499999999998</v>
+      </c>
+      <c r="H70" s="8" t="s">
+        <v>887</v>
+      </c>
+    </row>
+    <row r="71" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A71" s="12" t="s">
+        <v>528</v>
+      </c>
+      <c r="B71" s="14"/>
+      <c r="E71" s="27">
+        <v>1189583.4630809485</v>
+      </c>
+      <c r="F71" s="19">
+        <v>-8.3000000000000007</v>
+      </c>
+      <c r="G71" s="29">
+        <v>9.2825000000000006</v>
+      </c>
+      <c r="H71" s="8" t="s">
+        <v>888</v>
+      </c>
+    </row>
+    <row r="72" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A72" s="12" t="s">
+        <v>590</v>
+      </c>
+      <c r="B72" s="14"/>
+      <c r="E72" s="27">
+        <v>604.65285404763836</v>
+      </c>
+      <c r="F72" s="19">
+        <v>-3.8</v>
+      </c>
+      <c r="G72" s="29">
+        <v>7.4774000000000003</v>
+      </c>
+      <c r="H72" s="8" t="s">
+        <v>889</v>
+      </c>
+    </row>
+    <row r="73" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A73" s="12" t="s">
+        <v>598</v>
+      </c>
+      <c r="B73" s="14"/>
+      <c r="E73" s="27">
+        <v>5408.4645307404089</v>
+      </c>
+      <c r="F73" s="19">
+        <v>-5.0999999999999996</v>
+      </c>
+      <c r="G73" s="29">
+        <v>0</v>
+      </c>
+      <c r="H73" s="8" t="s">
+        <v>890</v>
+      </c>
+    </row>
+    <row r="74" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A74" s="12" t="s">
+        <v>587</v>
+      </c>
+      <c r="B74" s="14"/>
+      <c r="E74" s="27">
+        <v>3.8510595392951203</v>
+      </c>
+      <c r="F74" s="19">
+        <v>-0.8</v>
+      </c>
+      <c r="G74" s="29">
+        <v>4.8609</v>
+      </c>
+      <c r="H74" s="8" t="s">
+        <v>891</v>
+      </c>
+    </row>
+    <row r="75" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A75" s="12" t="s">
+        <v>593</v>
+      </c>
+      <c r="B75" s="14"/>
+      <c r="E75" s="27">
+        <v>8.9221430939942625E-3</v>
+      </c>
+      <c r="F75" s="19">
+        <v>2.8</v>
+      </c>
+      <c r="G75" s="29">
+        <v>-16.023499999999999</v>
+      </c>
+      <c r="H75" s="8" t="s">
+        <v>1152</v>
+      </c>
+    </row>
+    <row r="76" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A76" s="12" t="s">
+        <v>963</v>
+      </c>
+      <c r="B76" s="14"/>
+      <c r="E76" s="27">
+        <v>5408.4645307404089</v>
+      </c>
+      <c r="F76" s="19">
+        <v>-5.0999999999999996</v>
+      </c>
+      <c r="G76" s="29">
+        <v>4.96</v>
+      </c>
+      <c r="H76" s="8" t="s">
+        <v>1161</v>
+      </c>
+    </row>
+    <row r="77" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A77" s="12" t="s">
+        <v>615</v>
+      </c>
+      <c r="B77" s="14"/>
+      <c r="E77" s="27">
+        <v>1</v>
+      </c>
+      <c r="F77" s="19">
+        <v>0</v>
+      </c>
+      <c r="G77" s="29">
+        <v>-14.716100000000001</v>
+      </c>
+      <c r="H77" s="8" t="s">
+        <v>892</v>
+      </c>
+    </row>
+    <row r="78" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A78" s="12" t="s">
+        <v>964</v>
+      </c>
+      <c r="B78" s="14"/>
+      <c r="E78" s="27">
+        <v>1</v>
+      </c>
+      <c r="F78" s="19">
+        <v>0</v>
+      </c>
+      <c r="G78" s="29">
+        <v>3.2149000000000001</v>
+      </c>
+      <c r="H78" s="8" t="s">
+        <v>893</v>
+      </c>
+    </row>
+    <row r="79" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A79" s="12" t="s">
+        <v>607</v>
+      </c>
+      <c r="B79" s="14"/>
+      <c r="E79" s="27">
+        <v>94936.229932937829</v>
+      </c>
+      <c r="F79" s="19">
+        <v>-6.8</v>
+      </c>
+      <c r="G79" s="29">
+        <v>2.5043000000000002</v>
+      </c>
+      <c r="H79" s="8" t="s">
+        <v>1169</v>
+      </c>
+    </row>
+    <row r="80" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A80" s="12" t="s">
+        <v>965</v>
+      </c>
+      <c r="B80" s="14"/>
+      <c r="E80" s="27">
+        <v>0.71384667623971898</v>
+      </c>
+      <c r="F80" s="19">
+        <v>0.2</v>
+      </c>
+      <c r="G80" s="29">
+        <v>0</v>
+      </c>
+      <c r="H80" s="8" t="s">
+        <v>1170</v>
+      </c>
+    </row>
+    <row r="81" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A81" s="12" t="s">
+        <v>597</v>
+      </c>
+      <c r="B81" s="14"/>
+      <c r="E81" s="27">
+        <v>7.5573641589575944</v>
+      </c>
+      <c r="F81" s="19">
+        <v>-1.2</v>
+      </c>
+      <c r="G81" s="29">
+        <v>0</v>
+      </c>
+      <c r="H81" s="8" t="s">
+        <v>978</v>
+      </c>
+    </row>
+    <row r="82" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A82" s="12" t="s">
+        <v>966</v>
+      </c>
+      <c r="B82" s="14"/>
+      <c r="E82" s="27">
+        <v>1.6538415279210997E-3</v>
+      </c>
+      <c r="F82" s="19">
+        <v>3.8</v>
+      </c>
+      <c r="G82" s="29">
+        <v>0</v>
+      </c>
+      <c r="H82" s="8" t="s">
+        <v>894</v>
+      </c>
+    </row>
+    <row r="83" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A83" s="12" t="s">
+        <v>595</v>
+      </c>
+      <c r="B83" s="14"/>
+      <c r="E83" s="27">
+        <v>7576.5072679615205</v>
+      </c>
+      <c r="F83" s="19">
+        <v>-5.3</v>
+      </c>
+      <c r="G83" s="29">
+        <v>1.7582</v>
+      </c>
+      <c r="H83" s="8" t="s">
+        <v>895</v>
+      </c>
+    </row>
+    <row r="84" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A84" s="12" t="s">
+        <v>967</v>
+      </c>
+      <c r="B84" s="14"/>
+      <c r="E84" s="27">
+        <v>1</v>
+      </c>
+      <c r="F84" s="19">
+        <v>0</v>
+      </c>
+      <c r="G84" s="29">
+        <v>0</v>
+      </c>
+      <c r="H84" s="8" t="s">
+        <v>896</v>
+      </c>
+    </row>
+    <row r="85" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A85" s="12" t="s">
+        <v>968</v>
+      </c>
+      <c r="B85" s="14"/>
+      <c r="E85" s="27">
+        <v>1</v>
+      </c>
+      <c r="F85" s="19">
+        <v>0</v>
+      </c>
+      <c r="G85" s="29">
+        <v>2.6785000000000001</v>
+      </c>
+      <c r="H85" s="8" t="s">
+        <v>1165</v>
+      </c>
+    </row>
+    <row r="86" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A86" s="12" t="s">
+        <v>649</v>
+      </c>
+      <c r="B86" s="14"/>
+      <c r="E86" s="27">
+        <v>0.43053885780469486</v>
+      </c>
+      <c r="F86" s="19">
+        <v>0.5</v>
+      </c>
+      <c r="G86" s="29">
+        <v>-2.2814999999999999</v>
+      </c>
+      <c r="H86" s="8" t="s">
+        <v>1163</v>
+      </c>
+    </row>
+    <row r="87" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A87" s="12" t="s">
+        <v>969</v>
+      </c>
+      <c r="B87" s="14"/>
+      <c r="E87" s="27">
+        <v>1</v>
+      </c>
+      <c r="F87" s="19">
+        <v>0</v>
+      </c>
+      <c r="G87" s="29">
+        <v>0</v>
+      </c>
+      <c r="H87" s="8" t="s">
+        <v>979</v>
+      </c>
+    </row>
+    <row r="88" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A88" s="12" t="s">
+        <v>970</v>
+      </c>
+      <c r="B88" s="14"/>
+      <c r="E88" s="27">
+        <v>1</v>
+      </c>
+      <c r="F88" s="19">
+        <v>0</v>
+      </c>
+      <c r="G88" s="29">
+        <v>0</v>
+      </c>
+      <c r="H88" s="8" t="s">
+        <v>897</v>
+      </c>
+    </row>
+    <row r="89" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A89" s="29" t="s">
+        <v>971</v>
+      </c>
+      <c r="B89" s="14"/>
+      <c r="E89" s="29">
+        <v>34.446738793374067</v>
+      </c>
+      <c r="F89" s="29">
+        <v>-2.1</v>
+      </c>
+      <c r="G89" s="29">
+        <v>5.0644</v>
+      </c>
+      <c r="H89" s="29" t="s">
+        <v>898</v>
+      </c>
+    </row>
+    <row r="90" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A90" s="14" t="s">
+        <v>972</v>
+      </c>
+      <c r="B90" s="29"/>
+      <c r="E90" s="31">
+        <v>5.3947992860050586</v>
+      </c>
+      <c r="F90" s="23">
+        <v>-1</v>
+      </c>
+      <c r="G90" s="29">
+        <v>-5.0644</v>
+      </c>
+      <c r="H90" s="14" t="s">
+        <v>899</v>
+      </c>
+    </row>
+    <row r="91" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A91" s="12" t="s">
+        <v>973</v>
+      </c>
+      <c r="B91" s="14"/>
+      <c r="E91" s="27">
+        <v>17.553268472658598</v>
+      </c>
+      <c r="F91" s="19">
+        <v>-1.7</v>
+      </c>
+      <c r="G91" s="29">
+        <v>1.4970000000000001</v>
+      </c>
+      <c r="H91" s="8" t="s">
+        <v>900</v>
+      </c>
+    </row>
+    <row r="92" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A92" s="12" t="s">
+        <v>974</v>
+      </c>
+      <c r="B92" s="14"/>
+      <c r="E92" s="27">
+        <v>0.60312511374657485</v>
+      </c>
+      <c r="F92" s="19">
+        <v>0.3</v>
+      </c>
+      <c r="G92" s="29">
+        <v>0</v>
+      </c>
+      <c r="H92" s="8" t="s">
+        <v>980</v>
+      </c>
+    </row>
+    <row r="93" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A93" s="12" t="s">
+        <v>975</v>
+      </c>
+      <c r="B93" s="14"/>
+      <c r="E93" s="27">
+        <v>4.0667450472350736E-2</v>
+      </c>
+      <c r="F93" s="19">
+        <v>1.9</v>
+      </c>
+      <c r="G93" s="29">
+        <v>1.4970000000000001</v>
+      </c>
+      <c r="H93" s="8" t="s">
+        <v>1166</v>
+      </c>
+    </row>
+    <row r="94" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A94" s="12" t="s">
+        <v>976</v>
+      </c>
+      <c r="B94" s="14"/>
+      <c r="E94" s="27">
+        <v>17.553268472658598</v>
+      </c>
+      <c r="F94" s="19">
+        <v>-1.7</v>
+      </c>
+      <c r="G94" s="29">
+        <v>1.1815</v>
+      </c>
+      <c r="H94" s="8" t="s">
+        <v>1167</v>
+      </c>
+    </row>
+    <row r="95" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A95" s="12" t="s">
+        <v>591</v>
+      </c>
+      <c r="B95" s="14"/>
+      <c r="E95" s="27">
+        <v>9.4457096578257488E-2</v>
+      </c>
+      <c r="F95" s="19">
+        <v>1.4</v>
+      </c>
+      <c r="G95" s="29">
+        <v>7.4774000000000003</v>
+      </c>
+      <c r="H95" s="8" t="s">
+        <v>901</v>
+      </c>
+    </row>
+    <row r="96" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A96" s="12" t="s">
+        <v>1134</v>
+      </c>
+      <c r="B96" s="14"/>
+      <c r="E96" s="27">
+        <v>14.830659575195945</v>
+      </c>
+      <c r="F96" s="19">
+        <v>-1.6</v>
+      </c>
+      <c r="G96" s="29">
+        <v>4.96</v>
+      </c>
+      <c r="H96" s="8" t="s">
+        <v>1158</v>
+      </c>
+    </row>
+    <row r="97" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B97" s="14"/>
+    </row>
+    <row r="98" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="E98" s="23"/>
+      <c r="F98" s="17"/>
+      <c r="G98" s="31"/>
+      <c r="H98" s="9"/>
+    </row>
+    <row r="99" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="E99" s="23"/>
+      <c r="F99" s="17"/>
+      <c r="G99" s="31"/>
+      <c r="H99" s="7"/>
+    </row>
+    <row r="100" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="E100" s="23"/>
+      <c r="F100" s="17"/>
+      <c r="G100" s="31"/>
+      <c r="H100" s="7"/>
+    </row>
+    <row r="101" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="E101" s="23"/>
+      <c r="F101" s="17"/>
+      <c r="G101" s="31"/>
+      <c r="H101" s="7"/>
+    </row>
+    <row r="102" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="E102" s="23"/>
+      <c r="F102" s="17"/>
+      <c r="G102" s="31"/>
+      <c r="H102" s="7"/>
+    </row>
+    <row r="103" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="E103" s="23"/>
+      <c r="F103" s="17"/>
+      <c r="G103" s="31"/>
+      <c r="H103" s="9"/>
+    </row>
+    <row r="104" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="E104" s="23"/>
+      <c r="F104" s="17"/>
+      <c r="G104" s="31"/>
+      <c r="H104" s="7"/>
+    </row>
+    <row r="105" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="E105" s="22"/>
+      <c r="F105" s="17"/>
+      <c r="G105" s="31"/>
+      <c r="H105" s="7"/>
+    </row>
+    <row r="106" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="E106" s="23"/>
+      <c r="F106" s="17"/>
+      <c r="G106" s="31"/>
+      <c r="H106" s="9"/>
+    </row>
+    <row r="107" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="E107" s="23"/>
+      <c r="F107" s="17"/>
+      <c r="G107" s="31"/>
+      <c r="H107" s="9"/>
+    </row>
+    <row r="108" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="E108" s="23"/>
+      <c r="F108" s="17"/>
+      <c r="G108" s="31"/>
+      <c r="H108" s="7"/>
+    </row>
+    <row r="109" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="E109" s="23"/>
+      <c r="F109" s="17"/>
+      <c r="G109" s="31"/>
+      <c r="H109" s="7"/>
+    </row>
+    <row r="110" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="E110" s="23"/>
+      <c r="F110" s="17"/>
+      <c r="G110" s="31"/>
+      <c r="H110" s="9"/>
+    </row>
+    <row r="111" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="E111" s="23"/>
+      <c r="F111" s="17"/>
+      <c r="G111" s="31"/>
+      <c r="H111" s="9"/>
+    </row>
+    <row r="112" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="E112" s="23"/>
+      <c r="F112" s="17"/>
+      <c r="G112" s="31"/>
+      <c r="H112" s="7"/>
+    </row>
+    <row r="113" spans="5:8" x14ac:dyDescent="0.25">
+      <c r="E113" s="23"/>
+      <c r="F113" s="17"/>
+      <c r="G113" s="31"/>
+      <c r="H113" s="7"/>
+    </row>
+    <row r="114" spans="5:8" x14ac:dyDescent="0.25">
+      <c r="E114" s="23"/>
+      <c r="F114" s="17"/>
+      <c r="G114" s="31"/>
+      <c r="H114" s="7"/>
+    </row>
+    <row r="115" spans="5:8" x14ac:dyDescent="0.25">
+      <c r="E115" s="23"/>
+      <c r="F115" s="17"/>
+      <c r="G115" s="31"/>
+      <c r="H115" s="7"/>
+    </row>
+    <row r="116" spans="5:8" x14ac:dyDescent="0.25">
+      <c r="E116" s="23"/>
+      <c r="F116" s="17"/>
+      <c r="G116" s="31"/>
+      <c r="H116" s="7"/>
+    </row>
+    <row r="122" spans="5:8" x14ac:dyDescent="0.25">
+      <c r="E122" s="22"/>
+      <c r="F122" s="17"/>
+      <c r="G122" s="28"/>
+      <c r="H122" s="11"/>
+    </row>
+    <row r="123" spans="5:8" x14ac:dyDescent="0.25">
+      <c r="E123" s="22"/>
+      <c r="F123" s="17"/>
+      <c r="G123" s="28"/>
+      <c r="H123" s="11"/>
+    </row>
+    <row r="124" spans="5:8" x14ac:dyDescent="0.25">
+      <c r="E124" s="22"/>
+      <c r="F124" s="17"/>
+      <c r="G124" s="28"/>
+      <c r="H124" s="11"/>
+    </row>
+    <row r="125" spans="5:8" x14ac:dyDescent="0.25">
+      <c r="E125" s="22"/>
+      <c r="F125" s="17"/>
+      <c r="G125" s="28"/>
+      <c r="H125" s="11"/>
+    </row>
+    <row r="126" spans="5:8" x14ac:dyDescent="0.25">
+      <c r="E126" s="22"/>
+      <c r="F126" s="17"/>
+      <c r="G126" s="28"/>
+      <c r="H126" s="11"/>
+    </row>
+    <row r="127" spans="5:8" x14ac:dyDescent="0.25">
+      <c r="E127" s="22"/>
+      <c r="F127" s="17"/>
+      <c r="G127" s="28"/>
+      <c r="H127" s="11"/>
+    </row>
+    <row r="128" spans="5:8" x14ac:dyDescent="0.25">
+      <c r="E128" s="22"/>
+      <c r="F128" s="17"/>
+      <c r="G128" s="28"/>
+      <c r="H128" s="11"/>
+    </row>
+  </sheetData>
+  <sortState ref="N2:P57">
+    <sortCondition ref="N2:N57"/>
+  </sortState>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
@@ -55890,2430 +57670,614 @@
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:P128"/>
+  <dimension ref="A1:P17"/>
   <sheetViews>
-    <sheetView topLeftCell="A52" workbookViewId="0">
-      <selection activeCell="H58" sqref="H58"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B13" sqref="B13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="12.42578125" customWidth="1"/>
-    <col min="2" max="2" width="12.28515625" customWidth="1"/>
-    <col min="5" max="5" width="12.28515625" customWidth="1"/>
-    <col min="6" max="6" width="14.85546875" customWidth="1"/>
-    <col min="8" max="8" width="50.42578125" customWidth="1"/>
-    <col min="9" max="9" width="13.28515625" customWidth="1"/>
-    <col min="10" max="10" width="13" customWidth="1"/>
-    <col min="11" max="11" width="14.28515625" customWidth="1"/>
-    <col min="12" max="12" width="18.42578125" customWidth="1"/>
-    <col min="13" max="13" width="18.140625" customWidth="1"/>
-    <col min="14" max="14" width="13.7109375" style="28" customWidth="1"/>
-    <col min="15" max="15" width="12.5703125" style="28" customWidth="1"/>
-    <col min="16" max="16" width="9.140625" style="28"/>
+    <col min="8" max="8" width="23.140625" customWidth="1"/>
+    <col min="9" max="9" width="16.42578125" customWidth="1"/>
+    <col min="10" max="10" width="12.42578125" customWidth="1"/>
+    <col min="13" max="13" width="13.5703125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:16" s="28" customFormat="1" ht="18" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A1" s="28" t="s">
         <v>565</v>
       </c>
       <c r="B1" s="28" t="s">
         <v>728</v>
       </c>
-      <c r="C1" t="s">
+      <c r="C1" s="28" t="s">
         <v>731</v>
       </c>
-      <c r="D1" t="s">
+      <c r="D1" s="28" t="s">
         <v>729</v>
       </c>
-      <c r="E1" s="24" t="s">
+      <c r="E1" s="28" t="s">
         <v>730</v>
       </c>
-      <c r="F1" s="18" t="s">
-        <v>985</v>
-      </c>
-      <c r="G1" s="30" t="s">
-        <v>986</v>
-      </c>
-      <c r="H1" s="10" t="s">
-        <v>861</v>
-      </c>
-      <c r="I1" t="s">
+      <c r="F1" s="28" t="s">
+        <v>830</v>
+      </c>
+      <c r="G1" s="28" t="s">
+        <v>818</v>
+      </c>
+      <c r="H1" s="28" t="s">
+        <v>1</v>
+      </c>
+      <c r="I1" s="28" t="s">
         <v>608</v>
       </c>
-      <c r="J1" t="s">
+      <c r="J1" s="28" t="s">
         <v>609</v>
       </c>
-      <c r="K1" t="s">
+      <c r="K1" s="28" t="s">
         <v>654</v>
       </c>
-      <c r="L1" t="s">
+      <c r="L1" s="28" t="s">
         <v>656</v>
       </c>
-      <c r="M1" t="s">
+      <c r="M1" s="28" t="s">
         <v>657</v>
       </c>
       <c r="N1" s="28" t="s">
         <v>726</v>
       </c>
       <c r="O1" s="28" t="s">
-        <v>838</v>
+        <v>828</v>
       </c>
       <c r="P1" s="28" t="s">
-        <v>839</v>
+        <v>829</v>
       </c>
     </row>
     <row r="2" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A2" s="13" t="s">
-        <v>902</v>
-      </c>
-      <c r="B2" s="16"/>
-      <c r="E2" s="26">
-        <v>1662.2306343841162</v>
-      </c>
-      <c r="F2" s="21">
-        <v>-4.4000000000000004</v>
-      </c>
-      <c r="G2" s="29">
-        <v>0</v>
-      </c>
-      <c r="H2" s="9" t="s">
-        <v>862</v>
-      </c>
-      <c r="L2" t="s">
-        <v>1141</v>
-      </c>
+      <c r="A2" s="28" t="s">
+        <v>1206</v>
+      </c>
+      <c r="B2" s="28">
+        <v>0</v>
+      </c>
+      <c r="C2" s="28">
+        <v>0</v>
+      </c>
+      <c r="D2" s="28"/>
+      <c r="E2" s="28"/>
+      <c r="F2" s="28">
+        <v>0</v>
+      </c>
+      <c r="G2" s="28">
+        <v>5</v>
+      </c>
+      <c r="H2" s="28" t="s">
+        <v>1207</v>
+      </c>
+      <c r="I2" s="28"/>
+      <c r="J2" s="28"/>
+      <c r="K2" s="28"/>
+      <c r="L2" s="28"/>
+      <c r="M2" s="28"/>
       <c r="N2" s="28" t="s">
-        <v>1153</v>
+        <v>1190</v>
       </c>
       <c r="O2" s="28">
-        <v>1.24E-3</v>
+        <v>0.1</v>
       </c>
       <c r="P2" s="28">
-        <v>1.24E-3</v>
+        <v>20</v>
       </c>
     </row>
     <row r="3" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A3" s="13" t="s">
-        <v>903</v>
-      </c>
-      <c r="B3" s="15"/>
-      <c r="E3" s="26">
-        <v>1</v>
-      </c>
-      <c r="F3" s="21">
-        <v>0</v>
-      </c>
-      <c r="G3" s="29">
-        <v>0</v>
-      </c>
-      <c r="H3" s="9" t="s">
-        <v>863</v>
-      </c>
+      <c r="A3" s="28" t="s">
+        <v>1057</v>
+      </c>
+      <c r="B3" s="28">
+        <v>0</v>
+      </c>
+      <c r="C3" s="28">
+        <v>0</v>
+      </c>
+      <c r="D3" s="28"/>
+      <c r="E3" s="28"/>
+      <c r="F3" s="28">
+        <v>-8</v>
+      </c>
+      <c r="G3" s="28">
+        <v>20</v>
+      </c>
+      <c r="H3" s="1" t="s">
+        <v>1205</v>
+      </c>
+      <c r="I3" s="28"/>
+      <c r="J3" s="28"/>
+      <c r="K3" s="28"/>
+      <c r="L3" s="28" t="s">
+        <v>667</v>
+      </c>
+      <c r="M3" s="28"/>
       <c r="N3" s="28" t="s">
-        <v>1132</v>
+        <v>1122</v>
       </c>
       <c r="O3" s="28">
-        <v>1.24E-3</v>
+        <v>0.1</v>
       </c>
       <c r="P3" s="28">
-        <v>1.24E-3</v>
+        <v>20</v>
       </c>
     </row>
     <row r="4" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A4" s="12" t="s">
-        <v>904</v>
-      </c>
-      <c r="B4" s="15"/>
-      <c r="E4" s="27">
-        <v>7.1204304242112172E-4</v>
-      </c>
-      <c r="F4" s="19">
-        <v>4.3</v>
-      </c>
-      <c r="G4" s="29">
-        <v>0</v>
-      </c>
-      <c r="H4" s="8" t="s">
-        <v>864</v>
-      </c>
+      <c r="A4" s="28" t="s">
+        <v>1054</v>
+      </c>
+      <c r="B4" s="28">
+        <v>0</v>
+      </c>
+      <c r="C4" s="28">
+        <v>3000</v>
+      </c>
+      <c r="D4" s="28"/>
+      <c r="E4" s="28"/>
+      <c r="F4" s="28">
+        <v>-8</v>
+      </c>
+      <c r="G4" s="28">
+        <v>20</v>
+      </c>
+      <c r="H4" s="28" t="s">
+        <v>1187</v>
+      </c>
+      <c r="I4" s="28"/>
+      <c r="J4" s="28"/>
+      <c r="K4" s="28"/>
+      <c r="L4" s="28" t="s">
+        <v>667</v>
+      </c>
+      <c r="M4" s="28"/>
       <c r="N4" s="28" t="s">
-        <v>1133</v>
+        <v>1121</v>
       </c>
       <c r="O4" s="28">
-        <v>0.01</v>
+        <v>0.1</v>
       </c>
       <c r="P4" s="28">
-        <v>1</v>
+        <v>20</v>
       </c>
     </row>
     <row r="5" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A5" s="13" t="s">
-        <v>905</v>
-      </c>
-      <c r="B5" s="14"/>
-      <c r="E5" s="26">
-        <v>7.9806279155107629E-2</v>
-      </c>
-      <c r="F5" s="21">
-        <v>1.5</v>
-      </c>
-      <c r="G5" s="29">
-        <v>6.0072000000000001</v>
-      </c>
-      <c r="H5" s="9" t="s">
-        <v>1174</v>
-      </c>
+      <c r="A5" s="28" t="s">
+        <v>764</v>
+      </c>
+      <c r="B5" s="28">
+        <v>0</v>
+      </c>
+      <c r="C5" s="28">
+        <v>3000</v>
+      </c>
+      <c r="D5" s="28"/>
+      <c r="E5" s="28"/>
+      <c r="F5" s="28">
+        <v>-8</v>
+      </c>
+      <c r="G5" s="28">
+        <v>20</v>
+      </c>
+      <c r="H5" s="28" t="s">
+        <v>1188</v>
+      </c>
+      <c r="I5" s="28"/>
+      <c r="J5" s="28"/>
+      <c r="K5" s="28"/>
+      <c r="L5" s="28" t="s">
+        <v>667</v>
+      </c>
+      <c r="M5" s="28"/>
       <c r="N5" s="28" t="s">
-        <v>1017</v>
+        <v>1123</v>
       </c>
       <c r="O5" s="28">
-        <v>3.5999999999999999E-3</v>
+        <v>0.1</v>
       </c>
       <c r="P5" s="28">
-        <v>3.5999999999999999E-3</v>
+        <v>20</v>
       </c>
     </row>
     <row r="6" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A6" s="13" t="s">
-        <v>906</v>
-      </c>
-      <c r="B6" s="15"/>
-      <c r="E6" s="26">
-        <v>1.4008610438135416</v>
-      </c>
-      <c r="F6" s="21">
-        <v>-0.2</v>
-      </c>
-      <c r="G6" s="29">
-        <v>6.0072000000000001</v>
-      </c>
-      <c r="H6" s="9" t="s">
-        <v>1175</v>
-      </c>
+      <c r="A6" s="28" t="s">
+        <v>1055</v>
+      </c>
+      <c r="B6" s="28">
+        <v>0</v>
+      </c>
+      <c r="C6" s="28">
+        <v>3000</v>
+      </c>
+      <c r="D6" s="28"/>
+      <c r="E6" s="28"/>
+      <c r="F6" s="28">
+        <v>10</v>
+      </c>
+      <c r="G6" s="28">
+        <v>-40</v>
+      </c>
+      <c r="H6" s="28" t="s">
+        <v>1241</v>
+      </c>
+      <c r="I6" s="28"/>
+      <c r="J6" s="28"/>
+      <c r="K6" s="28"/>
+      <c r="L6" s="28" t="s">
+        <v>667</v>
+      </c>
+      <c r="M6" s="28"/>
       <c r="N6" s="28" t="s">
-        <v>1013</v>
+        <v>1125</v>
       </c>
       <c r="O6" s="28">
-        <v>0</v>
+        <v>0.1</v>
       </c>
       <c r="P6" s="28">
-        <v>0</v>
+        <v>20</v>
       </c>
     </row>
     <row r="7" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A7" s="12" t="s">
-        <v>907</v>
-      </c>
-      <c r="B7" s="15"/>
-      <c r="E7" s="27">
-        <v>1</v>
-      </c>
-      <c r="F7" s="19">
-        <v>0</v>
-      </c>
-      <c r="G7" s="29">
-        <v>0</v>
-      </c>
-      <c r="H7" s="8" t="s">
-        <v>865</v>
-      </c>
+      <c r="A7" s="28" t="s">
+        <v>1056</v>
+      </c>
+      <c r="B7" s="28">
+        <v>0</v>
+      </c>
+      <c r="C7" s="28">
+        <v>3000</v>
+      </c>
+      <c r="D7" s="28"/>
+      <c r="E7" s="28"/>
+      <c r="F7" s="28">
+        <v>-8</v>
+      </c>
+      <c r="G7" s="28">
+        <v>20</v>
+      </c>
+      <c r="H7" s="28" t="s">
+        <v>1191</v>
+      </c>
+      <c r="I7" s="28"/>
+      <c r="J7" s="28"/>
+      <c r="K7" s="28"/>
+      <c r="L7" s="28" t="s">
+        <v>667</v>
+      </c>
+      <c r="M7" s="28"/>
       <c r="N7" s="28" t="s">
-        <v>1016</v>
+        <v>1124</v>
       </c>
       <c r="O7" s="28">
-        <v>1E-3</v>
+        <v>0.1</v>
       </c>
       <c r="P7" s="28">
-        <v>0.01</v>
+        <v>20</v>
       </c>
     </row>
     <row r="8" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A8" s="12" t="s">
-        <v>908</v>
-      </c>
-      <c r="B8" s="14"/>
-      <c r="E8" s="27">
-        <v>1.1835797581124567</v>
-      </c>
-      <c r="F8" s="19">
-        <v>-0.1</v>
-      </c>
-      <c r="G8" s="29">
-        <v>0</v>
-      </c>
-      <c r="H8" s="8" t="s">
-        <v>983</v>
-      </c>
-      <c r="N8" s="28" t="s">
-        <v>1015</v>
-      </c>
-      <c r="O8" s="28">
-        <v>0.193</v>
-      </c>
-      <c r="P8" s="28">
-        <v>0.193</v>
-      </c>
+      <c r="A8" s="28" t="s">
+        <v>1059</v>
+      </c>
+      <c r="B8" s="28">
+        <v>0</v>
+      </c>
+      <c r="C8" s="28">
+        <v>3000</v>
+      </c>
+      <c r="D8" s="28"/>
+      <c r="E8" s="28"/>
+      <c r="F8" s="28">
+        <v>-8</v>
+      </c>
+      <c r="G8" s="28">
+        <v>20</v>
+      </c>
+      <c r="H8" s="28" t="s">
+        <v>1117</v>
+      </c>
+      <c r="I8" s="28"/>
+      <c r="J8" s="28"/>
+      <c r="K8" s="28"/>
+      <c r="L8" s="28" t="s">
+        <v>1077</v>
+      </c>
+      <c r="M8" s="28"/>
+      <c r="N8" s="28"/>
+      <c r="O8" s="28"/>
+      <c r="P8" s="28"/>
     </row>
     <row r="9" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A9" s="12" t="s">
-        <v>909</v>
-      </c>
-      <c r="B9" s="14"/>
-      <c r="E9" s="27">
-        <v>1189583.4630809485</v>
-      </c>
-      <c r="F9" s="19">
-        <v>-8.3000000000000007</v>
-      </c>
-      <c r="G9" s="29">
-        <v>5.0644</v>
-      </c>
-      <c r="H9" s="8" t="s">
-        <v>866</v>
-      </c>
-      <c r="N9" s="28" t="s">
-        <v>1176</v>
-      </c>
-      <c r="O9" s="28">
-        <v>1E-4</v>
-      </c>
-      <c r="P9" s="28">
-        <v>1E-3</v>
-      </c>
+      <c r="A9" s="28" t="s">
+        <v>1058</v>
+      </c>
+      <c r="B9" s="28">
+        <v>0</v>
+      </c>
+      <c r="C9" s="28">
+        <v>3000</v>
+      </c>
+      <c r="D9" s="28"/>
+      <c r="E9" s="28"/>
+      <c r="F9" s="28">
+        <v>10</v>
+      </c>
+      <c r="G9" s="28">
+        <v>-10</v>
+      </c>
+      <c r="H9" s="28" t="s">
+        <v>1118</v>
+      </c>
+      <c r="J9" s="28"/>
+      <c r="K9" s="28"/>
+      <c r="L9" s="28"/>
+      <c r="M9" s="28"/>
+      <c r="N9" s="28"/>
+      <c r="O9" s="28"/>
+      <c r="P9" s="28"/>
     </row>
     <row r="10" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A10" s="12" t="s">
-        <v>910</v>
-      </c>
-      <c r="B10" s="14"/>
-      <c r="E10" s="27">
-        <v>1</v>
-      </c>
-      <c r="F10" s="19">
-        <v>0</v>
-      </c>
-      <c r="G10" s="29">
-        <v>0</v>
-      </c>
-      <c r="H10" s="8" t="s">
-        <v>867</v>
-      </c>
-      <c r="N10" s="28" t="s">
-        <v>1014</v>
-      </c>
-      <c r="O10" s="28">
-        <v>1.07</v>
-      </c>
-      <c r="P10" s="28">
-        <v>1.07</v>
-      </c>
+      <c r="A10" s="28" t="s">
+        <v>1243</v>
+      </c>
+      <c r="B10" s="28">
+        <v>0</v>
+      </c>
+      <c r="C10" s="28">
+        <v>0</v>
+      </c>
+      <c r="D10" s="28"/>
+      <c r="E10" s="28"/>
+      <c r="F10" s="28">
+        <v>-0.5</v>
+      </c>
+      <c r="G10" s="28">
+        <v>5</v>
+      </c>
+      <c r="H10" s="28" t="s">
+        <v>1189</v>
+      </c>
+      <c r="I10" s="28"/>
+      <c r="J10" s="28"/>
+      <c r="K10" s="28"/>
+      <c r="L10" s="28"/>
+      <c r="M10" s="28"/>
+      <c r="N10" s="28"/>
+      <c r="O10" s="28"/>
+      <c r="P10" s="28"/>
     </row>
     <row r="11" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A11" s="13" t="s">
-        <v>911</v>
-      </c>
-      <c r="B11" s="14"/>
-      <c r="E11" s="26">
-        <v>4.0564698450902027E-5</v>
-      </c>
-      <c r="F11" s="21">
-        <v>6</v>
-      </c>
-      <c r="G11" s="29">
-        <v>0</v>
-      </c>
-      <c r="H11" s="9" t="s">
-        <v>1142</v>
-      </c>
-      <c r="N11" s="28" t="s">
-        <v>1036</v>
-      </c>
-      <c r="O11" s="28">
-        <v>0.56200000000000006</v>
-      </c>
-      <c r="P11" s="28">
-        <v>0.56200000000000006</v>
-      </c>
+      <c r="A11" s="28" t="s">
+        <v>1244</v>
+      </c>
+      <c r="B11" s="28">
+        <v>0</v>
+      </c>
+      <c r="C11" s="28">
+        <v>0</v>
+      </c>
+      <c r="D11" s="28"/>
+      <c r="E11" s="28"/>
+      <c r="F11" s="28">
+        <v>-0.5</v>
+      </c>
+      <c r="G11" s="28">
+        <v>0</v>
+      </c>
+      <c r="H11" s="28" t="s">
+        <v>1238</v>
+      </c>
+      <c r="I11" s="28"/>
+      <c r="J11" s="28"/>
+      <c r="K11" s="28"/>
+      <c r="L11" s="28"/>
+      <c r="M11" s="28"/>
+      <c r="N11" s="28"/>
+      <c r="O11" s="28"/>
+      <c r="P11" s="28"/>
     </row>
     <row r="12" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A12" s="12" t="s">
-        <v>912</v>
-      </c>
-      <c r="B12" s="15"/>
-      <c r="E12" s="27">
-        <v>67769.912192357311</v>
-      </c>
-      <c r="F12" s="19">
-        <v>-6.6</v>
-      </c>
-      <c r="G12" s="29">
-        <v>8.39</v>
-      </c>
-      <c r="H12" s="8" t="s">
-        <v>868</v>
-      </c>
-      <c r="N12" s="1" t="s">
-        <v>1035</v>
-      </c>
-      <c r="O12" s="28">
-        <v>0.443</v>
-      </c>
-      <c r="P12" s="28">
-        <v>0.443</v>
-      </c>
+      <c r="A12" s="28" t="s">
+        <v>1235</v>
+      </c>
+      <c r="B12" s="28">
+        <v>0</v>
+      </c>
+      <c r="C12" s="28">
+        <v>0</v>
+      </c>
+      <c r="D12" s="28"/>
+      <c r="E12" s="28"/>
+      <c r="F12" s="28">
+        <v>-0.5</v>
+      </c>
+      <c r="G12" s="28">
+        <v>0.33</v>
+      </c>
+      <c r="H12" s="28" t="s">
+        <v>1242</v>
+      </c>
+      <c r="I12" s="28"/>
+      <c r="J12" s="28"/>
+      <c r="K12" s="28"/>
+      <c r="L12" s="28"/>
+      <c r="M12" s="28"/>
+      <c r="N12" s="28"/>
+      <c r="O12" s="28"/>
+      <c r="P12" s="28"/>
     </row>
     <row r="13" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A13" s="12" t="s">
-        <v>913</v>
-      </c>
-      <c r="B13" s="14"/>
-      <c r="E13" s="27">
-        <v>1.4755810766902159E-5</v>
-      </c>
-      <c r="F13" s="19">
-        <v>6.6</v>
-      </c>
-      <c r="G13" s="29">
-        <v>45.514000000000003</v>
-      </c>
-      <c r="H13" s="8" t="s">
-        <v>982</v>
-      </c>
-      <c r="N13" s="28" t="s">
-        <v>1034</v>
-      </c>
-      <c r="O13" s="28">
-        <v>0.57099999999999995</v>
-      </c>
-      <c r="P13" s="28">
-        <v>0.57099999999999995</v>
-      </c>
+      <c r="A13" s="28" t="s">
+        <v>1201</v>
+      </c>
+      <c r="B13" s="28">
+        <v>0</v>
+      </c>
+      <c r="C13" s="28">
+        <v>0</v>
+      </c>
+      <c r="D13" s="28"/>
+      <c r="E13" s="28"/>
+      <c r="F13" s="28">
+        <v>-0.5</v>
+      </c>
+      <c r="G13" s="28">
+        <v>0</v>
+      </c>
+      <c r="H13" s="28" t="s">
+        <v>1203</v>
+      </c>
+      <c r="I13" s="28"/>
+      <c r="J13" s="28"/>
+      <c r="K13" s="28"/>
+      <c r="L13" s="28"/>
+      <c r="M13" s="28"/>
+      <c r="N13" s="28"/>
+      <c r="O13" s="28"/>
+      <c r="P13" s="28"/>
     </row>
     <row r="14" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A14" s="13" t="s">
-        <v>849</v>
-      </c>
-      <c r="B14" s="14"/>
-      <c r="E14" s="27"/>
-      <c r="F14" s="17"/>
-      <c r="G14" s="29">
-        <v>0.87390000000000001</v>
-      </c>
-      <c r="H14" s="9" t="s">
-        <v>1171</v>
-      </c>
-      <c r="N14" s="28" t="s">
-        <v>1033</v>
-      </c>
-      <c r="O14" s="28">
-        <v>9.6300000000000008</v>
-      </c>
-      <c r="P14" s="28">
-        <v>9.6300000000000008</v>
-      </c>
+      <c r="A14" s="28" t="s">
+        <v>1236</v>
+      </c>
+      <c r="B14" s="28">
+        <v>0</v>
+      </c>
+      <c r="C14" s="28">
+        <v>0</v>
+      </c>
+      <c r="D14" s="28"/>
+      <c r="E14" s="28"/>
+      <c r="F14" s="28">
+        <v>-0.5</v>
+      </c>
+      <c r="G14" s="28">
+        <v>0</v>
+      </c>
+      <c r="H14" s="28" t="s">
+        <v>1237</v>
+      </c>
+      <c r="I14" s="28"/>
+      <c r="J14" s="28"/>
+      <c r="K14" s="28"/>
+      <c r="L14" s="28"/>
+      <c r="M14" s="28"/>
+      <c r="N14" s="28"/>
+      <c r="O14" s="28"/>
+      <c r="P14" s="28"/>
     </row>
     <row r="15" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A15" s="12" t="s">
-        <v>914</v>
-      </c>
-      <c r="B15" s="15"/>
-      <c r="E15" s="27">
-        <v>1</v>
-      </c>
-      <c r="F15" s="19">
-        <v>0</v>
-      </c>
-      <c r="G15" s="29">
-        <v>-22.809799999999999</v>
-      </c>
-      <c r="H15" s="8" t="s">
-        <v>869</v>
-      </c>
-      <c r="N15" s="28" t="s">
-        <v>652</v>
-      </c>
-      <c r="O15" s="28">
-        <v>1E-4</v>
-      </c>
-      <c r="P15" s="28">
-        <v>1</v>
-      </c>
+      <c r="A15" s="28" t="s">
+        <v>1204</v>
+      </c>
+      <c r="B15" s="28">
+        <v>0</v>
+      </c>
+      <c r="C15" s="28">
+        <v>0</v>
+      </c>
+      <c r="D15" s="28"/>
+      <c r="E15" s="28"/>
+      <c r="F15" s="28">
+        <v>0</v>
+      </c>
+      <c r="G15" s="28">
+        <v>0</v>
+      </c>
+      <c r="H15" s="28" t="s">
+        <v>1234</v>
+      </c>
+      <c r="I15" s="28"/>
+      <c r="J15" s="28"/>
+      <c r="K15" s="28"/>
+      <c r="L15" s="28"/>
+      <c r="M15" s="28"/>
+      <c r="N15" s="28"/>
+      <c r="O15" s="28"/>
+      <c r="P15" s="28"/>
     </row>
     <row r="16" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A16" s="12" t="s">
-        <v>629</v>
-      </c>
-      <c r="B16" s="14"/>
-      <c r="E16" s="27">
-        <v>1972365.99167846</v>
-      </c>
-      <c r="F16" s="19">
-        <v>-8.6</v>
-      </c>
-      <c r="G16" s="29">
-        <v>6.0072000000000001</v>
-      </c>
-      <c r="H16" s="8" t="s">
-        <v>1172</v>
-      </c>
-      <c r="N16" s="28" t="s">
-        <v>1032</v>
-      </c>
-      <c r="O16" s="28">
-        <v>1.64E-3</v>
-      </c>
-      <c r="P16" s="28">
-        <v>1.64E-3</v>
-      </c>
+      <c r="A16" t="s">
+        <v>1245</v>
+      </c>
+      <c r="B16">
+        <v>0</v>
+      </c>
+      <c r="C16">
+        <v>0</v>
+      </c>
+      <c r="F16">
+        <v>-0.5</v>
+      </c>
+      <c r="G16">
+        <v>0</v>
+      </c>
+      <c r="H16" t="s">
+        <v>1240</v>
+      </c>
+      <c r="I16" s="28"/>
+      <c r="J16" s="28"/>
+      <c r="K16" s="28"/>
+      <c r="L16" s="28"/>
+      <c r="M16" s="28"/>
+      <c r="N16" s="28"/>
+      <c r="O16" s="28"/>
+      <c r="P16" s="28"/>
     </row>
     <row r="17" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A17" s="12" t="s">
-        <v>915</v>
-      </c>
-      <c r="B17" s="14"/>
-      <c r="E17" s="27">
-        <v>1.6962147614400713E+27</v>
-      </c>
-      <c r="F17" s="19">
-        <v>-37.200000000000003</v>
-      </c>
-      <c r="G17" s="29">
-        <v>43.5989</v>
-      </c>
-      <c r="H17" s="8" t="s">
-        <v>996</v>
-      </c>
-      <c r="N17" s="28" t="s">
-        <v>1037</v>
-      </c>
-      <c r="O17" s="28">
-        <v>1E-4</v>
-      </c>
-      <c r="P17" s="28">
-        <v>1E-3</v>
-      </c>
-    </row>
-    <row r="18" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A18" s="12" t="s">
-        <v>916</v>
-      </c>
-      <c r="B18" s="14"/>
-      <c r="E18" s="27">
-        <v>1</v>
-      </c>
-      <c r="F18" s="19">
-        <v>0</v>
-      </c>
-      <c r="G18" s="29">
-        <v>0</v>
-      </c>
-      <c r="H18" s="8" t="s">
-        <v>1150</v>
-      </c>
-      <c r="N18" s="28" t="s">
-        <v>1038</v>
-      </c>
-      <c r="O18" s="28">
-        <v>0</v>
-      </c>
-      <c r="P18" s="28">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="19" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A19" s="12" t="s">
-        <v>594</v>
-      </c>
-      <c r="B19" s="14"/>
-      <c r="E19" s="27">
-        <v>4.5580361179955871</v>
-      </c>
-      <c r="F19" s="19">
-        <v>-0.9</v>
-      </c>
-      <c r="G19" s="29">
-        <v>14.716100000000001</v>
-      </c>
-      <c r="H19" s="8" t="s">
-        <v>870</v>
-      </c>
-      <c r="N19" s="28" t="s">
-        <v>1039</v>
-      </c>
-      <c r="O19" s="28">
-        <v>1.37</v>
-      </c>
-      <c r="P19" s="28">
-        <v>1.37</v>
-      </c>
-    </row>
-    <row r="20" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A20" s="12" t="s">
-        <v>917</v>
-      </c>
-      <c r="B20" s="14"/>
-      <c r="E20" s="27">
-        <v>1</v>
-      </c>
-      <c r="F20" s="19">
-        <v>0</v>
-      </c>
-      <c r="G20" s="29">
-        <v>0</v>
-      </c>
-      <c r="H20" s="8" t="s">
-        <v>1143</v>
-      </c>
-      <c r="N20" s="28" t="s">
-        <v>1160</v>
-      </c>
-      <c r="O20" s="28">
-        <v>8.9800000000000001E-3</v>
-      </c>
-      <c r="P20" s="28">
-        <v>8.9800000000000001E-3</v>
-      </c>
-    </row>
-    <row r="21" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A21" s="12" t="s">
-        <v>918</v>
-      </c>
-      <c r="B21" s="14"/>
-      <c r="E21" s="27"/>
-      <c r="F21" s="19"/>
-      <c r="G21" s="29">
-        <v>0</v>
-      </c>
-      <c r="H21" s="8" t="s">
-        <v>997</v>
-      </c>
-      <c r="N21" s="28" t="s">
-        <v>1159</v>
-      </c>
-      <c r="O21" s="28">
-        <v>8.9800000000000001E-3</v>
-      </c>
-      <c r="P21" s="28">
-        <v>8.9800000000000001E-3</v>
-      </c>
-    </row>
-    <row r="22" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A22" s="13" t="s">
-        <v>919</v>
-      </c>
-      <c r="B22" s="14"/>
-      <c r="E22" s="27"/>
-      <c r="F22" s="19"/>
-      <c r="G22" s="29">
-        <v>0</v>
-      </c>
-      <c r="H22" s="9" t="s">
-        <v>998</v>
-      </c>
-      <c r="N22" s="28" t="s">
-        <v>1040</v>
-      </c>
-      <c r="O22" s="28">
-        <v>0.126</v>
-      </c>
-      <c r="P22" s="28">
-        <v>0.126</v>
-      </c>
-    </row>
-    <row r="23" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A23" s="12" t="s">
-        <v>920</v>
-      </c>
-      <c r="B23" s="15"/>
-      <c r="E23" s="27"/>
-      <c r="F23" s="19"/>
-      <c r="G23" s="29">
-        <v>0</v>
-      </c>
-      <c r="H23" s="8" t="s">
-        <v>999</v>
-      </c>
-      <c r="N23" s="28" t="s">
-        <v>1041</v>
-      </c>
-      <c r="O23" s="28">
-        <v>1E-3</v>
-      </c>
-      <c r="P23" s="28">
-        <v>0.01</v>
-      </c>
-    </row>
-    <row r="24" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A24" s="12" t="s">
-        <v>921</v>
-      </c>
-      <c r="B24" s="14"/>
-      <c r="E24" s="27"/>
-      <c r="F24" s="19"/>
-      <c r="G24" s="29">
-        <v>22.809799999999999</v>
-      </c>
-      <c r="H24" s="8" t="s">
-        <v>1000</v>
-      </c>
-      <c r="N24" s="28" t="s">
-        <v>1144</v>
-      </c>
-      <c r="O24" s="28">
-        <v>1.66E-2</v>
-      </c>
-      <c r="P24" s="28">
-        <v>1.66E-2</v>
-      </c>
-    </row>
-    <row r="25" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A25" s="12" t="s">
-        <v>922</v>
-      </c>
-      <c r="B25" s="14"/>
-      <c r="E25" s="27"/>
-      <c r="F25" s="19"/>
-      <c r="G25" s="29">
-        <v>0</v>
-      </c>
-      <c r="H25" s="8" t="s">
-        <v>1146</v>
-      </c>
-      <c r="N25" s="28" t="s">
-        <v>1145</v>
-      </c>
-      <c r="O25" s="28">
-        <v>0</v>
-      </c>
-      <c r="P25" s="28">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="26" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A26" s="12" t="s">
-        <v>923</v>
-      </c>
-      <c r="B26" s="14"/>
-      <c r="E26" s="27"/>
-      <c r="F26" s="19"/>
-      <c r="G26" s="29">
-        <v>0</v>
-      </c>
-      <c r="H26" s="8" t="s">
-        <v>1001</v>
-      </c>
-      <c r="N26" s="28" t="s">
-        <v>1042</v>
-      </c>
-      <c r="O26" s="28">
-        <v>4.3900000000000002E-2</v>
-      </c>
-      <c r="P26" s="28">
-        <v>4.3900000000000002E-2</v>
-      </c>
-    </row>
-    <row r="27" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A27" s="13" t="s">
-        <v>924</v>
-      </c>
-      <c r="B27" s="14"/>
-      <c r="E27" s="27"/>
-      <c r="F27" s="19"/>
-      <c r="G27" s="29">
-        <v>0</v>
-      </c>
-      <c r="H27" s="9" t="s">
-        <v>1002</v>
-      </c>
-      <c r="N27" s="28" t="s">
-        <v>1136</v>
-      </c>
-      <c r="O27" s="28">
-        <v>2.5899999999999999E-2</v>
-      </c>
-      <c r="P27" s="28">
-        <v>2.5899999999999999E-2</v>
-      </c>
-    </row>
-    <row r="28" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A28" s="12" t="s">
-        <v>925</v>
-      </c>
-      <c r="B28" s="15"/>
-      <c r="E28" s="27"/>
-      <c r="F28" s="19"/>
-      <c r="G28" s="29">
-        <v>0</v>
-      </c>
-      <c r="H28" s="8" t="s">
-        <v>1003</v>
-      </c>
-      <c r="N28" s="28" t="s">
-        <v>1043</v>
-      </c>
-      <c r="O28" s="28">
-        <v>1E-3</v>
-      </c>
-      <c r="P28" s="28">
-        <v>0.01</v>
-      </c>
-    </row>
-    <row r="29" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A29" s="12" t="s">
-        <v>926</v>
-      </c>
-      <c r="B29" s="14"/>
-      <c r="E29" s="27"/>
-      <c r="F29" s="19"/>
-      <c r="G29" s="29">
-        <v>-10</v>
-      </c>
-      <c r="H29" s="8" t="s">
-        <v>1156</v>
-      </c>
-      <c r="N29" s="28" t="s">
-        <v>1044</v>
-      </c>
-      <c r="O29" s="28">
-        <v>0</v>
-      </c>
-      <c r="P29" s="28">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="30" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A30" s="12" t="s">
-        <v>927</v>
-      </c>
-      <c r="B30" s="14"/>
-      <c r="E30" s="27"/>
-      <c r="F30" s="19"/>
-      <c r="G30" s="29">
-        <v>0</v>
-      </c>
-      <c r="H30" s="8" t="s">
-        <v>1004</v>
-      </c>
-      <c r="N30" s="28" t="s">
-        <v>1045</v>
-      </c>
-      <c r="O30" s="28">
-        <v>5.7000000000000002E-2</v>
-      </c>
-      <c r="P30" s="28">
-        <v>5.7000000000000002E-2</v>
-      </c>
-    </row>
-    <row r="31" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A31" s="12" t="s">
-        <v>928</v>
-      </c>
-      <c r="B31" s="14"/>
-      <c r="E31" s="27"/>
-      <c r="F31" s="19"/>
-      <c r="G31" s="29">
-        <v>0</v>
-      </c>
-      <c r="H31" s="8" t="s">
-        <v>1005</v>
-      </c>
-      <c r="N31" s="28" t="s">
-        <v>1135</v>
-      </c>
-      <c r="O31" s="28">
-        <v>1E-3</v>
-      </c>
-      <c r="P31" s="28">
-        <v>0.1</v>
-      </c>
-    </row>
-    <row r="32" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A32" s="12" t="s">
-        <v>929</v>
-      </c>
-      <c r="B32" s="14"/>
-      <c r="E32" s="27"/>
-      <c r="F32" s="19"/>
-      <c r="G32" s="29">
-        <v>17.530899999999999</v>
-      </c>
-      <c r="H32" s="8" t="s">
-        <v>1006</v>
-      </c>
-      <c r="N32" s="28" t="s">
-        <v>1046</v>
-      </c>
-      <c r="O32" s="28">
-        <v>0.18099999999999999</v>
-      </c>
-      <c r="P32" s="28">
-        <v>0.18099999999999999</v>
-      </c>
-    </row>
-    <row r="33" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A33" s="12" t="s">
-        <v>930</v>
-      </c>
-      <c r="B33" s="14"/>
-      <c r="E33" s="27"/>
-      <c r="F33" s="19"/>
-      <c r="G33" s="29">
-        <v>29.175799999999999</v>
-      </c>
-      <c r="H33" s="8" t="s">
-        <v>1007</v>
-      </c>
-      <c r="N33" s="28" t="s">
-        <v>1157</v>
-      </c>
-      <c r="O33" s="28">
-        <v>1</v>
-      </c>
-      <c r="P33" s="28">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="34" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A34" s="13" t="s">
-        <v>931</v>
-      </c>
-      <c r="B34" s="14"/>
-      <c r="E34" s="27"/>
-      <c r="F34" s="19"/>
-      <c r="G34" s="29">
-        <v>0</v>
-      </c>
-      <c r="H34" s="8" t="s">
-        <v>1151</v>
-      </c>
-      <c r="N34" s="28" t="s">
-        <v>1137</v>
-      </c>
-      <c r="O34" s="28">
-        <v>1E-4</v>
-      </c>
-      <c r="P34" s="28">
-        <v>1E-3</v>
-      </c>
-    </row>
-    <row r="35" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A35" s="13" t="s">
-        <v>932</v>
-      </c>
-      <c r="B35" s="15"/>
-      <c r="E35" s="27"/>
-      <c r="F35" s="19"/>
-      <c r="G35" s="29">
-        <v>0</v>
-      </c>
-      <c r="H35" s="9" t="s">
-        <v>1184</v>
-      </c>
-      <c r="N35" s="28" t="s">
-        <v>1047</v>
-      </c>
-      <c r="O35" s="28">
-        <v>1</v>
-      </c>
-      <c r="P35" s="28">
-        <v>0.01</v>
-      </c>
-    </row>
-    <row r="36" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A36" s="12" t="s">
-        <v>933</v>
-      </c>
-      <c r="B36" s="15"/>
-      <c r="E36" s="27"/>
-      <c r="F36" s="19"/>
-      <c r="G36" s="29">
-        <v>-4.7652999999999999</v>
-      </c>
-      <c r="H36" s="8" t="s">
-        <v>1008</v>
-      </c>
-      <c r="N36" s="28" t="s">
-        <v>1031</v>
-      </c>
-      <c r="O36" s="28">
-        <v>1.64E-3</v>
-      </c>
-      <c r="P36" s="28">
-        <v>1.64E-3</v>
-      </c>
-    </row>
-    <row r="37" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A37" s="12" t="s">
-        <v>934</v>
-      </c>
-      <c r="B37" s="14"/>
-      <c r="E37" s="27"/>
-      <c r="F37" s="19"/>
-      <c r="G37" s="29">
-        <v>-21.799499999999998</v>
-      </c>
-      <c r="H37" s="8" t="s">
-        <v>1009</v>
-      </c>
-      <c r="N37" s="28" t="s">
-        <v>1147</v>
-      </c>
-      <c r="O37" s="28">
-        <v>1E-4</v>
-      </c>
-      <c r="P37" s="28">
-        <v>0.01</v>
-      </c>
-    </row>
-    <row r="38" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A38" s="12" t="s">
-        <v>935</v>
-      </c>
-      <c r="B38" s="14"/>
-      <c r="E38" s="27"/>
-      <c r="F38" s="19"/>
-      <c r="G38" s="29">
-        <v>-3.2149000000000001</v>
-      </c>
-      <c r="H38" s="8" t="s">
-        <v>1010</v>
-      </c>
-      <c r="N38" s="28" t="s">
-        <v>1148</v>
-      </c>
-      <c r="O38" s="28">
-        <v>0</v>
-      </c>
-      <c r="P38" s="28">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="39" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A39" s="12" t="s">
-        <v>936</v>
-      </c>
-      <c r="B39" s="14"/>
-      <c r="E39" s="27"/>
-      <c r="F39" s="19"/>
-      <c r="G39" s="29">
-        <v>0</v>
-      </c>
-      <c r="H39" s="8" t="s">
-        <v>1012</v>
-      </c>
-      <c r="N39" s="28" t="s">
-        <v>1177</v>
-      </c>
-      <c r="O39" s="28">
-        <v>6.8599999999999994E-2</v>
-      </c>
-      <c r="P39" s="28">
-        <v>6.8599999999999994E-2</v>
-      </c>
-    </row>
-    <row r="40" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A40" s="12" t="s">
-        <v>937</v>
-      </c>
-      <c r="B40" s="14"/>
-      <c r="E40" s="27"/>
-      <c r="F40" s="19"/>
-      <c r="G40" s="29">
-        <v>0</v>
-      </c>
-      <c r="H40" s="8" t="s">
-        <v>1011</v>
-      </c>
-      <c r="N40" s="28" t="s">
-        <v>1029</v>
-      </c>
-      <c r="O40" s="28">
-        <v>5.3499999999999997E-3</v>
-      </c>
-      <c r="P40" s="28">
-        <v>5.3499999999999997E-3</v>
-      </c>
-    </row>
-    <row r="41" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A41" s="12" t="s">
-        <v>589</v>
-      </c>
-      <c r="B41" s="14"/>
-      <c r="E41" s="27">
-        <v>8.4275973191444799E-4</v>
-      </c>
-      <c r="F41" s="19">
-        <v>4.2</v>
-      </c>
-      <c r="G41" s="29">
-        <v>7.4774000000000003</v>
-      </c>
-      <c r="H41" s="8" t="s">
-        <v>871</v>
-      </c>
-      <c r="N41" s="28" t="s">
-        <v>1028</v>
-      </c>
-      <c r="O41" s="28">
-        <v>0.47299999999999998</v>
-      </c>
-      <c r="P41" s="28">
-        <v>0.47299999999999998</v>
-      </c>
-    </row>
-    <row r="42" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A42" s="12" t="s">
-        <v>588</v>
-      </c>
-      <c r="B42" s="14"/>
-      <c r="E42" s="27">
-        <v>112.08069512728699</v>
-      </c>
-      <c r="F42" s="19">
-        <v>-7</v>
-      </c>
-      <c r="G42" s="29">
-        <v>0</v>
-      </c>
-      <c r="H42" s="8" t="s">
-        <v>872</v>
-      </c>
-      <c r="N42" s="28" t="s">
-        <v>1027</v>
-      </c>
-      <c r="O42" s="28">
-        <v>2.0799999999999998E-3</v>
-      </c>
-      <c r="P42" s="28">
-        <v>2.0799999999999998E-3</v>
-      </c>
-    </row>
-    <row r="43" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A43" s="13" t="s">
-        <v>938</v>
-      </c>
-      <c r="B43" s="14"/>
-      <c r="E43" s="26">
-        <v>1</v>
-      </c>
-      <c r="F43" s="21">
-        <v>0</v>
-      </c>
-      <c r="G43" s="29">
-        <v>0</v>
-      </c>
-      <c r="H43" s="9" t="s">
-        <v>873</v>
-      </c>
-      <c r="N43" s="28" t="s">
-        <v>1026</v>
-      </c>
-      <c r="O43" s="28">
-        <v>0.121</v>
-      </c>
-      <c r="P43" s="28">
-        <v>0.121</v>
-      </c>
-    </row>
-    <row r="44" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A44" s="13" t="s">
-        <v>939</v>
-      </c>
-      <c r="B44" s="15"/>
-      <c r="E44" s="26">
-        <v>1</v>
-      </c>
-      <c r="F44" s="21">
-        <v>0</v>
-      </c>
-      <c r="G44" s="29">
-        <v>0</v>
-      </c>
-      <c r="H44" s="9" t="s">
-        <v>874</v>
-      </c>
-      <c r="N44" s="28" t="s">
-        <v>1139</v>
-      </c>
-      <c r="O44" s="28">
-        <v>1E-4</v>
-      </c>
-      <c r="P44" s="28">
-        <v>1E-3</v>
-      </c>
-    </row>
-    <row r="45" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A45" s="13" t="s">
-        <v>940</v>
-      </c>
-      <c r="B45" s="15"/>
-      <c r="E45" s="25">
-        <v>4.8011555980423353E-5</v>
-      </c>
-      <c r="F45" s="20">
-        <v>5.9</v>
-      </c>
-      <c r="G45" s="29">
-        <v>0</v>
-      </c>
-      <c r="H45" s="9" t="s">
-        <v>875</v>
-      </c>
-      <c r="N45" s="28" t="s">
-        <v>1140</v>
-      </c>
-      <c r="O45" s="28">
-        <v>1E-4</v>
-      </c>
-      <c r="P45" s="28">
-        <v>1E-3</v>
-      </c>
-    </row>
-    <row r="46" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A46" s="13" t="s">
-        <v>941</v>
-      </c>
-      <c r="B46" s="15"/>
-      <c r="E46" s="26">
-        <v>4581156.7432856048</v>
-      </c>
-      <c r="F46" s="21">
-        <v>-9.1</v>
-      </c>
-      <c r="G46" s="29">
-        <v>0</v>
-      </c>
-      <c r="H46" s="9" t="s">
-        <v>876</v>
-      </c>
-      <c r="N46" s="28" t="s">
-        <v>1025</v>
-      </c>
-      <c r="O46" s="28">
-        <v>1E-3</v>
-      </c>
-      <c r="P46" s="28">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="47" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A47" s="12" t="s">
-        <v>704</v>
-      </c>
-      <c r="B47" s="15"/>
-      <c r="E47" s="27">
-        <v>2.7490660521270844</v>
-      </c>
-      <c r="F47" s="19">
-        <v>-0.6</v>
-      </c>
-      <c r="G47" s="29">
-        <v>5.0644</v>
-      </c>
-      <c r="H47" s="8" t="s">
-        <v>1178</v>
-      </c>
-      <c r="N47" s="28" t="s">
-        <v>1173</v>
-      </c>
-      <c r="O47" s="28">
-        <v>1E-4</v>
-      </c>
-      <c r="P47" s="28">
-        <v>0.01</v>
-      </c>
-    </row>
-    <row r="48" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A48" s="12" t="s">
-        <v>942</v>
-      </c>
-      <c r="B48" s="14"/>
-      <c r="E48" s="27">
-        <v>1</v>
-      </c>
-      <c r="F48" s="19">
-        <v>0</v>
-      </c>
-      <c r="G48" s="29">
-        <v>0</v>
-      </c>
-      <c r="H48" s="8" t="s">
-        <v>981</v>
-      </c>
-      <c r="N48" s="28" t="s">
-        <v>1024</v>
-      </c>
-      <c r="O48" s="28">
-        <v>0.184</v>
-      </c>
-      <c r="P48" s="28">
-        <v>0.184</v>
-      </c>
-    </row>
-    <row r="49" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A49" s="12" t="s">
-        <v>943</v>
-      </c>
-      <c r="B49" s="14"/>
-      <c r="E49" s="27">
-        <v>1.1835797581124567</v>
-      </c>
-      <c r="F49" s="19">
-        <v>-0.1</v>
-      </c>
-      <c r="G49" s="29">
-        <v>16.023499999999999</v>
-      </c>
-      <c r="H49" s="8" t="s">
-        <v>1154</v>
-      </c>
-      <c r="N49" s="28" t="s">
-        <v>1138</v>
-      </c>
-      <c r="O49" s="28">
-        <v>1E-4</v>
-      </c>
-      <c r="P49" s="28">
-        <v>0.01</v>
-      </c>
-    </row>
-    <row r="50" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A50" s="12" t="s">
-        <v>944</v>
-      </c>
-      <c r="B50" s="14"/>
-      <c r="E50" s="27">
-        <v>4581156.7432856048</v>
-      </c>
-      <c r="F50" s="19">
-        <v>-9.1</v>
-      </c>
-      <c r="G50" s="29">
-        <v>10</v>
-      </c>
-      <c r="H50" s="8" t="s">
-        <v>1155</v>
-      </c>
-      <c r="N50" s="28" t="s">
-        <v>1023</v>
-      </c>
-      <c r="O50" s="28">
-        <v>0.128</v>
-      </c>
-      <c r="P50" s="28">
-        <v>0.128</v>
-      </c>
-    </row>
-    <row r="51" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A51" s="12" t="s">
-        <v>946</v>
-      </c>
-      <c r="B51" s="14"/>
-      <c r="E51" s="27">
-        <v>67769.912192357311</v>
-      </c>
-      <c r="F51" s="19">
-        <v>-6.6</v>
-      </c>
-      <c r="G51" s="29">
-        <v>0</v>
-      </c>
-      <c r="H51" s="8" t="s">
-        <v>878</v>
-      </c>
-      <c r="N51" s="28" t="s">
-        <v>1022</v>
-      </c>
-      <c r="O51" s="28">
-        <v>3.6200000000000003E-2</v>
-      </c>
-      <c r="P51" s="28">
-        <v>3.6200000000000003E-2</v>
-      </c>
-    </row>
-    <row r="52" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A52" s="12" t="s">
-        <v>945</v>
-      </c>
-      <c r="B52" s="14"/>
-      <c r="E52" s="27">
-        <v>17.553268472658598</v>
-      </c>
-      <c r="F52" s="19">
-        <v>-1.7</v>
-      </c>
-      <c r="G52" s="29">
-        <v>0.2235</v>
-      </c>
-      <c r="H52" s="8" t="s">
-        <v>877</v>
-      </c>
-      <c r="N52" s="28" t="s">
-        <v>1164</v>
-      </c>
-      <c r="O52" s="28">
-        <v>0.128</v>
-      </c>
-      <c r="P52" s="28">
-        <v>0.128</v>
-      </c>
-    </row>
-    <row r="53" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A53" s="12" t="s">
-        <v>947</v>
-      </c>
-      <c r="B53" s="14"/>
-      <c r="E53" s="27">
-        <v>1.558223645776738E-7</v>
-      </c>
-      <c r="F53" s="19">
-        <v>9.3000000000000007</v>
-      </c>
-      <c r="G53" s="29">
-        <v>-4.5419</v>
-      </c>
-      <c r="H53" s="8" t="s">
-        <v>879</v>
-      </c>
-      <c r="N53" s="28" t="s">
-        <v>1021</v>
-      </c>
-      <c r="O53" s="28">
-        <v>0.22</v>
-      </c>
-      <c r="P53" s="28">
-        <v>0.22</v>
-      </c>
-    </row>
-    <row r="54" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A54" s="12" t="s">
-        <v>948</v>
-      </c>
-      <c r="B54" s="14"/>
-      <c r="E54" s="27">
-        <v>3860.8144288294484</v>
-      </c>
-      <c r="F54" s="19">
-        <v>-4.9000000000000004</v>
-      </c>
-      <c r="G54" s="29">
-        <v>0</v>
-      </c>
-      <c r="H54" s="8" t="s">
-        <v>880</v>
-      </c>
-      <c r="N54" s="28" t="s">
-        <v>1019</v>
-      </c>
-      <c r="O54" s="28">
-        <v>6.9500000000000006E-2</v>
-      </c>
-      <c r="P54" s="28">
-        <v>6.9500000000000006E-2</v>
-      </c>
-    </row>
-    <row r="55" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A55" s="12" t="s">
-        <v>949</v>
-      </c>
-      <c r="B55" s="14"/>
-      <c r="E55" s="27">
-        <v>24777023755.822395</v>
-      </c>
-      <c r="F55" s="19">
-        <v>-14.2</v>
-      </c>
-      <c r="G55" s="29">
-        <v>0</v>
-      </c>
-      <c r="H55" s="8" t="s">
-        <v>977</v>
-      </c>
-      <c r="N55" s="28" t="s">
-        <v>1018</v>
-      </c>
-      <c r="O55" s="28">
-        <v>0</v>
-      </c>
-      <c r="P55" s="28">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="56" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A56" s="12" t="s">
-        <v>950</v>
-      </c>
-      <c r="B56" s="14"/>
-      <c r="E56" s="27">
-        <v>1</v>
-      </c>
-      <c r="F56" s="19">
-        <v>0</v>
-      </c>
-      <c r="G56" s="29">
-        <v>0</v>
-      </c>
-      <c r="H56" s="8" t="s">
-        <v>881</v>
-      </c>
-      <c r="N56" s="28" t="s">
-        <v>1020</v>
-      </c>
-      <c r="O56" s="28">
-        <v>0.23300000000000001</v>
-      </c>
-      <c r="P56" s="28">
-        <v>0.23300000000000001</v>
-      </c>
-    </row>
-    <row r="57" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A57" s="12" t="s">
-        <v>951</v>
-      </c>
-      <c r="B57" s="14"/>
-      <c r="E57" s="27">
-        <v>0.2193927327718837</v>
-      </c>
-      <c r="F57" s="19">
-        <v>0.9</v>
-      </c>
-      <c r="G57" s="29">
-        <v>4.96</v>
-      </c>
-      <c r="H57" s="8" t="s">
-        <v>1162</v>
-      </c>
-      <c r="N57" s="28" t="s">
-        <v>1168</v>
-      </c>
-      <c r="O57" s="28">
-        <v>9.1800000000000007E-2</v>
-      </c>
-      <c r="P57" s="28">
-        <v>9.1800000000000007E-2</v>
-      </c>
-    </row>
-    <row r="58" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A58" s="12" t="s">
-        <v>952</v>
-      </c>
-      <c r="B58" s="14"/>
-      <c r="E58" s="27">
-        <v>1</v>
-      </c>
-      <c r="F58" s="19">
-        <v>0</v>
-      </c>
-      <c r="G58" s="29">
-        <v>-29.175799999999999</v>
-      </c>
-      <c r="H58" s="8" t="s">
-        <v>882</v>
-      </c>
-      <c r="N58" s="28" t="s">
-        <v>1185</v>
-      </c>
-      <c r="O58" s="28">
-        <v>0</v>
-      </c>
-      <c r="P58" s="28">
-        <v>1E-3</v>
-      </c>
-    </row>
-    <row r="59" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A59" s="12" t="s">
-        <v>953</v>
-      </c>
-      <c r="B59" s="14"/>
-      <c r="E59" s="27">
-        <v>3.2455179049229346E-3</v>
-      </c>
-      <c r="F59" s="19">
-        <v>3.4</v>
-      </c>
-      <c r="G59" s="29">
-        <v>6.0072000000000001</v>
-      </c>
-      <c r="H59" s="8" t="s">
-        <v>883</v>
-      </c>
-      <c r="N59" s="28" t="s">
-        <v>1186</v>
-      </c>
-      <c r="O59" s="28">
-        <v>0</v>
-      </c>
-      <c r="P59" s="28">
-        <v>1E-3</v>
-      </c>
-    </row>
-    <row r="60" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A60" s="12" t="s">
-        <v>636</v>
-      </c>
-      <c r="B60" s="14"/>
-      <c r="E60" s="27">
-        <v>2.5901270792317975E-4</v>
-      </c>
-      <c r="F60" s="19">
-        <v>4.9000000000000004</v>
-      </c>
-      <c r="G60" s="29">
-        <v>0</v>
-      </c>
-      <c r="H60" s="8" t="s">
-        <v>884</v>
-      </c>
-      <c r="N60" s="28" t="s">
-        <v>1192</v>
-      </c>
-      <c r="O60" s="28">
-        <v>0</v>
-      </c>
-      <c r="P60" s="28">
-        <v>1E-3</v>
-      </c>
-    </row>
-    <row r="61" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A61" s="12" t="s">
-        <v>954</v>
-      </c>
-      <c r="B61" s="14"/>
-      <c r="E61" s="27">
-        <v>2.0670840473237604E-5</v>
-      </c>
-      <c r="F61" s="19">
-        <v>6.4</v>
-      </c>
-      <c r="G61" s="29">
-        <v>0</v>
-      </c>
-      <c r="H61" s="8" t="s">
-        <v>1149</v>
-      </c>
-      <c r="N61" s="28" t="s">
-        <v>1193</v>
-      </c>
-      <c r="O61" s="28">
-        <v>0</v>
-      </c>
-      <c r="P61" s="28">
-        <v>1E-3</v>
-      </c>
-    </row>
-    <row r="62" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A62" s="12" t="s">
-        <v>955</v>
-      </c>
-      <c r="B62" s="14"/>
-      <c r="E62" s="27">
-        <v>2334452.463340031</v>
-      </c>
-      <c r="F62" s="19">
-        <v>-8.6999999999999993</v>
-      </c>
-      <c r="G62" s="29">
-        <v>0</v>
-      </c>
-      <c r="H62" s="8" t="s">
-        <v>1179</v>
-      </c>
-    </row>
-    <row r="63" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A63" s="29" t="s">
-        <v>956</v>
-      </c>
-      <c r="B63" s="14"/>
-      <c r="E63" s="26">
-        <v>1</v>
-      </c>
-      <c r="F63" s="21">
-        <v>0</v>
-      </c>
-      <c r="G63" s="29">
-        <v>0</v>
-      </c>
-      <c r="H63" s="29" t="s">
-        <v>1180</v>
-      </c>
-    </row>
-    <row r="64" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A64" s="14" t="s">
-        <v>622</v>
-      </c>
-      <c r="B64" s="29"/>
-      <c r="E64" s="31">
-        <v>2.0670840473237604E-5</v>
-      </c>
-      <c r="F64" s="23">
-        <v>6.4</v>
-      </c>
-      <c r="G64" s="29">
-        <v>5.0644</v>
-      </c>
-      <c r="H64" s="14" t="s">
-        <v>1181</v>
-      </c>
-    </row>
-    <row r="65" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A65" s="12" t="s">
-        <v>957</v>
-      </c>
-      <c r="B65" s="14"/>
-      <c r="E65" s="27">
-        <v>0.11179750752009893</v>
-      </c>
-      <c r="F65" s="19">
-        <v>1.3</v>
-      </c>
-      <c r="G65" s="29">
-        <v>0</v>
-      </c>
-      <c r="H65" s="8" t="s">
-        <v>1182</v>
-      </c>
-    </row>
-    <row r="66" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A66" s="12" t="s">
-        <v>958</v>
-      </c>
-      <c r="B66" s="14"/>
-      <c r="E66" s="27">
-        <v>6.7427884439643204E-2</v>
-      </c>
-      <c r="F66" s="19">
-        <v>1.6</v>
-      </c>
-      <c r="G66" s="29">
-        <v>0</v>
-      </c>
-      <c r="H66" s="8" t="s">
-        <v>1183</v>
-      </c>
-    </row>
-    <row r="67" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A67" s="29" t="s">
-        <v>959</v>
-      </c>
-      <c r="B67" s="14"/>
-      <c r="E67" s="26">
-        <v>5449668303594.3379</v>
-      </c>
-      <c r="F67" s="21">
-        <v>-17.399999999999999</v>
-      </c>
-      <c r="G67" s="29">
-        <v>38.534599999999998</v>
-      </c>
-      <c r="H67" s="29" t="s">
-        <v>984</v>
-      </c>
-    </row>
-    <row r="68" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A68" s="14" t="s">
-        <v>960</v>
-      </c>
-      <c r="B68" s="29"/>
-      <c r="E68" s="31">
-        <v>1.6580307753859953</v>
-      </c>
-      <c r="F68" s="23">
-        <v>-0.3</v>
-      </c>
-      <c r="G68" s="29">
-        <v>0</v>
-      </c>
-      <c r="H68" s="14" t="s">
-        <v>885</v>
-      </c>
-    </row>
-    <row r="69" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A69" s="12" t="s">
-        <v>961</v>
-      </c>
-      <c r="B69" s="14"/>
-      <c r="E69" s="27">
-        <v>1</v>
-      </c>
-      <c r="F69" s="19">
-        <v>0</v>
-      </c>
-      <c r="G69" s="29">
-        <v>4.7652999999999999</v>
-      </c>
-      <c r="H69" s="8" t="s">
-        <v>886</v>
-      </c>
-    </row>
-    <row r="70" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A70" s="12" t="s">
-        <v>962</v>
-      </c>
-      <c r="B70" s="14"/>
-      <c r="E70" s="27">
-        <v>1</v>
-      </c>
-      <c r="F70" s="19">
-        <v>0</v>
-      </c>
-      <c r="G70" s="29">
-        <v>21.799499999999998</v>
-      </c>
-      <c r="H70" s="8" t="s">
-        <v>887</v>
-      </c>
-    </row>
-    <row r="71" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A71" s="12" t="s">
-        <v>528</v>
-      </c>
-      <c r="B71" s="14"/>
-      <c r="E71" s="27">
-        <v>1189583.4630809485</v>
-      </c>
-      <c r="F71" s="19">
-        <v>-8.3000000000000007</v>
-      </c>
-      <c r="G71" s="29">
-        <v>9.2825000000000006</v>
-      </c>
-      <c r="H71" s="8" t="s">
-        <v>888</v>
-      </c>
-    </row>
-    <row r="72" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A72" s="12" t="s">
-        <v>590</v>
-      </c>
-      <c r="B72" s="14"/>
-      <c r="E72" s="27">
-        <v>604.65285404763836</v>
-      </c>
-      <c r="F72" s="19">
-        <v>-3.8</v>
-      </c>
-      <c r="G72" s="29">
-        <v>7.4774000000000003</v>
-      </c>
-      <c r="H72" s="8" t="s">
-        <v>889</v>
-      </c>
-    </row>
-    <row r="73" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A73" s="12" t="s">
-        <v>598</v>
-      </c>
-      <c r="B73" s="14"/>
-      <c r="E73" s="27">
-        <v>5408.4645307404089</v>
-      </c>
-      <c r="F73" s="19">
-        <v>-5.0999999999999996</v>
-      </c>
-      <c r="G73" s="29">
-        <v>0</v>
-      </c>
-      <c r="H73" s="8" t="s">
-        <v>890</v>
-      </c>
-    </row>
-    <row r="74" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A74" s="12" t="s">
-        <v>587</v>
-      </c>
-      <c r="B74" s="14"/>
-      <c r="E74" s="27">
-        <v>3.8510595392951203</v>
-      </c>
-      <c r="F74" s="19">
-        <v>-0.8</v>
-      </c>
-      <c r="G74" s="29">
-        <v>4.8609</v>
-      </c>
-      <c r="H74" s="8" t="s">
-        <v>891</v>
-      </c>
-    </row>
-    <row r="75" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A75" s="12" t="s">
-        <v>593</v>
-      </c>
-      <c r="B75" s="14"/>
-      <c r="E75" s="27">
-        <v>8.9221430939942625E-3</v>
-      </c>
-      <c r="F75" s="19">
-        <v>2.8</v>
-      </c>
-      <c r="G75" s="29">
-        <v>-16.023499999999999</v>
-      </c>
-      <c r="H75" s="8" t="s">
-        <v>1152</v>
-      </c>
-    </row>
-    <row r="76" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A76" s="12" t="s">
-        <v>963</v>
-      </c>
-      <c r="B76" s="14"/>
-      <c r="E76" s="27">
-        <v>5408.4645307404089</v>
-      </c>
-      <c r="F76" s="19">
-        <v>-5.0999999999999996</v>
-      </c>
-      <c r="G76" s="29">
-        <v>4.96</v>
-      </c>
-      <c r="H76" s="8" t="s">
-        <v>1161</v>
-      </c>
-    </row>
-    <row r="77" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A77" s="12" t="s">
-        <v>615</v>
-      </c>
-      <c r="B77" s="14"/>
-      <c r="E77" s="27">
-        <v>1</v>
-      </c>
-      <c r="F77" s="19">
-        <v>0</v>
-      </c>
-      <c r="G77" s="29">
-        <v>-14.716100000000001</v>
-      </c>
-      <c r="H77" s="8" t="s">
-        <v>892</v>
-      </c>
-    </row>
-    <row r="78" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A78" s="12" t="s">
-        <v>964</v>
-      </c>
-      <c r="B78" s="14"/>
-      <c r="E78" s="27">
-        <v>1</v>
-      </c>
-      <c r="F78" s="19">
-        <v>0</v>
-      </c>
-      <c r="G78" s="29">
-        <v>3.2149000000000001</v>
-      </c>
-      <c r="H78" s="8" t="s">
-        <v>893</v>
-      </c>
-    </row>
-    <row r="79" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A79" s="12" t="s">
-        <v>607</v>
-      </c>
-      <c r="B79" s="14"/>
-      <c r="E79" s="27">
-        <v>94936.229932937829</v>
-      </c>
-      <c r="F79" s="19">
-        <v>-6.8</v>
-      </c>
-      <c r="G79" s="29">
-        <v>2.5043000000000002</v>
-      </c>
-      <c r="H79" s="8" t="s">
-        <v>1169</v>
-      </c>
-    </row>
-    <row r="80" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A80" s="12" t="s">
-        <v>965</v>
-      </c>
-      <c r="B80" s="14"/>
-      <c r="E80" s="27">
-        <v>0.71384667623971898</v>
-      </c>
-      <c r="F80" s="19">
-        <v>0.2</v>
-      </c>
-      <c r="G80" s="29">
-        <v>0</v>
-      </c>
-      <c r="H80" s="8" t="s">
-        <v>1170</v>
-      </c>
-    </row>
-    <row r="81" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A81" s="12" t="s">
-        <v>597</v>
-      </c>
-      <c r="B81" s="14"/>
-      <c r="E81" s="27">
-        <v>7.5573641589575944</v>
-      </c>
-      <c r="F81" s="19">
-        <v>-1.2</v>
-      </c>
-      <c r="G81" s="29">
-        <v>0</v>
-      </c>
-      <c r="H81" s="8" t="s">
-        <v>978</v>
-      </c>
-    </row>
-    <row r="82" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A82" s="12" t="s">
-        <v>966</v>
-      </c>
-      <c r="B82" s="14"/>
-      <c r="E82" s="27">
-        <v>1.6538415279210997E-3</v>
-      </c>
-      <c r="F82" s="19">
-        <v>3.8</v>
-      </c>
-      <c r="G82" s="29">
-        <v>0</v>
-      </c>
-      <c r="H82" s="8" t="s">
-        <v>894</v>
-      </c>
-    </row>
-    <row r="83" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A83" s="12" t="s">
-        <v>595</v>
-      </c>
-      <c r="B83" s="14"/>
-      <c r="E83" s="27">
-        <v>7576.5072679615205</v>
-      </c>
-      <c r="F83" s="19">
-        <v>-5.3</v>
-      </c>
-      <c r="G83" s="29">
-        <v>1.7582</v>
-      </c>
-      <c r="H83" s="8" t="s">
-        <v>895</v>
-      </c>
-    </row>
-    <row r="84" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A84" s="12" t="s">
-        <v>967</v>
-      </c>
-      <c r="B84" s="14"/>
-      <c r="E84" s="27">
-        <v>1</v>
-      </c>
-      <c r="F84" s="19">
-        <v>0</v>
-      </c>
-      <c r="G84" s="29">
-        <v>0</v>
-      </c>
-      <c r="H84" s="8" t="s">
-        <v>896</v>
-      </c>
-    </row>
-    <row r="85" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A85" s="12" t="s">
-        <v>968</v>
-      </c>
-      <c r="B85" s="14"/>
-      <c r="E85" s="27">
-        <v>1</v>
-      </c>
-      <c r="F85" s="19">
-        <v>0</v>
-      </c>
-      <c r="G85" s="29">
-        <v>2.6785000000000001</v>
-      </c>
-      <c r="H85" s="8" t="s">
-        <v>1165</v>
-      </c>
-    </row>
-    <row r="86" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A86" s="12" t="s">
-        <v>649</v>
-      </c>
-      <c r="B86" s="14"/>
-      <c r="E86" s="27">
-        <v>0.43053885780469486</v>
-      </c>
-      <c r="F86" s="19">
-        <v>0.5</v>
-      </c>
-      <c r="G86" s="29">
-        <v>-2.2814999999999999</v>
-      </c>
-      <c r="H86" s="8" t="s">
-        <v>1163</v>
-      </c>
-    </row>
-    <row r="87" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A87" s="12" t="s">
-        <v>969</v>
-      </c>
-      <c r="B87" s="14"/>
-      <c r="E87" s="27">
-        <v>1</v>
-      </c>
-      <c r="F87" s="19">
-        <v>0</v>
-      </c>
-      <c r="G87" s="29">
-        <v>0</v>
-      </c>
-      <c r="H87" s="8" t="s">
-        <v>979</v>
-      </c>
-    </row>
-    <row r="88" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A88" s="12" t="s">
-        <v>970</v>
-      </c>
-      <c r="B88" s="14"/>
-      <c r="E88" s="27">
-        <v>1</v>
-      </c>
-      <c r="F88" s="19">
-        <v>0</v>
-      </c>
-      <c r="G88" s="29">
-        <v>0</v>
-      </c>
-      <c r="H88" s="8" t="s">
-        <v>897</v>
-      </c>
-    </row>
-    <row r="89" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A89" s="29" t="s">
-        <v>971</v>
-      </c>
-      <c r="B89" s="14"/>
-      <c r="E89" s="29">
-        <v>34.446738793374067</v>
-      </c>
-      <c r="F89" s="29">
-        <v>-2.1</v>
-      </c>
-      <c r="G89" s="29">
-        <v>5.0644</v>
-      </c>
-      <c r="H89" s="29" t="s">
-        <v>898</v>
-      </c>
-    </row>
-    <row r="90" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A90" s="14" t="s">
-        <v>972</v>
-      </c>
-      <c r="B90" s="29"/>
-      <c r="E90" s="31">
-        <v>5.3947992860050586</v>
-      </c>
-      <c r="F90" s="23">
-        <v>-1</v>
-      </c>
-      <c r="G90" s="29">
-        <v>-5.0644</v>
-      </c>
-      <c r="H90" s="14" t="s">
-        <v>899</v>
-      </c>
-    </row>
-    <row r="91" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A91" s="12" t="s">
-        <v>973</v>
-      </c>
-      <c r="B91" s="14"/>
-      <c r="E91" s="27">
-        <v>17.553268472658598</v>
-      </c>
-      <c r="F91" s="19">
-        <v>-1.7</v>
-      </c>
-      <c r="G91" s="29">
-        <v>1.4970000000000001</v>
-      </c>
-      <c r="H91" s="8" t="s">
-        <v>900</v>
-      </c>
-    </row>
-    <row r="92" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A92" s="12" t="s">
-        <v>974</v>
-      </c>
-      <c r="B92" s="14"/>
-      <c r="E92" s="27">
-        <v>0.60312511374657485</v>
-      </c>
-      <c r="F92" s="19">
-        <v>0.3</v>
-      </c>
-      <c r="G92" s="29">
-        <v>0</v>
-      </c>
-      <c r="H92" s="8" t="s">
-        <v>980</v>
-      </c>
-    </row>
-    <row r="93" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A93" s="12" t="s">
-        <v>975</v>
-      </c>
-      <c r="B93" s="14"/>
-      <c r="E93" s="27">
-        <v>4.0667450472350736E-2</v>
-      </c>
-      <c r="F93" s="19">
-        <v>1.9</v>
-      </c>
-      <c r="G93" s="29">
-        <v>1.4970000000000001</v>
-      </c>
-      <c r="H93" s="8" t="s">
-        <v>1166</v>
-      </c>
-    </row>
-    <row r="94" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A94" s="12" t="s">
-        <v>976</v>
-      </c>
-      <c r="B94" s="14"/>
-      <c r="E94" s="27">
-        <v>17.553268472658598</v>
-      </c>
-      <c r="F94" s="19">
-        <v>-1.7</v>
-      </c>
-      <c r="G94" s="29">
-        <v>1.1815</v>
-      </c>
-      <c r="H94" s="8" t="s">
-        <v>1167</v>
-      </c>
-    </row>
-    <row r="95" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A95" s="12" t="s">
-        <v>591</v>
-      </c>
-      <c r="B95" s="14"/>
-      <c r="E95" s="27">
-        <v>9.4457096578257488E-2</v>
-      </c>
-      <c r="F95" s="19">
-        <v>1.4</v>
-      </c>
-      <c r="G95" s="29">
-        <v>7.4774000000000003</v>
-      </c>
-      <c r="H95" s="8" t="s">
-        <v>901</v>
-      </c>
-    </row>
-    <row r="96" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A96" s="12" t="s">
-        <v>1134</v>
-      </c>
-      <c r="B96" s="14"/>
-      <c r="E96" s="27">
-        <v>14.830659575195945</v>
-      </c>
-      <c r="F96" s="19">
-        <v>-1.6</v>
-      </c>
-      <c r="G96" s="29">
-        <v>4.96</v>
-      </c>
-      <c r="H96" s="8" t="s">
-        <v>1158</v>
-      </c>
-    </row>
-    <row r="97" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B97" s="14"/>
-    </row>
-    <row r="98" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="E98" s="23"/>
-      <c r="F98" s="17"/>
-      <c r="G98" s="31"/>
-      <c r="H98" s="9"/>
-    </row>
-    <row r="99" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="E99" s="23"/>
-      <c r="F99" s="17"/>
-      <c r="G99" s="31"/>
-      <c r="H99" s="7"/>
-    </row>
-    <row r="100" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="E100" s="23"/>
-      <c r="F100" s="17"/>
-      <c r="G100" s="31"/>
-      <c r="H100" s="7"/>
-    </row>
-    <row r="101" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="E101" s="23"/>
-      <c r="F101" s="17"/>
-      <c r="G101" s="31"/>
-      <c r="H101" s="7"/>
-    </row>
-    <row r="102" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="E102" s="23"/>
-      <c r="F102" s="17"/>
-      <c r="G102" s="31"/>
-      <c r="H102" s="7"/>
-    </row>
-    <row r="103" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="E103" s="23"/>
-      <c r="F103" s="17"/>
-      <c r="G103" s="31"/>
-      <c r="H103" s="9"/>
-    </row>
-    <row r="104" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="E104" s="23"/>
-      <c r="F104" s="17"/>
-      <c r="G104" s="31"/>
-      <c r="H104" s="7"/>
-    </row>
-    <row r="105" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="E105" s="22"/>
-      <c r="F105" s="17"/>
-      <c r="G105" s="31"/>
-      <c r="H105" s="7"/>
-    </row>
-    <row r="106" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="E106" s="23"/>
-      <c r="F106" s="17"/>
-      <c r="G106" s="31"/>
-      <c r="H106" s="9"/>
-    </row>
-    <row r="107" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="E107" s="23"/>
-      <c r="F107" s="17"/>
-      <c r="G107" s="31"/>
-      <c r="H107" s="9"/>
-    </row>
-    <row r="108" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="E108" s="23"/>
-      <c r="F108" s="17"/>
-      <c r="G108" s="31"/>
-      <c r="H108" s="7"/>
-    </row>
-    <row r="109" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="E109" s="23"/>
-      <c r="F109" s="17"/>
-      <c r="G109" s="31"/>
-      <c r="H109" s="7"/>
-    </row>
-    <row r="110" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="E110" s="23"/>
-      <c r="F110" s="17"/>
-      <c r="G110" s="31"/>
-      <c r="H110" s="9"/>
-    </row>
-    <row r="111" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="E111" s="23"/>
-      <c r="F111" s="17"/>
-      <c r="G111" s="31"/>
-      <c r="H111" s="9"/>
-    </row>
-    <row r="112" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="E112" s="23"/>
-      <c r="F112" s="17"/>
-      <c r="G112" s="31"/>
-      <c r="H112" s="7"/>
-    </row>
-    <row r="113" spans="5:8" x14ac:dyDescent="0.25">
-      <c r="E113" s="23"/>
-      <c r="F113" s="17"/>
-      <c r="G113" s="31"/>
-      <c r="H113" s="7"/>
-    </row>
-    <row r="114" spans="5:8" x14ac:dyDescent="0.25">
-      <c r="E114" s="23"/>
-      <c r="F114" s="17"/>
-      <c r="G114" s="31"/>
-      <c r="H114" s="7"/>
-    </row>
-    <row r="115" spans="5:8" x14ac:dyDescent="0.25">
-      <c r="E115" s="23"/>
-      <c r="F115" s="17"/>
-      <c r="G115" s="31"/>
-      <c r="H115" s="7"/>
-    </row>
-    <row r="116" spans="5:8" x14ac:dyDescent="0.25">
-      <c r="E116" s="23"/>
-      <c r="F116" s="17"/>
-      <c r="G116" s="31"/>
-      <c r="H116" s="7"/>
-    </row>
-    <row r="122" spans="5:8" x14ac:dyDescent="0.25">
-      <c r="E122" s="22"/>
-      <c r="F122" s="17"/>
-      <c r="G122" s="28"/>
-      <c r="H122" s="11"/>
-    </row>
-    <row r="123" spans="5:8" x14ac:dyDescent="0.25">
-      <c r="E123" s="22"/>
-      <c r="F123" s="17"/>
-      <c r="G123" s="28"/>
-      <c r="H123" s="11"/>
-    </row>
-    <row r="124" spans="5:8" x14ac:dyDescent="0.25">
-      <c r="E124" s="22"/>
-      <c r="F124" s="17"/>
-      <c r="G124" s="28"/>
-      <c r="H124" s="11"/>
-    </row>
-    <row r="125" spans="5:8" x14ac:dyDescent="0.25">
-      <c r="E125" s="22"/>
-      <c r="F125" s="17"/>
-      <c r="G125" s="28"/>
-      <c r="H125" s="11"/>
-    </row>
-    <row r="126" spans="5:8" x14ac:dyDescent="0.25">
-      <c r="E126" s="22"/>
-      <c r="F126" s="17"/>
-      <c r="G126" s="28"/>
-      <c r="H126" s="11"/>
-    </row>
-    <row r="127" spans="5:8" x14ac:dyDescent="0.25">
-      <c r="E127" s="22"/>
-      <c r="F127" s="17"/>
-      <c r="G127" s="28"/>
-      <c r="H127" s="11"/>
-    </row>
-    <row r="128" spans="5:8" x14ac:dyDescent="0.25">
-      <c r="E128" s="22"/>
-      <c r="F128" s="17"/>
-      <c r="G128" s="28"/>
-      <c r="H128" s="11"/>
+      <c r="A17" t="s">
+        <v>1202</v>
+      </c>
+      <c r="B17">
+        <v>0</v>
+      </c>
+      <c r="C17">
+        <v>0</v>
+      </c>
+      <c r="F17">
+        <v>-0.5</v>
+      </c>
+      <c r="G17">
+        <v>0</v>
+      </c>
+      <c r="H17" t="s">
+        <v>1239</v>
+      </c>
+      <c r="I17" s="28"/>
+      <c r="J17" s="28"/>
+      <c r="K17" s="28"/>
+      <c r="L17" s="28"/>
+      <c r="M17" s="28"/>
+      <c r="N17" s="28"/>
+      <c r="O17" s="28"/>
+      <c r="P17" s="28"/>
     </row>
   </sheetData>
-  <sortState ref="N2:P57">
-    <sortCondition ref="N2:N57"/>
-  </sortState>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:P12"/>
+  <dimension ref="A1:P17"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="J10" sqref="J10"/>
+      <selection activeCell="A13" sqref="A13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="8" max="8" width="19.42578125" customWidth="1"/>
+    <col min="1" max="1" width="14.42578125" customWidth="1"/>
+    <col min="6" max="6" width="16.5703125" customWidth="1"/>
+    <col min="8" max="8" width="19" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:16" s="28" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A1" s="28" t="s">
         <v>565</v>
       </c>
@@ -58365,45 +58329,29 @@
     </row>
     <row r="2" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>1114</v>
-      </c>
-      <c r="B2" s="28">
-        <v>0</v>
-      </c>
-      <c r="C2" s="28">
-        <v>0</v>
-      </c>
-      <c r="D2" s="28"/>
-      <c r="E2" s="28"/>
-      <c r="F2" s="28">
-        <v>-0.5</v>
-      </c>
-      <c r="G2" s="28">
-        <v>1</v>
-      </c>
-      <c r="H2" s="1" t="s">
-        <v>1097</v>
+        <v>1206</v>
+      </c>
+      <c r="H2" t="s">
+        <v>1207</v>
       </c>
       <c r="I2" s="28"/>
       <c r="J2" s="28"/>
       <c r="K2" s="28"/>
-      <c r="L2" s="28" t="s">
-        <v>667</v>
-      </c>
+      <c r="L2" s="28"/>
       <c r="M2" s="28"/>
-      <c r="N2" t="s">
-        <v>1030</v>
-      </c>
-      <c r="O2">
+      <c r="N2" s="28" t="s">
+        <v>1190</v>
+      </c>
+      <c r="O2" s="28">
         <v>0.1</v>
       </c>
-      <c r="P2">
+      <c r="P2" s="28">
         <v>20</v>
       </c>
     </row>
     <row r="3" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A3" t="s">
-        <v>1115</v>
+      <c r="A3" s="28" t="s">
+        <v>1057</v>
       </c>
       <c r="B3" s="28">
         <v>0</v>
@@ -58414,13 +58362,13 @@
       <c r="D3" s="28"/>
       <c r="E3" s="28"/>
       <c r="F3" s="28">
-        <v>-0.5</v>
+        <v>-8</v>
       </c>
       <c r="G3" s="28">
-        <v>0.33</v>
-      </c>
-      <c r="H3" s="28" t="s">
-        <v>1126</v>
+        <v>20</v>
+      </c>
+      <c r="H3" s="1" t="s">
+        <v>1205</v>
       </c>
       <c r="I3" s="28"/>
       <c r="J3" s="28"/>
@@ -58429,8 +58377,8 @@
         <v>667</v>
       </c>
       <c r="M3" s="28"/>
-      <c r="N3" t="s">
-        <v>1121</v>
+      <c r="N3" s="28" t="s">
+        <v>1122</v>
       </c>
       <c r="O3" s="28">
         <v>0.1</v>
@@ -58440,7 +58388,7 @@
       </c>
     </row>
     <row r="4" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A4" t="s">
+      <c r="A4" s="28" t="s">
         <v>1054</v>
       </c>
       <c r="B4" s="28">
@@ -58452,13 +58400,13 @@
       <c r="D4" s="28"/>
       <c r="E4" s="28"/>
       <c r="F4" s="28">
-        <v>-0.5</v>
+        <v>-8</v>
       </c>
       <c r="G4" s="28">
-        <v>0.33</v>
+        <v>20</v>
       </c>
       <c r="H4" s="28" t="s">
-        <v>1127</v>
+        <v>1187</v>
       </c>
       <c r="I4" s="28"/>
       <c r="J4" s="28"/>
@@ -58466,8 +58414,9 @@
       <c r="L4" s="28" t="s">
         <v>667</v>
       </c>
-      <c r="N4" t="s">
-        <v>1122</v>
+      <c r="M4" s="28"/>
+      <c r="N4" s="28" t="s">
+        <v>1121</v>
       </c>
       <c r="O4" s="28">
         <v>0.1</v>
@@ -58477,8 +58426,8 @@
       </c>
     </row>
     <row r="5" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A5" t="s">
-        <v>1055</v>
+      <c r="A5" s="28" t="s">
+        <v>764</v>
       </c>
       <c r="B5" s="28">
         <v>0</v>
@@ -58489,13 +58438,13 @@
       <c r="D5" s="28"/>
       <c r="E5" s="28"/>
       <c r="F5" s="28">
-        <v>-0.5</v>
+        <v>-8</v>
       </c>
       <c r="G5" s="28">
-        <v>0.34</v>
+        <v>20</v>
       </c>
       <c r="H5" s="28" t="s">
-        <v>1128</v>
+        <v>1188</v>
       </c>
       <c r="I5" s="28"/>
       <c r="J5" s="28"/>
@@ -58503,7 +58452,8 @@
       <c r="L5" s="28" t="s">
         <v>667</v>
       </c>
-      <c r="N5" t="s">
+      <c r="M5" s="28"/>
+      <c r="N5" s="28" t="s">
         <v>1123</v>
       </c>
       <c r="O5" s="28">
@@ -58514,8 +58464,8 @@
       </c>
     </row>
     <row r="6" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A6" t="s">
-        <v>1056</v>
+      <c r="A6" s="28" t="s">
+        <v>1055</v>
       </c>
       <c r="B6" s="28">
         <v>0</v>
@@ -58526,13 +58476,13 @@
       <c r="D6" s="28"/>
       <c r="E6" s="28"/>
       <c r="F6" s="28">
-        <v>-0.5</v>
+        <v>0</v>
       </c>
       <c r="G6" s="28">
-        <v>0.16500000000000001</v>
+        <v>40</v>
       </c>
       <c r="H6" s="28" t="s">
-        <v>1116</v>
+        <v>1231</v>
       </c>
       <c r="I6" s="28"/>
       <c r="J6" s="28"/>
@@ -58540,8 +58490,9 @@
       <c r="L6" s="28" t="s">
         <v>667</v>
       </c>
-      <c r="N6" t="s">
-        <v>1124</v>
+      <c r="M6" s="28"/>
+      <c r="N6" s="28" t="s">
+        <v>1125</v>
       </c>
       <c r="O6" s="28">
         <v>0.1</v>
@@ -58551,8 +58502,8 @@
       </c>
     </row>
     <row r="7" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A7" t="s">
-        <v>1059</v>
+      <c r="A7" s="28" t="s">
+        <v>1056</v>
       </c>
       <c r="B7" s="28">
         <v>0</v>
@@ -58563,13 +58514,13 @@
       <c r="D7" s="28"/>
       <c r="E7" s="28"/>
       <c r="F7" s="28">
-        <v>-0.5</v>
+        <v>-8</v>
       </c>
       <c r="G7" s="28">
-        <v>0.16500000000000001</v>
+        <v>20</v>
       </c>
       <c r="H7" s="28" t="s">
-        <v>1117</v>
+        <v>1191</v>
       </c>
       <c r="I7" s="28"/>
       <c r="J7" s="28"/>
@@ -58577,8 +58528,9 @@
       <c r="L7" s="28" t="s">
         <v>667</v>
       </c>
-      <c r="N7" t="s">
-        <v>1125</v>
+      <c r="M7" s="28"/>
+      <c r="N7" s="28" t="s">
+        <v>1124</v>
       </c>
       <c r="O7" s="28">
         <v>0.1</v>
@@ -58588,8 +58540,8 @@
       </c>
     </row>
     <row r="8" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A8" t="s">
-        <v>1058</v>
+      <c r="A8" s="28" t="s">
+        <v>1059</v>
       </c>
       <c r="B8" s="28">
         <v>0</v>
@@ -58600,13 +58552,13 @@
       <c r="D8" s="28"/>
       <c r="E8" s="28"/>
       <c r="F8" s="28">
-        <v>-0.5</v>
+        <v>-8</v>
       </c>
       <c r="G8" s="28">
-        <v>0.33</v>
+        <v>20</v>
       </c>
       <c r="H8" s="28" t="s">
-        <v>1118</v>
+        <v>1117</v>
       </c>
       <c r="I8" s="28"/>
       <c r="J8" s="28"/>
@@ -58614,19 +58566,14 @@
       <c r="L8" s="28" t="s">
         <v>1077</v>
       </c>
-      <c r="N8" t="s">
-        <v>1091</v>
-      </c>
-      <c r="O8" s="4">
-        <v>9.9999999999999995E-7</v>
-      </c>
-      <c r="P8">
-        <v>0.01</v>
-      </c>
+      <c r="M8" s="28"/>
+      <c r="N8" s="28"/>
+      <c r="O8" s="28"/>
+      <c r="P8" s="28"/>
     </row>
     <row r="9" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A9" t="s">
-        <v>1060</v>
+      <c r="A9" s="28" t="s">
+        <v>1058</v>
       </c>
       <c r="B9" s="28">
         <v>0</v>
@@ -58637,31 +58584,26 @@
       <c r="D9" s="28"/>
       <c r="E9" s="28"/>
       <c r="F9" s="28">
-        <v>-0.5</v>
+        <v>0</v>
       </c>
       <c r="G9" s="28">
-        <v>0.495</v>
+        <v>20</v>
       </c>
       <c r="H9" s="28" t="s">
-        <v>1120</v>
+        <v>1232</v>
       </c>
       <c r="I9" s="28"/>
       <c r="J9" s="28"/>
       <c r="K9" s="28"/>
       <c r="L9" s="28"/>
-      <c r="N9" t="s">
-        <v>1130</v>
-      </c>
-      <c r="O9" s="4">
-        <v>9.9999999999999995E-7</v>
-      </c>
-      <c r="P9" s="4">
-        <v>1E-4</v>
-      </c>
+      <c r="M9" s="28"/>
+      <c r="N9" s="28"/>
+      <c r="O9" s="28"/>
+      <c r="P9" s="28"/>
     </row>
     <row r="10" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A10" t="s">
-        <v>1061</v>
+      <c r="A10" s="28" t="s">
+        <v>1243</v>
       </c>
       <c r="B10" s="28">
         <v>0</v>
@@ -58675,39 +58617,140 @@
         <v>-0.5</v>
       </c>
       <c r="G10" s="28">
-        <v>0.33</v>
+        <v>5</v>
       </c>
       <c r="H10" s="28" t="s">
-        <v>1119</v>
+        <v>1189</v>
       </c>
       <c r="I10" s="28"/>
       <c r="J10" s="28"/>
       <c r="K10" s="28"/>
       <c r="L10" s="28"/>
+      <c r="M10" s="28"/>
+      <c r="N10" s="28"/>
+      <c r="O10" s="28"/>
+      <c r="P10" s="28"/>
     </row>
     <row r="11" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A11" t="s">
-        <v>1129</v>
-      </c>
-      <c r="B11">
-        <v>0</v>
-      </c>
-      <c r="C11">
-        <v>0</v>
-      </c>
-      <c r="F11">
+      <c r="A11" s="28" t="s">
+        <v>1245</v>
+      </c>
+      <c r="B11" s="28">
+        <v>0</v>
+      </c>
+      <c r="C11" s="28">
+        <v>0</v>
+      </c>
+      <c r="D11" s="28"/>
+      <c r="E11" s="28"/>
+      <c r="F11" s="28">
         <v>-0.5</v>
       </c>
-      <c r="G11">
-        <v>0.33</v>
-      </c>
-      <c r="H11" t="s">
-        <v>1131</v>
+      <c r="G11" s="28">
+        <v>2.5</v>
+      </c>
+      <c r="H11" s="28" t="s">
+        <v>1240</v>
       </c>
     </row>
     <row r="12" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
-        <v>1091</v>
+        <v>1244</v>
+      </c>
+      <c r="B12">
+        <v>0</v>
+      </c>
+      <c r="C12">
+        <v>0</v>
+      </c>
+      <c r="F12">
+        <v>-0.5</v>
+      </c>
+      <c r="G12">
+        <v>0</v>
+      </c>
+      <c r="H12" t="s">
+        <v>1238</v>
+      </c>
+    </row>
+    <row r="13" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A13" t="s">
+        <v>1235</v>
+      </c>
+      <c r="B13">
+        <v>0</v>
+      </c>
+      <c r="C13">
+        <v>0</v>
+      </c>
+      <c r="F13">
+        <v>-0.5</v>
+      </c>
+      <c r="G13">
+        <v>0.33</v>
+      </c>
+      <c r="H13" t="s">
+        <v>1233</v>
+      </c>
+    </row>
+    <row r="14" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A14" t="s">
+        <v>1201</v>
+      </c>
+      <c r="B14" s="28">
+        <v>0</v>
+      </c>
+      <c r="C14" s="28">
+        <v>0</v>
+      </c>
+      <c r="D14" s="28"/>
+      <c r="E14" s="28"/>
+      <c r="F14" s="28">
+        <v>-0.5</v>
+      </c>
+      <c r="G14">
+        <v>0</v>
+      </c>
+      <c r="H14" t="s">
+        <v>1203</v>
+      </c>
+    </row>
+    <row r="15" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A15" t="s">
+        <v>1202</v>
+      </c>
+      <c r="B15" s="28">
+        <v>0</v>
+      </c>
+      <c r="C15" s="28">
+        <v>0</v>
+      </c>
+      <c r="D15" s="28"/>
+      <c r="E15" s="28"/>
+      <c r="F15" s="28">
+        <v>-0.5</v>
+      </c>
+      <c r="G15">
+        <v>0</v>
+      </c>
+      <c r="H15" t="s">
+        <v>1239</v>
+      </c>
+    </row>
+    <row r="16" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A16" t="s">
+        <v>1236</v>
+      </c>
+      <c r="H16" t="s">
+        <v>1237</v>
+      </c>
+    </row>
+    <row r="17" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A17" t="s">
+        <v>1204</v>
+      </c>
+      <c r="H17" t="s">
+        <v>1234</v>
       </c>
     </row>
   </sheetData>

--- a/KineticModel/test.xlsx
+++ b/KineticModel/test.xlsx
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2320" uniqueCount="1250">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2322" uniqueCount="1257">
   <si>
     <t>Name</t>
   </si>
@@ -3808,6 +3808,27 @@
   </si>
   <si>
     <t>[c] : M  + N ---&gt; biomass</t>
+  </si>
+  <si>
+    <t>v2</t>
+  </si>
+  <si>
+    <t>v1</t>
+  </si>
+  <si>
+    <t>v3</t>
+  </si>
+  <si>
+    <t>v4</t>
+  </si>
+  <si>
+    <t>v5</t>
+  </si>
+  <si>
+    <t>v6</t>
+  </si>
+  <si>
+    <t>.1</t>
   </si>
 </sst>
 </file>
@@ -57673,11 +57694,12 @@
   <dimension ref="A1:P17"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B13" sqref="B13"/>
+      <selection activeCell="D9" sqref="D9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
+    <col min="1" max="1" width="16" customWidth="1"/>
     <col min="8" max="8" width="23.140625" customWidth="1"/>
     <col min="9" max="9" width="16.42578125" customWidth="1"/>
     <col min="10" max="10" width="12.42578125" customWidth="1"/>
@@ -57810,7 +57832,7 @@
     </row>
     <row r="4" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A4" s="28" t="s">
-        <v>1054</v>
+        <v>1250</v>
       </c>
       <c r="B4" s="28">
         <v>0</v>
@@ -57848,7 +57870,7 @@
     </row>
     <row r="5" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A5" s="28" t="s">
-        <v>764</v>
+        <v>1251</v>
       </c>
       <c r="B5" s="28">
         <v>0</v>
@@ -57886,7 +57908,7 @@
     </row>
     <row r="6" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A6" s="28" t="s">
-        <v>1055</v>
+        <v>1252</v>
       </c>
       <c r="B6" s="28">
         <v>0</v>
@@ -57897,10 +57919,10 @@
       <c r="D6" s="28"/>
       <c r="E6" s="28"/>
       <c r="F6" s="28">
-        <v>10</v>
+        <v>-8</v>
       </c>
       <c r="G6" s="28">
-        <v>-40</v>
+        <v>40</v>
       </c>
       <c r="H6" s="28" t="s">
         <v>1241</v>
@@ -57924,7 +57946,7 @@
     </row>
     <row r="7" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A7" s="28" t="s">
-        <v>1056</v>
+        <v>1253</v>
       </c>
       <c r="B7" s="28">
         <v>0</v>
@@ -57962,7 +57984,7 @@
     </row>
     <row r="8" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A8" s="28" t="s">
-        <v>1059</v>
+        <v>1254</v>
       </c>
       <c r="B8" s="28">
         <v>0</v>
@@ -57970,7 +57992,9 @@
       <c r="C8" s="28">
         <v>3000</v>
       </c>
-      <c r="D8" s="28"/>
+      <c r="D8" s="28">
+        <v>15</v>
+      </c>
       <c r="E8" s="28"/>
       <c r="F8" s="28">
         <v>-8</v>
@@ -57982,19 +58006,23 @@
         <v>1117</v>
       </c>
       <c r="I8" s="28"/>
-      <c r="J8" s="28"/>
+      <c r="J8" s="28" t="s">
+        <v>1125</v>
+      </c>
       <c r="K8" s="28"/>
       <c r="L8" s="28" t="s">
         <v>1077</v>
       </c>
-      <c r="M8" s="28"/>
+      <c r="M8" s="1" t="s">
+        <v>1256</v>
+      </c>
       <c r="N8" s="28"/>
       <c r="O8" s="28"/>
       <c r="P8" s="28"/>
     </row>
     <row r="9" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A9" s="28" t="s">
-        <v>1058</v>
+        <v>1255</v>
       </c>
       <c r="B9" s="28">
         <v>0</v>
@@ -58005,18 +58033,17 @@
       <c r="D9" s="28"/>
       <c r="E9" s="28"/>
       <c r="F9" s="28">
+        <v>-8</v>
+      </c>
+      <c r="G9" s="28">
         <v>10</v>
-      </c>
-      <c r="G9" s="28">
-        <v>-10</v>
       </c>
       <c r="H9" s="28" t="s">
         <v>1118</v>
       </c>
-      <c r="J9" s="28"/>
       <c r="K9" s="28"/>
       <c r="L9" s="28"/>
-      <c r="M9" s="28"/>
+      <c r="M9" s="1"/>
       <c r="N9" s="28"/>
       <c r="O9" s="28"/>
       <c r="P9" s="28"/>

--- a/KineticModel/test.xlsx
+++ b/KineticModel/test.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="4665" windowWidth="16275" windowHeight="3180" activeTab="7"/>
+    <workbookView xWindow="240" yWindow="4665" windowWidth="16275" windowHeight="3180" firstSheet="4" activeTab="13"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -29,12 +29,11 @@
     <sheet name="testN2m" sheetId="12" r:id="rId20"/>
   </sheets>
   <calcPr calcId="145621"/>
-  <fileRecoveryPr repairLoad="1"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2384" uniqueCount="1270">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2382" uniqueCount="1268">
   <si>
     <t>Name</t>
   </si>
@@ -3796,12 +3795,6 @@
   </si>
   <si>
     <t>[c] : M  + N ---&gt; biomass</t>
-  </si>
-  <si>
-    <t>A[c],K[c]</t>
-  </si>
-  <si>
-    <t>.1,.1</t>
   </si>
   <si>
     <r>
@@ -4049,14 +4042,7 @@
     <numFmt numFmtId="164" formatCode="0.0000E+00"/>
     <numFmt numFmtId="165" formatCode="0.0"/>
   </numFmts>
-  <fonts count="11" x14ac:knownFonts="1">
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
+  <fonts count="10" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -4153,42 +4139,42 @@
   </borders>
   <cellStyleXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
   <cellXfs count="32">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1"/>
-    <xf numFmtId="164" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="164" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1" applyFont="1" applyFill="1"/>
     <xf numFmtId="11" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="3" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="2" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="2" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="165" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="165" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="165" fontId="1" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="165" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
-    <xf numFmtId="165" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1" applyFont="1" applyFill="1"/>
-    <xf numFmtId="165" fontId="2" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="11" fontId="1" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="164" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="165" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1" applyFont="1" applyFill="1"/>
-    <xf numFmtId="11" fontId="2" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1"/>
-    <xf numFmtId="164" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="164" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="164" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="3">
     <cellStyle name="Bad" xfId="2" builtinId="27"/>
@@ -5783,7 +5769,7 @@
     </row>
     <row r="4" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A4" s="28" t="s">
-        <v>1257</v>
+        <v>1255</v>
       </c>
       <c r="B4" s="28">
         <v>0</v>
@@ -5821,7 +5807,7 @@
     </row>
     <row r="5" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A5" s="28" t="s">
-        <v>1258</v>
+        <v>1256</v>
       </c>
       <c r="B5" s="28">
         <v>0</v>
@@ -5859,7 +5845,7 @@
     </row>
     <row r="6" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A6" s="28" t="s">
-        <v>1259</v>
+        <v>1257</v>
       </c>
       <c r="B6" s="28">
         <v>0</v>
@@ -5876,7 +5862,7 @@
         <v>-40</v>
       </c>
       <c r="H6" s="28" t="s">
-        <v>1263</v>
+        <v>1261</v>
       </c>
       <c r="I6" s="28"/>
       <c r="J6" s="28"/>
@@ -5897,7 +5883,7 @@
     </row>
     <row r="7" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A7" s="28" t="s">
-        <v>1260</v>
+        <v>1258</v>
       </c>
       <c r="B7" s="28">
         <v>0</v>
@@ -5935,7 +5921,7 @@
     </row>
     <row r="8" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A8" s="28" t="s">
-        <v>1261</v>
+        <v>1259</v>
       </c>
       <c r="B8" s="28">
         <v>0</v>
@@ -5967,7 +5953,7 @@
     </row>
     <row r="9" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A9" s="28" t="s">
-        <v>1262</v>
+        <v>1260</v>
       </c>
       <c r="B9" s="28">
         <v>0</v>
@@ -5984,7 +5970,7 @@
         <v>-20</v>
       </c>
       <c r="H9" s="28" t="s">
-        <v>1264</v>
+        <v>1262</v>
       </c>
       <c r="I9" s="28"/>
       <c r="J9" s="28"/>
@@ -6044,7 +6030,7 @@
         <v>2.5</v>
       </c>
       <c r="H11" s="28" t="s">
-        <v>1268</v>
+        <v>1266</v>
       </c>
       <c r="I11" s="28"/>
       <c r="J11" s="28"/>
@@ -6074,7 +6060,7 @@
         <v>0</v>
       </c>
       <c r="H12" s="28" t="s">
-        <v>1267</v>
+        <v>1265</v>
       </c>
       <c r="I12" s="28"/>
       <c r="J12" s="28"/>
@@ -6164,7 +6150,7 @@
         <v>0</v>
       </c>
       <c r="H15" s="1" t="s">
-        <v>1265</v>
+        <v>1263</v>
       </c>
       <c r="I15" s="28"/>
       <c r="J15" s="28"/>
@@ -6190,7 +6176,7 @@
       <c r="F16" s="28"/>
       <c r="G16" s="28"/>
       <c r="H16" s="1" t="s">
-        <v>1266</v>
+        <v>1264</v>
       </c>
       <c r="I16" s="28"/>
       <c r="J16" s="28"/>
@@ -7176,7 +7162,7 @@
   <dimension ref="A1:P13"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="H16" sqref="H16"/>
+      <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -7574,8 +7560,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:P19"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D8" sqref="D8"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="G8" sqref="G8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -7696,7 +7682,7 @@
     </row>
     <row r="4" spans="1:16" ht="18" x14ac:dyDescent="0.35">
       <c r="A4" s="28" t="s">
-        <v>1249</v>
+        <v>1247</v>
       </c>
       <c r="B4" s="28">
         <v>0</v>
@@ -7732,7 +7718,7 @@
     </row>
     <row r="5" spans="1:16" ht="18" x14ac:dyDescent="0.35">
       <c r="A5" s="28" t="s">
-        <v>1250</v>
+        <v>1248</v>
       </c>
       <c r="B5" s="28">
         <v>0</v>
@@ -7768,7 +7754,7 @@
     </row>
     <row r="6" spans="1:16" ht="18" x14ac:dyDescent="0.35">
       <c r="A6" s="28" t="s">
-        <v>1251</v>
+        <v>1249</v>
       </c>
       <c r="B6" s="28">
         <v>0</v>
@@ -7804,7 +7790,7 @@
     </row>
     <row r="7" spans="1:16" ht="18" x14ac:dyDescent="0.35">
       <c r="A7" s="28" t="s">
-        <v>1252</v>
+        <v>1250</v>
       </c>
       <c r="B7" s="28">
         <v>0</v>
@@ -7840,7 +7826,7 @@
     </row>
     <row r="8" spans="1:16" ht="18" x14ac:dyDescent="0.35">
       <c r="A8" s="28" t="s">
-        <v>1253</v>
+        <v>1251</v>
       </c>
       <c r="B8" s="28">
         <v>0</v>
@@ -7876,7 +7862,7 @@
     </row>
     <row r="9" spans="1:16" ht="18" x14ac:dyDescent="0.35">
       <c r="A9" s="28" t="s">
-        <v>1254</v>
+        <v>1252</v>
       </c>
       <c r="B9" s="28">
         <v>0</v>
@@ -7897,13 +7883,9 @@
       </c>
       <c r="I9" s="28"/>
       <c r="J9" s="28"/>
-      <c r="K9" s="28" t="s">
-        <v>1247</v>
-      </c>
+      <c r="K9" s="28"/>
       <c r="L9" s="28"/>
-      <c r="M9" s="28" t="s">
-        <v>1248</v>
-      </c>
+      <c r="M9" s="28"/>
       <c r="N9" s="28" t="s">
         <v>1227</v>
       </c>
@@ -7916,7 +7898,7 @@
     </row>
     <row r="10" spans="1:16" ht="18" x14ac:dyDescent="0.35">
       <c r="A10" s="28" t="s">
-        <v>1255</v>
+        <v>1253</v>
       </c>
       <c r="B10" s="28">
         <v>0</v>
@@ -7952,7 +7934,7 @@
     </row>
     <row r="11" spans="1:16" ht="18" x14ac:dyDescent="0.35">
       <c r="A11" s="28" t="s">
-        <v>1256</v>
+        <v>1254</v>
       </c>
       <c r="B11" s="28">
         <v>0</v>
@@ -58500,7 +58482,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:P17"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="M10" sqref="M10"/>
     </sheetView>
   </sheetViews>
@@ -58638,7 +58620,7 @@
     </row>
     <row r="4" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A4" s="28" t="s">
-        <v>1257</v>
+        <v>1255</v>
       </c>
       <c r="B4" s="28">
         <v>0</v>
@@ -58676,7 +58658,7 @@
     </row>
     <row r="5" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A5" s="28" t="s">
-        <v>1258</v>
+        <v>1256</v>
       </c>
       <c r="B5" s="28">
         <v>0</v>
@@ -58714,7 +58696,7 @@
     </row>
     <row r="6" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A6" s="28" t="s">
-        <v>1259</v>
+        <v>1257</v>
       </c>
       <c r="B6" s="28">
         <v>0</v>
@@ -58752,7 +58734,7 @@
     </row>
     <row r="7" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A7" s="28" t="s">
-        <v>1260</v>
+        <v>1258</v>
       </c>
       <c r="B7" s="28">
         <v>0</v>
@@ -58790,7 +58772,7 @@
     </row>
     <row r="8" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A8" s="28" t="s">
-        <v>1261</v>
+        <v>1259</v>
       </c>
       <c r="B8" s="28">
         <v>0</v>
@@ -58822,7 +58804,7 @@
     </row>
     <row r="9" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A9" s="28" t="s">
-        <v>1262</v>
+        <v>1260</v>
       </c>
       <c r="B9" s="28">
         <v>0</v>
@@ -58848,7 +58830,7 @@
       </c>
       <c r="K9" s="28"/>
       <c r="M9" s="1" t="s">
-        <v>1269</v>
+        <v>1267</v>
       </c>
       <c r="N9" s="28"/>
       <c r="O9" s="28"/>
@@ -59100,7 +59082,7 @@
   <dimension ref="A1:P17"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection sqref="A1:P17"/>
+      <selection activeCell="G6" sqref="G6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -59228,7 +59210,7 @@
     </row>
     <row r="4" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A4" s="28" t="s">
-        <v>1257</v>
+        <v>1255</v>
       </c>
       <c r="B4" s="28">
         <v>0</v>
@@ -59266,7 +59248,7 @@
     </row>
     <row r="5" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A5" s="28" t="s">
-        <v>1258</v>
+        <v>1256</v>
       </c>
       <c r="B5" s="28">
         <v>0</v>
@@ -59304,7 +59286,7 @@
     </row>
     <row r="6" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A6" s="28" t="s">
-        <v>1259</v>
+        <v>1257</v>
       </c>
       <c r="B6" s="28">
         <v>0</v>
@@ -59321,7 +59303,7 @@
         <v>-40</v>
       </c>
       <c r="H6" s="28" t="s">
-        <v>1263</v>
+        <v>1261</v>
       </c>
       <c r="I6" s="28"/>
       <c r="J6" s="28"/>
@@ -59342,7 +59324,7 @@
     </row>
     <row r="7" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A7" s="28" t="s">
-        <v>1260</v>
+        <v>1258</v>
       </c>
       <c r="B7" s="28">
         <v>0</v>
@@ -59380,7 +59362,7 @@
     </row>
     <row r="8" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A8" s="28" t="s">
-        <v>1261</v>
+        <v>1259</v>
       </c>
       <c r="B8" s="28">
         <v>0</v>
@@ -59412,7 +59394,7 @@
     </row>
     <row r="9" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A9" s="28" t="s">
-        <v>1262</v>
+        <v>1260</v>
       </c>
       <c r="B9" s="28">
         <v>0</v>
@@ -59426,10 +59408,10 @@
         <v>10</v>
       </c>
       <c r="G9" s="28">
-        <v>-20</v>
+        <v>-10</v>
       </c>
       <c r="H9" s="28" t="s">
-        <v>1264</v>
+        <v>1262</v>
       </c>
       <c r="I9" s="28"/>
       <c r="J9" s="28"/>

--- a/KineticModel/test.xlsx
+++ b/KineticModel/test.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="4665" windowWidth="16275" windowHeight="3180" firstSheet="4" activeTab="13"/>
+    <workbookView xWindow="240" yWindow="4665" windowWidth="16275" windowHeight="3180" firstSheet="2" activeTab="8"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -14,26 +14,27 @@
     <sheet name="MN 1" sheetId="6" r:id="rId5"/>
     <sheet name="SN 1" sheetId="7" r:id="rId6"/>
     <sheet name="N2" sheetId="13" r:id="rId7"/>
-    <sheet name="N2mR" sheetId="20" r:id="rId8"/>
-    <sheet name="N2mD" sheetId="17" r:id="rId9"/>
+    <sheet name="N2m" sheetId="22" r:id="rId8"/>
+    <sheet name="N2mR" sheetId="20" r:id="rId9"/>
     <sheet name="N2mC" sheetId="21" r:id="rId10"/>
-    <sheet name="lacOP" sheetId="16" r:id="rId11"/>
-    <sheet name="N2lacZ" sheetId="15" r:id="rId12"/>
-    <sheet name="N3" sheetId="14" r:id="rId13"/>
-    <sheet name="N3mR" sheetId="19" r:id="rId14"/>
-    <sheet name="PTS" sheetId="8" r:id="rId15"/>
-    <sheet name="Sheet6" sheetId="10" r:id="rId16"/>
-    <sheet name="Sheet3" sheetId="9" r:id="rId17"/>
-    <sheet name="Sheet7" sheetId="11" r:id="rId18"/>
-    <sheet name="EcoliCCM" sheetId="18" r:id="rId19"/>
-    <sheet name="testN2m" sheetId="12" r:id="rId20"/>
+    <sheet name="N2mD" sheetId="17" r:id="rId11"/>
+    <sheet name="lacOP" sheetId="16" r:id="rId12"/>
+    <sheet name="N2lacZ" sheetId="15" r:id="rId13"/>
+    <sheet name="N3" sheetId="14" r:id="rId14"/>
+    <sheet name="N3mD" sheetId="19" r:id="rId15"/>
+    <sheet name="PTS" sheetId="8" r:id="rId16"/>
+    <sheet name="Sheet6" sheetId="10" r:id="rId17"/>
+    <sheet name="Sheet3" sheetId="9" r:id="rId18"/>
+    <sheet name="Sheet7" sheetId="11" r:id="rId19"/>
+    <sheet name="EcoliCCM" sheetId="18" r:id="rId20"/>
+    <sheet name="testN2m" sheetId="12" r:id="rId21"/>
   </sheets>
   <calcPr calcId="145621"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2382" uniqueCount="1268">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2442" uniqueCount="1268">
   <si>
     <t>Name</t>
   </si>
@@ -6220,6 +6221,521 @@
 
 <file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:P17"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D7" sqref="D7"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="14.42578125" customWidth="1"/>
+    <col min="6" max="6" width="16.5703125" customWidth="1"/>
+    <col min="8" max="8" width="19" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A1" s="28" t="s">
+        <v>565</v>
+      </c>
+      <c r="B1" s="28" t="s">
+        <v>728</v>
+      </c>
+      <c r="C1" s="28" t="s">
+        <v>731</v>
+      </c>
+      <c r="D1" s="28" t="s">
+        <v>729</v>
+      </c>
+      <c r="E1" s="28" t="s">
+        <v>730</v>
+      </c>
+      <c r="F1" s="28" t="s">
+        <v>830</v>
+      </c>
+      <c r="G1" s="28" t="s">
+        <v>818</v>
+      </c>
+      <c r="H1" s="28" t="s">
+        <v>1</v>
+      </c>
+      <c r="I1" s="28" t="s">
+        <v>608</v>
+      </c>
+      <c r="J1" s="28" t="s">
+        <v>609</v>
+      </c>
+      <c r="K1" s="28" t="s">
+        <v>654</v>
+      </c>
+      <c r="L1" s="28" t="s">
+        <v>656</v>
+      </c>
+      <c r="M1" s="28" t="s">
+        <v>657</v>
+      </c>
+      <c r="N1" s="28" t="s">
+        <v>726</v>
+      </c>
+      <c r="O1" s="28" t="s">
+        <v>828</v>
+      </c>
+      <c r="P1" s="28" t="s">
+        <v>829</v>
+      </c>
+    </row>
+    <row r="2" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A2" s="28" t="s">
+        <v>1206</v>
+      </c>
+      <c r="B2">
+        <v>0</v>
+      </c>
+      <c r="C2" s="28">
+        <v>0</v>
+      </c>
+      <c r="H2" t="s">
+        <v>1207</v>
+      </c>
+      <c r="I2" s="28"/>
+      <c r="J2" s="28"/>
+      <c r="K2" s="28"/>
+      <c r="L2" s="28"/>
+      <c r="M2" s="28"/>
+      <c r="N2" s="28" t="s">
+        <v>1190</v>
+      </c>
+      <c r="O2" s="28">
+        <v>0.1</v>
+      </c>
+      <c r="P2" s="28">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="3" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A3" s="28" t="s">
+        <v>1057</v>
+      </c>
+      <c r="B3" s="28">
+        <v>0</v>
+      </c>
+      <c r="C3" s="28">
+        <v>0</v>
+      </c>
+      <c r="D3" s="28"/>
+      <c r="E3" s="28"/>
+      <c r="F3" s="28">
+        <v>-8</v>
+      </c>
+      <c r="G3" s="28">
+        <v>20</v>
+      </c>
+      <c r="H3" s="1" t="s">
+        <v>1205</v>
+      </c>
+      <c r="I3" s="28"/>
+      <c r="J3" s="28"/>
+      <c r="K3" s="28"/>
+      <c r="L3" s="28" t="s">
+        <v>667</v>
+      </c>
+      <c r="M3" s="28"/>
+      <c r="N3" s="28" t="s">
+        <v>1122</v>
+      </c>
+      <c r="O3" s="28">
+        <v>0.1</v>
+      </c>
+      <c r="P3" s="28">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="4" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A4" s="28" t="s">
+        <v>1255</v>
+      </c>
+      <c r="B4" s="28">
+        <v>0</v>
+      </c>
+      <c r="C4" s="28">
+        <v>3000</v>
+      </c>
+      <c r="D4" s="28"/>
+      <c r="E4" s="28"/>
+      <c r="F4" s="28">
+        <v>-8</v>
+      </c>
+      <c r="G4" s="28">
+        <v>20</v>
+      </c>
+      <c r="H4" s="28" t="s">
+        <v>1187</v>
+      </c>
+      <c r="I4" s="28"/>
+      <c r="J4" s="28"/>
+      <c r="K4" s="28"/>
+      <c r="L4" s="28" t="s">
+        <v>667</v>
+      </c>
+      <c r="M4" s="28"/>
+      <c r="N4" s="28" t="s">
+        <v>1121</v>
+      </c>
+      <c r="O4" s="28">
+        <v>0.1</v>
+      </c>
+      <c r="P4" s="28">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="5" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A5" s="28" t="s">
+        <v>1256</v>
+      </c>
+      <c r="B5" s="28">
+        <v>0</v>
+      </c>
+      <c r="C5" s="28">
+        <v>3000</v>
+      </c>
+      <c r="D5" s="28"/>
+      <c r="E5" s="28"/>
+      <c r="F5" s="28">
+        <v>-8</v>
+      </c>
+      <c r="G5" s="28">
+        <v>20</v>
+      </c>
+      <c r="H5" s="28" t="s">
+        <v>1188</v>
+      </c>
+      <c r="I5" s="28"/>
+      <c r="J5" s="28"/>
+      <c r="K5" s="28"/>
+      <c r="L5" s="28" t="s">
+        <v>667</v>
+      </c>
+      <c r="M5" s="28"/>
+      <c r="N5" s="28" t="s">
+        <v>1123</v>
+      </c>
+      <c r="O5" s="28">
+        <v>0.1</v>
+      </c>
+      <c r="P5" s="28">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="6" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A6" s="28" t="s">
+        <v>1257</v>
+      </c>
+      <c r="B6" s="28">
+        <v>0</v>
+      </c>
+      <c r="C6" s="28">
+        <v>3000</v>
+      </c>
+      <c r="D6" s="28"/>
+      <c r="E6" s="28"/>
+      <c r="F6" s="28">
+        <v>10</v>
+      </c>
+      <c r="G6" s="28">
+        <v>-40</v>
+      </c>
+      <c r="H6" s="28" t="s">
+        <v>1261</v>
+      </c>
+      <c r="I6" s="28"/>
+      <c r="J6" s="28"/>
+      <c r="K6" s="28"/>
+      <c r="L6" s="28" t="s">
+        <v>667</v>
+      </c>
+      <c r="M6" s="28"/>
+      <c r="N6" s="28" t="s">
+        <v>1125</v>
+      </c>
+      <c r="O6" s="28">
+        <v>0.1</v>
+      </c>
+      <c r="P6" s="28">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="7" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A7" s="28" t="s">
+        <v>1258</v>
+      </c>
+      <c r="B7" s="28">
+        <v>0</v>
+      </c>
+      <c r="C7" s="28">
+        <v>3000</v>
+      </c>
+      <c r="D7" s="28"/>
+      <c r="E7" s="28"/>
+      <c r="F7" s="28">
+        <v>-8</v>
+      </c>
+      <c r="G7" s="28">
+        <v>20</v>
+      </c>
+      <c r="H7" s="28" t="s">
+        <v>1191</v>
+      </c>
+      <c r="I7" s="28"/>
+      <c r="J7" s="28"/>
+      <c r="K7" s="28"/>
+      <c r="L7" s="28" t="s">
+        <v>667</v>
+      </c>
+      <c r="M7" s="28"/>
+      <c r="N7" s="28" t="s">
+        <v>1124</v>
+      </c>
+      <c r="O7" s="28">
+        <v>0.1</v>
+      </c>
+      <c r="P7" s="28">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="8" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A8" s="28" t="s">
+        <v>1259</v>
+      </c>
+      <c r="B8" s="28">
+        <v>0</v>
+      </c>
+      <c r="C8" s="28">
+        <v>3000</v>
+      </c>
+      <c r="D8" s="28"/>
+      <c r="E8" s="28"/>
+      <c r="F8" s="28">
+        <v>-8</v>
+      </c>
+      <c r="G8" s="28">
+        <v>20</v>
+      </c>
+      <c r="H8" s="28" t="s">
+        <v>1117</v>
+      </c>
+      <c r="I8" s="28"/>
+      <c r="J8" s="28"/>
+      <c r="K8" s="28"/>
+      <c r="L8" s="28" t="s">
+        <v>1077</v>
+      </c>
+      <c r="M8" s="28"/>
+      <c r="N8" s="28"/>
+      <c r="O8" s="28"/>
+      <c r="P8" s="28"/>
+    </row>
+    <row r="9" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A9" s="28" t="s">
+        <v>1260</v>
+      </c>
+      <c r="B9" s="28">
+        <v>0</v>
+      </c>
+      <c r="C9" s="28">
+        <v>3000</v>
+      </c>
+      <c r="D9" s="28"/>
+      <c r="E9" s="28"/>
+      <c r="F9" s="28">
+        <v>10</v>
+      </c>
+      <c r="G9" s="28">
+        <v>-10</v>
+      </c>
+      <c r="H9" s="28" t="s">
+        <v>1262</v>
+      </c>
+      <c r="I9" s="28"/>
+      <c r="J9" s="28"/>
+      <c r="K9" s="28"/>
+      <c r="L9" s="28"/>
+      <c r="M9" s="28"/>
+      <c r="N9" s="28"/>
+      <c r="O9" s="28"/>
+      <c r="P9" s="28"/>
+    </row>
+    <row r="10" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A10" s="28" t="s">
+        <v>1240</v>
+      </c>
+      <c r="B10" s="28">
+        <v>0</v>
+      </c>
+      <c r="C10" s="28">
+        <v>0</v>
+      </c>
+      <c r="D10" s="28"/>
+      <c r="E10" s="28"/>
+      <c r="F10" s="28">
+        <v>-0.5</v>
+      </c>
+      <c r="G10" s="28">
+        <v>5</v>
+      </c>
+      <c r="H10" s="28" t="s">
+        <v>1189</v>
+      </c>
+      <c r="I10" s="28"/>
+      <c r="J10" s="28"/>
+      <c r="K10" s="28"/>
+      <c r="L10" s="28"/>
+      <c r="M10" s="28"/>
+      <c r="N10" s="28"/>
+      <c r="O10" s="28"/>
+      <c r="P10" s="28"/>
+    </row>
+    <row r="11" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A11" s="28" t="s">
+        <v>1242</v>
+      </c>
+      <c r="B11" s="28">
+        <v>0</v>
+      </c>
+      <c r="C11" s="28">
+        <v>0</v>
+      </c>
+      <c r="D11" s="28"/>
+      <c r="E11" s="28"/>
+      <c r="F11" s="28">
+        <v>-0.5</v>
+      </c>
+      <c r="G11" s="28">
+        <v>2.5</v>
+      </c>
+      <c r="H11" s="28" t="s">
+        <v>1237</v>
+      </c>
+    </row>
+    <row r="12" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A12" t="s">
+        <v>1241</v>
+      </c>
+      <c r="B12">
+        <v>0</v>
+      </c>
+      <c r="C12" s="28">
+        <v>0</v>
+      </c>
+      <c r="F12">
+        <v>-0.5</v>
+      </c>
+      <c r="G12">
+        <v>0</v>
+      </c>
+      <c r="H12" t="s">
+        <v>1235</v>
+      </c>
+    </row>
+    <row r="13" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A13" s="28" t="s">
+        <v>1232</v>
+      </c>
+      <c r="B13">
+        <v>0</v>
+      </c>
+      <c r="C13" s="28">
+        <v>0</v>
+      </c>
+      <c r="F13">
+        <v>-0.5</v>
+      </c>
+      <c r="G13">
+        <v>0.33</v>
+      </c>
+      <c r="H13" t="s">
+        <v>1239</v>
+      </c>
+    </row>
+    <row r="14" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A14" s="28" t="s">
+        <v>1201</v>
+      </c>
+      <c r="B14" s="28">
+        <v>0</v>
+      </c>
+      <c r="C14" s="28">
+        <v>0</v>
+      </c>
+      <c r="D14" s="28"/>
+      <c r="E14" s="28"/>
+      <c r="F14" s="28">
+        <v>-0.5</v>
+      </c>
+      <c r="G14">
+        <v>0</v>
+      </c>
+      <c r="H14" t="s">
+        <v>1203</v>
+      </c>
+    </row>
+    <row r="15" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A15" t="s">
+        <v>1202</v>
+      </c>
+      <c r="B15" s="28">
+        <v>0</v>
+      </c>
+      <c r="C15" s="28">
+        <v>0</v>
+      </c>
+      <c r="D15" s="28"/>
+      <c r="E15" s="28"/>
+      <c r="F15" s="28">
+        <v>-0.5</v>
+      </c>
+      <c r="G15">
+        <v>0</v>
+      </c>
+      <c r="H15" t="s">
+        <v>1236</v>
+      </c>
+    </row>
+    <row r="16" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A16" s="28" t="s">
+        <v>1233</v>
+      </c>
+      <c r="B16">
+        <v>0</v>
+      </c>
+      <c r="C16" s="28">
+        <v>0</v>
+      </c>
+      <c r="H16" t="s">
+        <v>1234</v>
+      </c>
+    </row>
+    <row r="17" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A17" s="28" t="s">
+        <v>1204</v>
+      </c>
+      <c r="B17">
+        <v>0</v>
+      </c>
+      <c r="C17" s="28">
+        <v>0</v>
+      </c>
+      <c r="H17" t="s">
+        <v>1231</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:P12"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -6634,7 +7150,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:P20"/>
   <sheetViews>
@@ -7157,7 +7673,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:P13"/>
   <sheetViews>
@@ -7556,11 +8072,11 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet15.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:P19"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="G8" sqref="G8"/>
     </sheetView>
   </sheetViews>
@@ -8184,7 +8700,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet15.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet16.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:P60"/>
   <sheetViews>
@@ -9767,7 +10283,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet16.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet17.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:P12"/>
   <sheetViews>
@@ -10008,7 +10524,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet17.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet18.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:P20"/>
   <sheetViews>
@@ -10494,7 +11010,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet18.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet19.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:P11"/>
   <sheetViews>
@@ -10839,7 +11355,225 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet19.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:A40"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="K11" sqref="K11"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="18.42578125" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="2" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="3" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="4" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="5" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="6" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="7" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="8" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="9" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A9" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="10" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A10" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="11" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A11" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="12" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A12" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="13" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A13" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="14" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A14" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="15" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A15" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="16" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A16" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="17" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A17" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="18" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A18" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="19" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A19" t="s">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="20" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A20" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="21" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A21" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="22" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A22" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="23" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A23" t="s">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="24" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A24" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="25" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A25" t="s">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="26" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A26" t="s">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="27" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A27" t="s">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="28" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A28" t="s">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="29" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A29" t="s">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="30" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A30" t="s">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="31" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A31" t="s">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="32" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A32" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="33" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A33" t="s">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="34" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A34" t="s">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="35" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A35" t="s">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="36" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A36" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="37" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A37" t="s">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="38" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A38" t="s">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="39" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A39" t="s">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="40" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A40" t="s">
+        <v>150</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet20.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:P33"/>
   <sheetViews>
@@ -11562,225 +12296,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:A40"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="K11" sqref="K11"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <cols>
-    <col min="1" max="1" width="18.42578125" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A1" t="s">
-        <v>110</v>
-      </c>
-    </row>
-    <row r="2" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A2" t="s">
-        <v>112</v>
-      </c>
-    </row>
-    <row r="3" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A3" t="s">
-        <v>113</v>
-      </c>
-    </row>
-    <row r="4" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A4" t="s">
-        <v>114</v>
-      </c>
-    </row>
-    <row r="5" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A5" t="s">
-        <v>115</v>
-      </c>
-    </row>
-    <row r="6" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A6" t="s">
-        <v>116</v>
-      </c>
-    </row>
-    <row r="7" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A7" t="s">
-        <v>117</v>
-      </c>
-    </row>
-    <row r="8" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A8" t="s">
-        <v>118</v>
-      </c>
-    </row>
-    <row r="9" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A9" t="s">
-        <v>119</v>
-      </c>
-    </row>
-    <row r="10" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A10" t="s">
-        <v>120</v>
-      </c>
-    </row>
-    <row r="11" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A11" t="s">
-        <v>121</v>
-      </c>
-    </row>
-    <row r="12" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A12" t="s">
-        <v>122</v>
-      </c>
-    </row>
-    <row r="13" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A13" t="s">
-        <v>123</v>
-      </c>
-    </row>
-    <row r="14" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A14" t="s">
-        <v>124</v>
-      </c>
-    </row>
-    <row r="15" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A15" t="s">
-        <v>125</v>
-      </c>
-    </row>
-    <row r="16" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A16" t="s">
-        <v>126</v>
-      </c>
-    </row>
-    <row r="17" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A17" t="s">
-        <v>127</v>
-      </c>
-    </row>
-    <row r="18" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A18" t="s">
-        <v>128</v>
-      </c>
-    </row>
-    <row r="19" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A19" t="s">
-        <v>129</v>
-      </c>
-    </row>
-    <row r="20" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A20" t="s">
-        <v>130</v>
-      </c>
-    </row>
-    <row r="21" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A21" t="s">
-        <v>131</v>
-      </c>
-    </row>
-    <row r="22" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A22" t="s">
-        <v>132</v>
-      </c>
-    </row>
-    <row r="23" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A23" t="s">
-        <v>133</v>
-      </c>
-    </row>
-    <row r="24" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A24" t="s">
-        <v>134</v>
-      </c>
-    </row>
-    <row r="25" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A25" t="s">
-        <v>135</v>
-      </c>
-    </row>
-    <row r="26" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A26" t="s">
-        <v>136</v>
-      </c>
-    </row>
-    <row r="27" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A27" t="s">
-        <v>137</v>
-      </c>
-    </row>
-    <row r="28" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A28" t="s">
-        <v>138</v>
-      </c>
-    </row>
-    <row r="29" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A29" t="s">
-        <v>139</v>
-      </c>
-    </row>
-    <row r="30" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A30" t="s">
-        <v>140</v>
-      </c>
-    </row>
-    <row r="31" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A31" t="s">
-        <v>141</v>
-      </c>
-    </row>
-    <row r="32" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A32" t="s">
-        <v>142</v>
-      </c>
-    </row>
-    <row r="33" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A33" t="s">
-        <v>143</v>
-      </c>
-    </row>
-    <row r="34" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A34" t="s">
-        <v>144</v>
-      </c>
-    </row>
-    <row r="35" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A35" t="s">
-        <v>145</v>
-      </c>
-    </row>
-    <row r="36" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A36" t="s">
-        <v>146</v>
-      </c>
-    </row>
-    <row r="37" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A37" t="s">
-        <v>147</v>
-      </c>
-    </row>
-    <row r="38" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A38" t="s">
-        <v>148</v>
-      </c>
-    </row>
-    <row r="39" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A39" t="s">
-        <v>149</v>
-      </c>
-    </row>
-    <row r="40" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A40" t="s">
-        <v>150</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet20.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet21.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:P128"/>
   <sheetViews>
@@ -58483,7 +58999,600 @@
   <dimension ref="A1:P17"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="M10" sqref="M10"/>
+      <selection activeCell="B2" sqref="B2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData>
+    <row r="1" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A1" s="28" t="s">
+        <v>565</v>
+      </c>
+      <c r="B1" s="28" t="s">
+        <v>728</v>
+      </c>
+      <c r="C1" s="28" t="s">
+        <v>731</v>
+      </c>
+      <c r="D1" s="28" t="s">
+        <v>729</v>
+      </c>
+      <c r="E1" s="28" t="s">
+        <v>730</v>
+      </c>
+      <c r="F1" s="28" t="s">
+        <v>830</v>
+      </c>
+      <c r="G1" s="28" t="s">
+        <v>818</v>
+      </c>
+      <c r="H1" s="28" t="s">
+        <v>1</v>
+      </c>
+      <c r="I1" s="28" t="s">
+        <v>608</v>
+      </c>
+      <c r="J1" s="28" t="s">
+        <v>609</v>
+      </c>
+      <c r="K1" s="28" t="s">
+        <v>654</v>
+      </c>
+      <c r="L1" s="28" t="s">
+        <v>656</v>
+      </c>
+      <c r="M1" s="28" t="s">
+        <v>657</v>
+      </c>
+      <c r="N1" s="28" t="s">
+        <v>726</v>
+      </c>
+      <c r="O1" s="28" t="s">
+        <v>828</v>
+      </c>
+      <c r="P1" s="28" t="s">
+        <v>829</v>
+      </c>
+    </row>
+    <row r="2" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A2" s="28" t="s">
+        <v>1206</v>
+      </c>
+      <c r="B2" s="28">
+        <v>0</v>
+      </c>
+      <c r="C2" s="28">
+        <v>0</v>
+      </c>
+      <c r="D2" s="28"/>
+      <c r="E2" s="28"/>
+      <c r="F2" s="28">
+        <v>0</v>
+      </c>
+      <c r="G2" s="28">
+        <v>5</v>
+      </c>
+      <c r="H2" s="28" t="s">
+        <v>1207</v>
+      </c>
+      <c r="I2" s="28"/>
+      <c r="J2" s="28"/>
+      <c r="K2" s="28"/>
+      <c r="L2" s="28"/>
+      <c r="M2" s="28"/>
+      <c r="N2" s="28" t="s">
+        <v>1190</v>
+      </c>
+      <c r="O2" s="28">
+        <v>0.1</v>
+      </c>
+      <c r="P2" s="28">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="3" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A3" s="28" t="s">
+        <v>1057</v>
+      </c>
+      <c r="B3" s="28">
+        <v>0</v>
+      </c>
+      <c r="C3" s="28">
+        <v>0</v>
+      </c>
+      <c r="D3" s="28"/>
+      <c r="E3" s="28"/>
+      <c r="F3" s="28">
+        <v>-8</v>
+      </c>
+      <c r="G3" s="28">
+        <v>20</v>
+      </c>
+      <c r="H3" s="1" t="s">
+        <v>1205</v>
+      </c>
+      <c r="I3" s="28"/>
+      <c r="J3" s="28"/>
+      <c r="K3" s="28"/>
+      <c r="L3" s="28" t="s">
+        <v>667</v>
+      </c>
+      <c r="M3" s="28"/>
+      <c r="N3" s="28" t="s">
+        <v>1122</v>
+      </c>
+      <c r="O3" s="28">
+        <v>0.1</v>
+      </c>
+      <c r="P3" s="28">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="4" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A4" s="28" t="s">
+        <v>1255</v>
+      </c>
+      <c r="B4" s="28">
+        <v>0</v>
+      </c>
+      <c r="C4" s="28">
+        <v>3000</v>
+      </c>
+      <c r="D4" s="28"/>
+      <c r="E4" s="28"/>
+      <c r="F4" s="28">
+        <v>-8</v>
+      </c>
+      <c r="G4" s="28">
+        <v>20</v>
+      </c>
+      <c r="H4" s="28" t="s">
+        <v>1187</v>
+      </c>
+      <c r="I4" s="28"/>
+      <c r="J4" s="28"/>
+      <c r="K4" s="28"/>
+      <c r="L4" s="28" t="s">
+        <v>667</v>
+      </c>
+      <c r="M4" s="28"/>
+      <c r="N4" s="28" t="s">
+        <v>1121</v>
+      </c>
+      <c r="O4" s="28">
+        <v>0.1</v>
+      </c>
+      <c r="P4" s="28">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="5" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A5" s="28" t="s">
+        <v>1256</v>
+      </c>
+      <c r="B5" s="28">
+        <v>0</v>
+      </c>
+      <c r="C5" s="28">
+        <v>3000</v>
+      </c>
+      <c r="D5" s="28"/>
+      <c r="E5" s="28"/>
+      <c r="F5" s="28">
+        <v>-8</v>
+      </c>
+      <c r="G5" s="28">
+        <v>20</v>
+      </c>
+      <c r="H5" s="28" t="s">
+        <v>1188</v>
+      </c>
+      <c r="I5" s="28"/>
+      <c r="J5" s="28"/>
+      <c r="K5" s="28"/>
+      <c r="L5" s="28" t="s">
+        <v>667</v>
+      </c>
+      <c r="M5" s="28"/>
+      <c r="N5" s="28" t="s">
+        <v>1123</v>
+      </c>
+      <c r="O5" s="28">
+        <v>0.1</v>
+      </c>
+      <c r="P5" s="28">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="6" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A6" s="28" t="s">
+        <v>1257</v>
+      </c>
+      <c r="B6" s="28">
+        <v>0</v>
+      </c>
+      <c r="C6" s="28">
+        <v>3000</v>
+      </c>
+      <c r="D6" s="28"/>
+      <c r="E6" s="28"/>
+      <c r="F6" s="28">
+        <v>-8</v>
+      </c>
+      <c r="G6" s="28">
+        <v>40</v>
+      </c>
+      <c r="H6" s="28" t="s">
+        <v>1238</v>
+      </c>
+      <c r="I6" s="28"/>
+      <c r="J6" s="28"/>
+      <c r="K6" s="28"/>
+      <c r="L6" s="28" t="s">
+        <v>667</v>
+      </c>
+      <c r="M6" s="28"/>
+      <c r="N6" s="28" t="s">
+        <v>1125</v>
+      </c>
+      <c r="O6" s="28">
+        <v>0.1</v>
+      </c>
+      <c r="P6" s="28">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="7" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A7" s="28" t="s">
+        <v>1258</v>
+      </c>
+      <c r="B7" s="28">
+        <v>0</v>
+      </c>
+      <c r="C7" s="28">
+        <v>3000</v>
+      </c>
+      <c r="D7" s="28"/>
+      <c r="E7" s="28"/>
+      <c r="F7" s="28">
+        <v>-8</v>
+      </c>
+      <c r="G7" s="28">
+        <v>20</v>
+      </c>
+      <c r="H7" s="28" t="s">
+        <v>1191</v>
+      </c>
+      <c r="I7" s="28"/>
+      <c r="J7" s="28"/>
+      <c r="K7" s="28"/>
+      <c r="L7" s="28" t="s">
+        <v>667</v>
+      </c>
+      <c r="M7" s="28"/>
+      <c r="N7" s="28" t="s">
+        <v>1124</v>
+      </c>
+      <c r="O7" s="28">
+        <v>0.1</v>
+      </c>
+      <c r="P7" s="28">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="8" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A8" s="28" t="s">
+        <v>1259</v>
+      </c>
+      <c r="B8" s="28">
+        <v>0</v>
+      </c>
+      <c r="C8" s="28">
+        <v>3000</v>
+      </c>
+      <c r="D8" s="28"/>
+      <c r="E8" s="28"/>
+      <c r="F8" s="28">
+        <v>-8</v>
+      </c>
+      <c r="G8" s="28">
+        <v>30</v>
+      </c>
+      <c r="H8" s="28" t="s">
+        <v>1117</v>
+      </c>
+      <c r="I8" s="28"/>
+      <c r="J8" s="1"/>
+      <c r="K8" s="28"/>
+      <c r="L8" s="28" t="s">
+        <v>1077</v>
+      </c>
+      <c r="M8" s="1"/>
+      <c r="N8" s="28"/>
+      <c r="O8" s="28"/>
+      <c r="P8" s="28"/>
+    </row>
+    <row r="9" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A9" s="28" t="s">
+        <v>1260</v>
+      </c>
+      <c r="B9" s="28">
+        <v>0</v>
+      </c>
+      <c r="C9" s="28">
+        <v>3000</v>
+      </c>
+      <c r="D9" s="28"/>
+      <c r="E9" s="28"/>
+      <c r="F9" s="28">
+        <v>-8</v>
+      </c>
+      <c r="G9" s="28">
+        <v>10</v>
+      </c>
+      <c r="H9" s="28" t="s">
+        <v>1118</v>
+      </c>
+      <c r="I9" s="28"/>
+      <c r="J9" s="28"/>
+      <c r="K9" s="28"/>
+      <c r="L9" s="28"/>
+      <c r="M9" s="1"/>
+      <c r="N9" s="28"/>
+      <c r="O9" s="28"/>
+      <c r="P9" s="28"/>
+    </row>
+    <row r="10" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A10" s="28" t="s">
+        <v>1240</v>
+      </c>
+      <c r="B10" s="28">
+        <v>0</v>
+      </c>
+      <c r="C10" s="28">
+        <v>0</v>
+      </c>
+      <c r="D10" s="28"/>
+      <c r="E10" s="28"/>
+      <c r="F10" s="28">
+        <v>-0.5</v>
+      </c>
+      <c r="G10" s="28">
+        <v>5</v>
+      </c>
+      <c r="H10" s="28" t="s">
+        <v>1189</v>
+      </c>
+      <c r="I10" s="28"/>
+      <c r="J10" s="28"/>
+      <c r="K10" s="28"/>
+      <c r="L10" s="28"/>
+      <c r="M10" s="28"/>
+      <c r="N10" s="28"/>
+      <c r="O10" s="28"/>
+      <c r="P10" s="28"/>
+    </row>
+    <row r="11" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A11" s="28" t="s">
+        <v>1241</v>
+      </c>
+      <c r="B11" s="28">
+        <v>0</v>
+      </c>
+      <c r="C11" s="28">
+        <v>0</v>
+      </c>
+      <c r="D11" s="28"/>
+      <c r="E11" s="28"/>
+      <c r="F11" s="28">
+        <v>-0.5</v>
+      </c>
+      <c r="G11" s="28">
+        <v>0</v>
+      </c>
+      <c r="H11" s="28" t="s">
+        <v>1235</v>
+      </c>
+      <c r="I11" s="28"/>
+      <c r="J11" s="28"/>
+      <c r="K11" s="28"/>
+      <c r="L11" s="28"/>
+      <c r="M11" s="28"/>
+      <c r="N11" s="28"/>
+      <c r="O11" s="28"/>
+      <c r="P11" s="28"/>
+    </row>
+    <row r="12" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A12" s="28" t="s">
+        <v>1232</v>
+      </c>
+      <c r="B12" s="28">
+        <v>0</v>
+      </c>
+      <c r="C12" s="28">
+        <v>0</v>
+      </c>
+      <c r="D12" s="28"/>
+      <c r="E12" s="28"/>
+      <c r="F12" s="28">
+        <v>-0.5</v>
+      </c>
+      <c r="G12" s="28">
+        <v>0.33</v>
+      </c>
+      <c r="H12" s="28" t="s">
+        <v>1239</v>
+      </c>
+      <c r="I12" s="28"/>
+      <c r="J12" s="28"/>
+      <c r="K12" s="28"/>
+      <c r="L12" s="28"/>
+      <c r="M12" s="28"/>
+      <c r="N12" s="28"/>
+      <c r="O12" s="28"/>
+      <c r="P12" s="28"/>
+    </row>
+    <row r="13" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A13" s="28" t="s">
+        <v>1201</v>
+      </c>
+      <c r="B13" s="28">
+        <v>0</v>
+      </c>
+      <c r="C13" s="28">
+        <v>0</v>
+      </c>
+      <c r="D13" s="28"/>
+      <c r="E13" s="28"/>
+      <c r="F13" s="28">
+        <v>-0.5</v>
+      </c>
+      <c r="G13" s="28">
+        <v>0</v>
+      </c>
+      <c r="H13" s="28" t="s">
+        <v>1203</v>
+      </c>
+      <c r="I13" s="28"/>
+      <c r="J13" s="28"/>
+      <c r="K13" s="28"/>
+      <c r="L13" s="28"/>
+      <c r="M13" s="28"/>
+      <c r="N13" s="28"/>
+      <c r="O13" s="28"/>
+      <c r="P13" s="28"/>
+    </row>
+    <row r="14" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A14" s="28" t="s">
+        <v>1233</v>
+      </c>
+      <c r="B14" s="28">
+        <v>0</v>
+      </c>
+      <c r="C14" s="28">
+        <v>0</v>
+      </c>
+      <c r="D14" s="28"/>
+      <c r="E14" s="28"/>
+      <c r="F14" s="28">
+        <v>-0.5</v>
+      </c>
+      <c r="G14" s="28">
+        <v>0</v>
+      </c>
+      <c r="H14" s="28" t="s">
+        <v>1234</v>
+      </c>
+      <c r="I14" s="28"/>
+      <c r="J14" s="28"/>
+      <c r="K14" s="28"/>
+      <c r="L14" s="28"/>
+      <c r="M14" s="28"/>
+      <c r="N14" s="28"/>
+      <c r="O14" s="28"/>
+      <c r="P14" s="28"/>
+    </row>
+    <row r="15" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A15" s="28" t="s">
+        <v>1204</v>
+      </c>
+      <c r="B15" s="28">
+        <v>0</v>
+      </c>
+      <c r="C15" s="28">
+        <v>0</v>
+      </c>
+      <c r="D15" s="28"/>
+      <c r="E15" s="28"/>
+      <c r="F15" s="28">
+        <v>0</v>
+      </c>
+      <c r="G15" s="28">
+        <v>0</v>
+      </c>
+      <c r="H15" s="28" t="s">
+        <v>1231</v>
+      </c>
+      <c r="I15" s="28"/>
+      <c r="J15" s="28"/>
+      <c r="K15" s="28"/>
+      <c r="L15" s="28"/>
+      <c r="M15" s="28"/>
+      <c r="N15" s="28"/>
+      <c r="O15" s="28"/>
+      <c r="P15" s="28"/>
+    </row>
+    <row r="16" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A16" s="28" t="s">
+        <v>1242</v>
+      </c>
+      <c r="B16" s="28">
+        <v>0</v>
+      </c>
+      <c r="C16" s="28">
+        <v>0</v>
+      </c>
+      <c r="D16" s="28"/>
+      <c r="E16" s="28"/>
+      <c r="F16" s="28">
+        <v>-0.5</v>
+      </c>
+      <c r="G16" s="28">
+        <v>0</v>
+      </c>
+      <c r="H16" s="28" t="s">
+        <v>1237</v>
+      </c>
+      <c r="I16" s="28"/>
+      <c r="J16" s="28"/>
+      <c r="K16" s="28"/>
+      <c r="L16" s="28"/>
+      <c r="M16" s="28"/>
+      <c r="N16" s="28"/>
+      <c r="O16" s="28"/>
+      <c r="P16" s="28"/>
+    </row>
+    <row r="17" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A17" s="28" t="s">
+        <v>1202</v>
+      </c>
+      <c r="B17" s="28">
+        <v>0</v>
+      </c>
+      <c r="C17" s="28">
+        <v>0</v>
+      </c>
+      <c r="D17" s="28"/>
+      <c r="E17" s="28"/>
+      <c r="F17" s="28">
+        <v>-0.5</v>
+      </c>
+      <c r="G17" s="28">
+        <v>0</v>
+      </c>
+      <c r="H17" s="28" t="s">
+        <v>1236</v>
+      </c>
+      <c r="I17" s="28"/>
+      <c r="J17" s="28"/>
+      <c r="K17" s="28"/>
+      <c r="L17" s="28"/>
+      <c r="M17" s="28"/>
+      <c r="N17" s="28"/>
+      <c r="O17" s="28"/>
+      <c r="P17" s="28"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:P17"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D10" sqref="D10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -59075,519 +60184,4 @@
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
-</file>
-
-<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:P17"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="G6" sqref="G6"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <cols>
-    <col min="1" max="1" width="14.42578125" customWidth="1"/>
-    <col min="6" max="6" width="16.5703125" customWidth="1"/>
-    <col min="8" max="8" width="19" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A1" s="28" t="s">
-        <v>565</v>
-      </c>
-      <c r="B1" s="28" t="s">
-        <v>728</v>
-      </c>
-      <c r="C1" s="28" t="s">
-        <v>731</v>
-      </c>
-      <c r="D1" s="28" t="s">
-        <v>729</v>
-      </c>
-      <c r="E1" s="28" t="s">
-        <v>730</v>
-      </c>
-      <c r="F1" s="28" t="s">
-        <v>830</v>
-      </c>
-      <c r="G1" s="28" t="s">
-        <v>818</v>
-      </c>
-      <c r="H1" s="28" t="s">
-        <v>1</v>
-      </c>
-      <c r="I1" s="28" t="s">
-        <v>608</v>
-      </c>
-      <c r="J1" s="28" t="s">
-        <v>609</v>
-      </c>
-      <c r="K1" s="28" t="s">
-        <v>654</v>
-      </c>
-      <c r="L1" s="28" t="s">
-        <v>656</v>
-      </c>
-      <c r="M1" s="28" t="s">
-        <v>657</v>
-      </c>
-      <c r="N1" s="28" t="s">
-        <v>726</v>
-      </c>
-      <c r="O1" s="28" t="s">
-        <v>828</v>
-      </c>
-      <c r="P1" s="28" t="s">
-        <v>829</v>
-      </c>
-    </row>
-    <row r="2" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A2" s="28" t="s">
-        <v>1206</v>
-      </c>
-      <c r="B2">
-        <v>0</v>
-      </c>
-      <c r="C2" s="28">
-        <v>0</v>
-      </c>
-      <c r="H2" t="s">
-        <v>1207</v>
-      </c>
-      <c r="I2" s="28"/>
-      <c r="J2" s="28"/>
-      <c r="K2" s="28"/>
-      <c r="L2" s="28"/>
-      <c r="M2" s="28"/>
-      <c r="N2" s="28" t="s">
-        <v>1190</v>
-      </c>
-      <c r="O2" s="28">
-        <v>0.1</v>
-      </c>
-      <c r="P2" s="28">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="3" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A3" s="28" t="s">
-        <v>1057</v>
-      </c>
-      <c r="B3" s="28">
-        <v>0</v>
-      </c>
-      <c r="C3" s="28">
-        <v>0</v>
-      </c>
-      <c r="D3" s="28"/>
-      <c r="E3" s="28"/>
-      <c r="F3" s="28">
-        <v>-8</v>
-      </c>
-      <c r="G3" s="28">
-        <v>20</v>
-      </c>
-      <c r="H3" s="1" t="s">
-        <v>1205</v>
-      </c>
-      <c r="I3" s="28"/>
-      <c r="J3" s="28"/>
-      <c r="K3" s="28"/>
-      <c r="L3" s="28" t="s">
-        <v>667</v>
-      </c>
-      <c r="M3" s="28"/>
-      <c r="N3" s="28" t="s">
-        <v>1122</v>
-      </c>
-      <c r="O3" s="28">
-        <v>0.1</v>
-      </c>
-      <c r="P3" s="28">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="4" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A4" s="28" t="s">
-        <v>1255</v>
-      </c>
-      <c r="B4" s="28">
-        <v>0</v>
-      </c>
-      <c r="C4" s="28">
-        <v>3000</v>
-      </c>
-      <c r="D4" s="28"/>
-      <c r="E4" s="28"/>
-      <c r="F4" s="28">
-        <v>-8</v>
-      </c>
-      <c r="G4" s="28">
-        <v>20</v>
-      </c>
-      <c r="H4" s="28" t="s">
-        <v>1187</v>
-      </c>
-      <c r="I4" s="28"/>
-      <c r="J4" s="28"/>
-      <c r="K4" s="28"/>
-      <c r="L4" s="28" t="s">
-        <v>667</v>
-      </c>
-      <c r="M4" s="28"/>
-      <c r="N4" s="28" t="s">
-        <v>1121</v>
-      </c>
-      <c r="O4" s="28">
-        <v>0.1</v>
-      </c>
-      <c r="P4" s="28">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="5" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A5" s="28" t="s">
-        <v>1256</v>
-      </c>
-      <c r="B5" s="28">
-        <v>0</v>
-      </c>
-      <c r="C5" s="28">
-        <v>3000</v>
-      </c>
-      <c r="D5" s="28"/>
-      <c r="E5" s="28"/>
-      <c r="F5" s="28">
-        <v>-8</v>
-      </c>
-      <c r="G5" s="28">
-        <v>20</v>
-      </c>
-      <c r="H5" s="28" t="s">
-        <v>1188</v>
-      </c>
-      <c r="I5" s="28"/>
-      <c r="J5" s="28"/>
-      <c r="K5" s="28"/>
-      <c r="L5" s="28" t="s">
-        <v>667</v>
-      </c>
-      <c r="M5" s="28"/>
-      <c r="N5" s="28" t="s">
-        <v>1123</v>
-      </c>
-      <c r="O5" s="28">
-        <v>0.1</v>
-      </c>
-      <c r="P5" s="28">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="6" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A6" s="28" t="s">
-        <v>1257</v>
-      </c>
-      <c r="B6" s="28">
-        <v>0</v>
-      </c>
-      <c r="C6" s="28">
-        <v>3000</v>
-      </c>
-      <c r="D6" s="28"/>
-      <c r="E6" s="28"/>
-      <c r="F6" s="28">
-        <v>10</v>
-      </c>
-      <c r="G6" s="28">
-        <v>-40</v>
-      </c>
-      <c r="H6" s="28" t="s">
-        <v>1261</v>
-      </c>
-      <c r="I6" s="28"/>
-      <c r="J6" s="28"/>
-      <c r="K6" s="28"/>
-      <c r="L6" s="28" t="s">
-        <v>667</v>
-      </c>
-      <c r="M6" s="28"/>
-      <c r="N6" s="28" t="s">
-        <v>1125</v>
-      </c>
-      <c r="O6" s="28">
-        <v>0.1</v>
-      </c>
-      <c r="P6" s="28">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="7" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A7" s="28" t="s">
-        <v>1258</v>
-      </c>
-      <c r="B7" s="28">
-        <v>0</v>
-      </c>
-      <c r="C7" s="28">
-        <v>3000</v>
-      </c>
-      <c r="D7" s="28"/>
-      <c r="E7" s="28"/>
-      <c r="F7" s="28">
-        <v>-8</v>
-      </c>
-      <c r="G7" s="28">
-        <v>20</v>
-      </c>
-      <c r="H7" s="28" t="s">
-        <v>1191</v>
-      </c>
-      <c r="I7" s="28"/>
-      <c r="J7" s="28"/>
-      <c r="K7" s="28"/>
-      <c r="L7" s="28" t="s">
-        <v>667</v>
-      </c>
-      <c r="M7" s="28"/>
-      <c r="N7" s="28" t="s">
-        <v>1124</v>
-      </c>
-      <c r="O7" s="28">
-        <v>0.1</v>
-      </c>
-      <c r="P7" s="28">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="8" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A8" s="28" t="s">
-        <v>1259</v>
-      </c>
-      <c r="B8" s="28">
-        <v>0</v>
-      </c>
-      <c r="C8" s="28">
-        <v>3000</v>
-      </c>
-      <c r="D8" s="28"/>
-      <c r="E8" s="28"/>
-      <c r="F8" s="28">
-        <v>-8</v>
-      </c>
-      <c r="G8" s="28">
-        <v>20</v>
-      </c>
-      <c r="H8" s="28" t="s">
-        <v>1117</v>
-      </c>
-      <c r="I8" s="28"/>
-      <c r="J8" s="28"/>
-      <c r="K8" s="28"/>
-      <c r="L8" s="28" t="s">
-        <v>1077</v>
-      </c>
-      <c r="M8" s="28"/>
-      <c r="N8" s="28"/>
-      <c r="O8" s="28"/>
-      <c r="P8" s="28"/>
-    </row>
-    <row r="9" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A9" s="28" t="s">
-        <v>1260</v>
-      </c>
-      <c r="B9" s="28">
-        <v>0</v>
-      </c>
-      <c r="C9" s="28">
-        <v>3000</v>
-      </c>
-      <c r="D9" s="28"/>
-      <c r="E9" s="28"/>
-      <c r="F9" s="28">
-        <v>10</v>
-      </c>
-      <c r="G9" s="28">
-        <v>-10</v>
-      </c>
-      <c r="H9" s="28" t="s">
-        <v>1262</v>
-      </c>
-      <c r="I9" s="28"/>
-      <c r="J9" s="28"/>
-      <c r="K9" s="28"/>
-      <c r="L9" s="28"/>
-      <c r="M9" s="28"/>
-      <c r="N9" s="28"/>
-      <c r="O9" s="28"/>
-      <c r="P9" s="28"/>
-    </row>
-    <row r="10" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A10" s="28" t="s">
-        <v>1240</v>
-      </c>
-      <c r="B10" s="28">
-        <v>0</v>
-      </c>
-      <c r="C10" s="28">
-        <v>0</v>
-      </c>
-      <c r="D10" s="28"/>
-      <c r="E10" s="28"/>
-      <c r="F10" s="28">
-        <v>-0.5</v>
-      </c>
-      <c r="G10" s="28">
-        <v>5</v>
-      </c>
-      <c r="H10" s="28" t="s">
-        <v>1189</v>
-      </c>
-      <c r="I10" s="28"/>
-      <c r="J10" s="28"/>
-      <c r="K10" s="28"/>
-      <c r="L10" s="28"/>
-      <c r="M10" s="28"/>
-      <c r="N10" s="28"/>
-      <c r="O10" s="28"/>
-      <c r="P10" s="28"/>
-    </row>
-    <row r="11" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A11" s="28" t="s">
-        <v>1242</v>
-      </c>
-      <c r="B11" s="28">
-        <v>0</v>
-      </c>
-      <c r="C11" s="28">
-        <v>0</v>
-      </c>
-      <c r="D11" s="28"/>
-      <c r="E11" s="28"/>
-      <c r="F11" s="28">
-        <v>-0.5</v>
-      </c>
-      <c r="G11" s="28">
-        <v>2.5</v>
-      </c>
-      <c r="H11" s="28" t="s">
-        <v>1237</v>
-      </c>
-    </row>
-    <row r="12" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A12" t="s">
-        <v>1241</v>
-      </c>
-      <c r="B12">
-        <v>0</v>
-      </c>
-      <c r="C12" s="28">
-        <v>0</v>
-      </c>
-      <c r="F12">
-        <v>-0.5</v>
-      </c>
-      <c r="G12">
-        <v>0</v>
-      </c>
-      <c r="H12" t="s">
-        <v>1235</v>
-      </c>
-    </row>
-    <row r="13" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A13" s="28" t="s">
-        <v>1232</v>
-      </c>
-      <c r="B13">
-        <v>0</v>
-      </c>
-      <c r="C13" s="28">
-        <v>0</v>
-      </c>
-      <c r="F13">
-        <v>-0.5</v>
-      </c>
-      <c r="G13">
-        <v>0.33</v>
-      </c>
-      <c r="H13" t="s">
-        <v>1239</v>
-      </c>
-    </row>
-    <row r="14" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A14" s="28" t="s">
-        <v>1201</v>
-      </c>
-      <c r="B14" s="28">
-        <v>0</v>
-      </c>
-      <c r="C14" s="28">
-        <v>0</v>
-      </c>
-      <c r="D14" s="28"/>
-      <c r="E14" s="28"/>
-      <c r="F14" s="28">
-        <v>-0.5</v>
-      </c>
-      <c r="G14">
-        <v>0</v>
-      </c>
-      <c r="H14" t="s">
-        <v>1203</v>
-      </c>
-    </row>
-    <row r="15" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A15" t="s">
-        <v>1202</v>
-      </c>
-      <c r="B15" s="28">
-        <v>0</v>
-      </c>
-      <c r="C15" s="28">
-        <v>0</v>
-      </c>
-      <c r="D15" s="28"/>
-      <c r="E15" s="28"/>
-      <c r="F15" s="28">
-        <v>-0.5</v>
-      </c>
-      <c r="G15">
-        <v>0</v>
-      </c>
-      <c r="H15" t="s">
-        <v>1236</v>
-      </c>
-    </row>
-    <row r="16" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A16" s="28" t="s">
-        <v>1233</v>
-      </c>
-      <c r="B16">
-        <v>0</v>
-      </c>
-      <c r="C16" s="28">
-        <v>0</v>
-      </c>
-      <c r="H16" t="s">
-        <v>1234</v>
-      </c>
-    </row>
-    <row r="17" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A17" s="28" t="s">
-        <v>1204</v>
-      </c>
-      <c r="B17">
-        <v>0</v>
-      </c>
-      <c r="C17" s="28">
-        <v>0</v>
-      </c>
-      <c r="H17" t="s">
-        <v>1231</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId1"/>
-</worksheet>
 </file>
--- a/KineticModel/test.xlsx
+++ b/KineticModel/test.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="4665" windowWidth="16275" windowHeight="3180" firstSheet="2" activeTab="8"/>
+    <workbookView xWindow="240" yWindow="4725" windowWidth="16275" windowHeight="3120" firstSheet="2" activeTab="10"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -6223,14 +6223,14 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:P17"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D7" sqref="D7"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A14" sqref="A14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="14.42578125" customWidth="1"/>
-    <col min="6" max="6" width="16.5703125" customWidth="1"/>
+    <col min="6" max="6" width="12.85546875" customWidth="1"/>
     <col min="8" max="8" width="19" customWidth="1"/>
   </cols>
   <sheetData>
@@ -59591,7 +59591,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:P17"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="D10" sqref="D10"/>
     </sheetView>
   </sheetViews>

--- a/KineticModel/test.xlsx
+++ b/KineticModel/test.xlsx
@@ -6224,7 +6224,7 @@
   <dimension ref="A1:P17"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A14" sqref="A14"/>
+      <selection activeCell="G14" sqref="G14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -6672,7 +6672,7 @@
         <v>-0.5</v>
       </c>
       <c r="G14">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="H14" t="s">
         <v>1203</v>
@@ -6694,7 +6694,7 @@
         <v>-0.5</v>
       </c>
       <c r="G15">
-        <v>0</v>
+        <v>2.5</v>
       </c>
       <c r="H15" t="s">
         <v>1236</v>
